--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01 DOCUEMENTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,7 +114,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   33  DEL  09  Al    15  AGOSTO         2021</t>
+    <t>SEMANA   34  DEL  16  Al    22  AGOSTO         2021</t>
   </si>
 </sst>
 </file>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>0</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1049,7 +1049,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>2600</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   33  DEL  09  Al    15  AGOSTO         2021</v>
+        <v>SEMANA   34  DEL  16  Al    22  AGOSTO         2021</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44422</v>
+        <v>44429</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44422</v>
+        <v>44429</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1284,13 +1284,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   33  DEL  09  Al    15  AGOSTO         2021</v>
+        <v>SEMANA   34  DEL  16  Al    22  AGOSTO         2021</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   33  DEL  09  Al    15  AGOSTO         2021</v>
+        <v>SEMANA   34  DEL  16  Al    22  AGOSTO         2021</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44422</v>
+        <v>44429</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44422</v>
+        <v>44429</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1461,7 +1461,7 @@
         <v>24</v>
       </c>
       <c r="K40" s="41">
-        <v>1042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1476,7 +1476,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>3042</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1489,13 +1489,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   33  DEL  09  Al    15  AGOSTO         2021</v>
+        <v>SEMANA   34  DEL  16  Al    22  AGOSTO         2021</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   33  DEL  09  Al    15  AGOSTO         2021</v>
+        <v>SEMANA   34  DEL  16  Al    22  AGOSTO         2021</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44422</v>
+        <v>44429</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44422</v>
+        <v>44429</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1680,7 +1680,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   33  DEL  09  Al    15  AGOSTO         2021</v>
+        <v>SEMANA   34  DEL  16  Al    22  AGOSTO         2021</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44422</v>
+        <v>44429</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>RECIBO DE NOMINA</t>
   </si>
@@ -66,9 +66,6 @@
     <t xml:space="preserve">CLAUDIA PRIETO VARGAS </t>
   </si>
   <si>
-    <t>extra</t>
-  </si>
-  <si>
     <t># 5</t>
   </si>
   <si>
@@ -114,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   34  DEL  16  Al    22  AGOSTO         2021</t>
+    <t>SEMANA   35  DEL  23  Al    29  AGOSTO         2021</t>
   </si>
 </sst>
 </file>
@@ -944,7 +941,7 @@
   <dimension ref="B1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+      <selection activeCell="I61" sqref="I60:I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +998,7 @@
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="64"/>
@@ -1017,14 +1014,14 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="65"/>
       <c r="C5" s="66"/>
       <c r="D5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="15">
         <v>0</v>
@@ -1049,7 +1046,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>3467</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1072,13 +1069,13 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="24"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   34  DEL  16  Al    22  AGOSTO         2021</v>
+        <v>SEMANA   35  DEL  23  Al    29  AGOSTO         2021</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1132,16 +1129,16 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44429</v>
+        <v>44436</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
       <c r="H14" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44429</v>
+        <v>44436</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1199,10 +1196,10 @@
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
       <c r="J21" s="22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K21" s="30">
-        <v>0</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1210,7 +1207,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="46">
         <v>-161.65</v>
@@ -1219,9 +1216,7 @@
       <c r="H22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="J22" s="22"/>
       <c r="K22" s="31">
         <v>0</v>
       </c>
@@ -1229,7 +1224,7 @@
     <row r="23" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="D23" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="34">
         <v>-49.65</v>
@@ -1237,7 +1232,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="10"/>
       <c r="J23" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K23" s="17">
         <v>0</v>
@@ -1255,14 +1250,14 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>0</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" s="17">
         <v>0</v>
@@ -1284,13 +1279,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   34  DEL  16  Al    22  AGOSTO         2021</v>
+        <v>SEMANA   35  DEL  23  Al    29  AGOSTO         2021</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   34  DEL  16  Al    22  AGOSTO         2021</v>
+        <v>SEMANA   35  DEL  23  Al    29  AGOSTO         2021</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1344,7 +1339,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44429</v>
+        <v>44436</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1353,7 +1348,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44429</v>
+        <v>44436</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1374,7 +1369,7 @@
     <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G35" s="6"/>
       <c r="H35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="21" x14ac:dyDescent="0.35">
@@ -1409,7 +1404,7 @@
     </row>
     <row r="38" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" s="48"/>
       <c r="D38" s="22">
@@ -1421,7 +1416,7 @@
       <c r="F38" s="35"/>
       <c r="G38" s="6"/>
       <c r="H38" s="63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J38" s="22">
         <v>6</v>
@@ -1440,7 +1435,7 @@
       <c r="H39" s="75"/>
       <c r="I39" s="75"/>
       <c r="J39" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K39" s="45">
         <v>-500</v>
@@ -1458,10 +1453,10 @@
       <c r="H40" s="39"/>
       <c r="I40" s="40"/>
       <c r="J40" s="43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K40" s="41">
-        <v>0</v>
+        <v>833</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1476,7 +1471,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>2000</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1489,13 +1484,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   34  DEL  16  Al    22  AGOSTO         2021</v>
+        <v>SEMANA   35  DEL  23  Al    29  AGOSTO         2021</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   34  DEL  16  Al    22  AGOSTO         2021</v>
+        <v>SEMANA   35  DEL  23  Al    29  AGOSTO         2021</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1544,20 +1539,20 @@
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44429</v>
+        <v>44436</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
       <c r="H48" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44429</v>
+        <v>44436</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1612,7 +1607,7 @@
     </row>
     <row r="55" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C55" s="77"/>
       <c r="D55" s="22">
@@ -1644,7 +1639,7 @@
       <c r="B57" s="39"/>
       <c r="C57" s="40"/>
       <c r="D57" s="43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" s="41">
         <v>0</v>
@@ -1680,7 +1675,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   34  DEL  16  Al    22  AGOSTO         2021</v>
+        <v>SEMANA   35  DEL  23  Al    29  AGOSTO         2021</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1732,11 +1727,11 @@
     </row>
     <row r="65" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44429</v>
+        <v>44436</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   35  DEL  23  Al    29  AGOSTO         2021</t>
+    <t>SEMANA   37  DEL  06  Al    12 DE SEPTIEMBRE          2021</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I61" sqref="I60:I61"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1075,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   35  DEL  23  Al    29  AGOSTO         2021</v>
+        <v>SEMANA   37  DEL  06  Al    12 DE SEPTIEMBRE          2021</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44436</v>
+        <v>44450</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44436</v>
+        <v>44450</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,10 +1196,11 @@
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
       <c r="J21" s="22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K21" s="30">
-        <v>1680</v>
+        <f>280*J21</f>
+        <v>2240</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1250,7 +1251,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>1680</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1279,13 +1280,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   35  DEL  23  Al    29  AGOSTO         2021</v>
+        <v>SEMANA   37  DEL  06  Al    12 DE SEPTIEMBRE          2021</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   35  DEL  23  Al    29  AGOSTO         2021</v>
+        <v>SEMANA   37  DEL  06  Al    12 DE SEPTIEMBRE          2021</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1339,7 +1340,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44436</v>
+        <v>44450</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1348,7 +1349,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44436</v>
+        <v>44450</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1456,7 +1457,7 @@
         <v>23</v>
       </c>
       <c r="K40" s="41">
-        <v>833</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1471,7 +1472,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>2833</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1484,13 +1485,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   35  DEL  23  Al    29  AGOSTO         2021</v>
+        <v>SEMANA   37  DEL  06  Al    12 DE SEPTIEMBRE          2021</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   35  DEL  23  Al    29  AGOSTO         2021</v>
+        <v>SEMANA   37  DEL  06  Al    12 DE SEPTIEMBRE          2021</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1543,7 +1544,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44436</v>
+        <v>44450</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1552,7 +1553,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44436</v>
+        <v>44450</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1675,7 +1676,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   35  DEL  23  Al    29  AGOSTO         2021</v>
+        <v>SEMANA   37  DEL  06  Al    12 DE SEPTIEMBRE          2021</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1731,7 +1732,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44436</v>
+        <v>44450</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   37  DEL  06  Al    12 DE SEPTIEMBRE          2021</t>
+    <t>SEMANA   38  DEL  13      Al    19 DE SEPTIEMBRE          2021</t>
   </si>
 </sst>
 </file>
@@ -940,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
@@ -1014,7 +1014,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>0</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1046,7 +1046,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>2600</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   37  DEL  06  Al    12 DE SEPTIEMBRE          2021</v>
+        <v>SEMANA   38  DEL  13      Al    19 DE SEPTIEMBRE          2021</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44450</v>
+        <v>44457</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44450</v>
+        <v>44457</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1195,12 +1195,9 @@
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
-      <c r="J21" s="22">
-        <v>8</v>
-      </c>
+      <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <f>280*J21</f>
-        <v>2240</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1251,7 +1248,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>2240</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1280,13 +1277,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   37  DEL  06  Al    12 DE SEPTIEMBRE          2021</v>
+        <v>SEMANA   38  DEL  13      Al    19 DE SEPTIEMBRE          2021</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   37  DEL  06  Al    12 DE SEPTIEMBRE          2021</v>
+        <v>SEMANA   38  DEL  13      Al    19 DE SEPTIEMBRE          2021</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1340,7 +1337,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44450</v>
+        <v>44457</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1349,7 +1346,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44450</v>
+        <v>44457</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1457,7 +1454,7 @@
         <v>23</v>
       </c>
       <c r="K40" s="41">
-        <v>1250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1472,7 +1469,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>3250</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1485,13 +1482,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   37  DEL  06  Al    12 DE SEPTIEMBRE          2021</v>
+        <v>SEMANA   38  DEL  13      Al    19 DE SEPTIEMBRE          2021</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   37  DEL  06  Al    12 DE SEPTIEMBRE          2021</v>
+        <v>SEMANA   38  DEL  13      Al    19 DE SEPTIEMBRE          2021</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1544,7 +1541,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44450</v>
+        <v>44457</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1553,7 +1550,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44450</v>
+        <v>44457</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1676,7 +1673,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   37  DEL  06  Al    12 DE SEPTIEMBRE          2021</v>
+        <v>SEMANA   38  DEL  13      Al    19 DE SEPTIEMBRE          2021</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1732,7 +1729,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44450</v>
+        <v>44457</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   38  DEL  13      Al    19 DE SEPTIEMBRE          2021</t>
+    <t>SEMANA   39  DEL  20      Al    26   DE SEPTIEMBRE          2021</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1075,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   38  DEL  13      Al    19 DE SEPTIEMBRE          2021</v>
+        <v>SEMANA   39  DEL  20      Al    26   DE SEPTIEMBRE          2021</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44457</v>
+        <v>44463</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44457</v>
+        <v>44463</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1277,13 +1277,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   38  DEL  13      Al    19 DE SEPTIEMBRE          2021</v>
+        <v>SEMANA   39  DEL  20      Al    26   DE SEPTIEMBRE          2021</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   38  DEL  13      Al    19 DE SEPTIEMBRE          2021</v>
+        <v>SEMANA   39  DEL  20      Al    26   DE SEPTIEMBRE          2021</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44457</v>
+        <v>44463</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44457</v>
+        <v>44463</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1482,13 +1482,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   38  DEL  13      Al    19 DE SEPTIEMBRE          2021</v>
+        <v>SEMANA   39  DEL  20      Al    26   DE SEPTIEMBRE          2021</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   38  DEL  13      Al    19 DE SEPTIEMBRE          2021</v>
+        <v>SEMANA   39  DEL  20      Al    26   DE SEPTIEMBRE          2021</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44457</v>
+        <v>44463</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44457</v>
+        <v>44463</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1673,7 +1673,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   38  DEL  13      Al    19 DE SEPTIEMBRE          2021</v>
+        <v>SEMANA   39  DEL  20      Al    26   DE SEPTIEMBRE          2021</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44457</v>
+        <v>44463</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1014,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1046,7 +1046,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>3467</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44463</v>
+        <v>44464</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44463</v>
+        <v>44464</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1197,7 +1197,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>2800</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1248,7 +1248,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>2800</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44463</v>
+        <v>44464</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44463</v>
+        <v>44464</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1454,7 +1454,7 @@
         <v>23</v>
       </c>
       <c r="K40" s="41">
-        <v>0</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1469,7 +1469,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>2000</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44463</v>
+        <v>44464</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44463</v>
+        <v>44464</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44463</v>
+        <v>44464</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   39  DEL  20      Al    26   DE SEPTIEMBRE          2021</t>
+    <t>SEMANA   40  DEL    27      Al    03   DE   OCTUBRE          2021</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,11 +989,10 @@
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
       <c r="J3" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" s="30">
-        <f>433.34*J3-0.04</f>
-        <v>2600</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1014,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>0</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1046,7 +1045,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>2600</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1075,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   39  DEL  20      Al    26   DE SEPTIEMBRE          2021</v>
+        <v>SEMANA   40  DEL    27      Al    03   DE   OCTUBRE          2021</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1129,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44464</v>
+        <v>44470</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1138,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44464</v>
+        <v>44470</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1197,7 +1196,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>3360</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1248,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>3360</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1277,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   39  DEL  20      Al    26   DE SEPTIEMBRE          2021</v>
+        <v>SEMANA   40  DEL    27      Al    03   DE   OCTUBRE          2021</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   39  DEL  20      Al    26   DE SEPTIEMBRE          2021</v>
+        <v>SEMANA   40  DEL    27      Al    03   DE   OCTUBRE          2021</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1337,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44464</v>
+        <v>44470</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1346,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44464</v>
+        <v>44470</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1454,7 +1453,7 @@
         <v>23</v>
       </c>
       <c r="K40" s="41">
-        <v>1250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1469,7 +1468,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>3250</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1482,13 +1481,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   39  DEL  20      Al    26   DE SEPTIEMBRE          2021</v>
+        <v>SEMANA   40  DEL    27      Al    03   DE   OCTUBRE          2021</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   39  DEL  20      Al    26   DE SEPTIEMBRE          2021</v>
+        <v>SEMANA   40  DEL    27      Al    03   DE   OCTUBRE          2021</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1541,7 +1540,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44464</v>
+        <v>44470</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1550,7 +1549,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44464</v>
+        <v>44470</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1673,7 +1672,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   39  DEL  20      Al    26   DE SEPTIEMBRE          2021</v>
+        <v>SEMANA   40  DEL    27      Al    03   DE   OCTUBRE          2021</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1729,7 +1728,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44464</v>
+        <v>44470</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   40  DEL    27      Al    03   DE   OCTUBRE          2021</t>
+    <t>SEMANA   41  DEL    04      Al    10   DE   OCTUBRE          2021</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>3033</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   40  DEL    27      Al    03   DE   OCTUBRE          2021</v>
+        <v>SEMANA   41  DEL    04      Al    10   DE   OCTUBRE          2021</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44470</v>
+        <v>44477</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44470</v>
+        <v>44477</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,7 +1196,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>4200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>4200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   40  DEL    27      Al    03   DE   OCTUBRE          2021</v>
+        <v>SEMANA   41  DEL    04      Al    10   DE   OCTUBRE          2021</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   40  DEL    27      Al    03   DE   OCTUBRE          2021</v>
+        <v>SEMANA   41  DEL    04      Al    10   DE   OCTUBRE          2021</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44470</v>
+        <v>44477</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44470</v>
+        <v>44477</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1481,13 +1481,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   40  DEL    27      Al    03   DE   OCTUBRE          2021</v>
+        <v>SEMANA   41  DEL    04      Al    10   DE   OCTUBRE          2021</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   40  DEL    27      Al    03   DE   OCTUBRE          2021</v>
+        <v>SEMANA   41  DEL    04      Al    10   DE   OCTUBRE          2021</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44470</v>
+        <v>44477</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44470</v>
+        <v>44477</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1672,7 +1672,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   40  DEL    27      Al    03   DE   OCTUBRE          2021</v>
+        <v>SEMANA   41  DEL    04      Al    10   DE   OCTUBRE          2021</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44470</v>
+        <v>44477</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,10 +989,10 @@
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
       <c r="J3" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" s="30">
-        <v>2166</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>0</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>2166</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44477</v>
+        <v>44478</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44477</v>
+        <v>44478</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,7 +1196,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>0</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>0</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44477</v>
+        <v>44478</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44477</v>
+        <v>44478</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1453,7 +1453,7 @@
         <v>23</v>
       </c>
       <c r="K40" s="41">
-        <v>0</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1468,7 +1468,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>2000</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44477</v>
+        <v>44478</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44477</v>
+        <v>44478</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44477</v>
+        <v>44478</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   41  DEL    04      Al    10   DE   OCTUBRE          2021</t>
+    <t>SEMANA   42  DEL    11      Al    17   DE   OCTUBRE          2021</t>
   </si>
 </sst>
 </file>
@@ -940,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>433</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>3033</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   41  DEL    04      Al    10   DE   OCTUBRE          2021</v>
+        <v>SEMANA   42  DEL    11      Al    17   DE   OCTUBRE          2021</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44478</v>
+        <v>44485</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44478</v>
+        <v>44485</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,7 +1196,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>3080</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>3080</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   41  DEL    04      Al    10   DE   OCTUBRE          2021</v>
+        <v>SEMANA   42  DEL    11      Al    17   DE   OCTUBRE          2021</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   41  DEL    04      Al    10   DE   OCTUBRE          2021</v>
+        <v>SEMANA   42  DEL    11      Al    17   DE   OCTUBRE          2021</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44478</v>
+        <v>44485</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44478</v>
+        <v>44485</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1453,7 +1453,7 @@
         <v>23</v>
       </c>
       <c r="K40" s="41">
-        <v>1250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1468,7 +1468,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>3250</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1481,13 +1481,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   41  DEL    04      Al    10   DE   OCTUBRE          2021</v>
+        <v>SEMANA   42  DEL    11      Al    17   DE   OCTUBRE          2021</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   41  DEL    04      Al    10   DE   OCTUBRE          2021</v>
+        <v>SEMANA   42  DEL    11      Al    17   DE   OCTUBRE          2021</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44478</v>
+        <v>44485</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44478</v>
+        <v>44485</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1672,7 +1672,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   41  DEL    04      Al    10   DE   OCTUBRE          2021</v>
+        <v>SEMANA   42  DEL    11      Al    17   DE   OCTUBRE          2021</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44478</v>
+        <v>44485</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   42  DEL    11      Al    17   DE   OCTUBRE          2021</t>
+    <t>SEMANA   43  DEL    18      Al    24   DE   OCTUBRE          2021</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H61" sqref="H60:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>1300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>3900</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   42  DEL    11      Al    17   DE   OCTUBRE          2021</v>
+        <v>SEMANA   43  DEL    18      Al    24   DE   OCTUBRE          2021</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44485</v>
+        <v>44492</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44485</v>
+        <v>44492</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,7 +1196,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>2660</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>2660</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   42  DEL    11      Al    17   DE   OCTUBRE          2021</v>
+        <v>SEMANA   43  DEL    18      Al    24   DE   OCTUBRE          2021</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   42  DEL    11      Al    17   DE   OCTUBRE          2021</v>
+        <v>SEMANA   43  DEL    18      Al    24   DE   OCTUBRE          2021</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44485</v>
+        <v>44492</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44485</v>
+        <v>44492</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1435,7 +1435,7 @@
         <v>26</v>
       </c>
       <c r="K39" s="45">
-        <v>-500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1453,7 +1453,7 @@
         <v>23</v>
       </c>
       <c r="K40" s="41">
-        <v>0</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1468,7 +1468,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>2000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1481,13 +1481,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   42  DEL    11      Al    17   DE   OCTUBRE          2021</v>
+        <v>SEMANA   43  DEL    18      Al    24   DE   OCTUBRE          2021</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   42  DEL    11      Al    17   DE   OCTUBRE          2021</v>
+        <v>SEMANA   43  DEL    18      Al    24   DE   OCTUBRE          2021</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44485</v>
+        <v>44492</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44485</v>
+        <v>44492</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1672,7 +1672,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   42  DEL    11      Al    17   DE   OCTUBRE          2021</v>
+        <v>SEMANA   43  DEL    18      Al    24   DE   OCTUBRE          2021</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44485</v>
+        <v>44492</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   43  DEL    18      Al    24   DE   OCTUBRE          2021</t>
+    <t>SEMANA   44  DEL    25      Al    31   DE   OCTUBRE          2021</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H61" sqref="H60:H61"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K18" sqref="K17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   43  DEL    18      Al    24   DE   OCTUBRE          2021</v>
+        <v>SEMANA   44  DEL    25      Al    31   DE   OCTUBRE          2021</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44492</v>
+        <v>44498</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44492</v>
+        <v>44498</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   43  DEL    18      Al    24   DE   OCTUBRE          2021</v>
+        <v>SEMANA   44  DEL    25      Al    31   DE   OCTUBRE          2021</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   43  DEL    18      Al    24   DE   OCTUBRE          2021</v>
+        <v>SEMANA   44  DEL    25      Al    31   DE   OCTUBRE          2021</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44492</v>
+        <v>44498</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44492</v>
+        <v>44498</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1481,13 +1481,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   43  DEL    18      Al    24   DE   OCTUBRE          2021</v>
+        <v>SEMANA   44  DEL    25      Al    31   DE   OCTUBRE          2021</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   43  DEL    18      Al    24   DE   OCTUBRE          2021</v>
+        <v>SEMANA   44  DEL    25      Al    31   DE   OCTUBRE          2021</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44492</v>
+        <v>44498</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44492</v>
+        <v>44498</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1672,7 +1672,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   43  DEL    18      Al    24   DE   OCTUBRE          2021</v>
+        <v>SEMANA   44  DEL    25      Al    31   DE   OCTUBRE          2021</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44492</v>
+        <v>44498</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K18" sqref="K17:K18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>0</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>2600</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,7 +1196,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>2800</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>2800</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1453,7 +1453,7 @@
         <v>23</v>
       </c>
       <c r="K40" s="41">
-        <v>1250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1468,7 +1468,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>3750</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   44  DEL    25      Al    31   DE   OCTUBRE          2021</t>
+    <t>SEMANA   45  DEL    01      Al    07   DE   OCTUBRE          2021</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   44  DEL    25      Al    31   DE   OCTUBRE          2021</v>
+        <v>SEMANA   45  DEL    01      Al    07   DE   OCTUBRE          2021</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44499</v>
+        <v>44505</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44499</v>
+        <v>44505</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   44  DEL    25      Al    31   DE   OCTUBRE          2021</v>
+        <v>SEMANA   45  DEL    01      Al    07   DE   OCTUBRE          2021</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   44  DEL    25      Al    31   DE   OCTUBRE          2021</v>
+        <v>SEMANA   45  DEL    01      Al    07   DE   OCTUBRE          2021</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44499</v>
+        <v>44505</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44499</v>
+        <v>44505</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1481,13 +1481,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   44  DEL    25      Al    31   DE   OCTUBRE          2021</v>
+        <v>SEMANA   45  DEL    01      Al    07   DE   OCTUBRE          2021</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   44  DEL    25      Al    31   DE   OCTUBRE          2021</v>
+        <v>SEMANA   45  DEL    01      Al    07   DE   OCTUBRE          2021</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44499</v>
+        <v>44505</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44499</v>
+        <v>44505</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1672,7 +1672,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   44  DEL    25      Al    31   DE   OCTUBRE          2021</v>
+        <v>SEMANA   45  DEL    01      Al    07   DE   OCTUBRE          2021</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44499</v>
+        <v>44505</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   45  DEL    01      Al    07   DE   OCTUBRE          2021</t>
+    <t>SEMANA   45  DEL    01      Al    07   DE   NOVIEMBRE          2021</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>1300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>3900</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   45  DEL    01      Al    07   DE   OCTUBRE          2021</v>
+        <v>SEMANA   45  DEL    01      Al    07   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,7 +1196,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>2380</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>2380</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   45  DEL    01      Al    07   DE   OCTUBRE          2021</v>
+        <v>SEMANA   45  DEL    01      Al    07   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   45  DEL    01      Al    07   DE   OCTUBRE          2021</v>
+        <v>SEMANA   45  DEL    01      Al    07   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1405,10 +1405,10 @@
       </c>
       <c r="C38" s="48"/>
       <c r="D38" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E38" s="30">
-        <v>2200</v>
+        <v>1467</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="6"/>
@@ -1435,7 +1435,7 @@
         <v>26</v>
       </c>
       <c r="K39" s="45">
-        <v>0</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1461,14 +1461,14 @@
       <c r="C41" s="40"/>
       <c r="E41" s="23">
         <f>SUM(E38:E40)</f>
-        <v>2200</v>
+        <v>1467</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="39"/>
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1481,13 +1481,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   45  DEL    01      Al    07   DE   OCTUBRE          2021</v>
+        <v>SEMANA   45  DEL    01      Al    07   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   45  DEL    01      Al    07   DE   OCTUBRE          2021</v>
+        <v>SEMANA   45  DEL    01      Al    07   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1672,7 +1672,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   45  DEL    01      Al    07   DE   OCTUBRE          2021</v>
+        <v>SEMANA   45  DEL    01      Al    07   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   45  DEL    01      Al    07   DE   NOVIEMBRE          2021</t>
+    <t>SEMANA   46  DEL    08      Al    14   DE   NOVIEMBRE          2021</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   45  DEL    01      Al    07   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   46  DEL    08      Al    14   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44506</v>
+        <v>44512</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44506</v>
+        <v>44512</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,7 +1196,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>2240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>2240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   45  DEL    01      Al    07   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   46  DEL    08      Al    14   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   45  DEL    01      Al    07   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   46  DEL    08      Al    14   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44506</v>
+        <v>44512</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44506</v>
+        <v>44512</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1405,10 +1405,10 @@
       </c>
       <c r="C38" s="48"/>
       <c r="D38" s="22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E38" s="30">
-        <v>1467</v>
+        <v>0</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="6"/>
@@ -1461,7 +1461,7 @@
       <c r="C41" s="40"/>
       <c r="E41" s="23">
         <f>SUM(E38:E40)</f>
-        <v>1467</v>
+        <v>0</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="39"/>
@@ -1481,13 +1481,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   45  DEL    01      Al    07   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   46  DEL    08      Al    14   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   45  DEL    01      Al    07   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   46  DEL    08      Al    14   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44506</v>
+        <v>44512</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44506</v>
+        <v>44512</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1672,7 +1672,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   45  DEL    01      Al    07   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   46  DEL    08      Al    14   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44506</v>
+        <v>44512</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>RECIBO DE NOMINA</t>
   </si>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>0</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>2600</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,7 +1196,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>0</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>0</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1408,7 +1408,7 @@
         <v>6</v>
       </c>
       <c r="E38" s="30">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="6"/>
@@ -1431,11 +1431,9 @@
       <c r="G39" s="6"/>
       <c r="H39" s="75"/>
       <c r="I39" s="75"/>
-      <c r="J39" s="47" t="s">
-        <v>26</v>
-      </c>
+      <c r="J39" s="47"/>
       <c r="K39" s="45">
-        <v>1250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1461,14 +1459,14 @@
       <c r="C41" s="40"/>
       <c r="E41" s="23">
         <f>SUM(E38:E40)</f>
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="39"/>
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>3750</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1540,7 +1538,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1549,7 +1547,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1728,7 +1726,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   46  DEL    08      Al    14   DE   NOVIEMBRE          2021</t>
+    <t>SEMANA   47  DEL    15      Al    21   DE   NOVIEMBRE          2021</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>1300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>3900</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   46  DEL    08      Al    14   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   47  DEL    15      Al    21   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44513</v>
+        <v>44520</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44513</v>
+        <v>44520</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,7 +1196,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>3080</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>3080</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   46  DEL    08      Al    14   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   47  DEL    15      Al    21   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   46  DEL    08      Al    14   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   47  DEL    15      Al    21   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44513</v>
+        <v>44520</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44513</v>
+        <v>44520</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1433,7 +1433,7 @@
       <c r="I39" s="75"/>
       <c r="J39" s="47"/>
       <c r="K39" s="45">
-        <v>0</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1466,7 +1466,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1479,13 +1479,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   46  DEL    08      Al    14   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   47  DEL    15      Al    21   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   46  DEL    08      Al    14   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   47  DEL    15      Al    21   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44513</v>
+        <v>44520</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44513</v>
+        <v>44520</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1670,7 +1670,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   46  DEL    08      Al    14   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   47  DEL    15      Al    21   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44513</v>
+        <v>44520</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   47  DEL    15      Al    21   DE   NOVIEMBRE          2021</t>
+    <t>SEMANA   48  DEL    22      Al    28   DE   NOVIEMBRE          2021</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   47  DEL    15      Al    21   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   48  DEL    22      Al    28   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44520</v>
+        <v>44526</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44520</v>
+        <v>44526</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   47  DEL    15      Al    21   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   48  DEL    22      Al    28   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   47  DEL    15      Al    21   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   48  DEL    22      Al    28   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44520</v>
+        <v>44526</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44520</v>
+        <v>44526</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1479,13 +1479,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   47  DEL    15      Al    21   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   48  DEL    22      Al    28   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   47  DEL    15      Al    21   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   48  DEL    22      Al    28   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44520</v>
+        <v>44526</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44520</v>
+        <v>44526</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1670,7 +1670,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   47  DEL    15      Al    21   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   48  DEL    22      Al    28   DE   NOVIEMBRE          2021</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44520</v>
+        <v>44526</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>0</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>2600</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44526</v>
+        <v>44527</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44526</v>
+        <v>44527</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,7 +1196,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>1806</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>1806</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44526</v>
+        <v>44527</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44526</v>
+        <v>44527</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1433,7 +1433,7 @@
       <c r="I39" s="75"/>
       <c r="J39" s="47"/>
       <c r="K39" s="45">
-        <v>1250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1466,7 +1466,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>3750</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44526</v>
+        <v>44527</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44526</v>
+        <v>44527</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44526</v>
+        <v>44527</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   48  DEL    22      Al    28   DE   NOVIEMBRE          2021</t>
+    <t>SEMANA   49  DEL    29      Al   05   DE   DICIEMBRE          2021</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,10 +989,10 @@
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
       <c r="J3" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" s="30">
-        <v>2600</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>3467</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   48  DEL    22      Al    28   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   49  DEL    29      Al   05   DE   DICIEMBRE          2021</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44527</v>
+        <v>44534</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44527</v>
+        <v>44534</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   48  DEL    22      Al    28   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   49  DEL    29      Al   05   DE   DICIEMBRE          2021</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   48  DEL    22      Al    28   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   49  DEL    29      Al   05   DE   DICIEMBRE          2021</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44527</v>
+        <v>44534</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44527</v>
+        <v>44534</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1405,10 +1405,10 @@
       </c>
       <c r="C38" s="48"/>
       <c r="D38" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E38" s="30">
-        <v>2200</v>
+        <v>1833</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="6"/>
@@ -1433,7 +1433,7 @@
       <c r="I39" s="75"/>
       <c r="J39" s="47"/>
       <c r="K39" s="45">
-        <v>0</v>
+        <v>833</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1459,14 +1459,14 @@
       <c r="C41" s="40"/>
       <c r="E41" s="23">
         <f>SUM(E38:E40)</f>
-        <v>2200</v>
+        <v>1833</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="39"/>
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>2500</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1479,13 +1479,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   48  DEL    22      Al    28   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   49  DEL    29      Al   05   DE   DICIEMBRE          2021</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   48  DEL    22      Al    28   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   49  DEL    29      Al   05   DE   DICIEMBRE          2021</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44527</v>
+        <v>44534</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44527</v>
+        <v>44534</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1670,7 +1670,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   48  DEL    22      Al    28   DE   NOVIEMBRE          2021</v>
+        <v>SEMANA   49  DEL    29      Al   05   DE   DICIEMBRE          2021</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44527</v>
+        <v>44534</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   49  DEL    29      Al   05   DE   DICIEMBRE          2021</t>
+    <t>SEMANA   50  DEL    06      Al   12   DE   DICIEMBRE          2021</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   49  DEL    29      Al   05   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   50  DEL    06      Al   12   DE   DICIEMBRE          2021</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44534</v>
+        <v>44540</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44534</v>
+        <v>44540</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   49  DEL    29      Al   05   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   50  DEL    06      Al   12   DE   DICIEMBRE          2021</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   49  DEL    29      Al   05   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   50  DEL    06      Al   12   DE   DICIEMBRE          2021</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44534</v>
+        <v>44540</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44534</v>
+        <v>44540</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1479,13 +1479,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   49  DEL    29      Al   05   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   50  DEL    06      Al   12   DE   DICIEMBRE          2021</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   49  DEL    29      Al   05   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   50  DEL    06      Al   12   DE   DICIEMBRE          2021</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44534</v>
+        <v>44540</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44534</v>
+        <v>44540</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1670,7 +1670,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   49  DEL    29      Al   05   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   50  DEL    06      Al   12   DE   DICIEMBRE          2021</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44534</v>
+        <v>44540</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,10 +989,10 @@
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
       <c r="J3" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" s="30">
-        <v>2167</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>0</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>2167</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44540</v>
+        <v>44541</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44540</v>
+        <v>44541</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44540</v>
+        <v>44541</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44540</v>
+        <v>44541</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1405,10 +1405,10 @@
       </c>
       <c r="C38" s="48"/>
       <c r="D38" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38" s="30">
-        <v>1833</v>
+        <v>2200</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="6"/>
@@ -1433,7 +1433,7 @@
       <c r="I39" s="75"/>
       <c r="J39" s="47"/>
       <c r="K39" s="45">
-        <v>833</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1459,14 +1459,14 @@
       <c r="C41" s="40"/>
       <c r="E41" s="23">
         <f>SUM(E38:E40)</f>
-        <v>1833</v>
+        <v>2200</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="39"/>
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>3333</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44540</v>
+        <v>44541</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44540</v>
+        <v>44541</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44540</v>
+        <v>44541</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   50  DEL    06      Al   12   DE   DICIEMBRE          2021</t>
+    <t>SEMANA   51  DEL    13      Al   19   DE   DICIEMBRE          2021</t>
   </si>
 </sst>
 </file>
@@ -941,7 +941,7 @@
   <dimension ref="B1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>433</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>3033</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   50  DEL    06      Al   12   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   51  DEL    13      Al   19   DE   DICIEMBRE          2021</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44541</v>
+        <v>44548</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44541</v>
+        <v>44548</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,7 +1196,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>2520</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>2520</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   50  DEL    06      Al   12   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   51  DEL    13      Al   19   DE   DICIEMBRE          2021</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   50  DEL    06      Al   12   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   51  DEL    13      Al   19   DE   DICIEMBRE          2021</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44541</v>
+        <v>44548</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44541</v>
+        <v>44548</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1433,7 +1433,7 @@
       <c r="I39" s="75"/>
       <c r="J39" s="47"/>
       <c r="K39" s="45">
-        <v>1250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1466,7 +1466,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>3750</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1479,13 +1479,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   50  DEL    06      Al   12   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   51  DEL    13      Al   19   DE   DICIEMBRE          2021</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   50  DEL    06      Al   12   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   51  DEL    13      Al   19   DE   DICIEMBRE          2021</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44541</v>
+        <v>44548</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44541</v>
+        <v>44548</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1670,7 +1670,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   50  DEL    06      Al   12   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   51  DEL    13      Al   19   DE   DICIEMBRE          2021</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44541</v>
+        <v>44548</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   51  DEL    13      Al   19   DE   DICIEMBRE          2021</t>
+    <t>SEMANA   52  DEL    20      Al   26   DE   DICIEMBRE          2021</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,10 +981,10 @@
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="D3" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="9">
-        <v>2200</v>
+        <v>1467</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>1300</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,14 +1045,14 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>3900</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="E7" s="15">
         <f>SUM(E3:E6)</f>
-        <v>2200</v>
+        <v>1467</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="6"/>
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   51  DEL    13      Al   19   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   52  DEL    20      Al   26   DE   DICIEMBRE          2021</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44548</v>
+        <v>44554</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44548</v>
+        <v>44554</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,7 +1196,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>3080</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>3080</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   51  DEL    13      Al   19   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   52  DEL    20      Al   26   DE   DICIEMBRE          2021</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   51  DEL    13      Al   19   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   52  DEL    20      Al   26   DE   DICIEMBRE          2021</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44548</v>
+        <v>44554</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44548</v>
+        <v>44554</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1431,9 +1431,11 @@
       <c r="G39" s="6"/>
       <c r="H39" s="75"/>
       <c r="I39" s="75"/>
-      <c r="J39" s="47"/>
+      <c r="J39" s="47">
+        <v>3</v>
+      </c>
       <c r="K39" s="45">
-        <v>0</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1466,7 +1468,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1479,13 +1481,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   51  DEL    13      Al   19   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   52  DEL    20      Al   26   DE   DICIEMBRE          2021</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   51  DEL    13      Al   19   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   52  DEL    20      Al   26   DE   DICIEMBRE          2021</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1538,7 +1540,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44548</v>
+        <v>44554</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1547,7 +1549,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44548</v>
+        <v>44554</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1670,7 +1672,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   51  DEL    13      Al   19   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   52  DEL    20      Al   26   DE   DICIEMBRE          2021</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1726,7 +1728,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44548</v>
+        <v>44554</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   52  DEL    20      Al   26   DE   DICIEMBRE          2021</t>
+    <t>SEMANA   53  DEL    27      Al   02   DE   E N E R O          202</t>
   </si>
 </sst>
 </file>
@@ -941,7 +941,7 @@
   <dimension ref="B1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,10 +981,10 @@
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="D3" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" s="9">
-        <v>1467</v>
+        <v>2200</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,14 +1045,14 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>3467</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="E7" s="15">
         <f>SUM(E3:E6)</f>
-        <v>1467</v>
+        <v>2200</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="6"/>
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   52  DEL    20      Al   26   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   53  DEL    27      Al   02   DE   E N E R O          202</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44554</v>
+        <v>44561</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44554</v>
+        <v>44561</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,7 +1196,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>560</v>
+        <v>840</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>560</v>
+        <v>840</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   52  DEL    20      Al   26   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   53  DEL    27      Al   02   DE   E N E R O          202</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   52  DEL    20      Al   26   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   53  DEL    27      Al   02   DE   E N E R O          202</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44554</v>
+        <v>44561</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44554</v>
+        <v>44561</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1435,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="K39" s="45">
-        <v>1250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1468,7 +1468,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>3750</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1481,13 +1481,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   52  DEL    20      Al   26   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   53  DEL    27      Al   02   DE   E N E R O          202</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   52  DEL    20      Al   26   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   53  DEL    27      Al   02   DE   E N E R O          202</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44554</v>
+        <v>44561</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44554</v>
+        <v>44561</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1672,7 +1672,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   52  DEL    20      Al   26   DE   DICIEMBRE          2021</v>
+        <v>SEMANA   53  DEL    27      Al   02   DE   E N E R O          202</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44554</v>
+        <v>44561</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   53  DEL    27      Al   02   DE   E N E R O          202</t>
+    <t>SEMANA   01  DEL    03      Al   09   DE   E N E R O          202</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   53  DEL    27      Al   02   DE   E N E R O          202</v>
+        <v>SEMANA   01  DEL    03      Al   09   DE   E N E R O          202</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44561</v>
+        <v>44568</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44561</v>
+        <v>44568</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   53  DEL    27      Al   02   DE   E N E R O          202</v>
+        <v>SEMANA   01  DEL    03      Al   09   DE   E N E R O          202</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   53  DEL    27      Al   02   DE   E N E R O          202</v>
+        <v>SEMANA   01  DEL    03      Al   09   DE   E N E R O          202</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44561</v>
+        <v>44568</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44561</v>
+        <v>44568</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1481,13 +1481,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   53  DEL    27      Al   02   DE   E N E R O          202</v>
+        <v>SEMANA   01  DEL    03      Al   09   DE   E N E R O          202</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   53  DEL    27      Al   02   DE   E N E R O          202</v>
+        <v>SEMANA   01  DEL    03      Al   09   DE   E N E R O          202</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44561</v>
+        <v>44568</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44561</v>
+        <v>44568</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1672,7 +1672,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   53  DEL    27      Al   02   DE   E N E R O          202</v>
+        <v>SEMANA   01  DEL    03      Al   09   DE   E N E R O          202</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44561</v>
+        <v>44568</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,10 +981,10 @@
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="D3" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="9">
-        <v>2200</v>
+        <v>1833</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>0</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,14 +1045,14 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>2600</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="E7" s="15">
         <f>SUM(E3:E6)</f>
-        <v>2200</v>
+        <v>1833</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="6"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44568</v>
+        <v>44569</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44568</v>
+        <v>44569</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,7 +1196,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>840</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>840</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44568</v>
+        <v>44569</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44568</v>
+        <v>44569</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1435,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="K39" s="45">
-        <v>0</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1468,7 +1468,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44568</v>
+        <v>44569</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44568</v>
+        <v>44569</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44568</v>
+        <v>44569</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   01  DEL    03      Al   09   DE   E N E R O          202</t>
+    <t>SEMANA   02  DEL    10      Al   16   DE   E N E R O          202</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   01  DEL    03      Al   09   DE   E N E R O          202</v>
+        <v>SEMANA   02  DEL    10      Al   16   DE   E N E R O          202</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44569</v>
+        <v>44575</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44569</v>
+        <v>44575</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   01  DEL    03      Al   09   DE   E N E R O          202</v>
+        <v>SEMANA   02  DEL    10      Al   16   DE   E N E R O          202</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   01  DEL    03      Al   09   DE   E N E R O          202</v>
+        <v>SEMANA   02  DEL    10      Al   16   DE   E N E R O          202</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44569</v>
+        <v>44575</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44569</v>
+        <v>44575</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1481,13 +1481,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   01  DEL    03      Al   09   DE   E N E R O          202</v>
+        <v>SEMANA   02  DEL    10      Al   16   DE   E N E R O          202</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   01  DEL    03      Al   09   DE   E N E R O          202</v>
+        <v>SEMANA   02  DEL    10      Al   16   DE   E N E R O          202</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44569</v>
+        <v>44575</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44569</v>
+        <v>44575</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1672,7 +1672,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   01  DEL    03      Al   09   DE   E N E R O          202</v>
+        <v>SEMANA   02  DEL    10      Al   16   DE   E N E R O          202</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44569</v>
+        <v>44575</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>433</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>3033</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1189,14 +1189,14 @@
         <v>5</v>
       </c>
       <c r="E21" s="23">
-        <f>460*D21</f>
-        <v>2300</v>
+        <f>500*D21</f>
+        <v>2500</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>2380</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>2380</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1267,7 +1267,7 @@
       <c r="B26" s="7"/>
       <c r="E26" s="23">
         <f>SUM(E21:E25)</f>
-        <v>1920.3199999999997</v>
+        <v>2120.3199999999997</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1435,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="K39" s="45">
-        <v>1250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1468,7 +1468,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>3750</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   02  DEL    10      Al   16   DE   E N E R O          202</t>
+    <t>SEMANA   03  DEL    17      Al   23   DE   E N E R O          202</t>
   </si>
 </sst>
 </file>
@@ -941,7 +941,7 @@
   <dimension ref="B1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="I59" sqref="H59:I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,10 +981,10 @@
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="D3" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="9">
-        <v>1833</v>
+        <v>2200</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>1083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,14 +1045,14 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>3683</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="E7" s="15">
         <f>SUM(E3:E6)</f>
-        <v>1833</v>
+        <v>2200</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="6"/>
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   02  DEL    10      Al   16   DE   E N E R O          202</v>
+        <v>SEMANA   03  DEL    17      Al   23   DE   E N E R O          202</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44576</v>
+        <v>44583</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44576</v>
+        <v>44583</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,7 +1196,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>1680</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>1680</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   02  DEL    10      Al   16   DE   E N E R O          202</v>
+        <v>SEMANA   03  DEL    17      Al   23   DE   E N E R O          202</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   02  DEL    10      Al   16   DE   E N E R O          202</v>
+        <v>SEMANA   03  DEL    17      Al   23   DE   E N E R O          202</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44576</v>
+        <v>44583</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44576</v>
+        <v>44583</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1481,13 +1481,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   02  DEL    10      Al   16   DE   E N E R O          202</v>
+        <v>SEMANA   03  DEL    17      Al   23   DE   E N E R O          202</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   02  DEL    10      Al   16   DE   E N E R O          202</v>
+        <v>SEMANA   03  DEL    17      Al   23   DE   E N E R O          202</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44576</v>
+        <v>44583</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44576</v>
+        <v>44583</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1672,7 +1672,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   02  DEL    10      Al   16   DE   E N E R O          202</v>
+        <v>SEMANA   03  DEL    17      Al   23   DE   E N E R O          202</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44576</v>
+        <v>44583</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   03  DEL    17      Al   23   DE   E N E R O          202</t>
+    <t>SEMANA   04  DEL    24      Al   30   DE   E N E R O          202</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I59" sqref="H59:I59"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   03  DEL    17      Al   23   DE   E N E R O          202</v>
+        <v>SEMANA   04  DEL    24      Al   30   DE   E N E R O          202</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44583</v>
+        <v>44589</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44583</v>
+        <v>44589</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   03  DEL    17      Al   23   DE   E N E R O          202</v>
+        <v>SEMANA   04  DEL    24      Al   30   DE   E N E R O          202</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   03  DEL    17      Al   23   DE   E N E R O          202</v>
+        <v>SEMANA   04  DEL    24      Al   30   DE   E N E R O          202</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44583</v>
+        <v>44589</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44583</v>
+        <v>44589</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1481,13 +1481,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   03  DEL    17      Al   23   DE   E N E R O          202</v>
+        <v>SEMANA   04  DEL    24      Al   30   DE   E N E R O          202</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   03  DEL    17      Al   23   DE   E N E R O          202</v>
+        <v>SEMANA   04  DEL    24      Al   30   DE   E N E R O          202</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44583</v>
+        <v>44589</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44583</v>
+        <v>44589</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1672,7 +1672,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   03  DEL    17      Al   23   DE   E N E R O          202</v>
+        <v>SEMANA   04  DEL    24      Al   30   DE   E N E R O          202</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44583</v>
+        <v>44589</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>0</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>2600</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,7 +1196,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>3080</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>3080</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1405,10 +1405,10 @@
       </c>
       <c r="C38" s="48"/>
       <c r="D38" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E38" s="30">
-        <v>2200</v>
+        <v>1833</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="6"/>
@@ -1431,9 +1431,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="75"/>
       <c r="I39" s="75"/>
-      <c r="J39" s="47">
-        <v>3</v>
-      </c>
+      <c r="J39" s="47"/>
       <c r="K39" s="45">
         <v>0</v>
       </c>
@@ -1461,7 +1459,7 @@
       <c r="C41" s="40"/>
       <c r="E41" s="23">
         <f>SUM(E38:E40)</f>
-        <v>2200</v>
+        <v>1833</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="39"/>
@@ -1540,7 +1538,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1549,7 +1547,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1728,7 +1726,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -941,7 +941,7 @@
   <dimension ref="B1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>3467</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44590</v>
+        <v>44597</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44590</v>
+        <v>44597</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1186,17 +1186,17 @@
     <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="D21" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" s="23">
         <f>500*D21</f>
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>2380</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1207,7 +1207,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="46">
-        <v>-161.65</v>
+        <v>-65</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="13" t="s">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>2380</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1267,7 +1267,7 @@
       <c r="B26" s="7"/>
       <c r="E26" s="23">
         <f>SUM(E21:E25)</f>
-        <v>2120.3199999999997</v>
+        <v>716.97</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44590</v>
+        <v>44597</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44590</v>
+        <v>44597</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1405,10 +1405,10 @@
       </c>
       <c r="C38" s="48"/>
       <c r="D38" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38" s="30">
-        <v>1833</v>
+        <v>2200</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="6"/>
@@ -1433,7 +1433,7 @@
       <c r="I39" s="75"/>
       <c r="J39" s="47"/>
       <c r="K39" s="45">
-        <v>0</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1459,14 +1459,14 @@
       <c r="C41" s="40"/>
       <c r="E41" s="23">
         <f>SUM(E38:E40)</f>
-        <v>1833</v>
+        <v>2200</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="39"/>
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44590</v>
+        <v>44597</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44590</v>
+        <v>44597</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44590</v>
+        <v>44597</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   04  DEL    24      Al   30   DE   E N E R O          202</t>
+    <t>SEMANA   06  DEL    7      Al   13   DE   FEBRERO          2022</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   04  DEL    24      Al   30   DE   E N E R O          202</v>
+        <v>SEMANA   06  DEL    7      Al   13   DE   FEBRERO          2022</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44597</v>
+        <v>44603</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44597</v>
+        <v>44603</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1186,17 +1186,17 @@
     <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="D21" s="22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E21" s="23">
         <f>500*D21</f>
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>2100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1207,7 +1207,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="46">
-        <v>-65</v>
+        <v>-161.65</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="13" t="s">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>2100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1257,7 +1257,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="17">
-        <v>0</v>
+        <v>-283</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
@@ -1267,7 +1267,7 @@
       <c r="B26" s="7"/>
       <c r="E26" s="23">
         <f>SUM(E21:E25)</f>
-        <v>716.97</v>
+        <v>1837.3199999999997</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   04  DEL    24      Al   30   DE   E N E R O          202</v>
+        <v>SEMANA   06  DEL    7      Al   13   DE   FEBRERO          2022</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   04  DEL    24      Al   30   DE   E N E R O          202</v>
+        <v>SEMANA   06  DEL    7      Al   13   DE   FEBRERO          2022</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44597</v>
+        <v>44603</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44597</v>
+        <v>44603</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1479,13 +1479,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   04  DEL    24      Al   30   DE   E N E R O          202</v>
+        <v>SEMANA   06  DEL    7      Al   13   DE   FEBRERO          2022</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   04  DEL    24      Al   30   DE   E N E R O          202</v>
+        <v>SEMANA   06  DEL    7      Al   13   DE   FEBRERO          2022</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44597</v>
+        <v>44603</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44597</v>
+        <v>44603</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1670,7 +1670,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   04  DEL    24      Al   30   DE   E N E R O          202</v>
+        <v>SEMANA   06  DEL    7      Al   13   DE   FEBRERO          2022</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44597</v>
+        <v>44603</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>0</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>2600</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,7 +1196,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>0</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>0</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1433,7 +1433,7 @@
       <c r="I39" s="75"/>
       <c r="J39" s="47"/>
       <c r="K39" s="45">
-        <v>1250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1466,7 +1466,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>3750</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -111,7 +111,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   06  DEL    7      Al   13   DE   FEBRERO          2022</t>
+    <t>SEMANA   07  DEL    14      Al   20   DE   FEBRERO          2022</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,10 +989,10 @@
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
       <c r="J3" s="22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K3" s="30">
-        <v>2600</v>
+        <v>867</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="31">
-        <v>867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>3467</v>
+        <v>867</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   06  DEL    7      Al   13   DE   FEBRERO          2022</v>
+        <v>SEMANA   07  DEL    14      Al   20   DE   FEBRERO          2022</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44604</v>
+        <v>44610</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44604</v>
+        <v>44610</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1257,7 +1257,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="17">
-        <v>-283</v>
+        <v>0</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
@@ -1267,7 +1267,7 @@
       <c r="B26" s="7"/>
       <c r="E26" s="23">
         <f>SUM(E21:E25)</f>
-        <v>1837.3199999999997</v>
+        <v>2120.3199999999997</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
@@ -1276,13 +1276,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   06  DEL    7      Al   13   DE   FEBRERO          2022</v>
+        <v>SEMANA   07  DEL    14      Al   20   DE   FEBRERO          2022</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   06  DEL    7      Al   13   DE   FEBRERO          2022</v>
+        <v>SEMANA   07  DEL    14      Al   20   DE   FEBRERO          2022</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44604</v>
+        <v>44610</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44604</v>
+        <v>44610</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1479,13 +1479,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   06  DEL    7      Al   13   DE   FEBRERO          2022</v>
+        <v>SEMANA   07  DEL    14      Al   20   DE   FEBRERO          2022</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   06  DEL    7      Al   13   DE   FEBRERO          2022</v>
+        <v>SEMANA   07  DEL    14      Al   20   DE   FEBRERO          2022</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44604</v>
+        <v>44610</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44604</v>
+        <v>44610</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1670,7 +1670,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="str">
         <f>H43</f>
-        <v>SEMANA   06  DEL    7      Al   13   DE   FEBRERO          2022</v>
+        <v>SEMANA   07  DEL    14      Al   20   DE   FEBRERO          2022</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="38"/>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44604</v>
+        <v>44610</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D16:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,7 +1196,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>1260</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>1260</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1451,7 +1451,7 @@
         <v>23</v>
       </c>
       <c r="K40" s="41">
-        <v>0</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1466,7 +1466,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C65" s="42">
         <f ca="1">I48</f>
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="38"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>RECIBO DE NOMINA</t>
   </si>
@@ -42,9 +42,6 @@
     <t># 1</t>
   </si>
   <si>
-    <t xml:space="preserve">JUSTINA REYES LEAL </t>
-  </si>
-  <si>
     <t xml:space="preserve">Extra </t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t xml:space="preserve">I M S S </t>
   </si>
   <si>
-    <t># 7</t>
-  </si>
-  <si>
     <t>ALEJANDRA BAUTISTA SALAZAR</t>
   </si>
   <si>
@@ -111,7 +105,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   07  DEL    14      Al   20   DE   FEBRERO          2022</t>
+    <t>SEMANA   08  DEL    21      Al   27   DE   FEBRERO          2022</t>
   </si>
 </sst>
 </file>
@@ -474,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -537,7 +531,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -547,31 +540,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -596,17 +564,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -938,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K67"/>
+  <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,7 +940,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="D3" s="8">
         <v>6</v>
@@ -989,53 +951,55 @@
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
       <c r="J3" s="22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K3" s="30">
-        <v>867</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="11">
         <v>0</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="61"/>
+      <c r="J4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>6</v>
-      </c>
       <c r="K4" s="31">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="15">
         <v>0</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="10"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -1045,7 +1009,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>867</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1068,13 +1032,13 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="24"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   07  DEL    14      Al   20   DE   FEBRERO          2022</v>
+        <v>SEMANA   08  DEL    21      Al   27   DE   FEBRERO          2022</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1087,35 +1051,35 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="25"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="68"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="25"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="70"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="73"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="25"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" t="s">
         <v>3</v>
@@ -1128,16 +1092,16 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44611</v>
+        <v>44618</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
       <c r="H14" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44611</v>
+        <v>44618</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1196,22 +1160,22 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>1680</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="46">
+        <v>17</v>
+      </c>
+      <c r="E22" s="45">
         <v>-161.65</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22" s="22"/>
       <c r="K22" s="31">
@@ -1221,7 +1185,7 @@
     <row r="23" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="D23" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="34">
         <v>-49.65</v>
@@ -1229,7 +1193,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="10"/>
       <c r="J23" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K23" s="17">
         <v>0</v>
@@ -1238,7 +1202,7 @@
     <row r="24" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="D24" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" s="34">
         <v>-168.38</v>
@@ -1247,14 +1211,14 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>1680</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E25" s="17">
         <v>0</v>
@@ -1276,13 +1240,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   07  DEL    14      Al   20   DE   FEBRERO          2022</v>
+        <v>SEMANA   08  DEL    21      Al   27   DE   FEBRERO          2022</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   07  DEL    14      Al   20   DE   FEBRERO          2022</v>
+        <v>SEMANA   08  DEL    21      Al   27   DE   FEBRERO          2022</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1295,26 +1259,26 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="68"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="68"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="54"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="70"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="56"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -1323,7 +1287,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
       <c r="I31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J31" t="s">
         <v>3</v>
@@ -1336,16 +1300,16 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44611</v>
+        <v>44618</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
       <c r="H32" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44611</v>
+        <v>44618</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1366,7 +1330,7 @@
     <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G35" s="6"/>
       <c r="H35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="21" x14ac:dyDescent="0.35">
@@ -1400,10 +1364,10 @@
       <c r="K37" s="30"/>
     </row>
     <row r="38" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="48"/>
+      <c r="B38" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="47"/>
       <c r="D38" s="22">
         <v>6</v>
       </c>
@@ -1412,8 +1376,8 @@
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="63" t="s">
-        <v>24</v>
+      <c r="H38" s="49" t="s">
+        <v>22</v>
       </c>
       <c r="J38" s="22">
         <v>6</v>
@@ -1423,16 +1387,16 @@
       </c>
     </row>
     <row r="39" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="47"/>
-      <c r="E39" s="45">
+      <c r="D39" s="46"/>
+      <c r="E39" s="44">
         <v>0</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="45">
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="44">
         <v>0</v>
       </c>
     </row>
@@ -1448,10 +1412,10 @@
       <c r="H40" s="39"/>
       <c r="I40" s="40"/>
       <c r="J40" s="43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K40" s="41">
-        <v>1250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1466,7 +1430,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>3750</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1479,13 +1443,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   07  DEL    14      Al   20   DE   FEBRERO          2022</v>
+        <v>SEMANA   08  DEL    21      Al   27   DE   FEBRERO          2022</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   07  DEL    14      Al   20   DE   FEBRERO          2022</v>
+        <v>SEMANA   08  DEL    21      Al   27   DE   FEBRERO          2022</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1498,28 +1462,28 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="68"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="54"/>
       <c r="F45" s="25"/>
       <c r="G45" s="6"/>
       <c r="H45" s="7"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="68"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="54"/>
     </row>
     <row r="46" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="70"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="56"/>
       <c r="F46" s="25"/>
       <c r="G46" s="6"/>
       <c r="H46" s="7"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="70"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="56"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
@@ -1534,20 +1498,20 @@
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44611</v>
+        <v>44618</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
       <c r="H48" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44611</v>
+        <v>44618</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1572,196 +1536,9 @@
       <c r="F51" s="38"/>
       <c r="I51" s="37"/>
     </row>
-    <row r="52" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F52" s="38"/>
-    </row>
-    <row r="53" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="38"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="53"/>
-    </row>
-    <row r="54" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="7"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="38"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="54"/>
-    </row>
-    <row r="55" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="77"/>
-      <c r="D55" s="22">
-        <v>6</v>
-      </c>
-      <c r="E55" s="30">
-        <v>1800</v>
-      </c>
-      <c r="F55" s="38"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="56"/>
-    </row>
-    <row r="56" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="78"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="45">
-        <v>0</v>
-      </c>
-      <c r="F56" s="38"/>
-      <c r="H56" s="74"/>
-      <c r="I56" s="74"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="58"/>
-    </row>
-    <row r="57" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="39"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="41">
-        <v>0</v>
-      </c>
-      <c r="F57" s="38"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="58"/>
-    </row>
-    <row r="58" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="39"/>
-      <c r="C58" s="40"/>
-      <c r="E58" s="23">
-        <f>SUM(E55:E57)</f>
-        <v>1800</v>
-      </c>
-      <c r="F58" s="38"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="54"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="7"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="38"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="51"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="7" t="str">
-        <f>H43</f>
-        <v>SEMANA   07  DEL    14      Al   20   DE   FEBRERO          2022</v>
-      </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="38"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="7"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="38"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="7"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="38"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="7"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="38"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="7"/>
-      <c r="D64" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="38"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="51"/>
-    </row>
-    <row r="65" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" s="42">
-        <f ca="1">I48</f>
-        <v>44611</v>
-      </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="38"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="51"/>
-    </row>
-    <row r="66" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="27"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="38"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="51"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="44"/>
-    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="10">
     <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D62:E63"/>
-    <mergeCell ref="J62:K63"/>
     <mergeCell ref="J29:K30"/>
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="J11:K12"/>
@@ -1769,9 +1546,8 @@
     <mergeCell ref="D29:E30"/>
     <mergeCell ref="D45:E46"/>
     <mergeCell ref="J45:K46"/>
-    <mergeCell ref="H56:I56"/>
     <mergeCell ref="H39:I39"/>
-    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="H4:I5"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -105,7 +105,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   08  DEL    21      Al   27   DE   FEBRERO          2022</t>
+    <t>SEMANA   09  DEL    28      Al   06   DE   MARZO          2022</t>
   </si>
 </sst>
 </file>
@@ -903,7 +903,7 @@
   <dimension ref="B1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +976,7 @@
         <v>5</v>
       </c>
       <c r="K4" s="31">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1009,7 +1009,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23">
         <f>SUM(K3:K5)</f>
-        <v>2100</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   08  DEL    21      Al   27   DE   FEBRERO          2022</v>
+        <v>SEMANA   09  DEL    28      Al   06   DE   MARZO          2022</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44618</v>
+        <v>44625</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44618</v>
+        <v>44625</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1160,7 +1160,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>1260</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1211,7 +1211,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>1260</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1240,13 +1240,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   08  DEL    21      Al   27   DE   FEBRERO          2022</v>
+        <v>SEMANA   09  DEL    28      Al   06   DE   MARZO          2022</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   08  DEL    21      Al   27   DE   FEBRERO          2022</v>
+        <v>SEMANA   09  DEL    28      Al   06   DE   MARZO          2022</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44618</v>
+        <v>44625</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44618</v>
+        <v>44625</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1397,7 +1397,7 @@
       <c r="I39" s="59"/>
       <c r="J39" s="46"/>
       <c r="K39" s="44">
-        <v>0</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1430,7 +1430,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1443,13 +1443,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   08  DEL    21      Al   27   DE   FEBRERO          2022</v>
+        <v>SEMANA   09  DEL    28      Al   06   DE   MARZO          2022</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   08  DEL    21      Al   27   DE   FEBRERO          2022</v>
+        <v>SEMANA   09  DEL    28      Al   06   DE   MARZO          2022</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44618</v>
+        <v>44625</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44618</v>
+        <v>44625</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -1538,16 +1538,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D45:E46"/>
+    <mergeCell ref="J45:K46"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H4:I5"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="J29:K30"/>
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D29:E30"/>
-    <mergeCell ref="D45:E46"/>
-    <mergeCell ref="J45:K46"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H4:I5"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -105,7 +105,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   09  DEL    28      Al   06   DE   MARZO          2022</t>
+    <t>SEMANA   10  DEL    07      Al   13   DE   MARZO          2022</t>
   </si>
 </sst>
 </file>
@@ -546,44 +546,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,20 +958,20 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="50"/>
       <c r="E4" s="11">
         <v>0</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="61"/>
+      <c r="I4" s="57"/>
       <c r="J4" s="22" t="s">
         <v>5</v>
       </c>
@@ -980,8 +980,8 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="51"/>
-      <c r="C5" s="52"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
@@ -990,8 +990,8 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="32" t="s">
         <v>7</v>
       </c>
@@ -1038,7 +1038,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   09  DEL    28      Al   06   DE   MARZO          2022</v>
+        <v>SEMANA   10  DEL    07      Al   13   DE   MARZO          2022</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1051,30 +1051,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="25"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="25"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="54"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="58"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="25"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44625</v>
+        <v>44632</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44625</v>
+        <v>44632</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1160,7 +1160,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>1120</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1211,7 +1211,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>1120</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1240,13 +1240,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   09  DEL    28      Al   06   DE   MARZO          2022</v>
+        <v>SEMANA   10  DEL    07      Al   13   DE   MARZO          2022</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   09  DEL    28      Al   06   DE   MARZO          2022</v>
+        <v>SEMANA   10  DEL    07      Al   13   DE   MARZO          2022</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1259,21 +1259,21 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="54"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="52"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="56"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44625</v>
+        <v>44632</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44625</v>
+        <v>44632</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1382,7 +1382,7 @@
       <c r="J38" s="22">
         <v>6</v>
       </c>
-      <c r="K38" s="30">
+      <c r="K38" s="23">
         <v>2500</v>
       </c>
     </row>
@@ -1393,11 +1393,11 @@
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
       <c r="J39" s="46"/>
       <c r="K39" s="44">
-        <v>1250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1430,7 +1430,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>3750</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1443,13 +1443,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   09  DEL    28      Al   06   DE   MARZO          2022</v>
+        <v>SEMANA   10  DEL    07      Al   13   DE   MARZO          2022</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   09  DEL    28      Al   06   DE   MARZO          2022</v>
+        <v>SEMANA   10  DEL    07      Al   13   DE   MARZO          2022</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1462,23 +1462,23 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="54"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="52"/>
       <c r="F45" s="25"/>
       <c r="G45" s="6"/>
       <c r="H45" s="7"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="54"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="52"/>
     </row>
     <row r="46" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="56"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="54"/>
       <c r="F46" s="25"/>
       <c r="G46" s="6"/>
       <c r="H46" s="7"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="56"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="54"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44625</v>
+        <v>44632</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44625</v>
+        <v>44632</v>
       </c>
       <c r="K48" s="24"/>
     </row>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -105,7 +105,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   10  DEL    07      Al   13   DE   MARZO          2022</t>
+    <t>SEMANA   11  DEL    14      Al   20   DE   MARZO          2022</t>
   </si>
 </sst>
 </file>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1038,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   10  DEL    07      Al   13   DE   MARZO          2022</v>
+        <v>SEMANA   11  DEL    14      Al   20   DE   MARZO          2022</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1092,16 +1092,16 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44632</v>
+        <v>44639</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
       <c r="H14" s="26" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44632</v>
+        <v>44639</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1240,13 +1240,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   10  DEL    07      Al   13   DE   MARZO          2022</v>
+        <v>SEMANA   11  DEL    14      Al   20   DE   MARZO          2022</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   10  DEL    07      Al   13   DE   MARZO          2022</v>
+        <v>SEMANA   11  DEL    14      Al   20   DE   MARZO          2022</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1300,16 +1300,16 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44632</v>
+        <v>44639</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
       <c r="H32" s="26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44632</v>
+        <v>44639</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1396,9 +1396,7 @@
       <c r="H39" s="55"/>
       <c r="I39" s="55"/>
       <c r="J39" s="46"/>
-      <c r="K39" s="44">
-        <v>0</v>
-      </c>
+      <c r="K39" s="44"/>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="39"/>
@@ -1415,7 +1413,7 @@
         <v>21</v>
       </c>
       <c r="K40" s="41">
-        <v>0</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1430,7 +1428,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1443,13 +1441,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   10  DEL    07      Al   13   DE   MARZO          2022</v>
+        <v>SEMANA   11  DEL    14      Al   20   DE   MARZO          2022</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   10  DEL    07      Al   13   DE   MARZO          2022</v>
+        <v>SEMANA   11  DEL    14      Al   20   DE   MARZO          2022</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1498,11 +1496,11 @@
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="26" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44632</v>
+        <v>44639</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1511,7 +1509,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44632</v>
+        <v>44639</v>
       </c>
       <c r="K48" s="24"/>
     </row>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>RECIBO DE NOMINA</t>
   </si>
@@ -99,13 +99,10 @@
     <t>Ma.  Margarita AGUILAR AQUINO</t>
   </si>
   <si>
-    <t>PRESTAMO</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA   11  DEL    14      Al   20   DE   MARZO          2022</t>
+    <t>SEMANA   12  DEL    21      Al   27   DE   MARZO          2022</t>
   </si>
 </sst>
 </file>
@@ -902,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,13 +1029,13 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="24"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   11  DEL    14      Al   20   DE   MARZO          2022</v>
+        <v>SEMANA   12  DEL    21      Al   27   DE   MARZO          2022</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1092,7 +1089,7 @@
       </c>
       <c r="C14" s="42">
         <f ca="1">TODAY()</f>
-        <v>44639</v>
+        <v>44646</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="6"/>
@@ -1101,7 +1098,7 @@
       </c>
       <c r="I14" s="42">
         <f ca="1">C14</f>
-        <v>44639</v>
+        <v>44646</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -1160,7 +1157,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="30">
-        <v>1960</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1211,17 +1208,17 @@
       <c r="H24" s="7"/>
       <c r="K24" s="23">
         <f>SUM(K21:K23)</f>
-        <v>1960</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E25" s="17">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
@@ -1231,7 +1228,7 @@
       <c r="B26" s="7"/>
       <c r="E26" s="23">
         <f>SUM(E21:E25)</f>
-        <v>2120.3199999999997</v>
+        <v>2620.3199999999997</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
@@ -1240,13 +1237,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   11  DEL    14      Al   20   DE   MARZO          2022</v>
+        <v>SEMANA   12  DEL    21      Al   27   DE   MARZO          2022</v>
       </c>
       <c r="E27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   11  DEL    14      Al   20   DE   MARZO          2022</v>
+        <v>SEMANA   12  DEL    21      Al   27   DE   MARZO          2022</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -1300,7 +1297,7 @@
       </c>
       <c r="C32" s="42">
         <f ca="1">I14</f>
-        <v>44639</v>
+        <v>44646</v>
       </c>
       <c r="E32" s="24"/>
       <c r="G32" s="6"/>
@@ -1309,7 +1306,7 @@
       </c>
       <c r="I32" s="42">
         <f ca="1">C32</f>
-        <v>44639</v>
+        <v>44646</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -1330,7 +1327,7 @@
     <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G35" s="6"/>
       <c r="H35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="21" x14ac:dyDescent="0.35">
@@ -1413,7 +1410,7 @@
         <v>21</v>
       </c>
       <c r="K40" s="41">
-        <v>1250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1428,7 +1425,7 @@
       <c r="I41" s="40"/>
       <c r="K41" s="23">
         <f>SUM(K38:K40)</f>
-        <v>3750</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1441,13 +1438,13 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   11  DEL    14      Al   20   DE   MARZO          2022</v>
+        <v>SEMANA   12  DEL    21      Al   27   DE   MARZO          2022</v>
       </c>
       <c r="E43" s="24"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="str">
         <f>B43</f>
-        <v>SEMANA   11  DEL    14      Al   20   DE   MARZO          2022</v>
+        <v>SEMANA   12  DEL    21      Al   27   DE   MARZO          2022</v>
       </c>
       <c r="K43" s="24"/>
     </row>
@@ -1500,7 +1497,7 @@
       </c>
       <c r="C48" s="42">
         <f ca="1">C32</f>
-        <v>44639</v>
+        <v>44646</v>
       </c>
       <c r="E48" s="24"/>
       <c r="G48" s="6"/>
@@ -1509,7 +1506,7 @@
       </c>
       <c r="I48" s="42">
         <f ca="1">C48</f>
-        <v>44639</v>
+        <v>44646</v>
       </c>
       <c r="K48" s="24"/>
     </row>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>RECIBO DE NOMINA</t>
   </si>
@@ -45,15 +45,9 @@
     <t xml:space="preserve">Extra </t>
   </si>
   <si>
-    <t>JOSE LEOPOLDO ALVARADO GARCIA</t>
-  </si>
-  <si>
     <t>DESCUENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">INFONAVIT </t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -66,9 +60,6 @@
     <t># 5</t>
   </si>
   <si>
-    <t># 6</t>
-  </si>
-  <si>
     <t>Ma. DEL ROSARIO CASTAÑEDA RODRIGUEZ</t>
   </si>
   <si>
@@ -78,12 +69,6 @@
     <t>HORAS EXTRAS</t>
   </si>
   <si>
-    <t xml:space="preserve">I S R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I M S S </t>
-  </si>
-  <si>
     <t>ALEJANDRA BAUTISTA SALAZAR</t>
   </si>
   <si>
@@ -99,10 +84,10 @@
     <t>Ma.  Margarita AGUILAR AQUINO</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>SEMANA   12  DEL    21      Al   27   DE   MARZO          2022</t>
+    <t>SEMANA   13  DEL    28      Al   03   DE   ABRIL          2022</t>
+  </si>
+  <si>
+    <t># 2</t>
   </si>
 </sst>
 </file>
@@ -200,18 +185,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -465,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -484,7 +463,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -502,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -512,7 +490,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -529,7 +506,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -580,6 +556,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -899,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +939,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="D3" s="8">
         <v>6</v>
@@ -947,171 +949,170 @@
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
-      <c r="J3" s="22">
-        <v>6</v>
-      </c>
-      <c r="K3" s="30">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="50"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="11">
         <v>0</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="31">
+      <c r="H4" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="21">
+        <v>6</v>
+      </c>
+      <c r="K4" s="29">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="F5" s="15"/>
+      <c r="G5" s="6"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="42">
         <v>0</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="33">
+    </row>
+    <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="7"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="K6" s="23">
-        <f>SUM(K3:K5)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <f>SUM(E3:E6)</f>
         <v>2200</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="K7" s="24"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+      <c r="K7" s="22">
+        <f>SUM(K4:K6)</f>
+        <v>2200</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
-      <c r="E8" s="24"/>
+      <c r="E8" s="23"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="K8" s="24"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="E9" s="23"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   12  DEL    21      Al   27   DE   MARZO          2022</v>
-      </c>
-      <c r="K9" s="24"/>
+        <v>SEMANA   13  DEL    28      Al   03   DE   ABRIL          2022</v>
+      </c>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="E10" s="24"/>
+      <c r="E10" s="23"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
-      <c r="K10" s="24"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="25"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="25"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="54"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J13" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="24"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44646</v>
-      </c>
-      <c r="E14" s="24"/>
+        <v>44653</v>
+      </c>
+      <c r="E14" s="23"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="42">
+      <c r="H14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44646</v>
-      </c>
-      <c r="K14" s="24"/>
+        <v>44653</v>
+      </c>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="29"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G16" s="6"/>
@@ -1146,189 +1147,182 @@
     </row>
     <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
-      <c r="D21" s="22">
-        <v>5</v>
-      </c>
-      <c r="E21" s="23">
-        <f>500*D21</f>
-        <v>2500</v>
-      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="29"/>
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="30">
-        <v>1120</v>
+      <c r="J21" s="21"/>
+      <c r="K21" s="29">
+        <v>1400</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="7"/>
+      <c r="D22" s="21">
         <v>6</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="45">
-        <v>-161.65</v>
+      <c r="E22" s="29">
+        <v>1800</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="31">
+        <v>9</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="D23" s="22" t="s">
+      <c r="B23" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="34">
-        <v>-49.65</v>
+      <c r="C23" s="54"/>
+      <c r="D23" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="30">
+        <v>0</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="10"/>
-      <c r="J23" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="17">
+      <c r="J23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="D24" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="34">
-        <v>-168.38</v>
+    <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="32">
+        <v>0</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
-      <c r="K24" s="23">
+      <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="17">
-        <v>500</v>
+      <c r="E25" s="22">
+        <f>SUM(E22:E24)</f>
+        <v>1800</v>
       </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
-      <c r="E26" s="23">
-        <f>SUM(E21:E25)</f>
-        <v>2620.3199999999997</v>
-      </c>
+      <c r="E26" s="22"/>
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
-      <c r="K26" s="24"/>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   12  DEL    21      Al   27   DE   MARZO          2022</v>
-      </c>
-      <c r="E27" s="24"/>
+        <v>SEMANA   13  DEL    28      Al   03   DE   ABRIL          2022</v>
+      </c>
+      <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   12  DEL    21      Al   27   DE   MARZO          2022</v>
-      </c>
-      <c r="K27" s="24"/>
+        <v>SEMANA   13  DEL    28      Al   03   DE   ABRIL          2022</v>
+      </c>
+      <c r="K27" s="23"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
-      <c r="E28" s="24"/>
+      <c r="E28" s="23"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7"/>
-      <c r="K28" s="24"/>
+      <c r="K28" s="23"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="52"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="49"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="54"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="51"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="51"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="24"/>
+      <c r="E31" s="23"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
       <c r="I31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J31" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="24"/>
+      <c r="K31" s="23"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="26">
-        <v>2</v>
-      </c>
-      <c r="C32" s="42">
+      <c r="B32" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44646</v>
-      </c>
-      <c r="E32" s="24"/>
+        <v>44653</v>
+      </c>
+      <c r="E32" s="23"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="42">
+      <c r="H32" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44646</v>
-      </c>
-      <c r="K32" s="24"/>
+        <v>44653</v>
+      </c>
+      <c r="K32" s="23"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="28"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G35" s="6"/>
-      <c r="H35" t="s">
-        <v>24</v>
-      </c>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
     </row>
     <row r="36" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
@@ -1340,209 +1334,201 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K36" s="4"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="65"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="30"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="29"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="7"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="30"/>
-    </row>
-    <row r="38" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="22">
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="66"/>
+    </row>
+    <row r="38" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="21">
         <v>6</v>
       </c>
-      <c r="E38" s="30">
-        <v>2200</v>
-      </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" s="22">
-        <v>6</v>
-      </c>
-      <c r="K38" s="23">
+      <c r="E38" s="22">
         <v>2500</v>
       </c>
+      <c r="F38" s="33"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="66"/>
     </row>
     <row r="39" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="46"/>
-      <c r="E39" s="44">
-        <v>0</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="44"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="66"/>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="41">
-        <v>0</v>
-      </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" s="41">
-        <v>0</v>
-      </c>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="39">
+        <v>1250</v>
+      </c>
+      <c r="F40" s="20"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="69"/>
     </row>
     <row r="41" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
-      <c r="E41" s="23">
+      <c r="B41" s="37"/>
+      <c r="C41" s="38"/>
+      <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>2200</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="40"/>
-      <c r="K41" s="23">
-        <f>SUM(K38:K40)</f>
-        <v>2500</v>
-      </c>
+        <v>3750</v>
+      </c>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="70"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
-      <c r="E42" s="24"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="7"/>
-      <c r="K42" s="24"/>
+      <c r="E42" s="23"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   12  DEL    21      Al   27   DE   MARZO          2022</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="7" t="str">
-        <f>B43</f>
-        <v>SEMANA   12  DEL    21      Al   27   DE   MARZO          2022</v>
-      </c>
-      <c r="K43" s="24"/>
+        <v>SEMANA   13  DEL    28      Al   03   DE   ABRIL          2022</v>
+      </c>
+      <c r="E43" s="23"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
-      <c r="E44" s="36"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="7"/>
-      <c r="K44" s="24"/>
+      <c r="E44" s="34"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="7"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="52"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
     </row>
     <row r="46" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="7"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="54"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="7"/>
-      <c r="J47" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="24"/>
+      <c r="E47" s="23"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="42">
+      <c r="B48" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44646</v>
-      </c>
-      <c r="E48" s="24"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="42">
-        <f ca="1">C48</f>
-        <v>44646</v>
-      </c>
-      <c r="K48" s="24"/>
+        <v>44653</v>
+      </c>
+      <c r="E48" s="23"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="27"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="29"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="29"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="28"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="37"/>
-      <c r="F50" s="38"/>
-      <c r="I50" s="37"/>
+      <c r="C50" s="35"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="37"/>
-      <c r="F51" s="38"/>
-      <c r="I51" s="37"/>
+      <c r="C51" s="35"/>
+      <c r="F51" s="36"/>
+      <c r="I51" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="D45:E46"/>
     <mergeCell ref="J45:K46"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H4:I5"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="J29:K30"/>
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D29:E30"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="B23:C24"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -84,10 +84,10 @@
     <t>Ma.  Margarita AGUILAR AQUINO</t>
   </si>
   <si>
-    <t>SEMANA   13  DEL    28      Al   03   DE   ABRIL          2022</t>
-  </si>
-  <si>
     <t># 2</t>
+  </si>
+  <si>
+    <t>SEMANA   14  DEL    04      Al   10   DE   ABRIL          2022</t>
   </si>
 </sst>
 </file>
@@ -519,45 +519,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -566,23 +527,62 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39:I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,10 +955,10 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="58"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="47"/>
       <c r="E4" s="11">
         <v>0</v>
@@ -970,15 +970,15 @@
       </c>
       <c r="I4" s="44"/>
       <c r="J4" s="21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="29">
-        <v>2200</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="I7" s="38"/>
       <c r="K7" s="22">
         <f>SUM(K4:K6)</f>
-        <v>2200</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1030,13 +1030,13 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="23"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   13  DEL    28      Al   03   DE   ABRIL          2022</v>
+        <v>SEMANA   14  DEL    04      Al   10   DE   ABRIL          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1049,30 +1049,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="24"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="24"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="60"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="24"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1090,16 +1090,16 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44653</v>
+        <v>44660</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
       <c r="H14" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44653</v>
+        <v>44660</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>1400</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1174,10 +1174,10 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="54"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="21" t="s">
         <v>5</v>
       </c>
@@ -1194,8 +1194,8 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="31" t="s">
         <v>6</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>1400</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   13  DEL    28      Al   03   DE   ABRIL          2022</v>
+        <v>SEMANA   14  DEL    04      Al   10   DE   ABRIL          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   13  DEL    28      Al   03   DE   ABRIL          2022</v>
+        <v>SEMANA   14  DEL    04      Al   10   DE   ABRIL          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1249,21 +1249,21 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="49"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="61"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="51"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="51"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="63"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44653</v>
+        <v>44660</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44653</v>
+        <v>44660</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1318,11 +1318,11 @@
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
     </row>
     <row r="36" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="65"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="52"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="D37" s="21"/>
       <c r="E37" s="29"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="66"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="53"/>
     </row>
     <row r="38" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="46" t="s">
@@ -1362,23 +1362,23 @@
         <v>2500</v>
       </c>
       <c r="F38" s="33"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="66"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="53"/>
     </row>
     <row r="39" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
       <c r="D39" s="43"/>
       <c r="E39" s="42"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="66"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="53"/>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="37"/>
@@ -1387,79 +1387,79 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="F40" s="20"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="69"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="55"/>
     </row>
     <row r="41" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>3750</v>
-      </c>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="70"/>
+        <v>2500</v>
+      </c>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="56"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="E42" s="23"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   13  DEL    28      Al   03   DE   ABRIL          2022</v>
+        <v>SEMANA   14  DEL    04      Al   10   DE   ABRIL          2022</v>
       </c>
       <c r="E43" s="23"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="E44" s="34"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="49"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="61"/>
       <c r="F45" s="24"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
     </row>
     <row r="46" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="51"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="63"/>
       <c r="F46" s="24"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
@@ -1470,11 +1470,11 @@
         <v>3</v>
       </c>
       <c r="E47" s="23"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
@@ -1482,34 +1482,34 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44653</v>
+        <v>44660</v>
       </c>
       <c r="E48" s="23"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="26"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
       <c r="E49" s="28"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C50" s="35"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C51" s="35"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA   14  DEL    04      Al   10   DE   ABRIL          2022</t>
+    <t>SEMANA   15  DEL    11      Al   17   DE   ABRIL          2022</t>
   </si>
 </sst>
 </file>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,10 +970,10 @@
       </c>
       <c r="I4" s="44"/>
       <c r="J4" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K4" s="29">
-        <v>1833</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
       <c r="I7" s="38"/>
       <c r="K7" s="22">
         <f>SUM(K4:K6)</f>
-        <v>1833</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   14  DEL    04      Al   10   DE   ABRIL          2022</v>
+        <v>SEMANA   15  DEL    11      Al   17   DE   ABRIL          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44660</v>
+        <v>44667</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44660</v>
+        <v>44667</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>1820</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>1820</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   14  DEL    04      Al   10   DE   ABRIL          2022</v>
+        <v>SEMANA   15  DEL    11      Al   17   DE   ABRIL          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   14  DEL    04      Al   10   DE   ABRIL          2022</v>
+        <v>SEMANA   15  DEL    11      Al   17   DE   ABRIL          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44660</v>
+        <v>44667</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44660</v>
+        <v>44667</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1387,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1401,7 +1401,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   14  DEL    04      Al   10   DE   ABRIL          2022</v>
+        <v>SEMANA   15  DEL    11      Al   17   DE   ABRIL          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44660</v>
+        <v>44667</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K39" sqref="K38:K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44667</v>
+        <v>44674</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44667</v>
+        <v>44674</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>2240</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1182,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="30">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="10"/>
@@ -1206,14 +1206,14 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>2240</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="E25" s="22">
         <f>SUM(E22:E24)</f>
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="37"/>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44667</v>
+        <v>44674</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44667</v>
+        <v>44674</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1387,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1401,7 +1401,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44667</v>
+        <v>44674</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA   15  DEL    11      Al   17   DE   ABRIL          2022</t>
+    <t>SEMANA   17  DEL    25      Al   01   DE   MAYO          2022</t>
   </si>
 </sst>
 </file>
@@ -902,7 +902,7 @@
   <dimension ref="B1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K39" sqref="K38:K39"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   15  DEL    11      Al   17   DE   ABRIL          2022</v>
+        <v>SEMANA   17  DEL    25      Al   01   DE   MAYO          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44674</v>
+        <v>44681</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44674</v>
+        <v>44681</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>560</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1182,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="30">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="10"/>
@@ -1206,14 +1206,14 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>560</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="E25" s="22">
         <f>SUM(E22:E24)</f>
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="37"/>
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   15  DEL    11      Al   17   DE   ABRIL          2022</v>
+        <v>SEMANA   17  DEL    25      Al   01   DE   MAYO          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   15  DEL    11      Al   17   DE   ABRIL          2022</v>
+        <v>SEMANA   17  DEL    25      Al   01   DE   MAYO          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44674</v>
+        <v>44681</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44674</v>
+        <v>44681</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1387,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1401,7 +1401,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   15  DEL    11      Al   17   DE   ABRIL          2022</v>
+        <v>SEMANA   17  DEL    25      Al   01   DE   MAYO          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44674</v>
+        <v>44681</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA   17  DEL    25      Al   01   DE   MAYO          2022</t>
+    <t>SEMANA   18  DEL    02      Al   01   DE   MAYO          2022</t>
   </si>
 </sst>
 </file>
@@ -902,7 +902,7 @@
   <dimension ref="B1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   17  DEL    25      Al   01   DE   MAYO          2022</v>
+        <v>SEMANA   18  DEL    02      Al   01   DE   MAYO          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>1400</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>1400</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   17  DEL    25      Al   01   DE   MAYO          2022</v>
+        <v>SEMANA   18  DEL    02      Al   01   DE   MAYO          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   17  DEL    25      Al   01   DE   MAYO          2022</v>
+        <v>SEMANA   18  DEL    02      Al   01   DE   MAYO          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1387,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1401,7 +1401,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   17  DEL    25      Al   01   DE   MAYO          2022</v>
+        <v>SEMANA   18  DEL    02      Al   01   DE   MAYO          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA   18  DEL    02      Al   01   DE   MAYO          2022</t>
+    <t>SEMANA   19  DEL    09      Al   15   DE   MAYO          2022</t>
   </si>
 </sst>
 </file>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   18  DEL    02      Al   01   DE   MAYO          2022</v>
+        <v>SEMANA   19  DEL    09      Al   15   DE   MAYO          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44688</v>
+        <v>44695</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44688</v>
+        <v>44695</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>1680</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>1680</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   18  DEL    02      Al   01   DE   MAYO          2022</v>
+        <v>SEMANA   19  DEL    09      Al   15   DE   MAYO          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   18  DEL    02      Al   01   DE   MAYO          2022</v>
+        <v>SEMANA   19  DEL    09      Al   15   DE   MAYO          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44688</v>
+        <v>44695</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44688</v>
+        <v>44695</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1387,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1401,7 +1401,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   18  DEL    02      Al   01   DE   MAYO          2022</v>
+        <v>SEMANA   19  DEL    09      Al   15   DE   MAYO          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44688</v>
+        <v>44695</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA   19  DEL    09      Al   15   DE   MAYO          2022</t>
+    <t>SEMANA   20  DEL    16      Al   22   DE   MAYO          2022</t>
   </si>
 </sst>
 </file>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   19  DEL    09      Al   15   DE   MAYO          2022</v>
+        <v>SEMANA   20  DEL    16      Al   22   DE   MAYO          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44695</v>
+        <v>44702</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44695</v>
+        <v>44702</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>1120</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>1120</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   19  DEL    09      Al   15   DE   MAYO          2022</v>
+        <v>SEMANA   20  DEL    16      Al   22   DE   MAYO          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   19  DEL    09      Al   15   DE   MAYO          2022</v>
+        <v>SEMANA   20  DEL    16      Al   22   DE   MAYO          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44695</v>
+        <v>44702</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44695</v>
+        <v>44702</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1387,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1401,7 +1401,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   19  DEL    09      Al   15   DE   MAYO          2022</v>
+        <v>SEMANA   20  DEL    16      Al   22   DE   MAYO          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44695</v>
+        <v>44702</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -901,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44702</v>
+        <v>44709</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44702</v>
+        <v>44709</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>1680</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>1680</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44702</v>
+        <v>44709</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44702</v>
+        <v>44709</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1387,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1401,7 +1401,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44702</v>
+        <v>44709</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA   20  DEL    16      Al   22   DE   MAYO          2022</t>
+    <t>SEMANA   22  DEL    30      Al   04   DE   JUNIO          2022</t>
   </si>
 </sst>
 </file>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   20  DEL    16      Al   22   DE   MAYO          2022</v>
+        <v>SEMANA   22  DEL    30      Al   04   DE   JUNIO          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44709</v>
+        <v>44716</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44709</v>
+        <v>44716</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>1400</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>1400</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   20  DEL    16      Al   22   DE   MAYO          2022</v>
+        <v>SEMANA   22  DEL    30      Al   04   DE   JUNIO          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   20  DEL    16      Al   22   DE   MAYO          2022</v>
+        <v>SEMANA   22  DEL    30      Al   04   DE   JUNIO          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44709</v>
+        <v>44716</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44709</v>
+        <v>44716</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1387,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1401,7 +1401,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   20  DEL    16      Al   22   DE   MAYO          2022</v>
+        <v>SEMANA   22  DEL    30      Al   04   DE   JUNIO          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44709</v>
+        <v>44716</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA   22  DEL    30      Al   04   DE   JUNIO          2022</t>
+    <t>SEMANA   23  DEL    06      Al   12   DE   JUNIO          2022</t>
   </si>
 </sst>
 </file>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   22  DEL    30      Al   04   DE   JUNIO          2022</v>
+        <v>SEMANA   23  DEL    06      Al   12   DE   JUNIO          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44716</v>
+        <v>44723</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44716</v>
+        <v>44723</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>2520</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>2520</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   22  DEL    30      Al   04   DE   JUNIO          2022</v>
+        <v>SEMANA   23  DEL    06      Al   12   DE   JUNIO          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   22  DEL    30      Al   04   DE   JUNIO          2022</v>
+        <v>SEMANA   23  DEL    06      Al   12   DE   JUNIO          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44716</v>
+        <v>44723</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44716</v>
+        <v>44723</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1387,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1401,7 +1401,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   22  DEL    30      Al   04   DE   JUNIO          2022</v>
+        <v>SEMANA   23  DEL    06      Al   12   DE   JUNIO          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44716</v>
+        <v>44723</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA   23  DEL    06      Al   12   DE   JUNIO          2022</t>
+    <t>SEMANA   24  DEL    13      Al   19   DE   JUNIO          2022</t>
   </si>
 </sst>
 </file>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39:I40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I49" sqref="I48:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   23  DEL    06      Al   12   DE   JUNIO          2022</v>
+        <v>SEMANA   24  DEL    13      Al   19   DE   JUNIO          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44723</v>
+        <v>44730</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44723</v>
+        <v>44730</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>1400</v>
+        <v>980</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>1400</v>
+        <v>980</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   23  DEL    06      Al   12   DE   JUNIO          2022</v>
+        <v>SEMANA   24  DEL    13      Al   19   DE   JUNIO          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   23  DEL    06      Al   12   DE   JUNIO          2022</v>
+        <v>SEMANA   24  DEL    13      Al   19   DE   JUNIO          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44723</v>
+        <v>44730</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44723</v>
+        <v>44730</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1387,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1401,7 +1401,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   23  DEL    06      Al   12   DE   JUNIO          2022</v>
+        <v>SEMANA   24  DEL    13      Al   19   DE   JUNIO          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44723</v>
+        <v>44730</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA   24  DEL    13      Al   19   DE   JUNIO          2022</t>
+    <t>SEMANA   25  DEL    20      Al   26   DE   JUNIO          2022</t>
   </si>
 </sst>
 </file>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I49" sqref="I48:I49"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   24  DEL    13      Al   19   DE   JUNIO          2022</v>
+        <v>SEMANA   25  DEL    20      Al   26   DE   JUNIO          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44730</v>
+        <v>44736</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44730</v>
+        <v>44736</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>980</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>980</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   24  DEL    13      Al   19   DE   JUNIO          2022</v>
+        <v>SEMANA   25  DEL    20      Al   26   DE   JUNIO          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   24  DEL    13      Al   19   DE   JUNIO          2022</v>
+        <v>SEMANA   25  DEL    20      Al   26   DE   JUNIO          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44730</v>
+        <v>44736</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44730</v>
+        <v>44736</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1387,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1401,7 +1401,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   24  DEL    13      Al   19   DE   JUNIO          2022</v>
+        <v>SEMANA   25  DEL    20      Al   26   DE   JUNIO          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44730</v>
+        <v>44736</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA   25  DEL    20      Al   26   DE   JUNIO          2022</t>
+    <t>SEMANA   26  DEL    27      Al   03   DE   JULIO          2022</t>
   </si>
 </sst>
 </file>
@@ -569,9 +569,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -583,6 +580,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39:I40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   25  DEL    20      Al   26   DE   JUNIO          2022</v>
+        <v>SEMANA   26  DEL    27      Al   03   DE   JULIO          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44736</v>
+        <v>44744</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44736</v>
+        <v>44744</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>1120</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1174,10 +1174,10 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="72"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="21" t="s">
         <v>5</v>
       </c>
@@ -1194,8 +1194,8 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="73"/>
-      <c r="C24" s="74"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="31" t="s">
         <v>6</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>1120</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   25  DEL    20      Al   26   DE   JUNIO          2022</v>
+        <v>SEMANA   26  DEL    27      Al   03   DE   JULIO          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   25  DEL    20      Al   26   DE   JUNIO          2022</v>
+        <v>SEMANA   26  DEL    27      Al   03   DE   JULIO          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44736</v>
+        <v>44744</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44736</v>
+        <v>44744</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1375,8 +1375,8 @@
       <c r="E39" s="42"/>
       <c r="F39" s="20"/>
       <c r="G39" s="49"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
       <c r="J39" s="51"/>
       <c r="K39" s="53"/>
     </row>
@@ -1387,12 +1387,12 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
       <c r="J40" s="54"/>
       <c r="K40" s="55"/>
     </row>
@@ -1401,7 +1401,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   25  DEL    20      Al   26   DE   JUNIO          2022</v>
+        <v>SEMANA   26  DEL    27      Al   03   DE   JULIO          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44736</v>
+        <v>44744</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>
@@ -1517,7 +1517,7 @@
       <c r="I51" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="D45:E46"/>
     <mergeCell ref="J45:K46"/>
     <mergeCell ref="B4:C5"/>
@@ -1527,7 +1527,6 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D29:E30"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H39:I40"/>
     <mergeCell ref="B23:C24"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA   26  DEL    27      Al   03   DE   JULIO          2022</t>
+    <t>SEMANA   27  DEL    04      Al   10   DE   JULIO          2022</t>
   </si>
 </sst>
 </file>
@@ -539,6 +539,9 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,9 +583,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,10 +955,10 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="47"/>
       <c r="E4" s="11">
         <v>0</v>
@@ -977,8 +977,8 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   26  DEL    27      Al   03   DE   JULIO          2022</v>
+        <v>SEMANA   27  DEL    04      Al   10   DE   JULIO          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1049,30 +1049,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
       <c r="F11" s="24"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="24"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="68"/>
+      <c r="E13" s="69"/>
       <c r="F13" s="24"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44744</v>
+        <v>44751</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44744</v>
+        <v>44751</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1117,7 +1117,7 @@
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>560</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1174,10 +1174,10 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="71"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="21" t="s">
         <v>5</v>
       </c>
@@ -1194,8 +1194,8 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="31" t="s">
         <v>6</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>560</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   26  DEL    27      Al   03   DE   JULIO          2022</v>
+        <v>SEMANA   27  DEL    04      Al   10   DE   JULIO          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   26  DEL    27      Al   03   DE   JULIO          2022</v>
+        <v>SEMANA   27  DEL    04      Al   10   DE   JULIO          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1249,21 +1249,21 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="62"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="64"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44744</v>
+        <v>44751</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44744</v>
+        <v>44751</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1369,14 +1369,14 @@
       <c r="K38" s="53"/>
     </row>
     <row r="39" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
       <c r="D39" s="43"/>
       <c r="E39" s="42"/>
       <c r="F39" s="20"/>
       <c r="G39" s="49"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
       <c r="J39" s="51"/>
       <c r="K39" s="53"/>
     </row>
@@ -1387,12 +1387,12 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
       <c r="J40" s="54"/>
       <c r="K40" s="55"/>
     </row>
@@ -1401,7 +1401,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   26  DEL    27      Al   03   DE   JULIO          2022</v>
+        <v>SEMANA   27  DEL    04      Al   10   DE   JULIO          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1441,25 +1441,25 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="62"/>
       <c r="F45" s="24"/>
       <c r="G45" s="49"/>
       <c r="H45" s="49"/>
       <c r="I45" s="49"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
     </row>
     <row r="46" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="64"/>
       <c r="F46" s="24"/>
       <c r="G46" s="49"/>
       <c r="H46" s="49"/>
       <c r="I46" s="49"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="64"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44744</v>
+        <v>44751</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA   27  DEL    04      Al   10   DE   JULIO          2022</t>
+    <t>SEMANA   28  DEL    11      Al   17   DE   JULIO          2022</t>
   </si>
 </sst>
 </file>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   27  DEL    04      Al   10   DE   JULIO          2022</v>
+        <v>SEMANA   28  DEL    11      Al   17   DE   JULIO          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44751</v>
+        <v>44758</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44751</v>
+        <v>44758</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>1120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>1120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   27  DEL    04      Al   10   DE   JULIO          2022</v>
+        <v>SEMANA   28  DEL    11      Al   17   DE   JULIO          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   27  DEL    04      Al   10   DE   JULIO          2022</v>
+        <v>SEMANA   28  DEL    11      Al   17   DE   JULIO          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44751</v>
+        <v>44758</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44751</v>
+        <v>44758</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1387,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1401,7 +1401,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   27  DEL    04      Al   10   DE   JULIO          2022</v>
+        <v>SEMANA   28  DEL    11      Al   17   DE   JULIO          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44751</v>
+        <v>44758</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA   28  DEL    11      Al   17   DE   JULIO          2022</t>
+    <t>SEMANA   29  DEL    18      Al   24   DE   JULIO          2022</t>
   </si>
 </sst>
 </file>
@@ -902,7 +902,7 @@
   <dimension ref="B1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   28  DEL    11      Al   17   DE   JULIO          2022</v>
+        <v>SEMANA   29  DEL    18      Al   24   DE   JULIO          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44758</v>
+        <v>44765</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44758</v>
+        <v>44765</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   28  DEL    11      Al   17   DE   JULIO          2022</v>
+        <v>SEMANA   29  DEL    18      Al   24   DE   JULIO          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   28  DEL    11      Al   17   DE   JULIO          2022</v>
+        <v>SEMANA   29  DEL    18      Al   24   DE   JULIO          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44758</v>
+        <v>44765</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44758</v>
+        <v>44765</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   28  DEL    11      Al   17   DE   JULIO          2022</v>
+        <v>SEMANA   29  DEL    18      Al   24   DE   JULIO          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44758</v>
+        <v>44765</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="8715" yWindow="1305" windowWidth="19275" windowHeight="13635"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="recibos" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA   29  DEL    18      Al   24   DE   JULIO          2022</t>
+    <t>SEMANA  30  DEL    25      Al   31   DE   JULIO          2022</t>
   </si>
 </sst>
 </file>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   29  DEL    18      Al   24   DE   JULIO          2022</v>
+        <v>SEMANA  30  DEL    25      Al   31   DE   JULIO          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44765</v>
+        <v>44772</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44765</v>
+        <v>44772</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>560</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>560</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA   29  DEL    18      Al   24   DE   JULIO          2022</v>
+        <v>SEMANA  30  DEL    25      Al   31   DE   JULIO          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA   29  DEL    18      Al   24   DE   JULIO          2022</v>
+        <v>SEMANA  30  DEL    25      Al   31   DE   JULIO          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44765</v>
+        <v>44772</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44765</v>
+        <v>44772</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA   29  DEL    18      Al   24   DE   JULIO          2022</v>
+        <v>SEMANA  30  DEL    25      Al   31   DE   JULIO          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44765</v>
+        <v>44772</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  30  DEL    25      Al   31   DE   JULIO          2022</t>
+    <t>SEMANA  31  DEL    01      Al   07   DE   AGOSTO          2022</t>
   </si>
 </sst>
 </file>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  30  DEL    25      Al   31   DE   JULIO          2022</v>
+        <v>SEMANA  31  DEL    01      Al   07   DE   AGOSTO          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44772</v>
+        <v>44779</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44772</v>
+        <v>44779</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>1400</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>1400</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  30  DEL    25      Al   31   DE   JULIO          2022</v>
+        <v>SEMANA  31  DEL    01      Al   07   DE   AGOSTO          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA  30  DEL    25      Al   31   DE   JULIO          2022</v>
+        <v>SEMANA  31  DEL    01      Al   07   DE   AGOSTO          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44772</v>
+        <v>44779</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44772</v>
+        <v>44779</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1387,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1401,7 +1401,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA  30  DEL    25      Al   31   DE   JULIO          2022</v>
+        <v>SEMANA  31  DEL    01      Al   07   DE   AGOSTO          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44772</v>
+        <v>44779</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  31  DEL    01      Al   07   DE   AGOSTO          2022</t>
+    <t>SEMANA  32  DEL    08      Al   14   DE   AGOSTO          2022</t>
   </si>
 </sst>
 </file>
@@ -902,7 +902,7 @@
   <dimension ref="B1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="I38" sqref="I37:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  31  DEL    01      Al   07   DE   AGOSTO          2022</v>
+        <v>SEMANA  32  DEL    08      Al   14   DE   AGOSTO          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44779</v>
+        <v>44786</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44779</v>
+        <v>44786</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  31  DEL    01      Al   07   DE   AGOSTO          2022</v>
+        <v>SEMANA  32  DEL    08      Al   14   DE   AGOSTO          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA  31  DEL    01      Al   07   DE   AGOSTO          2022</v>
+        <v>SEMANA  32  DEL    08      Al   14   DE   AGOSTO          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44779</v>
+        <v>44786</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44779</v>
+        <v>44786</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1387,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1401,7 +1401,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA  31  DEL    01      Al   07   DE   AGOSTO          2022</v>
+        <v>SEMANA  32  DEL    08      Al   14   DE   AGOSTO          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44779</v>
+        <v>44786</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  32  DEL    08      Al   14   DE   AGOSTO          2022</t>
+    <t>SEMANA  33  DEL    15      Al   21   DE   AGOSTO          2022</t>
   </si>
 </sst>
 </file>
@@ -902,7 +902,7 @@
   <dimension ref="B1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I38" sqref="I37:I38"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  32  DEL    08      Al   14   DE   AGOSTO          2022</v>
+        <v>SEMANA  33  DEL    15      Al   21   DE   AGOSTO          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44786</v>
+        <v>44793</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44786</v>
+        <v>44793</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  32  DEL    08      Al   14   DE   AGOSTO          2022</v>
+        <v>SEMANA  33  DEL    15      Al   21   DE   AGOSTO          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA  32  DEL    08      Al   14   DE   AGOSTO          2022</v>
+        <v>SEMANA  33  DEL    15      Al   21   DE   AGOSTO          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44786</v>
+        <v>44793</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44786</v>
+        <v>44793</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1387,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1401,7 +1401,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA  32  DEL    08      Al   14   DE   AGOSTO          2022</v>
+        <v>SEMANA  33  DEL    15      Al   21   DE   AGOSTO          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44786</v>
+        <v>44793</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  33  DEL    15      Al   21   DE   AGOSTO          2022</t>
+    <t>SEMANA  34  DEL    22      Al   28   DE   AGOSTO          2022</t>
   </si>
 </sst>
 </file>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  33  DEL    15      Al   21   DE   AGOSTO          2022</v>
+        <v>SEMANA  34  DEL    22      Al   28   DE   AGOSTO          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44793</v>
+        <v>44800</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44793</v>
+        <v>44800</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  33  DEL    15      Al   21   DE   AGOSTO          2022</v>
+        <v>SEMANA  34  DEL    22      Al   28   DE   AGOSTO          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA  33  DEL    15      Al   21   DE   AGOSTO          2022</v>
+        <v>SEMANA  34  DEL    22      Al   28   DE   AGOSTO          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44793</v>
+        <v>44800</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44793</v>
+        <v>44800</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1356,10 +1356,10 @@
         <v>17</v>
       </c>
       <c r="D38" s="21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E38" s="22">
-        <v>2500</v>
+        <v>2083</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="49"/>
@@ -1387,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1401,7 +1401,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>3750</v>
+        <v>2083</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA  33  DEL    15      Al   21   DE   AGOSTO          2022</v>
+        <v>SEMANA  34  DEL    22      Al   28   DE   AGOSTO          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44793</v>
+        <v>44800</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  34  DEL    22      Al   28   DE   AGOSTO          2022</t>
+    <t>SEMANA  35  DEL    29      Al   04   DE  SEPTIEMBRE          2022</t>
   </si>
 </sst>
 </file>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  34  DEL    22      Al   28   DE   AGOSTO          2022</v>
+        <v>SEMANA  35  DEL    29      Al   04   DE  SEPTIEMBRE          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44800</v>
+        <v>44807</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44800</v>
+        <v>44807</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  34  DEL    22      Al   28   DE   AGOSTO          2022</v>
+        <v>SEMANA  35  DEL    29      Al   04   DE  SEPTIEMBRE          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA  34  DEL    22      Al   28   DE   AGOSTO          2022</v>
+        <v>SEMANA  35  DEL    29      Al   04   DE  SEPTIEMBRE          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44800</v>
+        <v>44807</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44800</v>
+        <v>44807</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1356,10 +1356,10 @@
         <v>17</v>
       </c>
       <c r="D38" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38" s="22">
-        <v>2083</v>
+        <v>2500</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="49"/>
@@ -1401,7 +1401,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>2083</v>
+        <v>2500</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA  34  DEL    22      Al   28   DE   AGOSTO          2022</v>
+        <v>SEMANA  35  DEL    29      Al   04   DE  SEPTIEMBRE          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44800</v>
+        <v>44807</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  35  DEL    29      Al   04   DE  SEPTIEMBRE          2022</t>
+    <t>SEMANA  36  DEL    05      Al   11   DE  SEPTIEMBRE          2022</t>
   </si>
 </sst>
 </file>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  35  DEL    29      Al   04   DE  SEPTIEMBRE          2022</v>
+        <v>SEMANA  36  DEL    05      Al   11   DE  SEPTIEMBRE          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44807</v>
+        <v>44814</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44807</v>
+        <v>44814</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>560</v>
+        <v>980</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>560</v>
+        <v>980</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  35  DEL    29      Al   04   DE  SEPTIEMBRE          2022</v>
+        <v>SEMANA  36  DEL    05      Al   11   DE  SEPTIEMBRE          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA  35  DEL    29      Al   04   DE  SEPTIEMBRE          2022</v>
+        <v>SEMANA  36  DEL    05      Al   11   DE  SEPTIEMBRE          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44807</v>
+        <v>44814</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44807</v>
+        <v>44814</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1421,7 +1421,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA  35  DEL    29      Al   04   DE  SEPTIEMBRE          2022</v>
+        <v>SEMANA  36  DEL    05      Al   11   DE  SEPTIEMBRE          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44807</v>
+        <v>44814</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  36  DEL    05      Al   11   DE  SEPTIEMBRE          2022</t>
+    <t>SEMANA  37  DEL    12      Al   18   DE  SEPTIEMBRE          2022</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -583,6 +583,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -901,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,13 +942,13 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
-      <c r="D3" s="8">
-        <v>6</v>
+      <c r="D3" s="75">
+        <v>5</v>
       </c>
       <c r="E3" s="9">
-        <v>2200</v>
+        <v>1833</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
@@ -969,7 +972,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="44"/>
-      <c r="J4" s="21">
+      <c r="J4" s="75">
         <v>6</v>
       </c>
       <c r="K4" s="29">
@@ -1010,7 +1013,7 @@
       <c r="B7" s="7"/>
       <c r="E7" s="14">
         <f>SUM(E3:E6)</f>
-        <v>2200</v>
+        <v>1833</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="6"/>
@@ -1036,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  36  DEL    05      Al   11   DE  SEPTIEMBRE          2022</v>
+        <v>SEMANA  37  DEL    12      Al   18   DE  SEPTIEMBRE          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1090,7 +1093,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44814</v>
+        <v>44821</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1099,7 +1102,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44814</v>
+        <v>44821</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1153,12 +1156,12 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="7"/>
-      <c r="D22" s="21">
+      <c r="D22" s="75">
         <v>6</v>
       </c>
       <c r="E22" s="29">
@@ -1206,7 +1209,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>980</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1230,13 +1233,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  36  DEL    05      Al   11   DE  SEPTIEMBRE          2022</v>
+        <v>SEMANA  37  DEL    12      Al   18   DE  SEPTIEMBRE          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA  36  DEL    05      Al   11   DE  SEPTIEMBRE          2022</v>
+        <v>SEMANA  37  DEL    12      Al   18   DE  SEPTIEMBRE          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1290,7 +1293,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44814</v>
+        <v>44821</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1299,7 +1302,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44814</v>
+        <v>44821</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1387,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1401,7 +1404,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1421,7 +1424,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA  36  DEL    05      Al   11   DE  SEPTIEMBRE          2022</v>
+        <v>SEMANA  37  DEL    12      Al   18   DE  SEPTIEMBRE          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1482,7 +1485,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44814</v>
+        <v>44821</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  37  DEL    12      Al   18   DE  SEPTIEMBRE          2022</t>
+    <t>SEMANA  38  DEL    19      Al   25   DE  SEPTIEMBRE          2022</t>
   </si>
 </sst>
 </file>
@@ -542,6 +542,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -583,9 +586,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,11 +944,11 @@
     </row>
     <row r="3" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
-      <c r="D3" s="75">
-        <v>5</v>
+      <c r="D3" s="61">
+        <v>6</v>
       </c>
       <c r="E3" s="9">
-        <v>1833</v>
+        <v>2200</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
@@ -958,10 +958,10 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="47"/>
       <c r="E4" s="11">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="44"/>
-      <c r="J4" s="75">
+      <c r="J4" s="61">
         <v>6</v>
       </c>
       <c r="K4" s="29">
@@ -980,8 +980,8 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="B7" s="7"/>
       <c r="E7" s="14">
         <f>SUM(E3:E6)</f>
-        <v>1833</v>
+        <v>2200</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="6"/>
@@ -1039,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  37  DEL    12      Al   18   DE  SEPTIEMBRE          2022</v>
+        <v>SEMANA  38  DEL    19      Al   25   DE  SEPTIEMBRE          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1052,30 +1052,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="24"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="24"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="69"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="24"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44821</v>
+        <v>44828</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44821</v>
+        <v>44828</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1156,12 +1156,12 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>1540</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="7"/>
-      <c r="D22" s="75">
+      <c r="D22" s="61">
         <v>6</v>
       </c>
       <c r="E22" s="29">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="72"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="21" t="s">
         <v>5</v>
       </c>
@@ -1197,8 +1197,8 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="73"/>
-      <c r="C24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="31" t="s">
         <v>6</v>
       </c>
@@ -1209,7 +1209,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>1540</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1233,13 +1233,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  37  DEL    12      Al   18   DE  SEPTIEMBRE          2022</v>
+        <v>SEMANA  38  DEL    19      Al   25   DE  SEPTIEMBRE          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA  37  DEL    12      Al   18   DE  SEPTIEMBRE          2022</v>
+        <v>SEMANA  38  DEL    19      Al   25   DE  SEPTIEMBRE          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1252,21 +1252,21 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="63"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="65"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44821</v>
+        <v>44828</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44821</v>
+        <v>44828</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1372,8 +1372,8 @@
       <c r="K38" s="53"/>
     </row>
     <row r="39" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
       <c r="D39" s="43"/>
       <c r="E39" s="42"/>
       <c r="F39" s="20"/>
@@ -1390,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1404,7 +1404,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1424,7 +1424,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA  37  DEL    12      Al   18   DE  SEPTIEMBRE          2022</v>
+        <v>SEMANA  38  DEL    19      Al   25   DE  SEPTIEMBRE          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1444,25 +1444,25 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="63"/>
       <c r="F45" s="24"/>
       <c r="G45" s="49"/>
       <c r="H45" s="49"/>
       <c r="I45" s="49"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
     </row>
     <row r="46" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="65"/>
       <c r="F46" s="24"/>
       <c r="G46" s="49"/>
       <c r="H46" s="49"/>
       <c r="I46" s="49"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44821</v>
+        <v>44828</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  38  DEL    19      Al   25   DE  SEPTIEMBRE          2022</t>
+    <t>SEMANA  39  DEL    26      Al   02   DE OCTUBRE          2022</t>
   </si>
 </sst>
 </file>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  38  DEL    19      Al   25   DE  SEPTIEMBRE          2022</v>
+        <v>SEMANA  39  DEL    26      Al   02   DE OCTUBRE          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44828</v>
+        <v>44835</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44828</v>
+        <v>44835</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1156,7 +1156,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>0</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1209,7 +1209,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>0</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1233,13 +1233,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  38  DEL    19      Al   25   DE  SEPTIEMBRE          2022</v>
+        <v>SEMANA  39  DEL    26      Al   02   DE OCTUBRE          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA  38  DEL    19      Al   25   DE  SEPTIEMBRE          2022</v>
+        <v>SEMANA  39  DEL    26      Al   02   DE OCTUBRE          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44828</v>
+        <v>44835</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44828</v>
+        <v>44835</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1390,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1404,7 +1404,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>2500</v>
+        <v>3333</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1424,7 +1424,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA  38  DEL    19      Al   25   DE  SEPTIEMBRE          2022</v>
+        <v>SEMANA  39  DEL    26      Al   02   DE OCTUBRE          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44828</v>
+        <v>44835</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  39  DEL    26      Al   02   DE OCTUBRE          2022</t>
+    <t>SEMANA  40  DEL    03      Al   09   DE OCTUBRE          2022</t>
   </si>
 </sst>
 </file>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  39  DEL    26      Al   02   DE OCTUBRE          2022</v>
+        <v>SEMANA  40  DEL    03      Al   09   DE OCTUBRE          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44835</v>
+        <v>44842</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44835</v>
+        <v>44842</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1233,13 +1233,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  39  DEL    26      Al   02   DE OCTUBRE          2022</v>
+        <v>SEMANA  40  DEL    03      Al   09   DE OCTUBRE          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA  39  DEL    26      Al   02   DE OCTUBRE          2022</v>
+        <v>SEMANA  40  DEL    03      Al   09   DE OCTUBRE          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44835</v>
+        <v>44842</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44835</v>
+        <v>44842</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1362,7 +1362,7 @@
         <v>6</v>
       </c>
       <c r="E38" s="22">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="49"/>
@@ -1390,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>833</v>
+        <v>233</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1404,7 +1404,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>3333</v>
+        <v>3033</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1424,7 +1424,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA  39  DEL    26      Al   02   DE OCTUBRE          2022</v>
+        <v>SEMANA  40  DEL    03      Al   09   DE OCTUBRE          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44835</v>
+        <v>44842</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  40  DEL    03      Al   09   DE OCTUBRE          2022</t>
+    <t>SEMANA  41  DEL    10      Al   16   DE OCTUBRE          2022</t>
   </si>
 </sst>
 </file>
@@ -905,7 +905,7 @@
   <dimension ref="B1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  40  DEL    03      Al   09   DE OCTUBRE          2022</v>
+        <v>SEMANA  41  DEL    10      Al   16   DE OCTUBRE          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44842</v>
+        <v>44849</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44842</v>
+        <v>44849</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1156,7 +1156,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>1400</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1209,7 +1209,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>1400</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1233,13 +1233,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  40  DEL    03      Al   09   DE OCTUBRE          2022</v>
+        <v>SEMANA  41  DEL    10      Al   16   DE OCTUBRE          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA  40  DEL    03      Al   09   DE OCTUBRE          2022</v>
+        <v>SEMANA  41  DEL    10      Al   16   DE OCTUBRE          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44842</v>
+        <v>44849</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44842</v>
+        <v>44849</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1390,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="39">
-        <v>233</v>
+        <v>1400</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="49"/>
@@ -1404,7 +1404,7 @@
       <c r="C41" s="38"/>
       <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
-        <v>3033</v>
+        <v>4200</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
@@ -1424,7 +1424,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA  40  DEL    03      Al   09   DE OCTUBRE          2022</v>
+        <v>SEMANA  41  DEL    10      Al   16   DE OCTUBRE          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44842</v>
+        <v>44849</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  41  DEL    10      Al   16   DE OCTUBRE          2022</t>
+    <t>SEMANA  42  DEL    17      Al   23   DE OCTUBRE          2022</t>
   </si>
 </sst>
 </file>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +948,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="9">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
@@ -1013,7 +1013,7 @@
       <c r="B7" s="7"/>
       <c r="E7" s="14">
         <f>SUM(E3:E6)</f>
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="6"/>
@@ -1039,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  41  DEL    10      Al   16   DE OCTUBRE          2022</v>
+        <v>SEMANA  42  DEL    17      Al   23   DE OCTUBRE          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44849</v>
+        <v>44856</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44849</v>
+        <v>44856</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1156,7 +1156,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="21"/>
       <c r="K21" s="29">
-        <v>560</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1209,7 +1209,7 @@
       <c r="H24" s="7"/>
       <c r="K24" s="22">
         <f>SUM(K21:K23)</f>
-        <v>560</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1233,13 +1233,13 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  41  DEL    10      Al   16   DE OCTUBRE          2022</v>
+        <v>SEMANA  42  DEL    17      Al   23   DE OCTUBRE          2022</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="str">
         <f>B27</f>
-        <v>SEMANA  41  DEL    10      Al   16   DE OCTUBRE          2022</v>
+        <v>SEMANA  42  DEL    17      Al   23   DE OCTUBRE          2022</v>
       </c>
       <c r="K27" s="23"/>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C32" s="40">
         <f ca="1">I14</f>
-        <v>44849</v>
+        <v>44856</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I32" s="40">
         <f ca="1">C32</f>
-        <v>44849</v>
+        <v>44856</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -1424,7 +1424,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <f>H27</f>
-        <v>SEMANA  41  DEL    10      Al   16   DE OCTUBRE          2022</v>
+        <v>SEMANA  42  DEL    17      Al   23   DE OCTUBRE          2022</v>
       </c>
       <c r="E43" s="23"/>
       <c r="G43" s="49"/>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C48" s="40">
         <f ca="1">C32</f>
-        <v>44849</v>
+        <v>44856</v>
       </c>
       <c r="E48" s="23"/>
       <c r="G48" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  42  DEL    17      Al   23   DE OCTUBRE          2022</t>
+    <t>SEMANA  43  DEL    24      Al   30   DE OCTUBRE          2022</t>
   </si>
 </sst>
 </file>
@@ -902,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K51"/>
+  <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  42  DEL    17      Al   23   DE OCTUBRE          2022</v>
+        <v>SEMANA  43  DEL    24      Al   30   DE OCTUBRE          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44856</v>
+        <v>44862</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44856</v>
+        <v>44862</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1120,419 +1120,446 @@
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="1" t="s">
+      <c r="E21" s="4"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="3" t="s">
+      <c r="I21" s="2"/>
+      <c r="J21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="29"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="29">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
-      <c r="D22" s="61">
+      <c r="D22" s="21"/>
+      <c r="E22" s="29"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="29">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="7"/>
+      <c r="D23" s="61">
         <v>6</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E23" s="29">
         <v>1800</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="13" t="s">
+      <c r="G23" s="6"/>
+      <c r="H23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="30">
+      <c r="J23" s="21"/>
+      <c r="K23" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="72" t="s">
+    <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="21" t="s">
+      <c r="C24" s="73"/>
+      <c r="D24" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E24" s="30">
         <v>0</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="10"/>
-      <c r="J23" s="17" t="s">
+      <c r="G24" s="6"/>
+      <c r="H24" s="10"/>
+      <c r="J24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K24" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="74"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="31" t="s">
+    <row r="25" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E25" s="32">
         <v>0</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="K24" s="22">
-        <f>SUM(K21:K23)</f>
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="E25" s="22">
-        <f>SUM(E22:E24)</f>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="K25" s="22">
+        <f>SUM(K22:K24)</f>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="E26" s="22">
+        <f>SUM(E23:E25)</f>
         <v>1800</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
-      <c r="K25" s="22"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="E26" s="22"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="K26" s="23"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="str">
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="E27" s="22"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="K27" s="23"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  42  DEL    17      Al   23   DE OCTUBRE          2022</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7" t="str">
-        <f>B27</f>
-        <v>SEMANA  42  DEL    17      Al   23   DE OCTUBRE          2022</v>
-      </c>
-      <c r="K27" s="23"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
+        <v>SEMANA  43  DEL    24      Al   30   DE OCTUBRE          2022</v>
+      </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7" t="str">
+        <f>B28</f>
+        <v>SEMANA  43  DEL    24      Al   30   DE OCTUBRE          2022</v>
+      </c>
       <c r="K28" s="23"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="63"/>
+      <c r="E29" s="23"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="63"/>
+      <c r="K29" s="23"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="65"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="65"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="63"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="23"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="I31" t="s">
+      <c r="J31" s="64"/>
+      <c r="K31" s="65"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="J31" t="s">
+      <c r="D32" t="s">
         <v>3</v>
-      </c>
-      <c r="K31" s="23"/>
-    </row>
-    <row r="32" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="40">
-        <f ca="1">I14</f>
-        <v>44856</v>
       </c>
       <c r="E32" s="23"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="7"/>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="23"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="40">
+        <f ca="1">I14</f>
+        <v>44862</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="40">
-        <f ca="1">C32</f>
-        <v>44856</v>
-      </c>
-      <c r="K32" s="23"/>
-    </row>
-    <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="28"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I33" s="40">
+        <f ca="1">C33</f>
+        <v>44862</v>
+      </c>
+      <c r="K33" s="23"/>
+    </row>
+    <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28"/>
       <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-    </row>
-    <row r="36" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52"/>
-    </row>
-    <row r="37" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="53"/>
-    </row>
-    <row r="38" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="21">
-        <v>6</v>
-      </c>
-      <c r="E38" s="22">
-        <v>2800</v>
-      </c>
-      <c r="F38" s="33"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="28"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G37" s="48"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G38" s="49"/>
       <c r="H38" s="49"/>
       <c r="I38" s="49"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="53"/>
-    </row>
-    <row r="39" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="20"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+    </row>
+    <row r="39" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="49"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="49"/>
       <c r="J39" s="51"/>
-      <c r="K39" s="53"/>
-    </row>
-    <row r="40" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="39">
-        <v>1400</v>
-      </c>
-      <c r="F40" s="20"/>
+      <c r="K39" s="52"/>
+    </row>
+    <row r="40" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="49"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="55"/>
-    </row>
-    <row r="41" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="37"/>
-      <c r="C41" s="38"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="53"/>
+    </row>
+    <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="21">
+        <v>6</v>
+      </c>
       <c r="E41" s="22">
-        <f>SUM(E38:E40)</f>
-        <v>4200</v>
-      </c>
+        <v>2800</v>
+      </c>
+      <c r="F41" s="33"/>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
       <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="56"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="E42" s="23"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="53"/>
+    </row>
+    <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="str">
-        <f>H27</f>
-        <v>SEMANA  42  DEL    17      Al   23   DE OCTUBRE          2022</v>
-      </c>
-      <c r="E43" s="23"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="53"/>
+    </row>
+    <row r="43" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="39">
+        <v>1400</v>
+      </c>
+      <c r="F43" s="20"/>
       <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="E44" s="34"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="55"/>
+    </row>
+    <row r="44" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+      <c r="E44" s="22">
+        <f>SUM(E41:E43)</f>
+        <v>4200</v>
+      </c>
       <c r="G44" s="49"/>
       <c r="H44" s="49"/>
       <c r="I44" s="49"/>
       <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
+      <c r="K44" s="56"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="24"/>
+      <c r="E45" s="23"/>
       <c r="G45" s="49"/>
       <c r="H45" s="49"/>
       <c r="I45" s="49"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-    </row>
-    <row r="46" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="24"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="str">
+        <f>H28</f>
+        <v>SEMANA  43  DEL    24      Al   30   DE OCTUBRE          2022</v>
+      </c>
+      <c r="E46" s="23"/>
       <c r="G46" s="49"/>
       <c r="H46" s="49"/>
       <c r="I46" s="49"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="23"/>
+      <c r="E47" s="34"/>
       <c r="G47" s="49"/>
       <c r="H47" s="49"/>
       <c r="I47" s="49"/>
       <c r="J47" s="49"/>
       <c r="K47" s="49"/>
     </row>
-    <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="40">
-        <f ca="1">C32</f>
-        <v>44856</v>
-      </c>
-      <c r="E48" s="23"/>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="24"/>
       <c r="G48" s="49"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-    </row>
-    <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="28"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+    </row>
+    <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="24"/>
       <c r="G49" s="49"/>
       <c r="H49" s="49"/>
       <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="35"/>
-      <c r="F50" s="48"/>
+      <c r="B50" s="7"/>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="23"/>
       <c r="G50" s="49"/>
       <c r="H50" s="49"/>
-      <c r="I50" s="59"/>
+      <c r="I50" s="49"/>
       <c r="J50" s="49"/>
       <c r="K50" s="49"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="35"/>
-      <c r="F51" s="36"/>
-      <c r="I51" s="35"/>
+    <row r="51" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="40">
+        <f ca="1">C33</f>
+        <v>44862</v>
+      </c>
+      <c r="E51" s="23"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+    </row>
+    <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="26"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="28"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="35"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C54" s="35"/>
+      <c r="F54" s="36"/>
+      <c r="I54" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="D45:E46"/>
-    <mergeCell ref="J45:K46"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
     <mergeCell ref="B4:C5"/>
-    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="J30:K31"/>
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D29:E30"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="D30:E31"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B24:C25"/>
   </mergeCells>
-  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  43  DEL    24      Al   30   DE OCTUBRE          2022</t>
+    <t>SEMANA  44  DEL    31      Al   06   DE  NOVIEMBRE          2022</t>
   </si>
 </sst>
 </file>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  43  DEL    24      Al   30   DE OCTUBRE          2022</v>
+        <v>SEMANA  44  DEL    31      Al   06   DE  NOVIEMBRE          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44862</v>
+        <v>44870</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44862</v>
+        <v>44870</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="H22" s="7"/>
       <c r="J22" s="21"/>
       <c r="K22" s="29">
-        <v>1680</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1186,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="29">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="13" t="s">
@@ -1230,14 +1230,14 @@
       <c r="H25" s="7"/>
       <c r="K25" s="22">
         <f>SUM(K22:K24)</f>
-        <v>1680</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="E26" s="22">
         <f>SUM(E23:E25)</f>
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="37"/>
@@ -1254,13 +1254,13 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  43  DEL    24      Al   30   DE OCTUBRE          2022</v>
+        <v>SEMANA  44  DEL    31      Al   06   DE  NOVIEMBRE          2022</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="str">
         <f>B28</f>
-        <v>SEMANA  43  DEL    24      Al   30   DE OCTUBRE          2022</v>
+        <v>SEMANA  44  DEL    31      Al   06   DE  NOVIEMBRE          2022</v>
       </c>
       <c r="K28" s="23"/>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C33" s="40">
         <f ca="1">I14</f>
-        <v>44862</v>
+        <v>44870</v>
       </c>
       <c r="E33" s="23"/>
       <c r="G33" s="6"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I33" s="40">
         <f ca="1">C33</f>
-        <v>44862</v>
+        <v>44870</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -1451,7 +1451,7 @@
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="str">
         <f>H28</f>
-        <v>SEMANA  43  DEL    24      Al   30   DE OCTUBRE          2022</v>
+        <v>SEMANA  44  DEL    31      Al   06   DE  NOVIEMBRE          2022</v>
       </c>
       <c r="E46" s="23"/>
       <c r="G46" s="49"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C51" s="40">
         <f ca="1">C33</f>
-        <v>44862</v>
+        <v>44870</v>
       </c>
       <c r="E51" s="23"/>
       <c r="G51" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  44  DEL    31      Al   06   DE  NOVIEMBRE          2022</t>
+    <t>SEMANA  45  DEL    07      Al   13   DE  NOVIEMBRE          2022</t>
   </si>
 </sst>
 </file>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  44  DEL    31      Al   06   DE  NOVIEMBRE          2022</v>
+        <v>SEMANA  45  DEL    07      Al   13   DE  NOVIEMBRE          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44870</v>
+        <v>44877</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44870</v>
+        <v>44877</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="H22" s="7"/>
       <c r="J22" s="21"/>
       <c r="K22" s="29">
-        <v>560</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1230,7 +1230,7 @@
       <c r="H25" s="7"/>
       <c r="K25" s="22">
         <f>SUM(K22:K24)</f>
-        <v>560</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1254,13 +1254,13 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  44  DEL    31      Al   06   DE  NOVIEMBRE          2022</v>
+        <v>SEMANA  45  DEL    07      Al   13   DE  NOVIEMBRE          2022</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="str">
         <f>B28</f>
-        <v>SEMANA  44  DEL    31      Al   06   DE  NOVIEMBRE          2022</v>
+        <v>SEMANA  45  DEL    07      Al   13   DE  NOVIEMBRE          2022</v>
       </c>
       <c r="K28" s="23"/>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C33" s="40">
         <f ca="1">I14</f>
-        <v>44870</v>
+        <v>44877</v>
       </c>
       <c r="E33" s="23"/>
       <c r="G33" s="6"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I33" s="40">
         <f ca="1">C33</f>
-        <v>44870</v>
+        <v>44877</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -1417,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="39">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="49"/>
@@ -1431,7 +1431,7 @@
       <c r="C44" s="38"/>
       <c r="E44" s="22">
         <f>SUM(E41:E43)</f>
-        <v>4200</v>
+        <v>2800</v>
       </c>
       <c r="G44" s="49"/>
       <c r="H44" s="49"/>
@@ -1451,7 +1451,7 @@
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="str">
         <f>H28</f>
-        <v>SEMANA  44  DEL    31      Al   06   DE  NOVIEMBRE          2022</v>
+        <v>SEMANA  45  DEL    07      Al   13   DE  NOVIEMBRE          2022</v>
       </c>
       <c r="E46" s="23"/>
       <c r="G46" s="49"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C51" s="40">
         <f ca="1">C33</f>
-        <v>44870</v>
+        <v>44877</v>
       </c>
       <c r="E51" s="23"/>
       <c r="G51" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  45  DEL    07      Al   13   DE  NOVIEMBRE          2022</t>
+    <t>SEMANA  46  DEL    14      Al   20   DE  NOVIEMBRE          2022</t>
   </si>
 </sst>
 </file>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  45  DEL    07      Al   13   DE  NOVIEMBRE          2022</v>
+        <v>SEMANA  46  DEL    14      Al   20   DE  NOVIEMBRE          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44877</v>
+        <v>44884</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44877</v>
+        <v>44884</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="H22" s="7"/>
       <c r="J22" s="21"/>
       <c r="K22" s="29">
-        <v>1120</v>
+        <v>980</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1230,7 +1230,7 @@
       <c r="H25" s="7"/>
       <c r="K25" s="22">
         <f>SUM(K22:K24)</f>
-        <v>1120</v>
+        <v>980</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1254,13 +1254,13 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  45  DEL    07      Al   13   DE  NOVIEMBRE          2022</v>
+        <v>SEMANA  46  DEL    14      Al   20   DE  NOVIEMBRE          2022</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="str">
         <f>B28</f>
-        <v>SEMANA  45  DEL    07      Al   13   DE  NOVIEMBRE          2022</v>
+        <v>SEMANA  46  DEL    14      Al   20   DE  NOVIEMBRE          2022</v>
       </c>
       <c r="K28" s="23"/>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C33" s="40">
         <f ca="1">I14</f>
-        <v>44877</v>
+        <v>44884</v>
       </c>
       <c r="E33" s="23"/>
       <c r="G33" s="6"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I33" s="40">
         <f ca="1">C33</f>
-        <v>44877</v>
+        <v>44884</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -1417,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="39">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="49"/>
@@ -1431,7 +1431,7 @@
       <c r="C44" s="38"/>
       <c r="E44" s="22">
         <f>SUM(E41:E43)</f>
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="G44" s="49"/>
       <c r="H44" s="49"/>
@@ -1451,7 +1451,7 @@
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="str">
         <f>H28</f>
-        <v>SEMANA  45  DEL    07      Al   13   DE  NOVIEMBRE          2022</v>
+        <v>SEMANA  46  DEL    14      Al   20   DE  NOVIEMBRE          2022</v>
       </c>
       <c r="E46" s="23"/>
       <c r="G46" s="49"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C51" s="40">
         <f ca="1">C33</f>
-        <v>44877</v>
+        <v>44884</v>
       </c>
       <c r="E51" s="23"/>
       <c r="G51" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  46  DEL    14      Al   20   DE  NOVIEMBRE          2022</t>
+    <t>SEMANA  47  DEL    21      Al   27   DE  NOVIEMBRE          2022</t>
   </si>
 </sst>
 </file>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  46  DEL    14      Al   20   DE  NOVIEMBRE          2022</v>
+        <v>SEMANA  47  DEL    21      Al   27   DE  NOVIEMBRE          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44884</v>
+        <v>44891</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44884</v>
+        <v>44891</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="H22" s="7"/>
       <c r="J22" s="21"/>
       <c r="K22" s="29">
-        <v>980</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1230,7 +1230,7 @@
       <c r="H25" s="7"/>
       <c r="K25" s="22">
         <f>SUM(K22:K24)</f>
-        <v>980</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1254,13 +1254,13 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  46  DEL    14      Al   20   DE  NOVIEMBRE          2022</v>
+        <v>SEMANA  47  DEL    21      Al   27   DE  NOVIEMBRE          2022</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="str">
         <f>B28</f>
-        <v>SEMANA  46  DEL    14      Al   20   DE  NOVIEMBRE          2022</v>
+        <v>SEMANA  47  DEL    21      Al   27   DE  NOVIEMBRE          2022</v>
       </c>
       <c r="K28" s="23"/>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C33" s="40">
         <f ca="1">I14</f>
-        <v>44884</v>
+        <v>44891</v>
       </c>
       <c r="E33" s="23"/>
       <c r="G33" s="6"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I33" s="40">
         <f ca="1">C33</f>
-        <v>44884</v>
+        <v>44891</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -1389,7 +1389,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="22">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="49"/>
@@ -1417,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="39">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="49"/>
@@ -1431,7 +1431,7 @@
       <c r="C44" s="38"/>
       <c r="E44" s="22">
         <f>SUM(E41:E43)</f>
-        <v>4200</v>
+        <v>2200</v>
       </c>
       <c r="G44" s="49"/>
       <c r="H44" s="49"/>
@@ -1451,7 +1451,7 @@
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="str">
         <f>H28</f>
-        <v>SEMANA  46  DEL    14      Al   20   DE  NOVIEMBRE          2022</v>
+        <v>SEMANA  47  DEL    21      Al   27   DE  NOVIEMBRE          2022</v>
       </c>
       <c r="E46" s="23"/>
       <c r="G46" s="49"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C51" s="40">
         <f ca="1">C33</f>
-        <v>44884</v>
+        <v>44891</v>
       </c>
       <c r="E51" s="23"/>
       <c r="G51" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  47  DEL    21      Al   27   DE  NOVIEMBRE          2022</t>
+    <t>SEMANA  48   DEL    28      Al   04   DE    DICIEMBRE          2022</t>
   </si>
 </sst>
 </file>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  47  DEL    21      Al   27   DE  NOVIEMBRE          2022</v>
+        <v>SEMANA  48   DEL    28      Al   04   DE    DICIEMBRE          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44891</v>
+        <v>44898</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44891</v>
+        <v>44898</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1254,13 +1254,13 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  47  DEL    21      Al   27   DE  NOVIEMBRE          2022</v>
+        <v>SEMANA  48   DEL    28      Al   04   DE    DICIEMBRE          2022</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="str">
         <f>B28</f>
-        <v>SEMANA  47  DEL    21      Al   27   DE  NOVIEMBRE          2022</v>
+        <v>SEMANA  48   DEL    28      Al   04   DE    DICIEMBRE          2022</v>
       </c>
       <c r="K28" s="23"/>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C33" s="40">
         <f ca="1">I14</f>
-        <v>44891</v>
+        <v>44898</v>
       </c>
       <c r="E33" s="23"/>
       <c r="G33" s="6"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I33" s="40">
         <f ca="1">C33</f>
-        <v>44891</v>
+        <v>44898</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -1389,7 +1389,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="22">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="49"/>
@@ -1417,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="39">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="49"/>
@@ -1431,7 +1431,7 @@
       <c r="C44" s="38"/>
       <c r="E44" s="22">
         <f>SUM(E41:E43)</f>
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="G44" s="49"/>
       <c r="H44" s="49"/>
@@ -1451,7 +1451,7 @@
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="str">
         <f>H28</f>
-        <v>SEMANA  47  DEL    21      Al   27   DE  NOVIEMBRE          2022</v>
+        <v>SEMANA  48   DEL    28      Al   04   DE    DICIEMBRE          2022</v>
       </c>
       <c r="E46" s="23"/>
       <c r="G46" s="49"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C51" s="40">
         <f ca="1">C33</f>
-        <v>44891</v>
+        <v>44898</v>
       </c>
       <c r="E51" s="23"/>
       <c r="G51" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  48   DEL    28      Al   04   DE    DICIEMBRE          2022</t>
+    <t>SEMANA  49   DEL    05      Al   11   DE    DICIEMBRE          2022</t>
   </si>
 </sst>
 </file>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  48   DEL    28      Al   04   DE    DICIEMBRE          2022</v>
+        <v>SEMANA  49   DEL    05      Al   11   DE    DICIEMBRE          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="H22" s="7"/>
       <c r="J22" s="21"/>
       <c r="K22" s="29">
-        <v>1120</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1230,7 +1230,7 @@
       <c r="H25" s="7"/>
       <c r="K25" s="22">
         <f>SUM(K22:K24)</f>
-        <v>1120</v>
+        <v>840</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1254,13 +1254,13 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  48   DEL    28      Al   04   DE    DICIEMBRE          2022</v>
+        <v>SEMANA  49   DEL    05      Al   11   DE    DICIEMBRE          2022</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="str">
         <f>B28</f>
-        <v>SEMANA  48   DEL    28      Al   04   DE    DICIEMBRE          2022</v>
+        <v>SEMANA  49   DEL    05      Al   11   DE    DICIEMBRE          2022</v>
       </c>
       <c r="K28" s="23"/>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C33" s="40">
         <f ca="1">I14</f>
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="E33" s="23"/>
       <c r="G33" s="6"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I33" s="40">
         <f ca="1">C33</f>
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -1417,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="39">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="49"/>
@@ -1431,7 +1431,7 @@
       <c r="C44" s="38"/>
       <c r="E44" s="22">
         <f>SUM(E41:E43)</f>
-        <v>4200</v>
+        <v>2800</v>
       </c>
       <c r="G44" s="49"/>
       <c r="H44" s="49"/>
@@ -1451,7 +1451,7 @@
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="str">
         <f>H28</f>
-        <v>SEMANA  48   DEL    28      Al   04   DE    DICIEMBRE          2022</v>
+        <v>SEMANA  49   DEL    05      Al   11   DE    DICIEMBRE          2022</v>
       </c>
       <c r="E46" s="23"/>
       <c r="G46" s="49"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C51" s="40">
         <f ca="1">C33</f>
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="E51" s="23"/>
       <c r="G51" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  49   DEL    05      Al   11   DE    DICIEMBRE          2022</t>
+    <t>SEMANA  50   DEL    12      Al   18   DE    DICIEMBRE          2022</t>
   </si>
 </sst>
 </file>
@@ -904,7 +904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -1039,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  49   DEL    05      Al   11   DE    DICIEMBRE          2022</v>
+        <v>SEMANA  50   DEL    12      Al   18   DE    DICIEMBRE          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44905</v>
+        <v>44912</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44905</v>
+        <v>44912</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="H22" s="7"/>
       <c r="J22" s="21"/>
       <c r="K22" s="29">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1186,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="29">
-        <v>2300</v>
+        <v>2108</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="13" t="s">
@@ -1230,14 +1230,14 @@
       <c r="H25" s="7"/>
       <c r="K25" s="22">
         <f>SUM(K22:K24)</f>
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="E26" s="22">
         <f>SUM(E23:E25)</f>
-        <v>2300</v>
+        <v>2108</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="37"/>
@@ -1254,13 +1254,13 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  49   DEL    05      Al   11   DE    DICIEMBRE          2022</v>
+        <v>SEMANA  50   DEL    12      Al   18   DE    DICIEMBRE          2022</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="str">
         <f>B28</f>
-        <v>SEMANA  49   DEL    05      Al   11   DE    DICIEMBRE          2022</v>
+        <v>SEMANA  50   DEL    12      Al   18   DE    DICIEMBRE          2022</v>
       </c>
       <c r="K28" s="23"/>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C33" s="40">
         <f ca="1">I14</f>
-        <v>44905</v>
+        <v>44912</v>
       </c>
       <c r="E33" s="23"/>
       <c r="G33" s="6"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I33" s="40">
         <f ca="1">C33</f>
-        <v>44905</v>
+        <v>44912</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -1417,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="39">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="49"/>
@@ -1431,7 +1431,7 @@
       <c r="C44" s="38"/>
       <c r="E44" s="22">
         <f>SUM(E41:E43)</f>
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="G44" s="49"/>
       <c r="H44" s="49"/>
@@ -1451,7 +1451,7 @@
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="str">
         <f>H28</f>
-        <v>SEMANA  49   DEL    05      Al   11   DE    DICIEMBRE          2022</v>
+        <v>SEMANA  50   DEL    12      Al   18   DE    DICIEMBRE          2022</v>
       </c>
       <c r="E46" s="23"/>
       <c r="G46" s="49"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C51" s="40">
         <f ca="1">C33</f>
-        <v>44905</v>
+        <v>44912</v>
       </c>
       <c r="E51" s="23"/>
       <c r="G51" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  50   DEL    12      Al   18   DE    DICIEMBRE          2022</t>
+    <t>SEMANA  52   DEL    26      Al   01   DE    ENERO          2022</t>
   </si>
 </sst>
 </file>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  50   DEL    12      Al   18   DE    DICIEMBRE          2022</v>
+        <v>SEMANA  52   DEL    26      Al   01   DE    ENERO          2022</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44912</v>
+        <v>44925</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44912</v>
+        <v>44925</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="H22" s="7"/>
       <c r="J22" s="21"/>
       <c r="K22" s="29">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1186,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="29">
-        <v>2108</v>
+        <v>2300</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="13" t="s">
@@ -1230,14 +1230,14 @@
       <c r="H25" s="7"/>
       <c r="K25" s="22">
         <f>SUM(K22:K24)</f>
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="E26" s="22">
         <f>SUM(E23:E25)</f>
-        <v>2108</v>
+        <v>2300</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="37"/>
@@ -1254,13 +1254,13 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  50   DEL    12      Al   18   DE    DICIEMBRE          2022</v>
+        <v>SEMANA  52   DEL    26      Al   01   DE    ENERO          2022</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="str">
         <f>B28</f>
-        <v>SEMANA  50   DEL    12      Al   18   DE    DICIEMBRE          2022</v>
+        <v>SEMANA  52   DEL    26      Al   01   DE    ENERO          2022</v>
       </c>
       <c r="K28" s="23"/>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C33" s="40">
         <f ca="1">I14</f>
-        <v>44912</v>
+        <v>44925</v>
       </c>
       <c r="E33" s="23"/>
       <c r="G33" s="6"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I33" s="40">
         <f ca="1">C33</f>
-        <v>44912</v>
+        <v>44925</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -1417,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="39">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="49"/>
@@ -1431,7 +1431,7 @@
       <c r="C44" s="38"/>
       <c r="E44" s="22">
         <f>SUM(E41:E43)</f>
-        <v>4200</v>
+        <v>2800</v>
       </c>
       <c r="G44" s="49"/>
       <c r="H44" s="49"/>
@@ -1451,7 +1451,7 @@
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="str">
         <f>H28</f>
-        <v>SEMANA  50   DEL    12      Al   18   DE    DICIEMBRE          2022</v>
+        <v>SEMANA  52   DEL    26      Al   01   DE    ENERO          2022</v>
       </c>
       <c r="E46" s="23"/>
       <c r="G46" s="49"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C51" s="40">
         <f ca="1">C33</f>
-        <v>44912</v>
+        <v>44925</v>
       </c>
       <c r="E51" s="23"/>
       <c r="G51" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  52   DEL    26      Al   01   DE    ENERO          2022</t>
+    <t>SEMANA  01   DEL    02     Al   08   DE    ENERO          2023</t>
   </si>
 </sst>
 </file>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  52   DEL    26      Al   01   DE    ENERO          2022</v>
+        <v>SEMANA  01   DEL    02     Al   08   DE    ENERO          2023</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44925</v>
+        <v>44933</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44925</v>
+        <v>44933</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="H22" s="7"/>
       <c r="J22" s="21"/>
       <c r="K22" s="29">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1230,7 +1230,7 @@
       <c r="H25" s="7"/>
       <c r="K25" s="22">
         <f>SUM(K22:K24)</f>
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1254,13 +1254,13 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  52   DEL    26      Al   01   DE    ENERO          2022</v>
+        <v>SEMANA  01   DEL    02     Al   08   DE    ENERO          2023</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="str">
         <f>B28</f>
-        <v>SEMANA  52   DEL    26      Al   01   DE    ENERO          2022</v>
+        <v>SEMANA  01   DEL    02     Al   08   DE    ENERO          2023</v>
       </c>
       <c r="K28" s="23"/>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C33" s="40">
         <f ca="1">I14</f>
-        <v>44925</v>
+        <v>44933</v>
       </c>
       <c r="E33" s="23"/>
       <c r="G33" s="6"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I33" s="40">
         <f ca="1">C33</f>
-        <v>44925</v>
+        <v>44933</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -1451,7 +1451,7 @@
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="str">
         <f>H28</f>
-        <v>SEMANA  52   DEL    26      Al   01   DE    ENERO          2022</v>
+        <v>SEMANA  01   DEL    02     Al   08   DE    ENERO          2023</v>
       </c>
       <c r="E46" s="23"/>
       <c r="G46" s="49"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C51" s="40">
         <f ca="1">C33</f>
-        <v>44925</v>
+        <v>44933</v>
       </c>
       <c r="E51" s="23"/>
       <c r="G51" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  01   DEL    02     Al   08   DE    ENERO          2023</t>
+    <t>SEMANA  02   DEL    09     Al   15   DE    ENERO          2023</t>
   </si>
 </sst>
 </file>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  01   DEL    02     Al   08   DE    ENERO          2023</v>
+        <v>SEMANA  02   DEL    09     Al   15   DE    ENERO          2023</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44933</v>
+        <v>44940</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44933</v>
+        <v>44940</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="H22" s="7"/>
       <c r="J22" s="21"/>
       <c r="K22" s="29">
-        <v>0</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1230,7 +1230,7 @@
       <c r="H25" s="7"/>
       <c r="K25" s="22">
         <f>SUM(K22:K24)</f>
-        <v>0</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1254,13 +1254,13 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  01   DEL    02     Al   08   DE    ENERO          2023</v>
+        <v>SEMANA  02   DEL    09     Al   15   DE    ENERO          2023</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="str">
         <f>B28</f>
-        <v>SEMANA  01   DEL    02     Al   08   DE    ENERO          2023</v>
+        <v>SEMANA  02   DEL    09     Al   15   DE    ENERO          2023</v>
       </c>
       <c r="K28" s="23"/>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C33" s="40">
         <f ca="1">I14</f>
-        <v>44933</v>
+        <v>44940</v>
       </c>
       <c r="E33" s="23"/>
       <c r="G33" s="6"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I33" s="40">
         <f ca="1">C33</f>
-        <v>44933</v>
+        <v>44940</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -1417,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="39">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="49"/>
@@ -1431,7 +1431,7 @@
       <c r="C44" s="38"/>
       <c r="E44" s="22">
         <f>SUM(E41:E43)</f>
-        <v>2800</v>
+        <v>3267</v>
       </c>
       <c r="G44" s="49"/>
       <c r="H44" s="49"/>
@@ -1451,7 +1451,7 @@
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="str">
         <f>H28</f>
-        <v>SEMANA  01   DEL    02     Al   08   DE    ENERO          2023</v>
+        <v>SEMANA  02   DEL    09     Al   15   DE    ENERO          2023</v>
       </c>
       <c r="E46" s="23"/>
       <c r="G46" s="49"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C51" s="40">
         <f ca="1">C33</f>
-        <v>44933</v>
+        <v>44940</v>
       </c>
       <c r="E51" s="23"/>
       <c r="G51" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  02   DEL    09     Al   15   DE    ENERO          2023</t>
+    <t>SEMANA  03   DEL    16     Al   22   DE    ENERO          2023</t>
   </si>
 </sst>
 </file>
@@ -905,7 +905,7 @@
   <dimension ref="B1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  02   DEL    09     Al   15   DE    ENERO          2023</v>
+        <v>SEMANA  03   DEL    16     Al   22   DE    ENERO          2023</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44940</v>
+        <v>44947</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44940</v>
+        <v>44947</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="H22" s="7"/>
       <c r="J22" s="21"/>
       <c r="K22" s="29">
-        <v>280</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1230,7 +1230,7 @@
       <c r="H25" s="7"/>
       <c r="K25" s="22">
         <f>SUM(K22:K24)</f>
-        <v>280</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1254,13 +1254,13 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  02   DEL    09     Al   15   DE    ENERO          2023</v>
+        <v>SEMANA  03   DEL    16     Al   22   DE    ENERO          2023</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="str">
         <f>B28</f>
-        <v>SEMANA  02   DEL    09     Al   15   DE    ENERO          2023</v>
+        <v>SEMANA  03   DEL    16     Al   22   DE    ENERO          2023</v>
       </c>
       <c r="K28" s="23"/>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C33" s="40">
         <f ca="1">I14</f>
-        <v>44940</v>
+        <v>44947</v>
       </c>
       <c r="E33" s="23"/>
       <c r="G33" s="6"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I33" s="40">
         <f ca="1">C33</f>
-        <v>44940</v>
+        <v>44947</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -1417,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="39">
-        <v>467</v>
+        <v>1400</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="49"/>
@@ -1431,7 +1431,7 @@
       <c r="C44" s="38"/>
       <c r="E44" s="22">
         <f>SUM(E41:E43)</f>
-        <v>3267</v>
+        <v>4200</v>
       </c>
       <c r="G44" s="49"/>
       <c r="H44" s="49"/>
@@ -1451,7 +1451,7 @@
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="str">
         <f>H28</f>
-        <v>SEMANA  02   DEL    09     Al   15   DE    ENERO          2023</v>
+        <v>SEMANA  03   DEL    16     Al   22   DE    ENERO          2023</v>
       </c>
       <c r="E46" s="23"/>
       <c r="G46" s="49"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C51" s="40">
         <f ca="1">C33</f>
-        <v>44940</v>
+        <v>44947</v>
       </c>
       <c r="E51" s="23"/>
       <c r="G51" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -87,7 +87,7 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  03   DEL    16     Al   22   DE    ENERO          2023</t>
+    <t>SEMANA  23   DEL    29     Al   22   DE    ENERO          2023</t>
   </si>
 </sst>
 </file>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  03   DEL    16     Al   22   DE    ENERO          2023</v>
+        <v>SEMANA  23   DEL    29     Al   22   DE    ENERO          2023</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C14" s="40">
         <f ca="1">TODAY()</f>
-        <v>44947</v>
+        <v>44954</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" s="40">
         <f ca="1">C14</f>
-        <v>44947</v>
+        <v>44954</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="H22" s="7"/>
       <c r="J22" s="21"/>
       <c r="K22" s="29">
-        <v>1120</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1230,7 +1230,7 @@
       <c r="H25" s="7"/>
       <c r="K25" s="22">
         <f>SUM(K22:K24)</f>
-        <v>1120</v>
+        <v>840</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1254,13 +1254,13 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="str">
         <f>B9</f>
-        <v>SEMANA  03   DEL    16     Al   22   DE    ENERO          2023</v>
+        <v>SEMANA  23   DEL    29     Al   22   DE    ENERO          2023</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="str">
         <f>B28</f>
-        <v>SEMANA  03   DEL    16     Al   22   DE    ENERO          2023</v>
+        <v>SEMANA  23   DEL    29     Al   22   DE    ENERO          2023</v>
       </c>
       <c r="K28" s="23"/>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C33" s="40">
         <f ca="1">I14</f>
-        <v>44947</v>
+        <v>44954</v>
       </c>
       <c r="E33" s="23"/>
       <c r="G33" s="6"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I33" s="40">
         <f ca="1">C33</f>
-        <v>44947</v>
+        <v>44954</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -1417,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="39">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="49"/>
@@ -1431,7 +1431,7 @@
       <c r="C44" s="38"/>
       <c r="E44" s="22">
         <f>SUM(E41:E43)</f>
-        <v>4200</v>
+        <v>2800</v>
       </c>
       <c r="G44" s="49"/>
       <c r="H44" s="49"/>
@@ -1451,7 +1451,7 @@
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="str">
         <f>H28</f>
-        <v>SEMANA  03   DEL    16     Al   22   DE    ENERO          2023</v>
+        <v>SEMANA  23   DEL    29     Al   22   DE    ENERO          2023</v>
       </c>
       <c r="E46" s="23"/>
       <c r="G46" s="49"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C51" s="40">
         <f ca="1">C33</f>
-        <v>44947</v>
+        <v>44954</v>
       </c>
       <c r="E51" s="23"/>
       <c r="G51" s="49"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>RECIBO DE NOMINA</t>
   </si>
@@ -87,7 +87,10 @@
     <t># 2</t>
   </si>
   <si>
-    <t>SEMANA  23   DEL    29     Al   22   DE    ENERO          2023</t>
+    <t>JUSTINA REYES LEAL</t>
+  </si>
+  <si>
+    <t>SEMANA  05        DEL    30     Al   05   DE    FEBRERO     2023</t>
   </si>
 </sst>
 </file>
@@ -407,12 +410,18 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -428,9 +437,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -444,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -495,7 +502,6 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
@@ -505,7 +511,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -513,7 +519,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -521,30 +527,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -555,9 +546,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -587,6 +575,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -904,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +939,7 @@
     </row>
     <row r="3" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
-      <c r="D3" s="61">
+      <c r="D3" s="50">
         <v>6</v>
       </c>
       <c r="E3" s="9">
@@ -958,21 +953,21 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="47"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="11">
         <v>0</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="61">
+      <c r="I4" s="43"/>
+      <c r="J4" s="50">
         <v>6</v>
       </c>
       <c r="K4" s="29">
@@ -980,8 +975,8 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
@@ -990,8 +985,8 @@
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="6"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="42">
+      <c r="J5" s="42"/>
+      <c r="K5" s="41">
         <v>0</v>
       </c>
     </row>
@@ -1002,10 +997,10 @@
       <c r="E6" s="18"/>
       <c r="F6" s="19"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="39">
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="38">
         <v>0</v>
       </c>
     </row>
@@ -1017,8 +1012,8 @@
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
       <c r="K7" s="22">
         <f>SUM(K4:K6)</f>
         <v>2200</v>
@@ -1031,15 +1026,15 @@
       <c r="H8" s="7"/>
       <c r="K8" s="23"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>20</v>
+    <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="67" t="s">
+        <v>21</v>
       </c>
       <c r="E9" s="23"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="7" t="str">
+      <c r="H9" s="67" t="str">
         <f>B9</f>
-        <v>SEMANA  23   DEL    29     Al   22   DE    ENERO          2023</v>
+        <v>SEMANA  05        DEL    30     Al   05   DE    FEBRERO     2023</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1052,30 +1047,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="24"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="24"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="70"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="24"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1091,18 +1086,18 @@
       <c r="B14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="39">
         <f ca="1">TODAY()</f>
-        <v>44954</v>
+        <v>44961</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
       <c r="H14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="39">
         <f ca="1">C14</f>
-        <v>44954</v>
+        <v>44961</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1133,16 +1128,16 @@
       <c r="K17" s="27"/>
     </row>
     <row r="18" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G19" s="6"/>
@@ -1177,12 +1172,12 @@
       <c r="H22" s="7"/>
       <c r="J22" s="21"/>
       <c r="K22" s="29">
-        <v>840</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
-      <c r="D23" s="61">
+      <c r="D23" s="50">
         <v>6</v>
       </c>
       <c r="E23" s="29">
@@ -1198,10 +1193,10 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="73"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="21" t="s">
         <v>5</v>
       </c>
@@ -1218,8 +1213,8 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="74"/>
-      <c r="C25" s="75"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="31" t="s">
         <v>6</v>
       </c>
@@ -1230,7 +1225,7 @@
       <c r="H25" s="7"/>
       <c r="K25" s="22">
         <f>SUM(K22:K24)</f>
-        <v>840</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1240,8 +1235,8 @@
         <v>2300</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="37"/>
       <c r="K26" s="22"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1251,16 +1246,16 @@
       <c r="H27" s="7"/>
       <c r="K27" s="23"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="str">
+    <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="67" t="str">
         <f>B9</f>
-        <v>SEMANA  23   DEL    29     Al   22   DE    ENERO          2023</v>
+        <v>SEMANA  05        DEL    30     Al   05   DE    FEBRERO     2023</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="7" t="str">
+      <c r="H28" s="67" t="str">
         <f>B28</f>
-        <v>SEMANA  23   DEL    29     Al   22   DE    ENERO          2023</v>
+        <v>SEMANA  05        DEL    30     Al   05   DE    FEBRERO     2023</v>
       </c>
       <c r="K28" s="23"/>
     </row>
@@ -1273,21 +1268,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="53"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="63"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="65"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="55"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1312,18 +1307,18 @@
       <c r="B33" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="40">
+      <c r="C33" s="39">
         <f ca="1">I14</f>
-        <v>44954</v>
+        <v>44961</v>
       </c>
       <c r="E33" s="23"/>
       <c r="G33" s="6"/>
       <c r="H33" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="40">
+      <c r="I33" s="39">
         <f ca="1">C33</f>
-        <v>44954</v>
+        <v>44961</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -1342,17 +1337,17 @@
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G36" s="48"/>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G37" s="48"/>
+      <c r="G37" s="47"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
     </row>
     <row r="39" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
@@ -1364,25 +1359,28 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="52"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39" s="4"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="D40" s="21"/>
       <c r="E40" s="29"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="53"/>
-    </row>
-    <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="46" t="s">
+      <c r="G40" s="48"/>
+      <c r="H40" s="7"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="29"/>
+    </row>
+    <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="21">
@@ -1392,104 +1390,111 @@
         <v>2800</v>
       </c>
       <c r="F41" s="33"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="53"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="66"/>
+      <c r="J41" s="21">
+        <v>4</v>
+      </c>
+      <c r="K41" s="22">
+        <v>1533</v>
+      </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="42"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="41"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="49"/>
+      <c r="G42" s="48"/>
       <c r="H42" s="60"/>
       <c r="I42" s="60"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="53"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="41"/>
     </row>
     <row r="43" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="37"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="41" t="s">
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="39">
+      <c r="E43" s="38">
+        <v>1400</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="38">
         <v>0</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="55"/>
     </row>
     <row r="44" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
       <c r="E44" s="22">
         <f>SUM(E41:E43)</f>
-        <v>2800</v>
-      </c>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="56"/>
+        <v>4200</v>
+      </c>
+      <c r="G44" s="48"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="37"/>
+      <c r="K44" s="22">
+        <f>SUM(K41:K43)</f>
+        <v>1533</v>
+      </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="E45" s="23"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="str">
+      <c r="G45" s="48"/>
+      <c r="H45" s="7"/>
+      <c r="K45" s="23"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="67" t="str">
         <f>H28</f>
-        <v>SEMANA  23   DEL    29     Al   22   DE    ENERO          2023</v>
+        <v>SEMANA  05        DEL    30     Al   05   DE    FEBRERO     2023</v>
       </c>
       <c r="E46" s="23"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="67" t="str">
+        <f>B46</f>
+        <v>SEMANA  05        DEL    30     Al   05   DE    FEBRERO     2023</v>
+      </c>
+      <c r="K46" s="23"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="E47" s="34"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="7"/>
+      <c r="K47" s="34"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="63"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="53"/>
       <c r="F48" s="24"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="7"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="53"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="65"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="55"/>
       <c r="F49" s="24"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="7"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="55"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1500,54 +1505,69 @@
         <v>3</v>
       </c>
       <c r="E50" s="23"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="7"/>
+      <c r="I50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" t="s">
+        <v>3</v>
+      </c>
+      <c r="K50" s="23"/>
     </row>
     <row r="51" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="40">
+      <c r="C51" s="39">
         <f ca="1">C33</f>
-        <v>44954</v>
+        <v>44961</v>
       </c>
       <c r="E51" s="23"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="39">
+        <f ca="1">I33</f>
+        <v>44961</v>
+      </c>
+      <c r="K51" s="23"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="26"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
       <c r="E52" s="28"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="28"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C53" s="35"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="35"/>
-      <c r="F54" s="36"/>
-      <c r="I54" s="35"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+    </row>
+    <row r="54" spans="2:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="27"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="D48:E49"/>
     <mergeCell ref="J48:K49"/>
     <mergeCell ref="B4:C5"/>
@@ -1558,6 +1578,8 @@
     <mergeCell ref="D30:E31"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B24:C25"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>RECIBO DE NOMINA</t>
   </si>
@@ -90,7 +90,10 @@
     <t>JUSTINA REYES LEAL</t>
   </si>
   <si>
-    <t>SEMANA  05        DEL    30     Al   05   DE    FEBRERO     2023</t>
+    <t>SEMANA  06        DEL    06     Al   12   DE    FEBRERO     2023</t>
+  </si>
+  <si>
+    <t># 6</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -581,7 +585,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -897,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K54"/>
+  <dimension ref="B1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,10 +956,10 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="46"/>
       <c r="E4" s="11">
         <v>0</v>
@@ -975,8 +978,8 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1027,14 +1030,14 @@
       <c r="K8" s="23"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="51" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="23"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="67" t="str">
+      <c r="H9" s="51" t="str">
         <f>B9</f>
-        <v>SEMANA  05        DEL    30     Al   05   DE    FEBRERO     2023</v>
+        <v>SEMANA  06        DEL    06     Al   12   DE    FEBRERO     2023</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1047,30 +1050,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="24"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="24"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="59"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="24"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1088,7 +1091,7 @@
       </c>
       <c r="C14" s="39">
         <f ca="1">TODAY()</f>
-        <v>44961</v>
+        <v>44968</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1097,7 +1100,7 @@
       </c>
       <c r="I14" s="39">
         <f ca="1">C14</f>
-        <v>44961</v>
+        <v>44968</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1172,7 +1175,7 @@
       <c r="H22" s="7"/>
       <c r="J22" s="21"/>
       <c r="K22" s="29">
-        <v>560</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1193,10 +1196,10 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="21" t="s">
         <v>5</v>
       </c>
@@ -1213,8 +1216,8 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="31" t="s">
         <v>6</v>
       </c>
@@ -1225,7 +1228,7 @@
       <c r="H25" s="7"/>
       <c r="K25" s="22">
         <f>SUM(K22:K24)</f>
-        <v>560</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1247,15 +1250,15 @@
       <c r="K27" s="23"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="67" t="str">
+      <c r="B28" s="51" t="str">
         <f>B9</f>
-        <v>SEMANA  05        DEL    30     Al   05   DE    FEBRERO     2023</v>
+        <v>SEMANA  06        DEL    06     Al   12   DE    FEBRERO     2023</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="67" t="str">
+      <c r="H28" s="51" t="str">
         <f>B28</f>
-        <v>SEMANA  05        DEL    30     Al   05   DE    FEBRERO     2023</v>
+        <v>SEMANA  06        DEL    06     Al   12   DE    FEBRERO     2023</v>
       </c>
       <c r="K28" s="23"/>
     </row>
@@ -1268,21 +1271,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="56"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1309,7 +1312,7 @@
       </c>
       <c r="C33" s="39">
         <f ca="1">I14</f>
-        <v>44961</v>
+        <v>44968</v>
       </c>
       <c r="E33" s="23"/>
       <c r="G33" s="6"/>
@@ -1318,7 +1321,7 @@
       </c>
       <c r="I33" s="39">
         <f ca="1">C33</f>
-        <v>44961</v>
+        <v>44968</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -1391,26 +1394,26 @@
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="48"/>
-      <c r="H41" s="65" t="s">
+      <c r="H41" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="66"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K41" s="22">
-        <v>1533</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
       <c r="D42" s="42"/>
       <c r="E42" s="41"/>
       <c r="F42" s="20"/>
       <c r="G42" s="48"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
       <c r="J42" s="42"/>
       <c r="K42" s="41"/>
     </row>
@@ -1421,7 +1424,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="38">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="48"/>
@@ -1439,14 +1442,14 @@
       <c r="C44" s="37"/>
       <c r="E44" s="22">
         <f>SUM(E41:E43)</f>
-        <v>4200</v>
+        <v>2800</v>
       </c>
       <c r="G44" s="48"/>
       <c r="H44" s="36"/>
       <c r="I44" s="37"/>
       <c r="K44" s="22">
         <f>SUM(K41:K43)</f>
-        <v>1533</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
@@ -1457,15 +1460,15 @@
       <c r="K45" s="23"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="67" t="str">
+      <c r="B46" s="51" t="str">
         <f>H28</f>
-        <v>SEMANA  05        DEL    30     Al   05   DE    FEBRERO     2023</v>
+        <v>SEMANA  06        DEL    06     Al   12   DE    FEBRERO     2023</v>
       </c>
       <c r="E46" s="23"/>
       <c r="G46" s="48"/>
-      <c r="H46" s="67" t="str">
+      <c r="H46" s="51" t="str">
         <f>B46</f>
-        <v>SEMANA  05        DEL    30     Al   05   DE    FEBRERO     2023</v>
+        <v>SEMANA  06        DEL    06     Al   12   DE    FEBRERO     2023</v>
       </c>
       <c r="K46" s="23"/>
     </row>
@@ -1478,23 +1481,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="54"/>
       <c r="F48" s="24"/>
       <c r="G48" s="48"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="54"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="56"/>
       <c r="F49" s="24"/>
       <c r="G49" s="48"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="56"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1521,16 +1524,16 @@
       </c>
       <c r="C51" s="39">
         <f ca="1">C33</f>
-        <v>44961</v>
+        <v>44968</v>
       </c>
       <c r="E51" s="23"/>
       <c r="G51" s="48"/>
       <c r="H51" s="25" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I51" s="39">
         <f ca="1">I33</f>
-        <v>44961</v>
+        <v>44968</v>
       </c>
       <c r="K51" s="23"/>
     </row>
@@ -1554,17 +1557,77 @@
       <c r="J53" s="48"/>
       <c r="K53" s="48"/>
     </row>
-    <row r="54" spans="2:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="27"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
+    <row r="54" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="47"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -90,10 +90,10 @@
     <t>JUSTINA REYES LEAL</t>
   </si>
   <si>
-    <t>SEMANA  06        DEL    06     Al   12   DE    FEBRERO     2023</t>
-  </si>
-  <si>
     <t># 6</t>
+  </si>
+  <si>
+    <t>SEMANA  07        DEL    13     Al   19   DE    FEBRERO     2023</t>
   </si>
 </sst>
 </file>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="23"/>
       <c r="G9" s="6"/>
       <c r="H9" s="51" t="str">
         <f>B9</f>
-        <v>SEMANA  06        DEL    06     Al   12   DE    FEBRERO     2023</v>
+        <v>SEMANA  07        DEL    13     Al   19   DE    FEBRERO     2023</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="C14" s="39">
         <f ca="1">TODAY()</f>
-        <v>44968</v>
+        <v>44975</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="I14" s="39">
         <f ca="1">C14</f>
-        <v>44968</v>
+        <v>44975</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1175,7 +1175,7 @@
       <c r="H22" s="7"/>
       <c r="J22" s="21"/>
       <c r="K22" s="29">
-        <v>1260</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1228,7 +1228,7 @@
       <c r="H25" s="7"/>
       <c r="K25" s="22">
         <f>SUM(K22:K24)</f>
-        <v>1260</v>
+        <v>840</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1252,13 +1252,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="51" t="str">
         <f>B9</f>
-        <v>SEMANA  06        DEL    06     Al   12   DE    FEBRERO     2023</v>
+        <v>SEMANA  07        DEL    13     Al   19   DE    FEBRERO     2023</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
       <c r="H28" s="51" t="str">
         <f>B28</f>
-        <v>SEMANA  06        DEL    06     Al   12   DE    FEBRERO     2023</v>
+        <v>SEMANA  07        DEL    13     Al   19   DE    FEBRERO     2023</v>
       </c>
       <c r="K28" s="23"/>
     </row>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="C33" s="39">
         <f ca="1">I14</f>
-        <v>44968</v>
+        <v>44975</v>
       </c>
       <c r="E33" s="23"/>
       <c r="G33" s="6"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I33" s="39">
         <f ca="1">C33</f>
-        <v>44968</v>
+        <v>44975</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -1424,7 +1424,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="38">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="48"/>
@@ -1442,7 +1442,7 @@
       <c r="C44" s="37"/>
       <c r="E44" s="22">
         <f>SUM(E41:E43)</f>
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="G44" s="48"/>
       <c r="H44" s="36"/>
@@ -1462,13 +1462,13 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="51" t="str">
         <f>H28</f>
-        <v>SEMANA  06        DEL    06     Al   12   DE    FEBRERO     2023</v>
+        <v>SEMANA  07        DEL    13     Al   19   DE    FEBRERO     2023</v>
       </c>
       <c r="E46" s="23"/>
       <c r="G46" s="48"/>
       <c r="H46" s="51" t="str">
         <f>B46</f>
-        <v>SEMANA  06        DEL    06     Al   12   DE    FEBRERO     2023</v>
+        <v>SEMANA  07        DEL    13     Al   19   DE    FEBRERO     2023</v>
       </c>
       <c r="K46" s="23"/>
     </row>
@@ -1524,16 +1524,16 @@
       </c>
       <c r="C51" s="39">
         <f ca="1">C33</f>
-        <v>44968</v>
+        <v>44975</v>
       </c>
       <c r="E51" s="23"/>
       <c r="G51" s="48"/>
       <c r="H51" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I51" s="39">
         <f ca="1">I33</f>
-        <v>44968</v>
+        <v>44975</v>
       </c>
       <c r="K51" s="23"/>
     </row>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -93,7 +93,7 @@
     <t># 6</t>
   </si>
   <si>
-    <t>SEMANA  07        DEL    13     Al   19   DE    FEBRERO     2023</t>
+    <t>SEMANA  08        DEL    20     Al   26   DE    FEBRERO     2023</t>
   </si>
 </sst>
 </file>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1037,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="51" t="str">
         <f>B9</f>
-        <v>SEMANA  07        DEL    13     Al   19   DE    FEBRERO     2023</v>
+        <v>SEMANA  08        DEL    20     Al   26   DE    FEBRERO     2023</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="C14" s="39">
         <f ca="1">TODAY()</f>
-        <v>44975</v>
+        <v>44982</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="I14" s="39">
         <f ca="1">C14</f>
-        <v>44975</v>
+        <v>44982</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1175,7 +1175,7 @@
       <c r="H22" s="7"/>
       <c r="J22" s="21"/>
       <c r="K22" s="29">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1228,7 +1228,7 @@
       <c r="H25" s="7"/>
       <c r="K25" s="22">
         <f>SUM(K22:K24)</f>
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1252,13 +1252,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="51" t="str">
         <f>B9</f>
-        <v>SEMANA  07        DEL    13     Al   19   DE    FEBRERO     2023</v>
+        <v>SEMANA  08        DEL    20     Al   26   DE    FEBRERO     2023</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
       <c r="H28" s="51" t="str">
         <f>B28</f>
-        <v>SEMANA  07        DEL    13     Al   19   DE    FEBRERO     2023</v>
+        <v>SEMANA  08        DEL    20     Al   26   DE    FEBRERO     2023</v>
       </c>
       <c r="K28" s="23"/>
     </row>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="C33" s="39">
         <f ca="1">I14</f>
-        <v>44975</v>
+        <v>44982</v>
       </c>
       <c r="E33" s="23"/>
       <c r="G33" s="6"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I33" s="39">
         <f ca="1">C33</f>
-        <v>44975</v>
+        <v>44982</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -1424,7 +1424,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="38">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="48"/>
@@ -1442,7 +1442,7 @@
       <c r="C44" s="37"/>
       <c r="E44" s="22">
         <f>SUM(E41:E43)</f>
-        <v>4200</v>
+        <v>2800</v>
       </c>
       <c r="G44" s="48"/>
       <c r="H44" s="36"/>
@@ -1462,13 +1462,13 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="51" t="str">
         <f>H28</f>
-        <v>SEMANA  07        DEL    13     Al   19   DE    FEBRERO     2023</v>
+        <v>SEMANA  08        DEL    20     Al   26   DE    FEBRERO     2023</v>
       </c>
       <c r="E46" s="23"/>
       <c r="G46" s="48"/>
       <c r="H46" s="51" t="str">
         <f>B46</f>
-        <v>SEMANA  07        DEL    13     Al   19   DE    FEBRERO     2023</v>
+        <v>SEMANA  08        DEL    20     Al   26   DE    FEBRERO     2023</v>
       </c>
       <c r="K46" s="23"/>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C51" s="39">
         <f ca="1">C33</f>
-        <v>44975</v>
+        <v>44982</v>
       </c>
       <c r="E51" s="23"/>
       <c r="G51" s="48"/>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="I51" s="39">
         <f ca="1">I33</f>
-        <v>44975</v>
+        <v>44982</v>
       </c>
       <c r="K51" s="23"/>
     </row>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -93,7 +93,7 @@
     <t># 6</t>
   </si>
   <si>
-    <t>SEMANA  08        DEL    20     Al   26   DE    FEBRERO     2023</t>
+    <t>SEMANA  09        DEL    27     Al   05   DE   MARZO     2023</t>
   </si>
 </sst>
 </file>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1037,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="51" t="str">
         <f>B9</f>
-        <v>SEMANA  08        DEL    20     Al   26   DE    FEBRERO     2023</v>
+        <v>SEMANA  09        DEL    27     Al   05   DE   MARZO     2023</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="C14" s="39">
         <f ca="1">TODAY()</f>
-        <v>44982</v>
+        <v>44989</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="I14" s="39">
         <f ca="1">C14</f>
-        <v>44982</v>
+        <v>44989</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1175,7 +1175,7 @@
       <c r="H22" s="7"/>
       <c r="J22" s="21"/>
       <c r="K22" s="29">
-        <v>0</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1228,7 +1228,7 @@
       <c r="H25" s="7"/>
       <c r="K25" s="22">
         <f>SUM(K22:K24)</f>
-        <v>0</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1252,13 +1252,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="51" t="str">
         <f>B9</f>
-        <v>SEMANA  08        DEL    20     Al   26   DE    FEBRERO     2023</v>
+        <v>SEMANA  09        DEL    27     Al   05   DE   MARZO     2023</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
       <c r="H28" s="51" t="str">
         <f>B28</f>
-        <v>SEMANA  08        DEL    20     Al   26   DE    FEBRERO     2023</v>
+        <v>SEMANA  09        DEL    27     Al   05   DE   MARZO     2023</v>
       </c>
       <c r="K28" s="23"/>
     </row>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="C33" s="39">
         <f ca="1">I14</f>
-        <v>44982</v>
+        <v>44989</v>
       </c>
       <c r="E33" s="23"/>
       <c r="G33" s="6"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I33" s="39">
         <f ca="1">C33</f>
-        <v>44982</v>
+        <v>44989</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -1424,7 +1424,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="38">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="48"/>
@@ -1442,7 +1442,7 @@
       <c r="C44" s="37"/>
       <c r="E44" s="22">
         <f>SUM(E41:E43)</f>
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="G44" s="48"/>
       <c r="H44" s="36"/>
@@ -1462,13 +1462,13 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="51" t="str">
         <f>H28</f>
-        <v>SEMANA  08        DEL    20     Al   26   DE    FEBRERO     2023</v>
+        <v>SEMANA  09        DEL    27     Al   05   DE   MARZO     2023</v>
       </c>
       <c r="E46" s="23"/>
       <c r="G46" s="48"/>
       <c r="H46" s="51" t="str">
         <f>B46</f>
-        <v>SEMANA  08        DEL    20     Al   26   DE    FEBRERO     2023</v>
+        <v>SEMANA  09        DEL    27     Al   05   DE   MARZO     2023</v>
       </c>
       <c r="K46" s="23"/>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C51" s="39">
         <f ca="1">C33</f>
-        <v>44982</v>
+        <v>44989</v>
       </c>
       <c r="E51" s="23"/>
       <c r="G51" s="48"/>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="I51" s="39">
         <f ca="1">I33</f>
-        <v>44982</v>
+        <v>44989</v>
       </c>
       <c r="K51" s="23"/>
     </row>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>RECIBO DE NOMINA</t>
   </si>
@@ -93,7 +93,13 @@
     <t># 6</t>
   </si>
   <si>
-    <t>SEMANA  09        DEL    27     Al   05   DE   MARZO     2023</t>
+    <t>SEMANA  10        DEL    06     Al   12   DE   MARZO     2023</t>
+  </si>
+  <si>
+    <t># 7</t>
+  </si>
+  <si>
+    <t>JORGE MUNGUIA SALAZAR</t>
   </si>
 </sst>
 </file>
@@ -900,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K59"/>
+  <dimension ref="B1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="9">
-        <v>900</v>
+        <v>1267</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
@@ -984,7 +990,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="14">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="6"/>
@@ -1011,7 +1017,7 @@
       <c r="B7" s="7"/>
       <c r="E7" s="14">
         <f>SUM(E3:E6)</f>
-        <v>900</v>
+        <v>1967</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="6"/>
@@ -1037,7 +1043,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="51" t="str">
         <f>B9</f>
-        <v>SEMANA  09        DEL    27     Al   05   DE   MARZO     2023</v>
+        <v>SEMANA  10        DEL    06     Al   12   DE   MARZO     2023</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1091,7 +1097,7 @@
       </c>
       <c r="C14" s="39">
         <f ca="1">TODAY()</f>
-        <v>44989</v>
+        <v>44996</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
@@ -1100,7 +1106,7 @@
       </c>
       <c r="I14" s="39">
         <f ca="1">C14</f>
-        <v>44989</v>
+        <v>44996</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1252,13 +1258,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="51" t="str">
         <f>B9</f>
-        <v>SEMANA  09        DEL    27     Al   05   DE   MARZO     2023</v>
+        <v>SEMANA  10        DEL    06     Al   12   DE   MARZO     2023</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
       <c r="H28" s="51" t="str">
         <f>B28</f>
-        <v>SEMANA  09        DEL    27     Al   05   DE   MARZO     2023</v>
+        <v>SEMANA  10        DEL    06     Al   12   DE   MARZO     2023</v>
       </c>
       <c r="K28" s="23"/>
     </row>
@@ -1312,7 +1318,7 @@
       </c>
       <c r="C33" s="39">
         <f ca="1">I14</f>
-        <v>44989</v>
+        <v>44996</v>
       </c>
       <c r="E33" s="23"/>
       <c r="G33" s="6"/>
@@ -1321,7 +1327,7 @@
       </c>
       <c r="I33" s="39">
         <f ca="1">C33</f>
-        <v>44989</v>
+        <v>44996</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -1386,7 +1392,7 @@
       <c r="B41" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="8">
         <v>6</v>
       </c>
       <c r="E41" s="22">
@@ -1398,7 +1404,7 @@
         <v>20</v>
       </c>
       <c r="I41" s="67"/>
-      <c r="J41" s="21">
+      <c r="J41" s="8">
         <v>6</v>
       </c>
       <c r="K41" s="22">
@@ -1424,7 +1430,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="38">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="48"/>
@@ -1442,7 +1448,7 @@
       <c r="C44" s="37"/>
       <c r="E44" s="22">
         <f>SUM(E41:E43)</f>
-        <v>4200</v>
+        <v>2800</v>
       </c>
       <c r="G44" s="48"/>
       <c r="H44" s="36"/>
@@ -1462,13 +1468,13 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="51" t="str">
         <f>H28</f>
-        <v>SEMANA  09        DEL    27     Al   05   DE   MARZO     2023</v>
+        <v>SEMANA  10        DEL    06     Al   12   DE   MARZO     2023</v>
       </c>
       <c r="E46" s="23"/>
       <c r="G46" s="48"/>
       <c r="H46" s="51" t="str">
         <f>B46</f>
-        <v>SEMANA  09        DEL    27     Al   05   DE   MARZO     2023</v>
+        <v>SEMANA  10        DEL    06     Al   12   DE   MARZO     2023</v>
       </c>
       <c r="K46" s="23"/>
     </row>
@@ -1524,7 +1530,7 @@
       </c>
       <c r="C51" s="39">
         <f ca="1">C33</f>
-        <v>44989</v>
+        <v>44996</v>
       </c>
       <c r="E51" s="23"/>
       <c r="G51" s="48"/>
@@ -1533,7 +1539,7 @@
       </c>
       <c r="I51" s="39">
         <f ca="1">I33</f>
-        <v>44989</v>
+        <v>44996</v>
       </c>
       <c r="K51" s="23"/>
     </row>
@@ -1557,7 +1563,7 @@
       <c r="J53" s="48"/>
       <c r="K53" s="48"/>
     </row>
-    <row r="54" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="47"/>
       <c r="C54" s="52"/>
       <c r="D54" s="47"/>
@@ -1569,11 +1575,15 @@
       <c r="J54" s="47"/>
       <c r="K54" s="47"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
+    <row r="55" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4"/>
       <c r="F55" s="47"/>
       <c r="G55" s="47"/>
       <c r="H55" s="47"/>
@@ -1581,11 +1591,10 @@
       <c r="J55" s="47"/>
       <c r="K55" s="47"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
+    <row r="56" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="7"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="29"/>
       <c r="F56" s="47"/>
       <c r="G56" s="47"/>
       <c r="H56" s="47"/>
@@ -1593,11 +1602,17 @@
       <c r="J56" s="47"/>
       <c r="K56" s="47"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
+    <row r="57" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B57" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="67"/>
+      <c r="D57" s="8">
+        <v>3</v>
+      </c>
+      <c r="E57" s="22">
+        <v>1200</v>
+      </c>
       <c r="F57" s="47"/>
       <c r="G57" s="47"/>
       <c r="H57" s="47"/>
@@ -1605,11 +1620,11 @@
       <c r="J57" s="47"/>
       <c r="K57" s="47"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
+    <row r="58" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B58" s="61"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="41"/>
       <c r="F58" s="47"/>
       <c r="G58" s="47"/>
       <c r="H58" s="47"/>
@@ -1617,11 +1632,15 @@
       <c r="J58" s="47"/>
       <c r="K58" s="47"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
+    <row r="59" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="38">
+        <v>0</v>
+      </c>
       <c r="F59" s="47"/>
       <c r="G59" s="47"/>
       <c r="H59" s="47"/>
@@ -1629,8 +1648,76 @@
       <c r="J59" s="47"/>
       <c r="K59" s="47"/>
     </row>
+    <row r="60" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="36"/>
+      <c r="C60" s="37"/>
+      <c r="E60" s="22">
+        <f>SUM(E57:E59)</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+      <c r="E61" s="23"/>
+    </row>
+    <row r="62" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="51" t="str">
+        <f>H46</f>
+        <v>SEMANA  10        DEL    06     Al   12   DE   MARZO     2023</v>
+      </c>
+      <c r="E62" s="23"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+      <c r="E63" s="34"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="7"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="54"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="7"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="56"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="7"/>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="23"/>
+    </row>
+    <row r="67" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="39">
+        <f ca="1">I51</f>
+        <v>44996</v>
+      </c>
+      <c r="E67" s="23"/>
+    </row>
+    <row r="68" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="26"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="28"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="48"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D64:E65"/>
     <mergeCell ref="D48:E49"/>
     <mergeCell ref="J48:K49"/>
     <mergeCell ref="B4:C5"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -42,12 +42,6 @@
     <t># 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Extra </t>
-  </si>
-  <si>
-    <t>DESCUENTO</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -93,13 +87,19 @@
     <t># 6</t>
   </si>
   <si>
-    <t>SEMANA  10        DEL    06     Al   12   DE   MARZO     2023</t>
-  </si>
-  <si>
     <t># 7</t>
   </si>
   <si>
     <t>JORGE MUNGUIA SALAZAR</t>
+  </si>
+  <si>
+    <t>SEMANA  11        DEL    13     Al   19   DE   MARZO     2023</t>
+  </si>
+  <si>
+    <t>descansos  2</t>
+  </si>
+  <si>
+    <t>Bono semanal 2</t>
   </si>
 </sst>
 </file>
@@ -110,7 +110,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$$-80A]#,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +196,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -504,7 +512,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -546,6 +553,36 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,38 +595,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -908,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,8 +927,10 @@
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="7" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
@@ -948,11 +960,11 @@
     </row>
     <row r="3" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
-      <c r="D3" s="50">
+      <c r="D3" s="49">
         <v>6</v>
       </c>
       <c r="E3" s="9">
-        <v>1267</v>
+        <v>900</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
@@ -962,40 +974,40 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="46"/>
+      <c r="B4" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="11">
         <v>0</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="50">
+      <c r="H4" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="42"/>
+      <c r="J4" s="49">
         <v>6</v>
       </c>
       <c r="K4" s="29">
-        <v>2200</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="14">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="6"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="41">
+      <c r="J5" s="41"/>
+      <c r="K5" s="40">
         <v>0</v>
       </c>
     </row>
@@ -1006,10 +1018,10 @@
       <c r="E6" s="18"/>
       <c r="F6" s="19"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="38">
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1017,15 +1029,15 @@
       <c r="B7" s="7"/>
       <c r="E7" s="14">
         <f>SUM(E3:E6)</f>
-        <v>1967</v>
+        <v>900</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
       <c r="K7" s="22">
         <f>SUM(K4:K6)</f>
-        <v>2200</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1036,14 +1048,14 @@
       <c r="K8" s="23"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="23"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="51" t="str">
+      <c r="H9" s="50" t="str">
         <f>B9</f>
-        <v>SEMANA  10        DEL    06     Al   12   DE   MARZO     2023</v>
+        <v>SEMANA  11        DEL    13     Al   19   DE   MARZO     2023</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -1056,35 +1068,35 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="24"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="24"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="60"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="24"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J13" t="s">
         <v>3</v>
@@ -1095,18 +1107,18 @@
       <c r="B14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="38">
         <f ca="1">TODAY()</f>
-        <v>44996</v>
+        <v>45003</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="6"/>
       <c r="H14" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="39">
+        <v>17</v>
+      </c>
+      <c r="I14" s="38">
         <f ca="1">C14</f>
-        <v>44996</v>
+        <v>45003</v>
       </c>
       <c r="K14" s="23"/>
     </row>
@@ -1137,16 +1149,16 @@
       <c r="K17" s="27"/>
     </row>
     <row r="18" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G19" s="6"/>
@@ -1181,12 +1193,12 @@
       <c r="H22" s="7"/>
       <c r="J22" s="21"/>
       <c r="K22" s="29">
-        <v>1120</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
-      <c r="D23" s="50">
+      <c r="D23" s="49">
         <v>6</v>
       </c>
       <c r="E23" s="29">
@@ -1194,7 +1206,7 @@
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J23" s="21"/>
       <c r="K23" s="30">
@@ -1202,50 +1214,50 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="21" t="s">
-        <v>5</v>
+      <c r="B24" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="52" t="s">
+        <v>24</v>
       </c>
       <c r="E24" s="30">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="10"/>
       <c r="J24" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K24" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="32">
-        <v>0</v>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="31">
+        <v>767</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
       <c r="K25" s="22">
         <f>SUM(K22:K24)</f>
-        <v>1120</v>
+        <v>840</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="E26" s="22">
         <f>SUM(E23:E25)</f>
-        <v>2300</v>
+        <v>3667</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="37"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="36"/>
       <c r="K26" s="22"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1256,15 +1268,15 @@
       <c r="K27" s="23"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="51" t="str">
+      <c r="B28" s="50" t="str">
         <f>B9</f>
-        <v>SEMANA  10        DEL    06     Al   12   DE   MARZO     2023</v>
+        <v>SEMANA  11        DEL    13     Al   19   DE   MARZO     2023</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="51" t="str">
+      <c r="H28" s="50" t="str">
         <f>B28</f>
-        <v>SEMANA  10        DEL    06     Al   12   DE   MARZO     2023</v>
+        <v>SEMANA  11        DEL    13     Al   19   DE   MARZO     2023</v>
       </c>
       <c r="K28" s="23"/>
     </row>
@@ -1277,26 +1289,26 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="54"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="63"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="56"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="56"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="65"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -1305,7 +1317,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
       <c r="I32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J32" t="s">
         <v>3</v>
@@ -1314,20 +1326,20 @@
     </row>
     <row r="33" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="39">
+        <v>13</v>
+      </c>
+      <c r="C33" s="38">
         <f ca="1">I14</f>
-        <v>44996</v>
+        <v>45003</v>
       </c>
       <c r="E33" s="23"/>
       <c r="G33" s="6"/>
       <c r="H33" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="39">
+        <v>6</v>
+      </c>
+      <c r="I33" s="38">
         <f ca="1">C33</f>
-        <v>44996</v>
+        <v>45003</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -1346,17 +1358,17 @@
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G36" s="47"/>
+      <c r="G36" s="46"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G37" s="47"/>
+      <c r="G37" s="46"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
     </row>
     <row r="39" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
@@ -1368,7 +1380,7 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="48"/>
+      <c r="G39" s="47"/>
       <c r="H39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,14 +1395,14 @@
       <c r="D40" s="21"/>
       <c r="E40" s="29"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="48"/>
+      <c r="G40" s="47"/>
       <c r="H40" s="7"/>
       <c r="J40" s="21"/>
       <c r="K40" s="29"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="45" t="s">
-        <v>17</v>
+      <c r="B41" s="44" t="s">
+        <v>15</v>
       </c>
       <c r="D41" s="8">
         <v>6</v>
@@ -1398,12 +1410,12 @@
       <c r="E41" s="22">
         <v>2800</v>
       </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="67"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="59"/>
       <c r="J41" s="8">
         <v>6</v>
       </c>
@@ -1412,47 +1424,47 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="41"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="41"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="40"/>
     </row>
     <row r="43" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="38">
+      <c r="B43" s="35"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="37">
+        <v>1400</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="37">
         <v>0</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" s="38">
-        <v>0</v>
-      </c>
     </row>
     <row r="44" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="36"/>
       <c r="E44" s="22">
         <f>SUM(E41:E43)</f>
-        <v>2800</v>
-      </c>
-      <c r="G44" s="48"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="37"/>
+        <v>4200</v>
+      </c>
+      <c r="G44" s="47"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="36"/>
       <c r="K44" s="22">
         <f>SUM(K41:K43)</f>
         <v>2300</v>
@@ -1461,63 +1473,63 @@
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="E45" s="23"/>
-      <c r="G45" s="48"/>
+      <c r="G45" s="47"/>
       <c r="H45" s="7"/>
       <c r="K45" s="23"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="51" t="str">
+      <c r="B46" s="50" t="str">
         <f>H28</f>
-        <v>SEMANA  10        DEL    06     Al   12   DE   MARZO     2023</v>
+        <v>SEMANA  11        DEL    13     Al   19   DE   MARZO     2023</v>
       </c>
       <c r="E46" s="23"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="51" t="str">
+      <c r="G46" s="47"/>
+      <c r="H46" s="50" t="str">
         <f>B46</f>
-        <v>SEMANA  10        DEL    06     Al   12   DE   MARZO     2023</v>
+        <v>SEMANA  11        DEL    13     Al   19   DE   MARZO     2023</v>
       </c>
       <c r="K46" s="23"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
-      <c r="E47" s="34"/>
-      <c r="G47" s="48"/>
+      <c r="E47" s="33"/>
+      <c r="G47" s="47"/>
       <c r="H47" s="7"/>
-      <c r="K47" s="34"/>
+      <c r="K47" s="33"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="54"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="63"/>
       <c r="F48" s="24"/>
-      <c r="G48" s="48"/>
+      <c r="G48" s="47"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="54"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="63"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="56"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="65"/>
       <c r="F49" s="24"/>
-      <c r="G49" s="48"/>
+      <c r="G49" s="47"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="56"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="65"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
       </c>
       <c r="E50" s="23"/>
-      <c r="G50" s="48"/>
+      <c r="G50" s="47"/>
       <c r="H50" s="7"/>
       <c r="I50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J50" t="s">
         <v>3</v>
@@ -1526,20 +1538,20 @@
     </row>
     <row r="51" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="39">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38">
         <f ca="1">C33</f>
-        <v>44996</v>
+        <v>45003</v>
       </c>
       <c r="E51" s="23"/>
-      <c r="G51" s="48"/>
+      <c r="G51" s="47"/>
       <c r="H51" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="39">
+        <v>19</v>
+      </c>
+      <c r="I51" s="38">
         <f ca="1">I33</f>
-        <v>44996</v>
+        <v>45003</v>
       </c>
       <c r="K51" s="23"/>
     </row>
@@ -1548,32 +1560,32 @@
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
       <c r="E52" s="28"/>
-      <c r="G52" s="48"/>
+      <c r="G52" s="47"/>
       <c r="H52" s="26"/>
       <c r="I52" s="27"/>
       <c r="J52" s="27"/>
       <c r="K52" s="28"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="35"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
+      <c r="C53" s="34"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
     </row>
     <row r="54" spans="2:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="47"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
     </row>
     <row r="55" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
@@ -1584,76 +1596,76 @@
         <v>2</v>
       </c>
       <c r="E55" s="4"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="47"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
     </row>
     <row r="56" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="D56" s="21"/>
       <c r="E56" s="29"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
     </row>
     <row r="57" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B57" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="67"/>
+      <c r="B57" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="59"/>
       <c r="D57" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E57" s="22">
-        <v>1200</v>
-      </c>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="47"/>
+        <v>2000</v>
+      </c>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
     </row>
     <row r="58" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B58" s="61"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="47"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
     </row>
     <row r="59" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="36"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="38">
+      <c r="B59" s="35"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="37">
         <v>0</v>
       </c>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
     </row>
     <row r="60" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="36"/>
-      <c r="C60" s="37"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="36"/>
       <c r="E60" s="22">
         <f>SUM(E57:E59)</f>
-        <v>1200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
@@ -1661,30 +1673,30 @@
       <c r="E61" s="23"/>
     </row>
     <row r="62" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="51" t="str">
+      <c r="B62" s="50" t="str">
         <f>H46</f>
-        <v>SEMANA  10        DEL    06     Al   12   DE   MARZO     2023</v>
+        <v>SEMANA  11        DEL    13     Al   19   DE   MARZO     2023</v>
       </c>
       <c r="E62" s="23"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
-      <c r="E63" s="34"/>
+      <c r="E63" s="33"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="54"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="63"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="56"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="65"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
@@ -1693,11 +1705,11 @@
     </row>
     <row r="67" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" s="39">
+        <v>20</v>
+      </c>
+      <c r="C67" s="38">
         <f ca="1">I51</f>
-        <v>44996</v>
+        <v>45003</v>
       </c>
       <c r="E67" s="23"/>
     </row>
@@ -1708,10 +1720,10 @@
       <c r="E68" s="28"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="48"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1720,7 +1732,6 @@
     <mergeCell ref="D64:E65"/>
     <mergeCell ref="D48:E49"/>
     <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B4:C5"/>
     <mergeCell ref="J30:K31"/>
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="J11:K12"/>
@@ -1730,6 +1741,7 @@
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B4:C5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -93,13 +93,13 @@
     <t>JORGE MUNGUIA SALAZAR</t>
   </si>
   <si>
-    <t>SEMANA  11        DEL    13     Al   19   DE   MARZO     2023</t>
-  </si>
-  <si>
-    <t>descansos  2</t>
-  </si>
-  <si>
-    <t>Bono semanal 2</t>
+    <t>SEMANA  12        DEL    20     Al   26   DE   MARZO     2023</t>
+  </si>
+  <si>
+    <t>FESTIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bono semanal </t>
   </si>
 </sst>
 </file>
@@ -110,7 +110,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$$-80A]#,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,14 +196,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -468,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -486,7 +478,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -553,12 +544,33 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -571,36 +583,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -919,7 +908,7 @@
   <dimension ref="B1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +949,7 @@
     </row>
     <row r="3" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
-      <c r="D3" s="49">
+      <c r="D3" s="48">
         <v>6</v>
       </c>
       <c r="E3" s="9">
@@ -968,131 +957,131 @@
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="29">
+      <c r="J3" s="20"/>
+      <c r="K3" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="45"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="11">
         <v>0</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="49">
+      <c r="I4" s="41"/>
+      <c r="J4" s="48">
         <v>6</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="28">
         <v>2500</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>0</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="6"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="40">
+      <c r="J5" s="40"/>
+      <c r="K5" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="7"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="37">
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <f>SUM(E3:E6)</f>
         <v>900</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-      <c r="K7" s="22">
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="K7" s="21">
         <f>SUM(K4:K6)</f>
         <v>2500</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="22"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="K8" s="23"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="50" t="str">
+      <c r="H9" s="49" t="str">
         <f>B9</f>
-        <v>SEMANA  11        DEL    13     Al   19   DE   MARZO     2023</v>
-      </c>
-      <c r="K9" s="23"/>
+        <v>SEMANA  12        DEL    20     Al   26   DE   MARZO     2023</v>
+      </c>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="E10" s="23"/>
+      <c r="E10" s="22"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
-      <c r="K10" s="23"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="24"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="24"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="24"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" t="s">
@@ -1101,64 +1090,64 @@
       <c r="J13" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="23"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="37">
         <f ca="1">TODAY()</f>
-        <v>45003</v>
-      </c>
-      <c r="E14" s="23"/>
+        <v>45010</v>
+      </c>
+      <c r="E14" s="22"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="37">
         <f ca="1">C14</f>
-        <v>45003</v>
-      </c>
-      <c r="K14" s="23"/>
+        <v>45010</v>
+      </c>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="28"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="2:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G19" s="6"/>
@@ -1187,123 +1176,123 @@
     </row>
     <row r="22" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="29"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="28"/>
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="29">
-        <v>840</v>
+      <c r="J22" s="20"/>
+      <c r="K22" s="28">
+        <v>1120</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
-      <c r="D23" s="49">
+      <c r="D23" s="48">
         <v>6</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="21">
         <v>2300</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="30">
+      <c r="J23" s="20"/>
+      <c r="K23" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="52" t="s">
+      <c r="C24" s="61"/>
+      <c r="D24" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="30">
-        <v>600</v>
+      <c r="E24" s="21">
+        <v>300</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="10"/>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="21" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="31">
-        <v>767</v>
+      <c r="E25" s="30">
+        <v>383</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
-      <c r="K25" s="22">
+      <c r="K25" s="21">
         <f>SUM(K22:K24)</f>
-        <v>840</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
-      <c r="E26" s="22">
+      <c r="E26" s="66">
         <f>SUM(E23:E25)</f>
-        <v>3667</v>
+        <v>2983</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
-      <c r="K26" s="22"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="21"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
-      <c r="K27" s="23"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="50" t="str">
+      <c r="B28" s="49" t="str">
         <f>B9</f>
-        <v>SEMANA  11        DEL    13     Al   19   DE   MARZO     2023</v>
-      </c>
-      <c r="E28" s="23"/>
+        <v>SEMANA  12        DEL    20     Al   26   DE   MARZO     2023</v>
+      </c>
+      <c r="E28" s="22"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="50" t="str">
+      <c r="H28" s="49" t="str">
         <f>B28</f>
-        <v>SEMANA  11        DEL    13     Al   19   DE   MARZO     2023</v>
-      </c>
-      <c r="K28" s="23"/>
+        <v>SEMANA  12        DEL    20     Al   26   DE   MARZO     2023</v>
+      </c>
+      <c r="K28" s="22"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="E29" s="23"/>
+      <c r="E29" s="22"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
-      <c r="K29" s="23"/>
+      <c r="K29" s="22"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="63"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="55"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="65"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1313,7 +1302,7 @@
       <c r="D32" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="23"/>
+      <c r="E32" s="22"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
       <c r="I32" t="s">
@@ -1322,53 +1311,53 @@
       <c r="J32" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="23"/>
+      <c r="K32" s="22"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="37">
         <f ca="1">I14</f>
-        <v>45003</v>
-      </c>
-      <c r="E33" s="23"/>
+        <v>45010</v>
+      </c>
+      <c r="E33" s="22"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="37">
         <f ca="1">C33</f>
-        <v>45003</v>
-      </c>
-      <c r="K33" s="23"/>
+        <v>45010</v>
+      </c>
+      <c r="K33" s="22"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="28"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="27"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G36" s="46"/>
+      <c r="G36" s="45"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G37" s="46"/>
+      <c r="G37" s="45"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
     </row>
     <row r="39" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
@@ -1380,7 +1369,7 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="47"/>
+      <c r="G39" s="46"/>
       <c r="H39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1392,130 +1381,130 @@
     </row>
     <row r="40" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="29"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="47"/>
+      <c r="G40" s="46"/>
       <c r="H40" s="7"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="29"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="28"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="43" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="8">
         <v>6</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="21">
         <v>2800</v>
       </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="58" t="s">
+      <c r="F41" s="31"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="59"/>
+      <c r="I41" s="52"/>
       <c r="J41" s="8">
         <v>6</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K41" s="21">
         <v>2300</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="53"/>
       <c r="C42" s="53"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="47"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="46"/>
       <c r="H42" s="53"/>
       <c r="I42" s="53"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="39"/>
     </row>
     <row r="43" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="35"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="39" t="s">
+      <c r="B43" s="34"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="37">
-        <v>1400</v>
-      </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="39" t="s">
+      <c r="E43" s="36">
+        <v>0</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="37">
+      <c r="K43" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="35"/>
-      <c r="C44" s="36"/>
-      <c r="E44" s="22">
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="E44" s="21">
         <f>SUM(E41:E43)</f>
-        <v>4200</v>
-      </c>
-      <c r="G44" s="47"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="36"/>
-      <c r="K44" s="22">
+        <v>2800</v>
+      </c>
+      <c r="G44" s="46"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="35"/>
+      <c r="K44" s="21">
         <f>SUM(K41:K43)</f>
         <v>2300</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="E45" s="23"/>
-      <c r="G45" s="47"/>
+      <c r="E45" s="22"/>
+      <c r="G45" s="46"/>
       <c r="H45" s="7"/>
-      <c r="K45" s="23"/>
+      <c r="K45" s="22"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="50" t="str">
+      <c r="B46" s="49" t="str">
         <f>H28</f>
-        <v>SEMANA  11        DEL    13     Al   19   DE   MARZO     2023</v>
-      </c>
-      <c r="E46" s="23"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="50" t="str">
+        <v>SEMANA  12        DEL    20     Al   26   DE   MARZO     2023</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="49" t="str">
         <f>B46</f>
-        <v>SEMANA  11        DEL    13     Al   19   DE   MARZO     2023</v>
-      </c>
-      <c r="K46" s="23"/>
+        <v>SEMANA  12        DEL    20     Al   26   DE   MARZO     2023</v>
+      </c>
+      <c r="K46" s="22"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
-      <c r="E47" s="33"/>
-      <c r="G47" s="47"/>
+      <c r="E47" s="32"/>
+      <c r="G47" s="46"/>
       <c r="H47" s="7"/>
-      <c r="K47" s="33"/>
+      <c r="K47" s="32"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="47"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="46"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="63"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="55"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="47"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="46"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="65"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="57"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1525,8 +1514,8 @@
       <c r="D50" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="23"/>
-      <c r="G50" s="47"/>
+      <c r="E50" s="22"/>
+      <c r="G50" s="46"/>
       <c r="H50" s="7"/>
       <c r="I50" t="s">
         <v>5</v>
@@ -1534,58 +1523,58 @@
       <c r="J50" t="s">
         <v>3</v>
       </c>
-      <c r="K50" s="23"/>
+      <c r="K50" s="22"/>
     </row>
     <row r="51" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="38">
+      <c r="C51" s="37">
         <f ca="1">C33</f>
-        <v>45003</v>
-      </c>
-      <c r="E51" s="23"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="25" t="s">
+        <v>45010</v>
+      </c>
+      <c r="E51" s="22"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I51" s="38">
+      <c r="I51" s="37">
         <f ca="1">I33</f>
-        <v>45003</v>
-      </c>
-      <c r="K51" s="23"/>
+        <v>45010</v>
+      </c>
+      <c r="K51" s="22"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="26"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="28"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="28"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="27"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="27"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="34"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
+      <c r="C53" s="33"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
     </row>
     <row r="54" spans="2:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="46"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
     </row>
     <row r="55" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
@@ -1596,102 +1585,102 @@
         <v>2</v>
       </c>
       <c r="E55" s="4"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
     </row>
     <row r="56" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="46"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
     </row>
     <row r="57" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B57" s="58" t="s">
+      <c r="B57" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="59"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="8">
-        <v>5</v>
-      </c>
-      <c r="E57" s="22">
-        <v>2000</v>
-      </c>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="46"/>
+        <v>4</v>
+      </c>
+      <c r="E57" s="21">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
     </row>
     <row r="58" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B58" s="53"/>
       <c r="C58" s="53"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="46"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="35"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="39" t="s">
+      <c r="B59" s="34"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="37">
+      <c r="E59" s="36">
         <v>0</v>
       </c>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
     </row>
     <row r="60" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="35"/>
-      <c r="C60" s="36"/>
-      <c r="E60" s="22">
+      <c r="B60" s="34"/>
+      <c r="C60" s="35"/>
+      <c r="E60" s="21">
         <f>SUM(E57:E59)</f>
-        <v>2000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
-      <c r="E61" s="23"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="50" t="str">
+      <c r="B62" s="49" t="str">
         <f>H46</f>
-        <v>SEMANA  11        DEL    13     Al   19   DE   MARZO     2023</v>
-      </c>
-      <c r="E62" s="23"/>
+        <v>SEMANA  12        DEL    20     Al   26   DE   MARZO     2023</v>
+      </c>
+      <c r="E62" s="22"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
-      <c r="E63" s="33"/>
+      <c r="E63" s="32"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="63"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="55"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="65"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="57"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
@@ -1701,47 +1690,47 @@
       <c r="D66" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="23"/>
+      <c r="E66" s="22"/>
     </row>
     <row r="67" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="38">
+      <c r="C67" s="37">
         <f ca="1">I51</f>
-        <v>45003</v>
-      </c>
-      <c r="E67" s="23"/>
+        <v>45010</v>
+      </c>
+      <c r="E67" s="22"/>
     </row>
     <row r="68" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="26"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="28"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="27"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="47"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D30:E31"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D64:E65"/>
     <mergeCell ref="D48:E49"/>
     <mergeCell ref="J48:K49"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="B4:C5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>RECIBO DE NOMINA</t>
   </si>
@@ -93,13 +93,10 @@
     <t>JORGE MUNGUIA SALAZAR</t>
   </si>
   <si>
-    <t>SEMANA  12        DEL    20     Al   26   DE   MARZO     2023</t>
-  </si>
-  <si>
-    <t>FESTIVO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bono semanal </t>
+  </si>
+  <si>
+    <t>SEMANA  13        DEL    27     Al   02   DE   ABRIL     2023</t>
   </si>
 </sst>
 </file>
@@ -544,13 +541,32 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -571,25 +587,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -907,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,10 +960,10 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="65"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="44"/>
       <c r="E4" s="11">
         <v>0</v>
@@ -985,8 +982,8 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1038,13 +1035,13 @@
     </row>
     <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="22"/>
       <c r="G9" s="6"/>
       <c r="H9" s="49" t="str">
         <f>B9</f>
-        <v>SEMANA  12        DEL    20     Al   26   DE   MARZO     2023</v>
+        <v>SEMANA  13        DEL    27     Al   02   DE   ABRIL     2023</v>
       </c>
       <c r="K9" s="22"/>
     </row>
@@ -1057,30 +1054,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
       <c r="F11" s="23"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="55"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="23"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="57"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="59"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="23"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1098,7 +1095,7 @@
       </c>
       <c r="C14" s="37">
         <f ca="1">TODAY()</f>
-        <v>45010</v>
+        <v>45017</v>
       </c>
       <c r="E14" s="22"/>
       <c r="G14" s="6"/>
@@ -1107,7 +1104,7 @@
       </c>
       <c r="I14" s="37">
         <f ca="1">C14</f>
-        <v>45010</v>
+        <v>45017</v>
       </c>
       <c r="K14" s="22"/>
     </row>
@@ -1203,12 +1200,12 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="61"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24" s="21">
         <v>300</v>
@@ -1223,13 +1220,11 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="30">
-        <v>383</v>
+        <v>0</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
@@ -1240,9 +1235,9 @@
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
-      <c r="E26" s="66">
+      <c r="E26" s="51">
         <f>SUM(E23:E25)</f>
-        <v>2983</v>
+        <v>2600</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="34"/>
@@ -1259,13 +1254,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="49" t="str">
         <f>B9</f>
-        <v>SEMANA  12        DEL    20     Al   26   DE   MARZO     2023</v>
+        <v>SEMANA  13        DEL    27     Al   02   DE   ABRIL     2023</v>
       </c>
       <c r="E28" s="22"/>
       <c r="G28" s="6"/>
       <c r="H28" s="49" t="str">
         <f>B28</f>
-        <v>SEMANA  12        DEL    20     Al   26   DE   MARZO     2023</v>
+        <v>SEMANA  13        DEL    27     Al   02   DE   ABRIL     2023</v>
       </c>
       <c r="K28" s="22"/>
     </row>
@@ -1278,21 +1273,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="55"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="62"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="64"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="57"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="64"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1319,7 +1314,7 @@
       </c>
       <c r="C33" s="37">
         <f ca="1">I14</f>
-        <v>45010</v>
+        <v>45017</v>
       </c>
       <c r="E33" s="22"/>
       <c r="G33" s="6"/>
@@ -1328,7 +1323,7 @@
       </c>
       <c r="I33" s="37">
         <f ca="1">C33</f>
-        <v>45010</v>
+        <v>45017</v>
       </c>
       <c r="K33" s="22"/>
     </row>
@@ -1401,10 +1396,10 @@
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="46"/>
-      <c r="H41" s="51" t="s">
+      <c r="H41" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="52"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="8">
         <v>6</v>
       </c>
@@ -1413,14 +1408,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="40"/>
       <c r="E42" s="39"/>
       <c r="F42" s="19"/>
       <c r="G42" s="46"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
       <c r="J42" s="40"/>
       <c r="K42" s="39"/>
     </row>
@@ -1431,7 +1426,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="36">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="46"/>
@@ -1449,7 +1444,7 @@
       <c r="C44" s="35"/>
       <c r="E44" s="21">
         <f>SUM(E41:E43)</f>
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="G44" s="46"/>
       <c r="H44" s="34"/>
@@ -1469,13 +1464,13 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="49" t="str">
         <f>H28</f>
-        <v>SEMANA  12        DEL    20     Al   26   DE   MARZO     2023</v>
+        <v>SEMANA  13        DEL    27     Al   02   DE   ABRIL     2023</v>
       </c>
       <c r="E46" s="22"/>
       <c r="G46" s="46"/>
       <c r="H46" s="49" t="str">
         <f>B46</f>
-        <v>SEMANA  12        DEL    20     Al   26   DE   MARZO     2023</v>
+        <v>SEMANA  13        DEL    27     Al   02   DE   ABRIL     2023</v>
       </c>
       <c r="K46" s="22"/>
     </row>
@@ -1488,23 +1483,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="55"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="62"/>
       <c r="F48" s="23"/>
       <c r="G48" s="46"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="55"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="62"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="64"/>
       <c r="F49" s="23"/>
       <c r="G49" s="46"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="57"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="64"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1531,7 +1526,7 @@
       </c>
       <c r="C51" s="37">
         <f ca="1">C33</f>
-        <v>45010</v>
+        <v>45017</v>
       </c>
       <c r="E51" s="22"/>
       <c r="G51" s="46"/>
@@ -1540,7 +1535,7 @@
       </c>
       <c r="I51" s="37">
         <f ca="1">I33</f>
-        <v>45010</v>
+        <v>45017</v>
       </c>
       <c r="K51" s="22"/>
     </row>
@@ -1604,15 +1599,15 @@
       <c r="K56" s="45"/>
     </row>
     <row r="57" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="52"/>
+      <c r="C57" s="58"/>
       <c r="D57" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E57" s="21">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="F57" s="45"/>
       <c r="G57" s="45"/>
@@ -1622,8 +1617,8 @@
       <c r="K57" s="45"/>
     </row>
     <row r="58" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="40"/>
       <c r="E58" s="39"/>
       <c r="F58" s="45"/>
@@ -1654,7 +1649,7 @@
       <c r="C60" s="35"/>
       <c r="E60" s="21">
         <f>SUM(E57:E59)</f>
-        <v>1600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
@@ -1664,7 +1659,7 @@
     <row r="62" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="49" t="str">
         <f>H46</f>
-        <v>SEMANA  12        DEL    20     Al   26   DE   MARZO     2023</v>
+        <v>SEMANA  13        DEL    27     Al   02   DE   ABRIL     2023</v>
       </c>
       <c r="E62" s="22"/>
     </row>
@@ -1674,13 +1669,13 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="55"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="62"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="57"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="64"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
@@ -1698,7 +1693,7 @@
       </c>
       <c r="C67" s="37">
         <f ca="1">I51</f>
-        <v>45010</v>
+        <v>45017</v>
       </c>
       <c r="E67" s="22"/>
     </row>
@@ -1716,21 +1711,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D64:E65"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D30:E31"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="B4:C5"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D64:E65"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>RECIBO DE NOMINA</t>
   </si>
@@ -75,9 +75,6 @@
     <t xml:space="preserve">TEODORA ARELLANO PEREZ </t>
   </si>
   <si>
-    <t>Ma.  Margarita AGUILAR AQUINO</t>
-  </si>
-  <si>
     <t># 2</t>
   </si>
   <si>
@@ -87,16 +84,13 @@
     <t># 6</t>
   </si>
   <si>
-    <t># 7</t>
-  </si>
-  <si>
     <t>JORGE MUNGUIA SALAZAR</t>
   </si>
   <si>
     <t xml:space="preserve">Bono semanal </t>
   </si>
   <si>
-    <t>SEMANA  13        DEL    27     Al   02   DE   ABRIL     2023</t>
+    <t>SEMANA  14        DEL    03     Al   09   DE   ABRIL     2023</t>
   </si>
 </sst>
 </file>
@@ -457,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -542,26 +536,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -569,22 +569,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -905,7 +930,7 @@
   <dimension ref="B1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,10 +985,10 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="44"/>
       <c r="E4" s="11">
         <v>0</v>
@@ -982,8 +1007,8 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1035,13 +1060,13 @@
     </row>
     <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="22"/>
       <c r="G9" s="6"/>
       <c r="H9" s="49" t="str">
         <f>B9</f>
-        <v>SEMANA  13        DEL    27     Al   02   DE   ABRIL     2023</v>
+        <v>SEMANA  14        DEL    03     Al   09   DE   ABRIL     2023</v>
       </c>
       <c r="K9" s="22"/>
     </row>
@@ -1054,30 +1079,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="23"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="23"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="66"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="23"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1095,16 +1120,16 @@
       </c>
       <c r="C14" s="37">
         <f ca="1">TODAY()</f>
-        <v>45017</v>
+        <v>45021</v>
       </c>
       <c r="E14" s="22"/>
       <c r="G14" s="6"/>
       <c r="H14" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="37">
         <f ca="1">C14</f>
-        <v>45017</v>
+        <v>45021</v>
       </c>
       <c r="K14" s="22"/>
     </row>
@@ -1179,7 +1204,7 @@
       <c r="H22" s="7"/>
       <c r="J22" s="20"/>
       <c r="K22" s="28">
-        <v>1120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1188,7 +1213,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="21">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="10" t="s">
@@ -1200,15 +1225,15 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="54"/>
+      <c r="B24" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="64"/>
       <c r="D24" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24" s="21">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="10"/>
@@ -1220,8 +1245,8 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="20"/>
       <c r="E25" s="30">
         <v>0</v>
@@ -1230,14 +1255,14 @@
       <c r="H25" s="7"/>
       <c r="K25" s="21">
         <f>SUM(K22:K24)</f>
-        <v>1120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="E26" s="51">
         <f>SUM(E23:E25)</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="34"/>
@@ -1254,13 +1279,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="49" t="str">
         <f>B9</f>
-        <v>SEMANA  13        DEL    27     Al   02   DE   ABRIL     2023</v>
+        <v>SEMANA  14        DEL    03     Al   09   DE   ABRIL     2023</v>
       </c>
       <c r="E28" s="22"/>
       <c r="G28" s="6"/>
       <c r="H28" s="49" t="str">
         <f>B28</f>
-        <v>SEMANA  13        DEL    27     Al   02   DE   ABRIL     2023</v>
+        <v>SEMANA  14        DEL    03     Al   09   DE   ABRIL     2023</v>
       </c>
       <c r="K28" s="22"/>
     </row>
@@ -1273,21 +1298,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="62"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="56"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="64"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="64"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="58"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1314,7 +1339,7 @@
       </c>
       <c r="C33" s="37">
         <f ca="1">I14</f>
-        <v>45017</v>
+        <v>45021</v>
       </c>
       <c r="E33" s="22"/>
       <c r="G33" s="6"/>
@@ -1323,7 +1348,7 @@
       </c>
       <c r="I33" s="37">
         <f ca="1">C33</f>
-        <v>45017</v>
+        <v>45021</v>
       </c>
       <c r="K33" s="22"/>
     </row>
@@ -1396,10 +1421,10 @@
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="46"/>
-      <c r="H41" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" s="58"/>
+      <c r="H41" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="53"/>
       <c r="J41" s="8">
         <v>6</v>
       </c>
@@ -1408,14 +1433,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="40"/>
       <c r="E42" s="39"/>
       <c r="F42" s="19"/>
       <c r="G42" s="46"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
       <c r="J42" s="40"/>
       <c r="K42" s="39"/>
     </row>
@@ -1426,7 +1451,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="36">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="46"/>
@@ -1444,7 +1469,7 @@
       <c r="C44" s="35"/>
       <c r="E44" s="21">
         <f>SUM(E41:E43)</f>
-        <v>4200</v>
+        <v>2800</v>
       </c>
       <c r="G44" s="46"/>
       <c r="H44" s="34"/>
@@ -1464,13 +1489,13 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="49" t="str">
         <f>H28</f>
-        <v>SEMANA  13        DEL    27     Al   02   DE   ABRIL     2023</v>
+        <v>SEMANA  14        DEL    03     Al   09   DE   ABRIL     2023</v>
       </c>
       <c r="E46" s="22"/>
       <c r="G46" s="46"/>
       <c r="H46" s="49" t="str">
         <f>B46</f>
-        <v>SEMANA  13        DEL    27     Al   02   DE   ABRIL     2023</v>
+        <v>SEMANA  14        DEL    03     Al   09   DE   ABRIL     2023</v>
       </c>
       <c r="K46" s="22"/>
     </row>
@@ -1483,23 +1508,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="62"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="56"/>
       <c r="F48" s="23"/>
       <c r="G48" s="46"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="62"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="56"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="64"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="58"/>
       <c r="F49" s="23"/>
       <c r="G49" s="46"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="64"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="58"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1526,16 +1551,16 @@
       </c>
       <c r="C51" s="37">
         <f ca="1">C33</f>
-        <v>45017</v>
+        <v>45021</v>
       </c>
       <c r="E51" s="22"/>
       <c r="G51" s="46"/>
       <c r="H51" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I51" s="37">
         <f ca="1">I33</f>
-        <v>45017</v>
+        <v>45021</v>
       </c>
       <c r="K51" s="22"/>
     </row>
@@ -1559,7 +1584,7 @@
       <c r="J53" s="46"/>
       <c r="K53" s="46"/>
     </row>
-    <row r="54" spans="2:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="45"/>
       <c r="C54" s="50"/>
       <c r="D54" s="45"/>
@@ -1571,138 +1596,57 @@
       <c r="J54" s="45"/>
       <c r="K54" s="45"/>
     </row>
-    <row r="55" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-    </row>
-    <row r="56" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="45"/>
-    </row>
-    <row r="57" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B57" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="58"/>
-      <c r="D57" s="8">
-        <v>5</v>
-      </c>
-      <c r="E57" s="21">
-        <v>2000</v>
-      </c>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="45"/>
-    </row>
-    <row r="58" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B58" s="52"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-    </row>
-    <row r="59" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="34"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="36">
-        <v>0</v>
-      </c>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
-    </row>
-    <row r="60" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="34"/>
-      <c r="C60" s="35"/>
-      <c r="E60" s="21">
-        <f>SUM(E57:E59)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="7"/>
-      <c r="E61" s="22"/>
-    </row>
-    <row r="62" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="49" t="str">
-        <f>H46</f>
-        <v>SEMANA  13        DEL    27     Al   02   DE   ABRIL     2023</v>
-      </c>
-      <c r="E62" s="22"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="7"/>
-      <c r="E63" s="32"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="7"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="62"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="7"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="64"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="7"/>
-      <c r="C66" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="22"/>
-    </row>
-    <row r="67" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="37">
-        <f ca="1">I51</f>
-        <v>45017</v>
-      </c>
-      <c r="E67" s="22"/>
-    </row>
-    <row r="68" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="25"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="27"/>
-    </row>
+    <row r="55" spans="2:11" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B55" s="67"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="69"/>
+    </row>
+    <row r="56" spans="2:11" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D56" s="68"/>
+      <c r="E56" s="70"/>
+    </row>
+    <row r="57" spans="2:11" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B57" s="71"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="73"/>
+    </row>
+    <row r="58" spans="2:11" s="46" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B58" s="74"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="76"/>
+    </row>
+    <row r="59" spans="2:11" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B59" s="77"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="76"/>
+    </row>
+    <row r="60" spans="2:11" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B60" s="77"/>
+      <c r="C60" s="77"/>
+      <c r="E60" s="73"/>
+    </row>
+    <row r="61" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:11" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="79"/>
+    </row>
+    <row r="63" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="80"/>
+      <c r="E64" s="80"/>
+    </row>
+    <row r="65" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+    </row>
+    <row r="66" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="2:5" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="72"/>
+      <c r="C67" s="81"/>
+    </row>
+    <row r="68" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="46"/>
       <c r="C69" s="47"/>
@@ -1711,21 +1655,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D30:E31"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D64:E65"/>
     <mergeCell ref="D48:E49"/>
     <mergeCell ref="J48:K49"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="B4:C5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -90,7 +90,7 @@
     <t xml:space="preserve">Bono semanal </t>
   </si>
   <si>
-    <t>SEMANA  14        DEL    03     Al   09   DE   ABRIL     2023</t>
+    <t>SEMANA  15        DEL    10     Al   16   DE   ABRIL     2023</t>
   </si>
 </sst>
 </file>
@@ -536,67 +536,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -606,11 +555,62 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,10 +985,10 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="44"/>
       <c r="E4" s="11">
         <v>0</v>
@@ -1007,8 +1007,8 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="49" t="str">
         <f>B9</f>
-        <v>SEMANA  14        DEL    03     Al   09   DE   ABRIL     2023</v>
+        <v>SEMANA  15        DEL    10     Al   16   DE   ABRIL     2023</v>
       </c>
       <c r="K9" s="22"/>
     </row>
@@ -1079,30 +1079,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="23"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="23"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="60"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="23"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="37">
         <f ca="1">TODAY()</f>
-        <v>45021</v>
+        <v>45031</v>
       </c>
       <c r="E14" s="22"/>
       <c r="G14" s="6"/>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I14" s="37">
         <f ca="1">C14</f>
-        <v>45021</v>
+        <v>45031</v>
       </c>
       <c r="K14" s="22"/>
     </row>
@@ -1204,16 +1204,16 @@
       <c r="H22" s="7"/>
       <c r="J22" s="20"/>
       <c r="K22" s="28">
-        <v>0</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
       <c r="D23" s="48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" s="21">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="10" t="s">
@@ -1225,10 +1225,10 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="64"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="20" t="s">
         <v>20</v>
       </c>
@@ -1245,8 +1245,8 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="20"/>
       <c r="E25" s="30">
         <v>0</v>
@@ -1255,14 +1255,14 @@
       <c r="H25" s="7"/>
       <c r="K25" s="21">
         <f>SUM(K22:K24)</f>
-        <v>0</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="E26" s="51">
         <f>SUM(E23:E25)</f>
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="34"/>
@@ -1279,13 +1279,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="49" t="str">
         <f>B9</f>
-        <v>SEMANA  14        DEL    03     Al   09   DE   ABRIL     2023</v>
+        <v>SEMANA  15        DEL    10     Al   16   DE   ABRIL     2023</v>
       </c>
       <c r="E28" s="22"/>
       <c r="G28" s="6"/>
       <c r="H28" s="49" t="str">
         <f>B28</f>
-        <v>SEMANA  14        DEL    03     Al   09   DE   ABRIL     2023</v>
+        <v>SEMANA  15        DEL    10     Al   16   DE   ABRIL     2023</v>
       </c>
       <c r="K28" s="22"/>
     </row>
@@ -1298,21 +1298,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="68"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="56"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="70"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="58"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="70"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C33" s="37">
         <f ca="1">I14</f>
-        <v>45021</v>
+        <v>45031</v>
       </c>
       <c r="E33" s="22"/>
       <c r="G33" s="6"/>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="I33" s="37">
         <f ca="1">C33</f>
-        <v>45021</v>
+        <v>45031</v>
       </c>
       <c r="K33" s="22"/>
     </row>
@@ -1421,10 +1421,10 @@
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="46"/>
-      <c r="H41" s="52" t="s">
+      <c r="H41" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="53"/>
+      <c r="I41" s="79"/>
       <c r="J41" s="8">
         <v>6</v>
       </c>
@@ -1433,14 +1433,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="40"/>
       <c r="E42" s="39"/>
       <c r="F42" s="19"/>
       <c r="G42" s="46"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
       <c r="J42" s="40"/>
       <c r="K42" s="39"/>
     </row>
@@ -1451,7 +1451,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="36">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="46"/>
@@ -1469,7 +1469,7 @@
       <c r="C44" s="35"/>
       <c r="E44" s="21">
         <f>SUM(E41:E43)</f>
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="G44" s="46"/>
       <c r="H44" s="34"/>
@@ -1489,13 +1489,13 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="49" t="str">
         <f>H28</f>
-        <v>SEMANA  14        DEL    03     Al   09   DE   ABRIL     2023</v>
+        <v>SEMANA  15        DEL    10     Al   16   DE   ABRIL     2023</v>
       </c>
       <c r="E46" s="22"/>
       <c r="G46" s="46"/>
       <c r="H46" s="49" t="str">
         <f>B46</f>
-        <v>SEMANA  14        DEL    03     Al   09   DE   ABRIL     2023</v>
+        <v>SEMANA  15        DEL    10     Al   16   DE   ABRIL     2023</v>
       </c>
       <c r="K46" s="22"/>
     </row>
@@ -1508,23 +1508,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="56"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="68"/>
       <c r="F48" s="23"/>
       <c r="G48" s="46"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="56"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="68"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="58"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="70"/>
       <c r="F49" s="23"/>
       <c r="G49" s="46"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="58"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="70"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C51" s="37">
         <f ca="1">C33</f>
-        <v>45021</v>
+        <v>45031</v>
       </c>
       <c r="E51" s="22"/>
       <c r="G51" s="46"/>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="I51" s="37">
         <f ca="1">I33</f>
-        <v>45021</v>
+        <v>45031</v>
       </c>
       <c r="K51" s="22"/>
     </row>
@@ -1597,54 +1597,54 @@
       <c r="K54" s="45"/>
     </row>
     <row r="55" spans="2:11" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B55" s="67"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="69"/>
+      <c r="B55" s="52"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="54"/>
     </row>
     <row r="56" spans="2:11" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="68"/>
-      <c r="E56" s="70"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="55"/>
     </row>
     <row r="57" spans="2:11" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="73"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="57"/>
     </row>
     <row r="58" spans="2:11" s="46" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B58" s="74"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="76"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="59"/>
     </row>
     <row r="59" spans="2:11" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="76"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="59"/>
     </row>
     <row r="60" spans="2:11" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="E60" s="73"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="E60" s="57"/>
     </row>
     <row r="61" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="2:11" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="79"/>
+      <c r="B62" s="62"/>
     </row>
     <row r="63" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
     </row>
     <row r="65" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
     </row>
     <row r="66" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:5" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="72"/>
-      <c r="C67" s="81"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="63"/>
     </row>
     <row r="68" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -90,7 +90,7 @@
     <t xml:space="preserve">Bono semanal </t>
   </si>
   <si>
-    <t>SEMANA  15        DEL    10     Al   16   DE   ABRIL     2023</t>
+    <t>SEMANA  16        DEL    17     Al   23   DE   ABRIL     2023</t>
   </si>
 </sst>
 </file>
@@ -558,6 +558,51 @@
     <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -566,51 +611,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -929,7 +929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -985,10 +985,10 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="81"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="44"/>
       <c r="E4" s="11">
         <v>0</v>
@@ -1007,8 +1007,8 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="49" t="str">
         <f>B9</f>
-        <v>SEMANA  15        DEL    10     Al   16   DE   ABRIL     2023</v>
+        <v>SEMANA  16        DEL    17     Al   23   DE   ABRIL     2023</v>
       </c>
       <c r="K9" s="22"/>
     </row>
@@ -1079,30 +1079,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="23"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="68"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="23"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="70"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="72"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="23"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="37">
         <f ca="1">TODAY()</f>
-        <v>45031</v>
+        <v>45038</v>
       </c>
       <c r="E14" s="22"/>
       <c r="G14" s="6"/>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I14" s="37">
         <f ca="1">C14</f>
-        <v>45031</v>
+        <v>45038</v>
       </c>
       <c r="K14" s="22"/>
     </row>
@@ -1204,16 +1204,16 @@
       <c r="H22" s="7"/>
       <c r="J22" s="20"/>
       <c r="K22" s="28">
-        <v>1400</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
       <c r="D23" s="48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="21">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="10" t="s">
@@ -1225,10 +1225,10 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="75"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="20" t="s">
         <v>20</v>
       </c>
@@ -1245,8 +1245,8 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="76"/>
-      <c r="C25" s="77"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="20"/>
       <c r="E25" s="30">
         <v>0</v>
@@ -1255,14 +1255,14 @@
       <c r="H25" s="7"/>
       <c r="K25" s="21">
         <f>SUM(K22:K24)</f>
-        <v>1400</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="E26" s="51">
         <f>SUM(E23:E25)</f>
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="34"/>
@@ -1279,13 +1279,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="49" t="str">
         <f>B9</f>
-        <v>SEMANA  15        DEL    10     Al   16   DE   ABRIL     2023</v>
+        <v>SEMANA  16        DEL    17     Al   23   DE   ABRIL     2023</v>
       </c>
       <c r="E28" s="22"/>
       <c r="G28" s="6"/>
       <c r="H28" s="49" t="str">
         <f>B28</f>
-        <v>SEMANA  15        DEL    10     Al   16   DE   ABRIL     2023</v>
+        <v>SEMANA  16        DEL    17     Al   23   DE   ABRIL     2023</v>
       </c>
       <c r="K28" s="22"/>
     </row>
@@ -1298,21 +1298,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="68"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="70"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="76"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="70"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="76"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C33" s="37">
         <f ca="1">I14</f>
-        <v>45031</v>
+        <v>45038</v>
       </c>
       <c r="E33" s="22"/>
       <c r="G33" s="6"/>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="I33" s="37">
         <f ca="1">C33</f>
-        <v>45031</v>
+        <v>45038</v>
       </c>
       <c r="K33" s="22"/>
     </row>
@@ -1421,10 +1421,10 @@
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="46"/>
-      <c r="H41" s="78" t="s">
+      <c r="H41" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="79"/>
+      <c r="I41" s="70"/>
       <c r="J41" s="8">
         <v>6</v>
       </c>
@@ -1433,14 +1433,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="40"/>
       <c r="E42" s="39"/>
       <c r="F42" s="19"/>
       <c r="G42" s="46"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
       <c r="J42" s="40"/>
       <c r="K42" s="39"/>
     </row>
@@ -1451,7 +1451,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="36">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="46"/>
@@ -1469,7 +1469,7 @@
       <c r="C44" s="35"/>
       <c r="E44" s="21">
         <f>SUM(E41:E43)</f>
-        <v>4200</v>
+        <v>2800</v>
       </c>
       <c r="G44" s="46"/>
       <c r="H44" s="34"/>
@@ -1489,13 +1489,13 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="49" t="str">
         <f>H28</f>
-        <v>SEMANA  15        DEL    10     Al   16   DE   ABRIL     2023</v>
+        <v>SEMANA  16        DEL    17     Al   23   DE   ABRIL     2023</v>
       </c>
       <c r="E46" s="22"/>
       <c r="G46" s="46"/>
       <c r="H46" s="49" t="str">
         <f>B46</f>
-        <v>SEMANA  15        DEL    10     Al   16   DE   ABRIL     2023</v>
+        <v>SEMANA  16        DEL    17     Al   23   DE   ABRIL     2023</v>
       </c>
       <c r="K46" s="22"/>
     </row>
@@ -1508,23 +1508,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="68"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="74"/>
       <c r="F48" s="23"/>
       <c r="G48" s="46"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="68"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="74"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="70"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="76"/>
       <c r="F49" s="23"/>
       <c r="G49" s="46"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="70"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="76"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C51" s="37">
         <f ca="1">C33</f>
-        <v>45031</v>
+        <v>45038</v>
       </c>
       <c r="E51" s="22"/>
       <c r="G51" s="46"/>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="I51" s="37">
         <f ca="1">I33</f>
-        <v>45031</v>
+        <v>45038</v>
       </c>
       <c r="K51" s="22"/>
     </row>
@@ -1606,14 +1606,14 @@
       <c r="E56" s="55"/>
     </row>
     <row r="57" spans="2:11" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="79"/>
       <c r="D57" s="56"/>
       <c r="E57" s="57"/>
     </row>
     <row r="58" spans="2:11" s="46" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
       <c r="D58" s="58"/>
       <c r="E58" s="59"/>
     </row>
@@ -1634,12 +1634,12 @@
     </row>
     <row r="63" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
     </row>
     <row r="65" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
     </row>
     <row r="66" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:5" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1655,21 +1655,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D64:E65"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D30:E31"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="B4:C5"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D64:E65"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>RECIBO DE NOMINA</t>
   </si>
@@ -90,7 +90,13 @@
     <t xml:space="preserve">Bono semanal </t>
   </si>
   <si>
-    <t>SEMANA  16        DEL    17     Al   23   DE   ABRIL     2023</t>
+    <t>SEMANA  20        DEL    15     Al   21   DE   MAYO     2023</t>
+  </si>
+  <si>
+    <t>GUADALUPE LILLO TECOX</t>
+  </si>
+  <si>
+    <t># 7</t>
   </si>
 </sst>
 </file>
@@ -451,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -536,31 +542,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -573,44 +581,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -929,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,10 +960,10 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="72"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="44"/>
       <c r="E4" s="11">
         <v>0</v>
@@ -1007,8 +982,8 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1066,7 +1041,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="49" t="str">
         <f>B9</f>
-        <v>SEMANA  16        DEL    17     Al   23   DE   ABRIL     2023</v>
+        <v>SEMANA  20        DEL    15     Al   21   DE   MAYO     2023</v>
       </c>
       <c r="K9" s="22"/>
     </row>
@@ -1079,30 +1054,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="23"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="23"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="76"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="78"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="23"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1120,7 +1095,7 @@
       </c>
       <c r="C14" s="37">
         <f ca="1">TODAY()</f>
-        <v>45038</v>
+        <v>45066</v>
       </c>
       <c r="E14" s="22"/>
       <c r="G14" s="6"/>
@@ -1129,7 +1104,7 @@
       </c>
       <c r="I14" s="37">
         <f ca="1">C14</f>
-        <v>45038</v>
+        <v>45066</v>
       </c>
       <c r="K14" s="22"/>
     </row>
@@ -1204,16 +1179,16 @@
       <c r="H22" s="7"/>
       <c r="J22" s="20"/>
       <c r="K22" s="28">
-        <v>560</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
       <c r="D23" s="48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" s="21">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="10" t="s">
@@ -1225,10 +1200,10 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="66"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="20" t="s">
         <v>20</v>
       </c>
@@ -1245,8 +1220,8 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="20"/>
       <c r="E25" s="30">
         <v>0</v>
@@ -1255,14 +1230,14 @@
       <c r="H25" s="7"/>
       <c r="K25" s="21">
         <f>SUM(K22:K24)</f>
-        <v>560</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="E26" s="51">
         <f>SUM(E23:E25)</f>
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="34"/>
@@ -1279,13 +1254,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="49" t="str">
         <f>B9</f>
-        <v>SEMANA  16        DEL    17     Al   23   DE   ABRIL     2023</v>
+        <v>SEMANA  20        DEL    15     Al   21   DE   MAYO     2023</v>
       </c>
       <c r="E28" s="22"/>
       <c r="G28" s="6"/>
       <c r="H28" s="49" t="str">
         <f>B28</f>
-        <v>SEMANA  16        DEL    17     Al   23   DE   ABRIL     2023</v>
+        <v>SEMANA  20        DEL    15     Al   21   DE   MAYO     2023</v>
       </c>
       <c r="K28" s="22"/>
     </row>
@@ -1298,21 +1273,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="74"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="55"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="76"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="76"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1339,7 +1314,7 @@
       </c>
       <c r="C33" s="37">
         <f ca="1">I14</f>
-        <v>45038</v>
+        <v>45066</v>
       </c>
       <c r="E33" s="22"/>
       <c r="G33" s="6"/>
@@ -1348,7 +1323,7 @@
       </c>
       <c r="I33" s="37">
         <f ca="1">C33</f>
-        <v>45038</v>
+        <v>45066</v>
       </c>
       <c r="K33" s="22"/>
     </row>
@@ -1421,10 +1396,10 @@
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="46"/>
-      <c r="H41" s="69" t="s">
+      <c r="H41" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="70"/>
+      <c r="I41" s="53"/>
       <c r="J41" s="8">
         <v>6</v>
       </c>
@@ -1433,14 +1408,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="40"/>
       <c r="E42" s="39"/>
       <c r="F42" s="19"/>
       <c r="G42" s="46"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="40"/>
       <c r="K42" s="39"/>
     </row>
@@ -1451,7 +1426,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="36">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="46"/>
@@ -1469,7 +1444,7 @@
       <c r="C44" s="35"/>
       <c r="E44" s="21">
         <f>SUM(E41:E43)</f>
-        <v>2800</v>
+        <v>3733</v>
       </c>
       <c r="G44" s="46"/>
       <c r="H44" s="34"/>
@@ -1489,13 +1464,13 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="49" t="str">
         <f>H28</f>
-        <v>SEMANA  16        DEL    17     Al   23   DE   ABRIL     2023</v>
+        <v>SEMANA  20        DEL    15     Al   21   DE   MAYO     2023</v>
       </c>
       <c r="E46" s="22"/>
       <c r="G46" s="46"/>
       <c r="H46" s="49" t="str">
         <f>B46</f>
-        <v>SEMANA  16        DEL    17     Al   23   DE   ABRIL     2023</v>
+        <v>SEMANA  20        DEL    15     Al   21   DE   MAYO     2023</v>
       </c>
       <c r="K46" s="22"/>
     </row>
@@ -1508,23 +1483,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="74"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="55"/>
       <c r="F48" s="23"/>
       <c r="G48" s="46"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="74"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="55"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="76"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="57"/>
       <c r="F49" s="23"/>
       <c r="G49" s="46"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="75"/>
-      <c r="K49" s="76"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="57"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1551,7 +1526,7 @@
       </c>
       <c r="C51" s="37">
         <f ca="1">C33</f>
-        <v>45038</v>
+        <v>45066</v>
       </c>
       <c r="E51" s="22"/>
       <c r="G51" s="46"/>
@@ -1560,7 +1535,7 @@
       </c>
       <c r="I51" s="37">
         <f ca="1">I33</f>
-        <v>45038</v>
+        <v>45066</v>
       </c>
       <c r="K51" s="22"/>
     </row>
@@ -1596,80 +1571,137 @@
       <c r="J54" s="45"/>
       <c r="K54" s="45"/>
     </row>
-    <row r="55" spans="2:11" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B55" s="52"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="54"/>
-    </row>
-    <row r="56" spans="2:11" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="53"/>
-      <c r="E56" s="55"/>
-    </row>
-    <row r="57" spans="2:11" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B57" s="79"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="57"/>
-    </row>
-    <row r="58" spans="2:11" s="46" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="59"/>
-    </row>
-    <row r="59" spans="2:11" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="59"/>
-    </row>
-    <row r="60" spans="2:11" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="E60" s="57"/>
-    </row>
-    <row r="61" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:11" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="62"/>
-    </row>
-    <row r="63" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:11" s="46" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:11" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="2:11" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="7"/>
+      <c r="C57"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="28"/>
+    </row>
+    <row r="58" spans="2:11" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="53"/>
+      <c r="D58" s="8">
+        <v>5</v>
+      </c>
+      <c r="E58" s="21">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" s="46" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="39"/>
+    </row>
+    <row r="60" spans="2:11" s="46" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="34"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" s="46" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="34"/>
+      <c r="C61" s="35"/>
+      <c r="D61"/>
+      <c r="E61" s="21">
+        <f>SUM(E58:E60)</f>
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="7"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62" s="22"/>
+    </row>
+    <row r="63" spans="2:11" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="49" t="str">
+        <f>H46</f>
+        <v>SEMANA  20        DEL    15     Al   21   DE   MAYO     2023</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63" s="22"/>
+    </row>
     <row r="64" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
+      <c r="B64" s="7"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64" s="32"/>
     </row>
     <row r="65" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="81"/>
-      <c r="E65" s="81"/>
-    </row>
-    <row r="66" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="2:5" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="56"/>
-      <c r="C67" s="63"/>
-    </row>
-    <row r="68" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="46"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="46"/>
+      <c r="B65" s="7"/>
+      <c r="C65"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="55"/>
+    </row>
+    <row r="66" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="7"/>
+      <c r="C66"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="57"/>
+    </row>
+    <row r="67" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="7"/>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="22"/>
+    </row>
+    <row r="68" spans="2:5" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="37">
+        <f ca="1">I51</f>
+        <v>45066</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68" s="22"/>
+    </row>
+    <row r="69" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="25"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D64:E65"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B4:C5"/>
     <mergeCell ref="J30:K31"/>
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -90,13 +90,13 @@
     <t xml:space="preserve">Bono semanal </t>
   </si>
   <si>
-    <t>SEMANA  20        DEL    15     Al   21   DE   MAYO     2023</t>
-  </si>
-  <si>
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
     <t># 7</t>
+  </si>
+  <si>
+    <t>SEMANA  21        DEL    21     Al   28   DE   MAYO     2023</t>
   </si>
 </sst>
 </file>
@@ -542,12 +542,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -560,32 +581,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,10 +960,10 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="44"/>
       <c r="E4" s="11">
         <v>0</v>
@@ -982,8 +982,8 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1035,13 +1035,13 @@
     </row>
     <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" s="22"/>
       <c r="G9" s="6"/>
       <c r="H9" s="49" t="str">
         <f>B9</f>
-        <v>SEMANA  20        DEL    15     Al   21   DE   MAYO     2023</v>
+        <v>SEMANA  21        DEL    21     Al   28   DE   MAYO     2023</v>
       </c>
       <c r="K9" s="22"/>
     </row>
@@ -1054,30 +1054,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
       <c r="F11" s="23"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="55"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="23"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="57"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="60"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="23"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C14" s="37">
         <f ca="1">TODAY()</f>
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="E14" s="22"/>
       <c r="G14" s="6"/>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="I14" s="37">
         <f ca="1">C14</f>
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="K14" s="22"/>
     </row>
@@ -1185,10 +1185,10 @@
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
       <c r="D23" s="48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="21">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="10" t="s">
@@ -1200,10 +1200,10 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="20" t="s">
         <v>20</v>
       </c>
@@ -1220,8 +1220,8 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="20"/>
       <c r="E25" s="30">
         <v>0</v>
@@ -1237,7 +1237,7 @@
       <c r="B26" s="7"/>
       <c r="E26" s="51">
         <f>SUM(E23:E25)</f>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="34"/>
@@ -1254,13 +1254,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="49" t="str">
         <f>B9</f>
-        <v>SEMANA  20        DEL    15     Al   21   DE   MAYO     2023</v>
+        <v>SEMANA  21        DEL    21     Al   28   DE   MAYO     2023</v>
       </c>
       <c r="E28" s="22"/>
       <c r="G28" s="6"/>
       <c r="H28" s="49" t="str">
         <f>B28</f>
-        <v>SEMANA  20        DEL    15     Al   21   DE   MAYO     2023</v>
+        <v>SEMANA  21        DEL    21     Al   28   DE   MAYO     2023</v>
       </c>
       <c r="K28" s="22"/>
     </row>
@@ -1273,21 +1273,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="55"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="62"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="64"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="57"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="64"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C33" s="37">
         <f ca="1">I14</f>
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="E33" s="22"/>
       <c r="G33" s="6"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I33" s="37">
         <f ca="1">C33</f>
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="K33" s="22"/>
     </row>
@@ -1396,10 +1396,10 @@
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="46"/>
-      <c r="H41" s="52" t="s">
+      <c r="H41" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="53"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="8">
         <v>6</v>
       </c>
@@ -1408,14 +1408,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="40"/>
       <c r="E42" s="39"/>
       <c r="F42" s="19"/>
       <c r="G42" s="46"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
       <c r="J42" s="40"/>
       <c r="K42" s="39"/>
     </row>
@@ -1426,7 +1426,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="36">
-        <v>933</v>
+        <v>0</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="46"/>
@@ -1444,7 +1444,7 @@
       <c r="C44" s="35"/>
       <c r="E44" s="21">
         <f>SUM(E41:E43)</f>
-        <v>3733</v>
+        <v>2800</v>
       </c>
       <c r="G44" s="46"/>
       <c r="H44" s="34"/>
@@ -1464,13 +1464,13 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="49" t="str">
         <f>H28</f>
-        <v>SEMANA  20        DEL    15     Al   21   DE   MAYO     2023</v>
+        <v>SEMANA  21        DEL    21     Al   28   DE   MAYO     2023</v>
       </c>
       <c r="E46" s="22"/>
       <c r="G46" s="46"/>
       <c r="H46" s="49" t="str">
         <f>B46</f>
-        <v>SEMANA  20        DEL    15     Al   21   DE   MAYO     2023</v>
+        <v>SEMANA  21        DEL    21     Al   28   DE   MAYO     2023</v>
       </c>
       <c r="K46" s="22"/>
     </row>
@@ -1483,23 +1483,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="55"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="62"/>
       <c r="F48" s="23"/>
       <c r="G48" s="46"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="55"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="62"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="64"/>
       <c r="F49" s="23"/>
       <c r="G49" s="46"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="57"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="64"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="C51" s="37">
         <f ca="1">C33</f>
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="E51" s="22"/>
       <c r="G51" s="46"/>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="I51" s="37">
         <f ca="1">I33</f>
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="K51" s="22"/>
     </row>
@@ -1589,20 +1589,20 @@
       <c r="E57" s="28"/>
     </row>
     <row r="58" spans="2:11" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="53"/>
+      <c r="B58" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="58"/>
       <c r="D58" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E58" s="21">
-        <v>1667</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="59" spans="2:11" s="46" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
       <c r="D59" s="40"/>
       <c r="E59" s="39"/>
     </row>
@@ -1622,7 +1622,7 @@
       <c r="D61"/>
       <c r="E61" s="21">
         <f>SUM(E58:E60)</f>
-        <v>1667</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="62" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -1634,7 +1634,7 @@
     <row r="63" spans="2:11" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="49" t="str">
         <f>H46</f>
-        <v>SEMANA  20        DEL    15     Al   21   DE   MAYO     2023</v>
+        <v>SEMANA  21        DEL    21     Al   28   DE   MAYO     2023</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
@@ -1649,14 +1649,14 @@
     <row r="65" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="55"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="62"/>
     </row>
     <row r="66" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="C66"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="57"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="64"/>
     </row>
     <row r="67" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
@@ -1670,11 +1670,11 @@
     </row>
     <row r="68" spans="2:5" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C68" s="37">
         <f ca="1">I51</f>
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="D68"/>
       <c r="E68" s="22"/>
@@ -1687,21 +1687,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D30:E31"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="B4:C5"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>RECIBO DE NOMINA</t>
   </si>
@@ -60,9 +60,6 @@
     <t>EXTRA</t>
   </si>
   <si>
-    <t>HORAS EXTRAS</t>
-  </si>
-  <si>
     <t>ALEJANDRA BAUTISTA SALAZAR</t>
   </si>
   <si>
@@ -87,16 +84,13 @@
     <t>JORGE MUNGUIA SALAZAR</t>
   </si>
   <si>
-    <t xml:space="preserve">Bono semanal </t>
-  </si>
-  <si>
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
     <t># 7</t>
   </si>
   <si>
-    <t>SEMANA  21        DEL    21     Al   28   DE   MAYO     2023</t>
+    <t>SEMANA  22        DEL    29     Al   03   DE   JUNIO    2023</t>
   </si>
 </sst>
 </file>
@@ -457,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -472,12 +466,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -499,7 +491,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -542,9 +533,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -557,34 +572,35 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -902,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K69"/>
+  <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,139 +962,139 @@
     </row>
     <row r="3" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
-      <c r="D3" s="48">
+      <c r="D3" s="45">
         <v>6</v>
       </c>
       <c r="E3" s="9">
-        <v>900</v>
+        <v>1767</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="28">
+      <c r="J3" s="18"/>
+      <c r="K3" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="11">
+      <c r="C4" s="63"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="10">
         <v>0</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="48">
+      <c r="H4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="38"/>
+      <c r="J4" s="45">
         <v>6</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="26">
         <v>2500</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>0</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="6"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="39">
+      <c r="J5" s="37"/>
+      <c r="K5" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="7"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="36">
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <f>SUM(E3:E6)</f>
-        <v>900</v>
-      </c>
-      <c r="F7" s="19"/>
+        <v>1767</v>
+      </c>
+      <c r="F7" s="17"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="K7" s="21">
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
+      <c r="K7" s="19">
         <f>SUM(K4:K6)</f>
         <v>2500</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
-      <c r="E8" s="22"/>
+      <c r="E8" s="20"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="K8" s="22"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="22"/>
+      <c r="B9" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="20"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="49" t="str">
+      <c r="H9" s="46" t="str">
         <f>B9</f>
-        <v>SEMANA  21        DEL    21     Al   28   DE   MAYO     2023</v>
-      </c>
-      <c r="K9" s="22"/>
+        <v>SEMANA  22        DEL    29     Al   03   DE   JUNIO    2023</v>
+      </c>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="E10" s="22"/>
+      <c r="E10" s="20"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
-      <c r="K10" s="22"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="23"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="23"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="54"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="23"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" t="s">
@@ -1087,64 +1103,64 @@
       <c r="J13" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="22"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="34">
         <f ca="1">TODAY()</f>
-        <v>45073</v>
-      </c>
-      <c r="E14" s="22"/>
+        <v>45079</v>
+      </c>
+      <c r="E14" s="20"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="37">
+      <c r="H14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="34">
         <f ca="1">C14</f>
-        <v>45073</v>
-      </c>
-      <c r="K14" s="22"/>
+        <v>45079</v>
+      </c>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="2:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G19" s="6"/>
@@ -1173,121 +1189,122 @@
     </row>
     <row r="22" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="28"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="26"/>
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="28">
-        <v>1120</v>
+      <c r="J22" s="18"/>
+      <c r="K22" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
-      <c r="D23" s="48">
-        <v>4</v>
-      </c>
-      <c r="E23" s="21">
-        <v>1600</v>
+      <c r="D23" s="45"/>
+      <c r="E23" s="19">
+        <v>1400</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="8">
+        <v>6</v>
+      </c>
+      <c r="K23" s="19">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="29">
+      <c r="C24" s="59"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="21">
+      <c r="G24" s="6"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="27">
         <v>0</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="10"/>
-      <c r="J24" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="30">
-        <v>0</v>
-      </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="K25" s="21">
-        <f>SUM(K22:K24)</f>
-        <v>1120</v>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="33">
+        <v>933</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
-      <c r="E26" s="51">
+      <c r="E26" s="48">
         <f>SUM(E23:E25)</f>
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="35"/>
-      <c r="K26" s="21"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="32"/>
+      <c r="K26" s="19">
+        <f>SUM(K23:K25)</f>
+        <v>3733</v>
+      </c>
     </row>
     <row r="27" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="E27" s="21"/>
+      <c r="E27" s="19"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
-      <c r="K27" s="22"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="49" t="str">
+      <c r="B28" s="46" t="str">
         <f>B9</f>
-        <v>SEMANA  21        DEL    21     Al   28   DE   MAYO     2023</v>
-      </c>
-      <c r="E28" s="22"/>
+        <v>SEMANA  22        DEL    29     Al   03   DE   JUNIO    2023</v>
+      </c>
+      <c r="E28" s="20"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="49" t="str">
+      <c r="H28" s="46" t="str">
         <f>B28</f>
-        <v>SEMANA  21        DEL    21     Al   28   DE   MAYO     2023</v>
-      </c>
-      <c r="K28" s="22"/>
+        <v>SEMANA  22        DEL    29     Al   03   DE   JUNIO    2023</v>
+      </c>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="E29" s="22"/>
+      <c r="E29" s="20"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
-      <c r="K29" s="22"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="62"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="52"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="64"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="64"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="54"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1297,7 +1314,7 @@
       <c r="D32" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="22"/>
+      <c r="E32" s="20"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
       <c r="I32" t="s">
@@ -1306,53 +1323,53 @@
       <c r="J32" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="22"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="37">
+      <c r="B33" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="34">
         <f ca="1">I14</f>
-        <v>45073</v>
-      </c>
-      <c r="E33" s="22"/>
+        <v>45079</v>
+      </c>
+      <c r="E33" s="20"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33" s="34">
         <f ca="1">C33</f>
-        <v>45073</v>
-      </c>
-      <c r="K33" s="22"/>
+        <v>45079</v>
+      </c>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="27"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="25"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G36" s="45"/>
+      <c r="G36" s="42"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G37" s="45"/>
+      <c r="G37" s="42"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
     </row>
     <row r="39" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
@@ -1364,7 +1381,7 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="46"/>
+      <c r="G39" s="43"/>
       <c r="H39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,130 +1393,131 @@
     </row>
     <row r="40" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="46"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="43"/>
       <c r="H40" s="7"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="28"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="26"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="43" t="s">
-        <v>15</v>
-      </c>
+      <c r="B41" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="50"/>
       <c r="D41" s="8">
         <v>6</v>
       </c>
-      <c r="E41" s="21">
-        <v>2800</v>
-      </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="58"/>
+      <c r="E41" s="19">
+        <v>2300</v>
+      </c>
+      <c r="F41" s="28"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="50"/>
       <c r="J41" s="8">
-        <v>6</v>
-      </c>
-      <c r="K41" s="21">
+        <v>3</v>
+      </c>
+      <c r="K41" s="19">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="36"/>
+    </row>
+    <row r="43" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="31"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="33">
+        <v>0</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="31"/>
+      <c r="C44" s="32"/>
+      <c r="E44" s="19">
+        <f>SUM(E41:E43)</f>
         <v>2300</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="39"/>
-    </row>
-    <row r="43" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="34"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="36">
-        <v>0</v>
-      </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="34"/>
-      <c r="C44" s="35"/>
-      <c r="E44" s="21">
-        <f>SUM(E41:E43)</f>
-        <v>2800</v>
-      </c>
-      <c r="G44" s="46"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="35"/>
-      <c r="K44" s="21">
+      <c r="G44" s="43"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="32"/>
+      <c r="K44" s="19">
         <f>SUM(K41:K43)</f>
-        <v>2300</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="E45" s="22"/>
-      <c r="G45" s="46"/>
+      <c r="E45" s="20"/>
+      <c r="G45" s="43"/>
       <c r="H45" s="7"/>
-      <c r="K45" s="22"/>
+      <c r="K45" s="20"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="49" t="str">
+      <c r="B46" s="46" t="str">
         <f>H28</f>
-        <v>SEMANA  21        DEL    21     Al   28   DE   MAYO     2023</v>
-      </c>
-      <c r="E46" s="22"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="49" t="str">
+        <v>SEMANA  22        DEL    29     Al   03   DE   JUNIO    2023</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="46" t="str">
         <f>B46</f>
-        <v>SEMANA  21        DEL    21     Al   28   DE   MAYO     2023</v>
-      </c>
-      <c r="K46" s="22"/>
+        <v>SEMANA  22        DEL    29     Al   03   DE   JUNIO    2023</v>
+      </c>
+      <c r="K46" s="20"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
-      <c r="E47" s="32"/>
-      <c r="G47" s="46"/>
+      <c r="E47" s="29"/>
+      <c r="G47" s="43"/>
       <c r="H47" s="7"/>
-      <c r="K47" s="32"/>
+      <c r="K47" s="29"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="46"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="43"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="62"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="52"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="46"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="43"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="64"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="54"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1509,8 +1527,8 @@
       <c r="D50" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="22"/>
-      <c r="G50" s="46"/>
+      <c r="E50" s="20"/>
+      <c r="G50" s="43"/>
       <c r="H50" s="7"/>
       <c r="I50" t="s">
         <v>5</v>
@@ -1518,61 +1536,61 @@
       <c r="J50" t="s">
         <v>3</v>
       </c>
-      <c r="K50" s="22"/>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="34">
         <f ca="1">C33</f>
-        <v>45073</v>
-      </c>
-      <c r="E51" s="22"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="37">
+        <v>45079</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="34">
         <f ca="1">I33</f>
-        <v>45073</v>
-      </c>
-      <c r="K51" s="22"/>
+        <v>45079</v>
+      </c>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="27"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="27"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="25"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="33"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
+      <c r="C53" s="30"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
     </row>
     <row r="54" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="45"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-    </row>
-    <row r="55" spans="2:11" s="46" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="2:11" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B54" s="42"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+    </row>
+    <row r="55" spans="2:11" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:11" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,84 +1599,106 @@
         <v>2</v>
       </c>
       <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="2:11" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H56" s="64"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="66"/>
+    </row>
+    <row r="57" spans="2:11" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
       <c r="C57"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="28"/>
-    </row>
-    <row r="58" spans="2:11" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" s="58"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="26"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="67"/>
+    </row>
+    <row r="58" spans="2:11" s="43" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="50"/>
       <c r="D58" s="8">
         <v>6</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="19">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="2:11" s="46" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="39"/>
-    </row>
-    <row r="60" spans="2:11" s="46" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="34"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="36">
+      <c r="J58" s="68"/>
+      <c r="K58" s="69"/>
+    </row>
+    <row r="59" spans="2:11" s="43" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="36"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="69"/>
+    </row>
+    <row r="60" spans="2:11" s="43" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:11" s="46" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="34"/>
-      <c r="C61" s="35"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="71"/>
+    </row>
+    <row r="61" spans="2:11" s="43" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="31"/>
+      <c r="C61" s="32"/>
       <c r="D61"/>
-      <c r="E61" s="21">
+      <c r="E61" s="19">
         <f>SUM(E58:E60)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="62" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K61" s="72"/>
+    </row>
+    <row r="62" spans="2:11" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62"/>
       <c r="D62"/>
-      <c r="E62" s="22"/>
-    </row>
-    <row r="63" spans="2:11" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="49" t="str">
+      <c r="E62" s="20"/>
+      <c r="K62" s="69"/>
+    </row>
+    <row r="63" spans="2:11" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="46" t="str">
         <f>H46</f>
-        <v>SEMANA  21        DEL    21     Al   28   DE   MAYO     2023</v>
+        <v>SEMANA  22        DEL    29     Al   03   DE   JUNIO    2023</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
-      <c r="E63" s="22"/>
-    </row>
-    <row r="64" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E63" s="20"/>
+      <c r="H63" s="73"/>
+    </row>
+    <row r="64" spans="2:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64"/>
       <c r="D64"/>
-      <c r="E64" s="32"/>
-    </row>
-    <row r="65" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E64" s="29"/>
+    </row>
+    <row r="65" spans="2:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="62"/>
-    </row>
-    <row r="66" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="51"/>
+      <c r="E65" s="52"/>
+      <c r="J65" s="74"/>
+      <c r="K65" s="74"/>
+    </row>
+    <row r="66" spans="2:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="C66"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="64"/>
-    </row>
-    <row r="67" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="53"/>
+      <c r="E66" s="54"/>
+      <c r="J66" s="74"/>
+      <c r="K66" s="74"/>
+    </row>
+    <row r="67" spans="2:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
       <c r="C67" t="s">
         <v>5</v>
@@ -1666,42 +1706,58 @@
       <c r="D67" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="22"/>
-    </row>
-    <row r="68" spans="2:5" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" s="37">
+      <c r="E67" s="20"/>
+    </row>
+    <row r="68" spans="2:11" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="34">
         <f ca="1">I51</f>
-        <v>45073</v>
+        <v>45079</v>
       </c>
       <c r="D68"/>
-      <c r="E68" s="22"/>
-    </row>
-    <row r="69" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="25"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="27"/>
+      <c r="E68" s="20"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="76"/>
+    </row>
+    <row r="69" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="25"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D30:E31"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D48:E49"/>
     <mergeCell ref="J48:K49"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -90,7 +90,7 @@
     <t># 7</t>
   </si>
   <si>
-    <t>SEMANA  22        DEL    29     Al   03   DE   JUNIO    2023</t>
+    <t>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</t>
   </si>
 </sst>
 </file>
@@ -533,51 +533,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -588,20 +543,65 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N46" sqref="M46:N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,11 +962,9 @@
     </row>
     <row r="3" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
-      <c r="D3" s="45">
-        <v>6</v>
-      </c>
+      <c r="D3" s="45"/>
       <c r="E3" s="9">
-        <v>1767</v>
+        <v>0</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
@@ -976,10 +974,10 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="41"/>
       <c r="E4" s="10">
         <v>0</v>
@@ -998,8 +996,8 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1031,7 +1029,7 @@
       <c r="B7" s="7"/>
       <c r="E7" s="12">
         <f>SUM(E3:E6)</f>
-        <v>1767</v>
+        <v>0</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="6"/>
@@ -1057,7 +1055,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="46" t="str">
         <f>B9</f>
-        <v>SEMANA  22        DEL    29     Al   03   DE   JUNIO    2023</v>
+        <v>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</v>
       </c>
       <c r="K9" s="20"/>
     </row>
@@ -1070,30 +1068,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="21"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="21"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="54"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="72"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="57"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="21"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1111,7 +1109,7 @@
       </c>
       <c r="C14" s="34">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="E14" s="20"/>
       <c r="G14" s="6"/>
@@ -1120,7 +1118,7 @@
       </c>
       <c r="I14" s="34">
         <f ca="1">C14</f>
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="K14" s="20"/>
     </row>
@@ -1202,7 +1200,7 @@
       <c r="B23" s="7"/>
       <c r="D23" s="45"/>
       <c r="E23" s="19">
-        <v>1400</v>
+        <v>840</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="40" t="s">
@@ -1216,23 +1214,23 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="59"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="18"/>
       <c r="E24" s="19">
         <v>0</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="37"/>
       <c r="K24" s="36"/>
     </row>
     <row r="25" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="18"/>
       <c r="E25" s="27">
         <v>0</v>
@@ -1244,21 +1242,21 @@
         <v>13</v>
       </c>
       <c r="K25" s="33">
-        <v>933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="E26" s="48">
         <f>SUM(E23:E25)</f>
-        <v>1400</v>
+        <v>840</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="31"/>
       <c r="I26" s="32"/>
       <c r="K26" s="19">
         <f>SUM(K23:K25)</f>
-        <v>3733</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1271,13 +1269,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="46" t="str">
         <f>B9</f>
-        <v>SEMANA  22        DEL    29     Al   03   DE   JUNIO    2023</v>
+        <v>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</v>
       </c>
       <c r="E28" s="20"/>
       <c r="G28" s="6"/>
       <c r="H28" s="46" t="str">
         <f>B28</f>
-        <v>SEMANA  22        DEL    29     Al   03   DE   JUNIO    2023</v>
+        <v>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</v>
       </c>
       <c r="K28" s="20"/>
     </row>
@@ -1290,21 +1288,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="52"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="70"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="72"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="54"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="72"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1331,7 +1329,7 @@
       </c>
       <c r="C33" s="34">
         <f ca="1">I14</f>
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="E33" s="20"/>
       <c r="G33" s="6"/>
@@ -1340,7 +1338,7 @@
       </c>
       <c r="I33" s="34">
         <f ca="1">C33</f>
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="K33" s="20"/>
     </row>
@@ -1402,10 +1400,10 @@
       <c r="K40" s="26"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="50"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="8">
         <v>6</v>
       </c>
@@ -1414,10 +1412,10 @@
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="43"/>
-      <c r="H41" s="49" t="s">
+      <c r="H41" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="50"/>
+      <c r="I41" s="66"/>
       <c r="J41" s="8">
         <v>3</v>
       </c>
@@ -1426,14 +1424,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="37"/>
       <c r="E42" s="36"/>
       <c r="F42" s="17"/>
       <c r="G42" s="43"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
       <c r="J42" s="37"/>
       <c r="K42" s="36"/>
     </row>
@@ -1482,13 +1480,13 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="46" t="str">
         <f>H28</f>
-        <v>SEMANA  22        DEL    29     Al   03   DE   JUNIO    2023</v>
+        <v>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</v>
       </c>
       <c r="E46" s="20"/>
       <c r="G46" s="43"/>
       <c r="H46" s="46" t="str">
         <f>B46</f>
-        <v>SEMANA  22        DEL    29     Al   03   DE   JUNIO    2023</v>
+        <v>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</v>
       </c>
       <c r="K46" s="20"/>
     </row>
@@ -1501,23 +1499,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="52"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="70"/>
       <c r="F48" s="21"/>
       <c r="G48" s="43"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="52"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="70"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="54"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="72"/>
       <c r="F49" s="21"/>
       <c r="G49" s="43"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="54"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="72"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1544,7 +1542,7 @@
       </c>
       <c r="C51" s="34">
         <f ca="1">C33</f>
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="E51" s="20"/>
       <c r="G51" s="43"/>
@@ -1553,7 +1551,7 @@
       </c>
       <c r="I51" s="34">
         <f ca="1">I33</f>
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="K51" s="20"/>
     </row>
@@ -1599,41 +1597,41 @@
         <v>2</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="H56" s="64"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="66"/>
+      <c r="H56" s="49"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="51"/>
     </row>
     <row r="57" spans="2:11" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
       <c r="C57"/>
       <c r="D57" s="18"/>
       <c r="E57" s="26"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="67"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="52"/>
     </row>
     <row r="58" spans="2:11" s="43" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="50"/>
+      <c r="C58" s="66"/>
       <c r="D58" s="8">
         <v>6</v>
       </c>
       <c r="E58" s="19">
         <v>2000</v>
       </c>
-      <c r="J58" s="68"/>
-      <c r="K58" s="69"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="54"/>
     </row>
     <row r="59" spans="2:11" s="43" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
       <c r="D59" s="37"/>
       <c r="E59" s="36"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="69"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="54"/>
     </row>
     <row r="60" spans="2:11" s="43" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="31"/>
@@ -1644,10 +1642,10 @@
       <c r="E60" s="33">
         <v>0</v>
       </c>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="71"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="55"/>
     </row>
     <row r="61" spans="2:11" s="43" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B61" s="31"/>
@@ -1657,24 +1655,24 @@
         <f>SUM(E58:E60)</f>
         <v>2000</v>
       </c>
-      <c r="K61" s="72"/>
+      <c r="K61" s="56"/>
     </row>
     <row r="62" spans="2:11" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62" s="20"/>
-      <c r="K62" s="69"/>
+      <c r="K62" s="54"/>
     </row>
     <row r="63" spans="2:11" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="46" t="str">
         <f>H46</f>
-        <v>SEMANA  22        DEL    29     Al   03   DE   JUNIO    2023</v>
+        <v>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" s="20"/>
-      <c r="H63" s="73"/>
+      <c r="H63" s="57"/>
     </row>
     <row r="64" spans="2:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
@@ -1685,18 +1683,18 @@
     <row r="65" spans="2:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="52"/>
-      <c r="J65" s="74"/>
-      <c r="K65" s="74"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="70"/>
+      <c r="J65" s="75"/>
+      <c r="K65" s="75"/>
     </row>
     <row r="66" spans="2:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="C66"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="54"/>
-      <c r="J66" s="74"/>
-      <c r="K66" s="74"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="72"/>
+      <c r="J66" s="75"/>
+      <c r="K66" s="75"/>
     </row>
     <row r="67" spans="2:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
@@ -1714,12 +1712,12 @@
       </c>
       <c r="C68" s="34">
         <f ca="1">I51</f>
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="D68"/>
       <c r="E68" s="20"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="76"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="59"/>
     </row>
     <row r="69" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="23"/>
@@ -1739,6 +1737,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D30:E31"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="H42:I42"/>
@@ -1746,18 +1756,6 @@
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>RECIBO DE NOMINA</t>
   </si>
@@ -54,12 +54,6 @@
     <t># 5</t>
   </si>
   <si>
-    <t>Ma. DEL ROSARIO CASTAÑEDA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>EXTRA</t>
-  </si>
-  <si>
     <t>ALEJANDRA BAUTISTA SALAZAR</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
   </si>
   <si>
     <t>GUADALUPE LILLO TECOX</t>
-  </si>
-  <si>
-    <t># 7</t>
   </si>
   <si>
     <t>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</t>
@@ -202,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -270,28 +261,8 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
       </right>
       <top/>
       <bottom style="double">
@@ -451,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -465,15 +436,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -487,26 +451,26 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -514,11 +478,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -552,56 +513,64 @@
     <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -920,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N46" sqref="M46:N46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,139 +929,136 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="9">
+      <c r="D3" s="13"/>
+      <c r="E3" s="21">
         <v>0</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="26">
+      <c r="J3" s="13"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="39">
+        <v>6</v>
+      </c>
+      <c r="E4" s="21">
+        <v>2600</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="14">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="32"/>
+      <c r="E5" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="10">
+      <c r="F5" s="10"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="66"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14">
         <v>0</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="45">
-        <v>6</v>
-      </c>
-      <c r="K4" s="26">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="12">
+    </row>
+    <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="28">
         <v>0</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="6"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="36">
+      <c r="F6" s="11"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="7"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="33">
-        <v>0</v>
-      </c>
-    </row>
     <row r="7" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="E7" s="12">
-        <f>SUM(E3:E6)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="17"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="E7" s="14">
+        <f>SUM(E4:E6)</f>
+        <v>2600</v>
+      </c>
+      <c r="F7" s="12"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
-      <c r="K7" s="19">
+      <c r="H7" s="7"/>
+      <c r="K7" s="42">
         <f>SUM(K4:K6)</f>
-        <v>2500</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
-      <c r="E8" s="20"/>
+      <c r="E8" s="15"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="20"/>
+      <c r="B9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="15"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="46" t="str">
+      <c r="H9" s="40" t="str">
         <f>B9</f>
         <v>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</v>
       </c>
-      <c r="K9" s="20"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="E10" s="20"/>
+      <c r="E10" s="15"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
-      <c r="K10" s="20"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="21"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="70"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="21"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="72"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" t="s">
@@ -1101,64 +1067,64 @@
       <c r="J13" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="20"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="29">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
-      </c>
-      <c r="E14" s="20"/>
+        <v>45094</v>
+      </c>
+      <c r="E14" s="15"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="34">
+      <c r="H14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="29">
         <f ca="1">C14</f>
-        <v>45086</v>
-      </c>
-      <c r="K14" s="20"/>
+        <v>45094</v>
+      </c>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="2:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
     </row>
     <row r="18" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G19" s="6"/>
@@ -1187,122 +1153,126 @@
     </row>
     <row r="22" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="26"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="21">
+        <v>0</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="7"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="19">
-        <v>840</v>
+      <c r="J22" s="13"/>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="8">
+        <v>6</v>
+      </c>
+      <c r="E23" s="14">
+        <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="54" t="s">
         <v>14</v>
       </c>
+      <c r="I23" s="55"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
-      <c r="K23" s="19">
-        <v>2800</v>
+      <c r="K23" s="14">
+        <v>2600</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19">
-        <v>0</v>
-      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="31"/>
       <c r="G24" s="6"/>
       <c r="H24" s="60"/>
       <c r="I24" s="60"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="36"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="31"/>
     </row>
     <row r="25" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="27">
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="28">
         <v>0</v>
       </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="33">
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="E26" s="48">
+    <row r="26" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="E26" s="14">
         <f>SUM(E23:E25)</f>
-        <v>840</v>
+        <v>2800</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
-      <c r="K26" s="19">
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
+      <c r="K26" s="14">
         <f>SUM(K23:K25)</f>
-        <v>2800</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="E27" s="19"/>
+      <c r="E27" s="14"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
-      <c r="K27" s="20"/>
+      <c r="K27" s="15"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="str">
+      <c r="B28" s="40" t="str">
         <f>B9</f>
         <v>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</v>
       </c>
-      <c r="E28" s="20"/>
+      <c r="E28" s="15"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="46" t="str">
+      <c r="H28" s="40" t="str">
         <f>B28</f>
         <v>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</v>
       </c>
-      <c r="K28" s="20"/>
+      <c r="K28" s="15"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="E29" s="20"/>
+      <c r="E29" s="15"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
-      <c r="K29" s="20"/>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="70"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="72"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="59"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1312,7 +1282,7 @@
       <c r="D32" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="20"/>
+      <c r="E32" s="15"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
       <c r="I32" t="s">
@@ -1321,53 +1291,53 @@
       <c r="J32" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="20"/>
+      <c r="K32" s="15"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="34">
+      <c r="B33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="29">
         <f ca="1">I14</f>
-        <v>45086</v>
-      </c>
-      <c r="E33" s="20"/>
+        <v>45094</v>
+      </c>
+      <c r="E33" s="15"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="29">
         <f ca="1">C33</f>
-        <v>45086</v>
-      </c>
-      <c r="K33" s="20"/>
+        <v>45094</v>
+      </c>
+      <c r="K33" s="15"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="25"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G36" s="42"/>
+      <c r="G36" s="36"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G37" s="42"/>
+      <c r="G37" s="36"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
     </row>
     <row r="39" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
@@ -1379,7 +1349,7 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="43"/>
+      <c r="G39" s="37"/>
       <c r="H39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1391,131 +1361,131 @@
     </row>
     <row r="40" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="43"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="37"/>
       <c r="H40" s="7"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="26"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="66"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="8">
+        <v>4</v>
+      </c>
+      <c r="E41" s="14">
+        <v>1600</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="55"/>
+      <c r="J41" s="8">
         <v>6</v>
       </c>
-      <c r="E41" s="19">
+      <c r="K41" s="14">
         <v>2300</v>
-      </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" s="66"/>
-      <c r="J41" s="8">
-        <v>3</v>
-      </c>
-      <c r="K41" s="19">
-        <v>1200</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="60"/>
       <c r="C42" s="60"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="43"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="37"/>
       <c r="H42" s="60"/>
       <c r="I42" s="60"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="36"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="31"/>
     </row>
     <row r="43" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="33">
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="28">
         <v>0</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" s="33">
+      <c r="F43" s="12"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="E44" s="19">
+      <c r="B44" s="26"/>
+      <c r="C44" s="27"/>
+      <c r="E44" s="14">
         <f>SUM(E41:E43)</f>
+        <v>1600</v>
+      </c>
+      <c r="G44" s="37"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="27"/>
+      <c r="K44" s="14">
+        <f>SUM(K41:K43)</f>
         <v>2300</v>
-      </c>
-      <c r="G44" s="43"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="32"/>
-      <c r="K44" s="19">
-        <f>SUM(K41:K43)</f>
-        <v>1200</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="E45" s="20"/>
-      <c r="G45" s="43"/>
+      <c r="E45" s="15"/>
+      <c r="G45" s="37"/>
       <c r="H45" s="7"/>
-      <c r="K45" s="20"/>
+      <c r="K45" s="15"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="46" t="str">
+      <c r="B46" s="40" t="str">
         <f>H28</f>
         <v>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="46" t="str">
+      <c r="E46" s="15"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="40" t="str">
         <f>B46</f>
         <v>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</v>
       </c>
-      <c r="K46" s="20"/>
+      <c r="K46" s="15"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
-      <c r="E47" s="29"/>
-      <c r="G47" s="43"/>
+      <c r="E47" s="24"/>
+      <c r="G47" s="37"/>
       <c r="H47" s="7"/>
-      <c r="K47" s="29"/>
+      <c r="K47" s="24"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="43"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="37"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="70"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="57"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="43"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="37"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="72"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="59"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1525,8 +1495,8 @@
       <c r="D50" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="G50" s="43"/>
+      <c r="E50" s="15"/>
+      <c r="G50" s="37"/>
       <c r="H50" s="7"/>
       <c r="I50" t="s">
         <v>5</v>
@@ -1534,209 +1504,152 @@
       <c r="J50" t="s">
         <v>3</v>
       </c>
-      <c r="K50" s="20"/>
+      <c r="K50" s="15"/>
     </row>
     <row r="51" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="34">
+      <c r="C51" s="29">
         <f ca="1">C33</f>
-        <v>45086</v>
-      </c>
-      <c r="E51" s="20"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I51" s="34">
+        <v>45094</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="29">
         <f ca="1">I33</f>
-        <v>45086</v>
-      </c>
-      <c r="K51" s="20"/>
+        <v>45094</v>
+      </c>
+      <c r="K51" s="15"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="25"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="25"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="30"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
+      <c r="C53" s="25"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
     </row>
     <row r="54" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="42"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-    </row>
-    <row r="55" spans="2:11" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="2:11" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="H56" s="49"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="51"/>
-    </row>
-    <row r="57" spans="2:11" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="7"/>
-      <c r="C57"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="26"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="52"/>
-    </row>
-    <row r="58" spans="2:11" s="43" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="66"/>
-      <c r="D58" s="8">
-        <v>6</v>
-      </c>
-      <c r="E58" s="19">
-        <v>2000</v>
-      </c>
-      <c r="J58" s="53"/>
-      <c r="K58" s="54"/>
-    </row>
-    <row r="59" spans="2:11" s="43" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="36"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="54"/>
-    </row>
-    <row r="60" spans="2:11" s="43" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="31"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="33">
-        <v>0</v>
-      </c>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="55"/>
-    </row>
-    <row r="61" spans="2:11" s="43" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="31"/>
-      <c r="C61" s="32"/>
-      <c r="D61"/>
-      <c r="E61" s="19">
-        <f>SUM(E58:E60)</f>
-        <v>2000</v>
-      </c>
-      <c r="K61" s="56"/>
-    </row>
-    <row r="62" spans="2:11" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="7"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62" s="20"/>
-      <c r="K62" s="54"/>
-    </row>
-    <row r="63" spans="2:11" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="46" t="str">
-        <f>H46</f>
-        <v>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</v>
-      </c>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63" s="20"/>
-      <c r="H63" s="57"/>
-    </row>
-    <row r="64" spans="2:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="7"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64" s="29"/>
-    </row>
-    <row r="65" spans="2:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="7"/>
-      <c r="C65"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="70"/>
-      <c r="J65" s="75"/>
-      <c r="K65" s="75"/>
-    </row>
-    <row r="66" spans="2:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="7"/>
-      <c r="C66"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="72"/>
-      <c r="J66" s="75"/>
-      <c r="K66" s="75"/>
-    </row>
-    <row r="67" spans="2:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="7"/>
-      <c r="C67" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="20"/>
-    </row>
-    <row r="68" spans="2:11" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="34">
-        <f ca="1">I51</f>
-        <v>45086</v>
-      </c>
-      <c r="D68"/>
-      <c r="E68" s="20"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="59"/>
-    </row>
-    <row r="69" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="23"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="25"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-    </row>
+      <c r="B54" s="36"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+    </row>
+    <row r="55" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:11" s="37" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B56" s="43"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="45"/>
+      <c r="H56" s="43"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="45"/>
+    </row>
+    <row r="57" spans="2:11" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D57" s="44"/>
+      <c r="E57" s="46"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="46"/>
+    </row>
+    <row r="58" spans="2:11" s="37" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="69"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="48"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="48"/>
+    </row>
+    <row r="59" spans="2:11" s="37" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="72"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="48"/>
+    </row>
+    <row r="60" spans="2:11" s="37" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B60" s="73"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="72"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="49"/>
+    </row>
+    <row r="61" spans="2:11" s="37" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
+      <c r="E61" s="48"/>
+      <c r="K61" s="50"/>
+    </row>
+    <row r="62" spans="2:11" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K62" s="48"/>
+    </row>
+    <row r="63" spans="2:11" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="51"/>
+      <c r="H63" s="51"/>
+    </row>
+    <row r="64" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+    </row>
+    <row r="66" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+    </row>
+    <row r="67" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:11" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="52"/>
+      <c r="C68" s="53"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="53"/>
+    </row>
+    <row r="69" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D30:E31"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D48:E49"/>
     <mergeCell ref="J48:K49"/>
@@ -1744,18 +1657,6 @@
     <mergeCell ref="D65:E66"/>
     <mergeCell ref="J65:K66"/>
     <mergeCell ref="H59:I60"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -81,7 +81,7 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</t>
+    <t>SEMANA  25        DEL    19     Al   24  DE   JUNIO    2023</t>
   </si>
 </sst>
 </file>
@@ -513,57 +513,6 @@
     <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -571,6 +520,57 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +956,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="39"/>
       <c r="K4" s="14">
-        <v>980</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,10 +966,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="66"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -984,8 +984,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1003,7 +1003,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="42">
         <f>SUM(K4:K6)</f>
-        <v>980</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="40" t="str">
         <f>B9</f>
-        <v>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</v>
+        <v>SEMANA  25        DEL    19     Al   24  DE   JUNIO    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1034,30 +1034,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="64"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C14" s="29">
         <f ca="1">TODAY()</f>
-        <v>45094</v>
+        <v>45100</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="I14" s="29">
         <f ca="1">C14</f>
-        <v>45094</v>
+        <v>45100</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1173,10 +1173,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="54" t="s">
+      <c r="H23" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="55"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1185,13 +1185,13 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="32"/>
       <c r="E24" s="31"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="32"/>
       <c r="K24" s="31"/>
     </row>
@@ -1239,13 +1239,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="40" t="str">
         <f>B9</f>
-        <v>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</v>
+        <v>SEMANA  25        DEL    19     Al   24  DE   JUNIO    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="40" t="str">
         <f>B28</f>
-        <v>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</v>
+        <v>SEMANA  25        DEL    19     Al   24  DE   JUNIO    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1258,21 +1258,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="57"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="66"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="68"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="59"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="68"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C33" s="29">
         <f ca="1">I14</f>
-        <v>45094</v>
+        <v>45100</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="I33" s="29">
         <f ca="1">C33</f>
-        <v>45094</v>
+        <v>45100</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1370,10 +1370,10 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="55"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="8">
         <v>4</v>
       </c>
@@ -1382,26 +1382,26 @@
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="37"/>
-      <c r="H41" s="54" t="s">
+      <c r="H41" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="55"/>
+      <c r="I41" s="60"/>
       <c r="J41" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K41" s="14">
-        <v>2300</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="32"/>
       <c r="E42" s="31"/>
       <c r="F42" s="12"/>
       <c r="G42" s="37"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="32"/>
       <c r="K42" s="31"/>
     </row>
@@ -1437,7 +1437,7 @@
       <c r="I44" s="27"/>
       <c r="K44" s="14">
         <f>SUM(K41:K43)</f>
-        <v>2300</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
@@ -1450,13 +1450,13 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="40" t="str">
         <f>H28</f>
-        <v>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</v>
+        <v>SEMANA  25        DEL    19     Al   24  DE   JUNIO    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="G46" s="37"/>
       <c r="H46" s="40" t="str">
         <f>B46</f>
-        <v>SEMANA  23        DEL    04     Al   11   DE   JUNIO    2023</v>
+        <v>SEMANA  25        DEL    19     Al   24  DE   JUNIO    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1469,23 +1469,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="57"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="66"/>
       <c r="F48" s="16"/>
       <c r="G48" s="37"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="57"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="66"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="59"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="68"/>
       <c r="F49" s="16"/>
       <c r="G49" s="37"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="59"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="68"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C51" s="29">
         <f ca="1">C33</f>
-        <v>45094</v>
+        <v>45100</v>
       </c>
       <c r="E51" s="15"/>
       <c r="G51" s="37"/>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="I51" s="29">
         <f ca="1">I33</f>
-        <v>45094</v>
+        <v>45100</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1573,36 +1573,36 @@
       <c r="K57" s="46"/>
     </row>
     <row r="58" spans="2:11" s="37" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="52"/>
       <c r="E58" s="48"/>
       <c r="J58" s="47"/>
       <c r="K58" s="48"/>
     </row>
     <row r="59" spans="2:11" s="37" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="72"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="62"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="55"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
       <c r="J59" s="44"/>
       <c r="K59" s="48"/>
     </row>
     <row r="60" spans="2:11" s="37" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B60" s="73"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="72"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="55"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
       <c r="J60" s="44"/>
       <c r="K60" s="49"/>
     </row>
     <row r="61" spans="2:11" s="37" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B61" s="73"/>
-      <c r="C61" s="73"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
       <c r="E61" s="48"/>
       <c r="K61" s="50"/>
     </row>
@@ -1615,16 +1615,16 @@
     </row>
     <row r="64" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="61"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="73"/>
     </row>
     <row r="66" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="J66" s="73"/>
+      <c r="K66" s="73"/>
     </row>
     <row r="67" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1637,11 +1637,13 @@
     <row r="70" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1650,13 +1652,11 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -81,7 +81,7 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  25        DEL    19     Al   24  DE   JUNIO    2023</t>
+    <t>SEMANA  26        DEL    26     Al   02  DE   JULIO    2023</t>
   </si>
 </sst>
 </file>
@@ -521,6 +521,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -530,47 +566,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +956,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="39"/>
       <c r="K4" s="14">
-        <v>420</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,10 +966,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="62"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -984,8 +984,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1003,7 +1003,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="42">
         <f>SUM(K4:K6)</f>
-        <v>420</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="40" t="str">
         <f>B9</f>
-        <v>SEMANA  25        DEL    19     Al   24  DE   JUNIO    2023</v>
+        <v>SEMANA  26        DEL    26     Al   02  DE   JULIO    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1034,30 +1034,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="68"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="70"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C14" s="29">
         <f ca="1">TODAY()</f>
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="I14" s="29">
         <f ca="1">C14</f>
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1173,10 +1173,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="60"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1185,13 +1185,13 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="32"/>
       <c r="E24" s="31"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
       <c r="J24" s="32"/>
       <c r="K24" s="31"/>
     </row>
@@ -1239,13 +1239,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="40" t="str">
         <f>B9</f>
-        <v>SEMANA  25        DEL    19     Al   24  DE   JUNIO    2023</v>
+        <v>SEMANA  26        DEL    26     Al   02  DE   JULIO    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="40" t="str">
         <f>B28</f>
-        <v>SEMANA  25        DEL    19     Al   24  DE   JUNIO    2023</v>
+        <v>SEMANA  26        DEL    26     Al   02  DE   JULIO    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1258,21 +1258,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="60"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="66"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="60"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="68"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="68"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C33" s="29">
         <f ca="1">I14</f>
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="I33" s="29">
         <f ca="1">C33</f>
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1370,38 +1370,38 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="60"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" s="14">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="37"/>
-      <c r="H41" s="59" t="s">
+      <c r="H41" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="60"/>
+      <c r="I41" s="72"/>
       <c r="J41" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K41" s="14">
-        <v>1917</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
       <c r="D42" s="32"/>
       <c r="E42" s="31"/>
       <c r="F42" s="12"/>
       <c r="G42" s="37"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
       <c r="J42" s="32"/>
       <c r="K42" s="31"/>
     </row>
@@ -1430,14 +1430,14 @@
       <c r="C44" s="27"/>
       <c r="E44" s="14">
         <f>SUM(E41:E43)</f>
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="G44" s="37"/>
       <c r="H44" s="26"/>
       <c r="I44" s="27"/>
       <c r="K44" s="14">
         <f>SUM(K41:K43)</f>
-        <v>1917</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
@@ -1450,13 +1450,13 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="40" t="str">
         <f>H28</f>
-        <v>SEMANA  25        DEL    19     Al   24  DE   JUNIO    2023</v>
+        <v>SEMANA  26        DEL    26     Al   02  DE   JULIO    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="G46" s="37"/>
       <c r="H46" s="40" t="str">
         <f>B46</f>
-        <v>SEMANA  25        DEL    19     Al   24  DE   JUNIO    2023</v>
+        <v>SEMANA  26        DEL    26     Al   02  DE   JULIO    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1469,23 +1469,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="66"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="60"/>
       <c r="F48" s="16"/>
       <c r="G48" s="37"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="66"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="60"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="68"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="62"/>
       <c r="F49" s="16"/>
       <c r="G49" s="37"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="68"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="62"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C51" s="29">
         <f ca="1">C33</f>
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="E51" s="15"/>
       <c r="G51" s="37"/>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="I51" s="29">
         <f ca="1">I33</f>
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1573,20 +1573,20 @@
       <c r="K57" s="46"/>
     </row>
     <row r="58" spans="2:11" s="37" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="71"/>
-      <c r="C58" s="71"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
       <c r="D58" s="52"/>
       <c r="E58" s="48"/>
       <c r="J58" s="47"/>
       <c r="K58" s="48"/>
     </row>
     <row r="59" spans="2:11" s="37" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="54"/>
       <c r="E59" s="55"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
       <c r="J59" s="44"/>
       <c r="K59" s="48"/>
     </row>
@@ -1595,8 +1595,8 @@
       <c r="C60" s="56"/>
       <c r="D60" s="57"/>
       <c r="E60" s="55"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
       <c r="J60" s="44"/>
       <c r="K60" s="49"/>
     </row>
@@ -1615,16 +1615,16 @@
     </row>
     <row r="64" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="73"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="64"/>
     </row>
     <row r="66" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="J66" s="73"/>
-      <c r="K66" s="73"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="64"/>
     </row>
     <row r="67" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1637,13 +1637,11 @@
     <row r="70" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1652,11 +1650,13 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8715" yWindow="1305" windowWidth="19275" windowHeight="13635"/>
+    <workbookView minimized="1" xWindow="8715" yWindow="1305" windowWidth="19275" windowHeight="13635"/>
   </bookViews>
   <sheets>
     <sheet name="recibos" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  26        DEL    26     Al   02  DE   JULIO    2023</t>
+    <t>SEMANA  27        DEL    03     Al   09  DE   JULIO    2023</t>
   </si>
 </sst>
 </file>
@@ -521,21 +521,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -544,33 +571,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +956,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="39"/>
       <c r="K4" s="14">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,10 +966,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="67"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -984,8 +984,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1003,7 +1003,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="42">
         <f>SUM(K4:K6)</f>
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="40" t="str">
         <f>B9</f>
-        <v>SEMANA  26        DEL    26     Al   02  DE   JULIO    2023</v>
+        <v>SEMANA  27        DEL    03     Al   09  DE   JULIO    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1034,30 +1034,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="60"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="74"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C14" s="29">
         <f ca="1">TODAY()</f>
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="I14" s="29">
         <f ca="1">C14</f>
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1173,10 +1173,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="71" t="s">
+      <c r="H23" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="72"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1185,13 +1185,13 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="32"/>
       <c r="E24" s="31"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="32"/>
       <c r="K24" s="31"/>
     </row>
@@ -1202,7 +1202,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="28">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="26"/>
@@ -1219,7 +1219,7 @@
       <c r="C26" s="27"/>
       <c r="E26" s="14">
         <f>SUM(E23:E25)</f>
-        <v>2800</v>
+        <v>3733</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="26"/>
@@ -1239,13 +1239,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="40" t="str">
         <f>B9</f>
-        <v>SEMANA  26        DEL    26     Al   02  DE   JULIO    2023</v>
+        <v>SEMANA  27        DEL    03     Al   09  DE   JULIO    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="40" t="str">
         <f>B28</f>
-        <v>SEMANA  26        DEL    26     Al   02  DE   JULIO    2023</v>
+        <v>SEMANA  27        DEL    03     Al   09  DE   JULIO    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1258,21 +1258,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="60"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="60"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="66"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="68"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="62"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="68"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C33" s="29">
         <f ca="1">I14</f>
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="I33" s="29">
         <f ca="1">C33</f>
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1370,10 +1370,10 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="72"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1382,26 +1382,26 @@
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="37"/>
-      <c r="H41" s="71" t="s">
+      <c r="H41" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="72"/>
+      <c r="I41" s="60"/>
       <c r="J41" s="8">
         <v>6</v>
       </c>
       <c r="K41" s="14">
-        <v>2300</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="32"/>
       <c r="E42" s="31"/>
       <c r="F42" s="12"/>
       <c r="G42" s="37"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="32"/>
       <c r="K42" s="31"/>
     </row>
@@ -1437,7 +1437,7 @@
       <c r="I44" s="27"/>
       <c r="K44" s="14">
         <f>SUM(K41:K43)</f>
-        <v>2300</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
@@ -1450,13 +1450,13 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="40" t="str">
         <f>H28</f>
-        <v>SEMANA  26        DEL    26     Al   02  DE   JULIO    2023</v>
+        <v>SEMANA  27        DEL    03     Al   09  DE   JULIO    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="G46" s="37"/>
       <c r="H46" s="40" t="str">
         <f>B46</f>
-        <v>SEMANA  26        DEL    26     Al   02  DE   JULIO    2023</v>
+        <v>SEMANA  27        DEL    03     Al   09  DE   JULIO    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1469,23 +1469,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="60"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="66"/>
       <c r="F48" s="16"/>
       <c r="G48" s="37"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="60"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="66"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="62"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="68"/>
       <c r="F49" s="16"/>
       <c r="G49" s="37"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="62"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="68"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C51" s="29">
         <f ca="1">C33</f>
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="E51" s="15"/>
       <c r="G51" s="37"/>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="I51" s="29">
         <f ca="1">I33</f>
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1573,20 +1573,20 @@
       <c r="K57" s="46"/>
     </row>
     <row r="58" spans="2:11" s="37" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="52"/>
       <c r="E58" s="48"/>
       <c r="J58" s="47"/>
       <c r="K58" s="48"/>
     </row>
     <row r="59" spans="2:11" s="37" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="63"/>
-      <c r="C59" s="63"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
       <c r="D59" s="54"/>
       <c r="E59" s="55"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
       <c r="J59" s="44"/>
       <c r="K59" s="48"/>
     </row>
@@ -1595,8 +1595,8 @@
       <c r="C60" s="56"/>
       <c r="D60" s="57"/>
       <c r="E60" s="55"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="65"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
       <c r="J60" s="44"/>
       <c r="K60" s="49"/>
     </row>
@@ -1615,16 +1615,16 @@
     </row>
     <row r="64" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="64"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="73"/>
     </row>
     <row r="66" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="64"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="J66" s="73"/>
+      <c r="K66" s="73"/>
     </row>
     <row r="67" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1637,11 +1637,13 @@
     <row r="70" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1650,13 +1652,11 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="8715" yWindow="1305" windowWidth="19275" windowHeight="13635"/>
+    <workbookView xWindow="8715" yWindow="1305" windowWidth="19275" windowHeight="13635"/>
   </bookViews>
   <sheets>
     <sheet name="recibos" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  27        DEL    03     Al   09  DE   JULIO    2023</t>
+    <t>SEMANA  28        DEL    10     Al   16  DE   JULIO    2023</t>
   </si>
 </sst>
 </file>
@@ -521,6 +521,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -530,47 +566,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -956,7 +956,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="39"/>
       <c r="K4" s="14">
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,10 +966,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="62"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -984,8 +984,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1003,7 +1003,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="42">
         <f>SUM(K4:K6)</f>
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="40" t="str">
         <f>B9</f>
-        <v>SEMANA  27        DEL    03     Al   09  DE   JULIO    2023</v>
+        <v>SEMANA  28        DEL    10     Al   16  DE   JULIO    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1034,30 +1034,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="68"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="70"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C14" s="29">
         <f ca="1">TODAY()</f>
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="I14" s="29">
         <f ca="1">C14</f>
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1173,10 +1173,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="60"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1185,13 +1185,13 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="32"/>
       <c r="E24" s="31"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
       <c r="J24" s="32"/>
       <c r="K24" s="31"/>
     </row>
@@ -1202,7 +1202,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="28">
-        <v>933</v>
+        <v>0</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="26"/>
@@ -1219,7 +1219,7 @@
       <c r="C26" s="27"/>
       <c r="E26" s="14">
         <f>SUM(E23:E25)</f>
-        <v>3733</v>
+        <v>2800</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="26"/>
@@ -1239,13 +1239,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="40" t="str">
         <f>B9</f>
-        <v>SEMANA  27        DEL    03     Al   09  DE   JULIO    2023</v>
+        <v>SEMANA  28        DEL    10     Al   16  DE   JULIO    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="40" t="str">
         <f>B28</f>
-        <v>SEMANA  27        DEL    03     Al   09  DE   JULIO    2023</v>
+        <v>SEMANA  28        DEL    10     Al   16  DE   JULIO    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1258,21 +1258,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="60"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="66"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="60"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="68"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="68"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C33" s="29">
         <f ca="1">I14</f>
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="I33" s="29">
         <f ca="1">C33</f>
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1370,10 +1370,10 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="60"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1382,26 +1382,26 @@
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="37"/>
-      <c r="H41" s="59" t="s">
+      <c r="H41" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="60"/>
+      <c r="I41" s="72"/>
       <c r="J41" s="8">
         <v>6</v>
       </c>
       <c r="K41" s="14">
-        <v>1917</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
       <c r="D42" s="32"/>
       <c r="E42" s="31"/>
       <c r="F42" s="12"/>
       <c r="G42" s="37"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
       <c r="J42" s="32"/>
       <c r="K42" s="31"/>
     </row>
@@ -1437,7 +1437,7 @@
       <c r="I44" s="27"/>
       <c r="K44" s="14">
         <f>SUM(K41:K43)</f>
-        <v>1917</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
@@ -1450,13 +1450,13 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="40" t="str">
         <f>H28</f>
-        <v>SEMANA  27        DEL    03     Al   09  DE   JULIO    2023</v>
+        <v>SEMANA  28        DEL    10     Al   16  DE   JULIO    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="G46" s="37"/>
       <c r="H46" s="40" t="str">
         <f>B46</f>
-        <v>SEMANA  27        DEL    03     Al   09  DE   JULIO    2023</v>
+        <v>SEMANA  28        DEL    10     Al   16  DE   JULIO    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1469,23 +1469,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="66"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="60"/>
       <c r="F48" s="16"/>
       <c r="G48" s="37"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="66"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="60"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="68"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="62"/>
       <c r="F49" s="16"/>
       <c r="G49" s="37"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="68"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="62"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C51" s="29">
         <f ca="1">C33</f>
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="E51" s="15"/>
       <c r="G51" s="37"/>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="I51" s="29">
         <f ca="1">I33</f>
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1573,20 +1573,20 @@
       <c r="K57" s="46"/>
     </row>
     <row r="58" spans="2:11" s="37" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="71"/>
-      <c r="C58" s="71"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
       <c r="D58" s="52"/>
       <c r="E58" s="48"/>
       <c r="J58" s="47"/>
       <c r="K58" s="48"/>
     </row>
     <row r="59" spans="2:11" s="37" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="54"/>
       <c r="E59" s="55"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
       <c r="J59" s="44"/>
       <c r="K59" s="48"/>
     </row>
@@ -1595,8 +1595,8 @@
       <c r="C60" s="56"/>
       <c r="D60" s="57"/>
       <c r="E60" s="55"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
       <c r="J60" s="44"/>
       <c r="K60" s="49"/>
     </row>
@@ -1615,16 +1615,16 @@
     </row>
     <row r="64" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="73"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="64"/>
     </row>
     <row r="66" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="J66" s="73"/>
-      <c r="K66" s="73"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="64"/>
     </row>
     <row r="67" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1637,13 +1637,11 @@
     <row r="70" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1652,11 +1650,13 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -81,7 +81,7 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  28        DEL    10     Al   16  DE   JULIO    2023</t>
+    <t>SEMANA  29        DEL    17     Al   23  DE   JULIO    2023</t>
   </si>
 </sst>
 </file>
@@ -521,21 +521,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -544,33 +571,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +956,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="39"/>
       <c r="K4" s="14">
-        <v>560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,10 +966,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="67"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -984,8 +984,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1003,7 +1003,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="42">
         <f>SUM(K4:K6)</f>
-        <v>560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="40" t="str">
         <f>B9</f>
-        <v>SEMANA  28        DEL    10     Al   16  DE   JULIO    2023</v>
+        <v>SEMANA  29        DEL    17     Al   23  DE   JULIO    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1034,30 +1034,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="60"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="74"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C14" s="29">
         <f ca="1">TODAY()</f>
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="I14" s="29">
         <f ca="1">C14</f>
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1173,10 +1173,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="71" t="s">
+      <c r="H23" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="72"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1185,13 +1185,13 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="32"/>
       <c r="E24" s="31"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="32"/>
       <c r="K24" s="31"/>
     </row>
@@ -1202,7 +1202,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="28">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="26"/>
@@ -1219,7 +1219,7 @@
       <c r="C26" s="27"/>
       <c r="E26" s="14">
         <f>SUM(E23:E25)</f>
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="26"/>
@@ -1239,13 +1239,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="40" t="str">
         <f>B9</f>
-        <v>SEMANA  28        DEL    10     Al   16  DE   JULIO    2023</v>
+        <v>SEMANA  29        DEL    17     Al   23  DE   JULIO    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="40" t="str">
         <f>B28</f>
-        <v>SEMANA  28        DEL    10     Al   16  DE   JULIO    2023</v>
+        <v>SEMANA  29        DEL    17     Al   23  DE   JULIO    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1258,21 +1258,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="60"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="60"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="66"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="68"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="62"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="68"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C33" s="29">
         <f ca="1">I14</f>
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="I33" s="29">
         <f ca="1">C33</f>
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1370,10 +1370,10 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="72"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1382,10 +1382,10 @@
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="37"/>
-      <c r="H41" s="71" t="s">
+      <c r="H41" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="72"/>
+      <c r="I41" s="60"/>
       <c r="J41" s="8">
         <v>6</v>
       </c>
@@ -1394,14 +1394,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="32"/>
       <c r="E42" s="31"/>
       <c r="F42" s="12"/>
       <c r="G42" s="37"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="32"/>
       <c r="K42" s="31"/>
     </row>
@@ -1450,13 +1450,13 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="40" t="str">
         <f>H28</f>
-        <v>SEMANA  28        DEL    10     Al   16  DE   JULIO    2023</v>
+        <v>SEMANA  29        DEL    17     Al   23  DE   JULIO    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="G46" s="37"/>
       <c r="H46" s="40" t="str">
         <f>B46</f>
-        <v>SEMANA  28        DEL    10     Al   16  DE   JULIO    2023</v>
+        <v>SEMANA  29        DEL    17     Al   23  DE   JULIO    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1469,23 +1469,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="60"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="66"/>
       <c r="F48" s="16"/>
       <c r="G48" s="37"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="60"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="66"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="62"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="68"/>
       <c r="F49" s="16"/>
       <c r="G49" s="37"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="62"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="68"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C51" s="29">
         <f ca="1">C33</f>
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="E51" s="15"/>
       <c r="G51" s="37"/>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="I51" s="29">
         <f ca="1">I33</f>
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1573,20 +1573,20 @@
       <c r="K57" s="46"/>
     </row>
     <row r="58" spans="2:11" s="37" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="52"/>
       <c r="E58" s="48"/>
       <c r="J58" s="47"/>
       <c r="K58" s="48"/>
     </row>
     <row r="59" spans="2:11" s="37" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="63"/>
-      <c r="C59" s="63"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
       <c r="D59" s="54"/>
       <c r="E59" s="55"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
       <c r="J59" s="44"/>
       <c r="K59" s="48"/>
     </row>
@@ -1595,8 +1595,8 @@
       <c r="C60" s="56"/>
       <c r="D60" s="57"/>
       <c r="E60" s="55"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="65"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
       <c r="J60" s="44"/>
       <c r="K60" s="49"/>
     </row>
@@ -1615,16 +1615,16 @@
     </row>
     <row r="64" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="64"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="73"/>
     </row>
     <row r="66" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="64"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="J66" s="73"/>
+      <c r="K66" s="73"/>
     </row>
     <row r="67" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1637,11 +1637,13 @@
     <row r="70" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1650,13 +1652,11 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -81,7 +81,7 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  29        DEL    17     Al   23  DE   JULIO    2023</t>
+    <t>SEMANA  30        DEL    24     Al   30  DE   JULIO    2023</t>
   </si>
 </sst>
 </file>
@@ -193,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -417,12 +417,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -456,11 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
@@ -483,9 +497,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,6 +582,22 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -889,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,11 +968,11 @@
       <c r="K3" s="21"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="39">
+      <c r="C4" s="31"/>
+      <c r="D4" s="36">
         <v>6</v>
       </c>
       <c r="E4" s="21">
@@ -954,46 +981,46 @@
       <c r="F4" s="9"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="36"/>
       <c r="K4" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="32"/>
-      <c r="E5" s="31">
+      <c r="D5" s="30"/>
+      <c r="E5" s="29">
         <v>0</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="62"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="28">
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="26">
         <v>0</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
       <c r="E7" s="14">
         <f>SUM(E4:E6)</f>
         <v>2600</v>
@@ -1001,7 +1028,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
-      <c r="K7" s="42">
+      <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
         <v>0</v>
       </c>
@@ -1014,14 +1041,14 @@
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="37" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="15"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="40" t="str">
+      <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  29        DEL    17     Al   23  DE   JULIO    2023</v>
+        <v>SEMANA  30        DEL    24     Al   30  DE   JULIO    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1034,30 +1061,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="68"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="70"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1073,18 +1100,18 @@
       <c r="B14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
       <c r="H14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1115,16 +1142,16 @@
       <c r="K17" s="19"/>
     </row>
     <row r="18" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G19" s="6"/>
@@ -1163,7 +1190,7 @@
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="33" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="8">
@@ -1173,10 +1200,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="60"/>
+      <c r="I23" s="57"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1185,45 +1212,45 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="31"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="29"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="31"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="30" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="28">
-        <v>1400</v>
+      <c r="E25" s="26">
+        <v>0</v>
       </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="30" t="s">
+      <c r="H25" s="24"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="28">
+      <c r="K25" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
       <c r="E26" s="14">
         <f>SUM(E23:E25)</f>
-        <v>4200</v>
+        <v>2800</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25"/>
       <c r="K26" s="14">
         <f>SUM(K23:K25)</f>
         <v>2600</v>
@@ -1237,15 +1264,15 @@
       <c r="K27" s="15"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="40" t="str">
+      <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  29        DEL    17     Al   23  DE   JULIO    2023</v>
+        <v>SEMANA  30        DEL    24     Al   30  DE   JULIO    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="40" t="str">
+      <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  29        DEL    17     Al   23  DE   JULIO    2023</v>
+        <v>SEMANA  30        DEL    24     Al   30  DE   JULIO    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1258,21 +1285,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="66"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="63"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="68"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="68"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="65"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1297,18 +1324,18 @@
       <c r="B33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
       <c r="H33" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1327,17 +1354,17 @@
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G36" s="36"/>
+      <c r="G36" s="34"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G37" s="36"/>
+      <c r="G37" s="34"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
     </row>
     <row r="39" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
@@ -1348,8 +1375,8 @@
         <v>2</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="37"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="35"/>
       <c r="H39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1363,29 +1390,29 @@
       <c r="B40" s="7"/>
       <c r="D40" s="13"/>
       <c r="E40" s="21"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="37"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="7"/>
       <c r="J40" s="13"/>
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="60"/>
+      <c r="C41" s="57"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
       <c r="E41" s="14">
         <v>1200</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="59" t="s">
+      <c r="F41" s="74"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="60"/>
+      <c r="I41" s="57"/>
       <c r="J41" s="8">
         <v>6</v>
       </c>
@@ -1394,47 +1421,48 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="31"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="29"/>
     </row>
     <row r="43" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="30" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="28">
+      <c r="E43" s="26">
         <v>0</v>
       </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="30" t="s">
+      <c r="F43" s="75"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="28">
+      <c r="K43" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="26"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
       <c r="E44" s="14">
         <f>SUM(E41:E43)</f>
         <v>1200</v>
       </c>
-      <c r="G44" s="37"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="27"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="25"/>
       <c r="K44" s="14">
         <f>SUM(K41:K43)</f>
         <v>2300</v>
@@ -1443,49 +1471,52 @@
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="E45" s="15"/>
-      <c r="G45" s="37"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="35"/>
       <c r="H45" s="7"/>
       <c r="K45" s="15"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="40" t="str">
+      <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  29        DEL    17     Al   23  DE   JULIO    2023</v>
+        <v>SEMANA  30        DEL    24     Al   30  DE   JULIO    2023</v>
       </c>
       <c r="E46" s="15"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="40" t="str">
+      <c r="F46" s="76"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  29        DEL    17     Al   23  DE   JULIO    2023</v>
+        <v>SEMANA  30        DEL    24     Al   30  DE   JULIO    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
-      <c r="E47" s="24"/>
-      <c r="G47" s="37"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="35"/>
       <c r="H47" s="7"/>
-      <c r="K47" s="24"/>
+      <c r="K47" s="23"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="37"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="35"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="66"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="63"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="37"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="35"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="68"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="65"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1496,7 +1527,8 @@
         <v>3</v>
       </c>
       <c r="E50" s="15"/>
-      <c r="G50" s="37"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="35"/>
       <c r="H50" s="7"/>
       <c r="I50" t="s">
         <v>5</v>
@@ -1510,18 +1542,19 @@
       <c r="B51" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="E51" s="15"/>
-      <c r="G51" s="37"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="35"/>
       <c r="H51" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I51" s="29">
+      <c r="I51" s="27">
         <f ca="1">I33</f>
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1530,111 +1563,115 @@
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="20"/>
-      <c r="G52" s="37"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="35"/>
       <c r="H52" s="18"/>
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="25"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
+    <row r="53" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="78"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="80"/>
     </row>
     <row r="54" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="36"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-    </row>
-    <row r="55" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:11" s="37" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B56" s="43"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="45"/>
-      <c r="H56" s="43"/>
-      <c r="J56" s="44"/>
-      <c r="K56" s="45"/>
-    </row>
-    <row r="57" spans="2:11" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D57" s="44"/>
-      <c r="E57" s="46"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="46"/>
-    </row>
-    <row r="58" spans="2:11" s="37" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="71"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="48"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="48"/>
-    </row>
-    <row r="59" spans="2:11" s="37" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="55"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="48"/>
-    </row>
-    <row r="60" spans="2:11" s="37" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="55"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="49"/>
-    </row>
-    <row r="61" spans="2:11" s="37" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="E61" s="48"/>
-      <c r="K61" s="50"/>
-    </row>
-    <row r="62" spans="2:11" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K62" s="48"/>
-    </row>
-    <row r="63" spans="2:11" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="51"/>
-      <c r="H63" s="51"/>
-    </row>
-    <row r="64" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="73"/>
-    </row>
-    <row r="66" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="J66" s="73"/>
-      <c r="K66" s="73"/>
-    </row>
-    <row r="67" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:11" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="52"/>
-      <c r="C68" s="53"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="53"/>
-    </row>
-    <row r="69" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+    </row>
+    <row r="55" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:11" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B56" s="40"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="42"/>
+      <c r="H56" s="40"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="42"/>
+    </row>
+    <row r="57" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D57" s="41"/>
+      <c r="E57" s="43"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="43"/>
+    </row>
+    <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="45"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="45"/>
+    </row>
+    <row r="59" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="52"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="45"/>
+    </row>
+    <row r="60" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="52"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="46"/>
+    </row>
+    <row r="61" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="E61" s="45"/>
+      <c r="K61" s="47"/>
+    </row>
+    <row r="62" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K62" s="45"/>
+    </row>
+    <row r="63" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="48"/>
+      <c r="H63" s="48"/>
+    </row>
+    <row r="64" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
+    </row>
+    <row r="66" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="J66" s="70"/>
+      <c r="K66" s="70"/>
+    </row>
+    <row r="67" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="49"/>
+      <c r="C68" s="50"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="50"/>
+    </row>
+    <row r="69" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="B58:C58"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -81,7 +81,7 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  30        DEL    24     Al   30  DE   JULIO    2023</t>
+    <t>SEMANA  31        DEL    31     Al   6  DE  AGOSTO    2023</t>
   </si>
 </sst>
 </file>
@@ -532,57 +532,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -597,6 +546,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,10 +993,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="59"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -1011,8 +1011,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1048,7 +1048,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  30        DEL    24     Al   30  DE   JULIO    2023</v>
+        <v>SEMANA  31        DEL    31     Al   6  DE  AGOSTO    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1061,30 +1061,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="67"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45143</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45135</v>
+        <v>45143</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1200,10 +1200,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="56" t="s">
+      <c r="H23" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="57"/>
+      <c r="I23" s="79"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1212,13 +1212,13 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1266,13 +1266,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  30        DEL    24     Al   30  DE   JULIO    2023</v>
+        <v>SEMANA  31        DEL    31     Al   6  DE  AGOSTO    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  30        DEL    24     Al   30  DE   JULIO    2023</v>
+        <v>SEMANA  31        DEL    31     Al   6  DE  AGOSTO    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1285,21 +1285,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="63"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="65"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="69"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45135</v>
+        <v>45143</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45135</v>
+        <v>45143</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1375,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="72"/>
+      <c r="F39" s="55"/>
       <c r="G39" s="35"/>
       <c r="H39" s="1" t="s">
         <v>0</v>
@@ -1390,29 +1390,29 @@
       <c r="B40" s="7"/>
       <c r="D40" s="13"/>
       <c r="E40" s="21"/>
-      <c r="F40" s="73"/>
+      <c r="F40" s="56"/>
       <c r="G40" s="35"/>
       <c r="H40" s="7"/>
       <c r="J40" s="13"/>
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="57"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
       <c r="E41" s="14">
         <v>1200</v>
       </c>
-      <c r="F41" s="74"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="56" t="s">
+      <c r="H41" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="57"/>
+      <c r="I41" s="79"/>
       <c r="J41" s="8">
         <v>6</v>
       </c>
@@ -1421,14 +1421,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
-      <c r="F42" s="75"/>
+      <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
       <c r="J42" s="30"/>
       <c r="K42" s="29"/>
     </row>
@@ -1441,7 +1441,7 @@
       <c r="E43" s="26">
         <v>0</v>
       </c>
-      <c r="F43" s="75"/>
+      <c r="F43" s="58"/>
       <c r="G43" s="35"/>
       <c r="H43" s="24"/>
       <c r="I43" s="25"/>
@@ -1459,7 +1459,7 @@
         <f>SUM(E41:E43)</f>
         <v>1200</v>
       </c>
-      <c r="F44" s="76"/>
+      <c r="F44" s="59"/>
       <c r="G44" s="35"/>
       <c r="H44" s="24"/>
       <c r="I44" s="25"/>
@@ -1471,7 +1471,7 @@
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="E45" s="15"/>
-      <c r="F45" s="76"/>
+      <c r="F45" s="59"/>
       <c r="G45" s="35"/>
       <c r="H45" s="7"/>
       <c r="K45" s="15"/>
@@ -1479,44 +1479,44 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  30        DEL    24     Al   30  DE   JULIO    2023</v>
+        <v>SEMANA  31        DEL    31     Al   6  DE  AGOSTO    2023</v>
       </c>
       <c r="E46" s="15"/>
-      <c r="F46" s="76"/>
+      <c r="F46" s="59"/>
       <c r="G46" s="35"/>
       <c r="H46" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  30        DEL    24     Al   30  DE   JULIO    2023</v>
+        <v>SEMANA  31        DEL    31     Al   6  DE  AGOSTO    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="E47" s="23"/>
-      <c r="F47" s="76"/>
+      <c r="F47" s="59"/>
       <c r="G47" s="35"/>
       <c r="H47" s="7"/>
       <c r="K47" s="23"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="77"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="63"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="67"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="77"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="65"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="69"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1527,7 +1527,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="15"/>
-      <c r="F50" s="76"/>
+      <c r="F50" s="59"/>
       <c r="G50" s="35"/>
       <c r="H50" s="7"/>
       <c r="I50" t="s">
@@ -1544,17 +1544,17 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45135</v>
+        <v>45143</v>
       </c>
       <c r="E51" s="15"/>
-      <c r="F51" s="76"/>
+      <c r="F51" s="59"/>
       <c r="G51" s="35"/>
       <c r="H51" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I51" s="27">
         <f ca="1">I33</f>
-        <v>45135</v>
+        <v>45143</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1563,7 +1563,7 @@
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="20"/>
-      <c r="F52" s="76"/>
+      <c r="F52" s="59"/>
       <c r="G52" s="35"/>
       <c r="H52" s="18"/>
       <c r="I52" s="19"/>
@@ -1571,16 +1571,16 @@
       <c r="K52" s="20"/>
     </row>
     <row r="53" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="78"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
     </row>
     <row r="54" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="34"/>
@@ -1610,20 +1610,20 @@
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="68"/>
-      <c r="C58" s="68"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
       <c r="D58" s="49"/>
       <c r="E58" s="45"/>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
       <c r="D59" s="51"/>
       <c r="E59" s="52"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1632,8 +1632,8 @@
       <c r="C60" s="53"/>
       <c r="D60" s="54"/>
       <c r="E60" s="52"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1652,16 +1652,16 @@
     </row>
     <row r="64" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="J65" s="70"/>
-      <c r="K65" s="70"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="J66" s="70"/>
-      <c r="K66" s="70"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="71"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1674,13 +1674,11 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1689,11 +1687,13 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -81,7 +81,7 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  31        DEL    31     Al   6  DE  AGOSTO    2023</t>
+    <t>SEMANA  32        DEL    07     Al   13  DE  AGOSTO    2023</t>
   </si>
 </sst>
 </file>
@@ -548,21 +548,48 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -571,33 +598,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +983,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -993,10 +993,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -1011,8 +1011,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1030,7 +1030,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  31        DEL    31     Al   6  DE  AGOSTO    2023</v>
+        <v>SEMANA  32        DEL    07     Al   13  DE  AGOSTO    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1061,30 +1061,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="75"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="81"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45143</v>
+        <v>45149</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45143</v>
+        <v>45149</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1200,10 +1200,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="78" t="s">
+      <c r="H23" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="79"/>
+      <c r="I23" s="67"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1212,13 +1212,13 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1266,13 +1266,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  31        DEL    31     Al   6  DE  AGOSTO    2023</v>
+        <v>SEMANA  32        DEL    07     Al   13  DE  AGOSTO    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  31        DEL    31     Al   6  DE  AGOSTO    2023</v>
+        <v>SEMANA  32        DEL    07     Al   13  DE  AGOSTO    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1285,21 +1285,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="73"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="75"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45143</v>
+        <v>45149</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45143</v>
+        <v>45149</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1397,10 +1397,10 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="79"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1409,10 +1409,10 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="78" t="s">
+      <c r="H41" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="79"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="8">
         <v>6</v>
       </c>
@@ -1421,14 +1421,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
       <c r="J42" s="30"/>
       <c r="K42" s="29"/>
     </row>
@@ -1479,14 +1479,14 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  31        DEL    31     Al   6  DE  AGOSTO    2023</v>
+        <v>SEMANA  32        DEL    07     Al   13  DE  AGOSTO    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
       <c r="G46" s="35"/>
       <c r="H46" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  31        DEL    31     Al   6  DE  AGOSTO    2023</v>
+        <v>SEMANA  32        DEL    07     Al   13  DE  AGOSTO    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1500,23 +1500,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="73"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="67"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="73"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="69"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="75"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="69"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="75"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45143</v>
+        <v>45149</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I51" s="27">
         <f ca="1">I33</f>
-        <v>45143</v>
+        <v>45149</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1610,20 +1610,20 @@
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
       <c r="D58" s="49"/>
       <c r="E58" s="45"/>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="79"/>
       <c r="D59" s="51"/>
       <c r="E59" s="52"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1632,8 +1632,8 @@
       <c r="C60" s="53"/>
       <c r="D60" s="54"/>
       <c r="E60" s="52"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1652,16 +1652,16 @@
     </row>
     <row r="64" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="71"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1674,11 +1674,13 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1687,13 +1689,11 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -81,7 +81,7 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  32        DEL    07     Al   13  DE  AGOSTO    2023</t>
+    <t>SEMANA  33        DEL    14     Al   20  DE  AGOSTO    2023</t>
   </si>
 </sst>
 </file>
@@ -548,6 +548,42 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -557,47 +593,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N49" sqref="N48:N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +983,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -993,10 +993,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="69"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -1011,8 +1011,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="71"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1030,7 +1030,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  32        DEL    07     Al   13  DE  AGOSTO    2023</v>
+        <v>SEMANA  33        DEL    14     Al   20  DE  AGOSTO    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1061,30 +1061,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="73"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="75"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="77"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1200,10 +1200,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="66" t="s">
+      <c r="H23" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="67"/>
+      <c r="I23" s="79"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1212,13 +1212,13 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1266,13 +1266,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  32        DEL    07     Al   13  DE  AGOSTO    2023</v>
+        <v>SEMANA  33        DEL    14     Al   20  DE  AGOSTO    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  32        DEL    07     Al   13  DE  AGOSTO    2023</v>
+        <v>SEMANA  33        DEL    14     Al   20  DE  AGOSTO    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1285,21 +1285,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="73"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="75"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="69"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1397,10 +1397,10 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="67"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1409,10 +1409,10 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="66" t="s">
+      <c r="H41" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="67"/>
+      <c r="I41" s="79"/>
       <c r="J41" s="8">
         <v>6</v>
       </c>
@@ -1421,14 +1421,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
       <c r="J42" s="30"/>
       <c r="K42" s="29"/>
     </row>
@@ -1479,14 +1479,14 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  32        DEL    07     Al   13  DE  AGOSTO    2023</v>
+        <v>SEMANA  33        DEL    14     Al   20  DE  AGOSTO    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
       <c r="G46" s="35"/>
       <c r="H46" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  32        DEL    07     Al   13  DE  AGOSTO    2023</v>
+        <v>SEMANA  33        DEL    14     Al   20  DE  AGOSTO    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1500,23 +1500,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="73"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="73"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="67"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="75"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="69"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="75"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="69"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I51" s="27">
         <f ca="1">I33</f>
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1610,20 +1610,20 @@
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
       <c r="D58" s="49"/>
       <c r="E58" s="45"/>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
       <c r="D59" s="51"/>
       <c r="E59" s="52"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1632,8 +1632,8 @@
       <c r="C60" s="53"/>
       <c r="D60" s="54"/>
       <c r="E60" s="52"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1652,16 +1652,16 @@
     </row>
     <row r="64" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="71"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1674,13 +1674,11 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1689,11 +1687,13 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -81,7 +81,7 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  33        DEL    14     Al   20  DE  AGOSTO    2023</t>
+    <t>SEMANA  34        DEL    21     Al   27  DE  AGOSTO    2023</t>
   </si>
 </sst>
 </file>
@@ -548,21 +548,48 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -571,33 +598,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N49" sqref="N48:N49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +983,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>0</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -993,10 +993,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -1011,8 +1011,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1030,7 +1030,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>0</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  33        DEL    14     Al   20  DE  AGOSTO    2023</v>
+        <v>SEMANA  34        DEL    21     Al   27  DE  AGOSTO    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1061,30 +1061,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="75"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="81"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1200,10 +1200,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="78" t="s">
+      <c r="H23" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="79"/>
+      <c r="I23" s="67"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1212,13 +1212,13 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1229,7 +1229,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1246,7 +1246,7 @@
       <c r="C26" s="25"/>
       <c r="E26" s="14">
         <f>SUM(E23:E25)</f>
-        <v>2800</v>
+        <v>3733</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
@@ -1266,13 +1266,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  33        DEL    14     Al   20  DE  AGOSTO    2023</v>
+        <v>SEMANA  34        DEL    21     Al   27  DE  AGOSTO    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  33        DEL    14     Al   20  DE  AGOSTO    2023</v>
+        <v>SEMANA  34        DEL    21     Al   27  DE  AGOSTO    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1285,21 +1285,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="73"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="75"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1397,10 +1397,10 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="79"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1409,10 +1409,10 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="78" t="s">
+      <c r="H41" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="79"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="8">
         <v>6</v>
       </c>
@@ -1421,14 +1421,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
       <c r="J42" s="30"/>
       <c r="K42" s="29"/>
     </row>
@@ -1479,14 +1479,14 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  33        DEL    14     Al   20  DE  AGOSTO    2023</v>
+        <v>SEMANA  34        DEL    21     Al   27  DE  AGOSTO    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
       <c r="G46" s="35"/>
       <c r="H46" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  33        DEL    14     Al   20  DE  AGOSTO    2023</v>
+        <v>SEMANA  34        DEL    21     Al   27  DE  AGOSTO    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1500,23 +1500,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="73"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="67"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="73"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="69"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="75"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="69"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="75"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I51" s="27">
         <f ca="1">I33</f>
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1610,20 +1610,20 @@
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
       <c r="D58" s="49"/>
       <c r="E58" s="45"/>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="79"/>
       <c r="D59" s="51"/>
       <c r="E59" s="52"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1632,8 +1632,8 @@
       <c r="C60" s="53"/>
       <c r="D60" s="54"/>
       <c r="E60" s="52"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1652,16 +1652,16 @@
     </row>
     <row r="64" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="71"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1674,11 +1674,13 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1687,13 +1689,11 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -81,7 +81,7 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  34        DEL    21     Al   27  DE  AGOSTO    2023</t>
+    <t>SEMANA  35        DEL    28     Al   03  SEPTIEMBRE    2023</t>
   </si>
 </sst>
 </file>
@@ -548,6 +548,42 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -557,47 +593,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -916,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -983,7 +983,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>280</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -993,10 +993,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="69"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -1011,8 +1011,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="71"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1030,7 +1030,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>280</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  34        DEL    21     Al   27  DE  AGOSTO    2023</v>
+        <v>SEMANA  35        DEL    28     Al   03  SEPTIEMBRE    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1061,30 +1061,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="73"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="75"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="77"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45163</v>
+        <v>45170</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45163</v>
+        <v>45170</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1200,10 +1200,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="66" t="s">
+      <c r="H23" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="67"/>
+      <c r="I23" s="79"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1212,13 +1212,13 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1229,7 +1229,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>933</v>
+        <v>0</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1246,7 +1246,7 @@
       <c r="C26" s="25"/>
       <c r="E26" s="14">
         <f>SUM(E23:E25)</f>
-        <v>3733</v>
+        <v>2800</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
@@ -1266,13 +1266,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  34        DEL    21     Al   27  DE  AGOSTO    2023</v>
+        <v>SEMANA  35        DEL    28     Al   03  SEPTIEMBRE    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  34        DEL    21     Al   27  DE  AGOSTO    2023</v>
+        <v>SEMANA  35        DEL    28     Al   03  SEPTIEMBRE    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1285,21 +1285,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="73"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="75"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="69"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45163</v>
+        <v>45170</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45163</v>
+        <v>45170</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1397,10 +1397,10 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="67"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1409,10 +1409,10 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="66" t="s">
+      <c r="H41" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="67"/>
+      <c r="I41" s="79"/>
       <c r="J41" s="8">
         <v>6</v>
       </c>
@@ -1421,14 +1421,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
       <c r="J42" s="30"/>
       <c r="K42" s="29"/>
     </row>
@@ -1479,14 +1479,14 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  34        DEL    21     Al   27  DE  AGOSTO    2023</v>
+        <v>SEMANA  35        DEL    28     Al   03  SEPTIEMBRE    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
       <c r="G46" s="35"/>
       <c r="H46" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  34        DEL    21     Al   27  DE  AGOSTO    2023</v>
+        <v>SEMANA  35        DEL    28     Al   03  SEPTIEMBRE    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1500,23 +1500,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="73"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="73"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="67"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="75"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="69"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="75"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="69"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45163</v>
+        <v>45170</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I51" s="27">
         <f ca="1">I33</f>
-        <v>45163</v>
+        <v>45170</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1610,20 +1610,20 @@
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
       <c r="D58" s="49"/>
       <c r="E58" s="45"/>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
       <c r="D59" s="51"/>
       <c r="E59" s="52"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1632,8 +1632,8 @@
       <c r="C60" s="53"/>
       <c r="D60" s="54"/>
       <c r="E60" s="52"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1652,16 +1652,16 @@
     </row>
     <row r="64" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="71"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1674,13 +1674,11 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1689,11 +1687,13 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>RECIBO DE NOMINA</t>
   </si>
@@ -81,7 +81,10 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  35        DEL    28     Al   03  SEPTIEMBRE    2023</t>
+    <t>SEMANA  36        DEL    04     Al   10  SEPTIEMBRE    2023</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -548,21 +551,48 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -571,33 +601,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -916,7 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -983,7 +986,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>420</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -993,10 +996,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -1011,8 +1014,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1030,7 +1033,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>420</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1048,7 +1051,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  35        DEL    28     Al   03  SEPTIEMBRE    2023</v>
+        <v>SEMANA  36        DEL    04     Al   10  SEPTIEMBRE    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1061,30 +1064,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="75"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="81"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1102,7 +1105,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45170</v>
+        <v>45178</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1111,7 +1114,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45170</v>
+        <v>45178</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1200,10 +1203,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="78" t="s">
+      <c r="H23" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="79"/>
+      <c r="I23" s="67"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1212,13 +1215,13 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1229,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1244,9 +1247,8 @@
     <row r="26" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
-      <c r="E26" s="14">
-        <f>SUM(E23:E25)</f>
-        <v>2800</v>
+      <c r="E26" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
@@ -1266,13 +1268,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  35        DEL    28     Al   03  SEPTIEMBRE    2023</v>
+        <v>SEMANA  36        DEL    04     Al   10  SEPTIEMBRE    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  35        DEL    28     Al   03  SEPTIEMBRE    2023</v>
+        <v>SEMANA  36        DEL    04     Al   10  SEPTIEMBRE    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1285,21 +1287,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="73"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="75"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1326,7 +1328,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45170</v>
+        <v>45178</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1335,7 +1337,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45170</v>
+        <v>45178</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1397,10 +1399,10 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="79"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1409,10 +1411,10 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="78" t="s">
+      <c r="H41" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="79"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="8">
         <v>6</v>
       </c>
@@ -1421,14 +1423,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
       <c r="J42" s="30"/>
       <c r="K42" s="29"/>
     </row>
@@ -1479,14 +1481,14 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  35        DEL    28     Al   03  SEPTIEMBRE    2023</v>
+        <v>SEMANA  36        DEL    04     Al   10  SEPTIEMBRE    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
       <c r="G46" s="35"/>
       <c r="H46" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  35        DEL    28     Al   03  SEPTIEMBRE    2023</v>
+        <v>SEMANA  36        DEL    04     Al   10  SEPTIEMBRE    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1500,23 +1502,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="73"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="67"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="73"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="69"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="75"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="69"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="75"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1544,7 +1546,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45170</v>
+        <v>45178</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1554,7 +1556,7 @@
       </c>
       <c r="I51" s="27">
         <f ca="1">I33</f>
-        <v>45170</v>
+        <v>45178</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1610,20 +1612,20 @@
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
       <c r="D58" s="49"/>
       <c r="E58" s="45"/>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="79"/>
       <c r="D59" s="51"/>
       <c r="E59" s="52"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1632,8 +1634,8 @@
       <c r="C60" s="53"/>
       <c r="D60" s="54"/>
       <c r="E60" s="52"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1652,16 +1654,16 @@
     </row>
     <row r="64" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="71"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1674,11 +1676,13 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1687,13 +1691,11 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -81,10 +81,10 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  36        DEL    04     Al   10  SEPTIEMBRE    2023</t>
-  </si>
-  <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>SEMANA  37        DEL    11     Al   17  SEPTIEMBRE    2023</t>
   </si>
 </sst>
 </file>
@@ -551,6 +551,42 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -560,47 +596,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -919,7 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -986,7 +986,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -996,10 +996,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="69"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -1014,8 +1014,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="71"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1033,7 +1033,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1045,13 +1045,13 @@
     </row>
     <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="15"/>
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  36        DEL    04     Al   10  SEPTIEMBRE    2023</v>
+        <v>SEMANA  37        DEL    11     Al   17  SEPTIEMBRE    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1064,30 +1064,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="73"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="75"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="77"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45178</v>
+        <v>45184</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45178</v>
+        <v>45184</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1203,10 +1203,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="66" t="s">
+      <c r="H23" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="67"/>
+      <c r="I23" s="79"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1215,13 +1215,13 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1232,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>933</v>
+        <v>0</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1248,7 +1248,7 @@
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
       <c r="E26" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
@@ -1268,13 +1268,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  36        DEL    04     Al   10  SEPTIEMBRE    2023</v>
+        <v>SEMANA  37        DEL    11     Al   17  SEPTIEMBRE    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  36        DEL    04     Al   10  SEPTIEMBRE    2023</v>
+        <v>SEMANA  37        DEL    11     Al   17  SEPTIEMBRE    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1287,21 +1287,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="73"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="75"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="69"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45178</v>
+        <v>45184</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45178</v>
+        <v>45184</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1399,10 +1399,10 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="67"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1411,10 +1411,10 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="66" t="s">
+      <c r="H41" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="67"/>
+      <c r="I41" s="79"/>
       <c r="J41" s="8">
         <v>6</v>
       </c>
@@ -1423,14 +1423,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
       <c r="J42" s="30"/>
       <c r="K42" s="29"/>
     </row>
@@ -1481,14 +1481,14 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  36        DEL    04     Al   10  SEPTIEMBRE    2023</v>
+        <v>SEMANA  37        DEL    11     Al   17  SEPTIEMBRE    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
       <c r="G46" s="35"/>
       <c r="H46" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  36        DEL    04     Al   10  SEPTIEMBRE    2023</v>
+        <v>SEMANA  37        DEL    11     Al   17  SEPTIEMBRE    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1502,23 +1502,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="73"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="73"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="67"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="75"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="69"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="75"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="69"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45178</v>
+        <v>45184</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="I51" s="27">
         <f ca="1">I33</f>
-        <v>45178</v>
+        <v>45184</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1612,20 +1612,20 @@
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
       <c r="D58" s="49"/>
       <c r="E58" s="45"/>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
       <c r="D59" s="51"/>
       <c r="E59" s="52"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1634,8 +1634,8 @@
       <c r="C60" s="53"/>
       <c r="D60" s="54"/>
       <c r="E60" s="52"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1654,16 +1654,16 @@
     </row>
     <row r="64" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="71"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1676,13 +1676,11 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1691,11 +1689,13 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>RECIBO DE NOMINA</t>
   </si>
@@ -81,10 +81,7 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>SEMANA  37        DEL    11     Al   17  SEPTIEMBRE    2023</t>
+    <t>SEMANA  38        DEL    18     Al   24  SEPTIEMBRE    2023</t>
   </si>
 </sst>
 </file>
@@ -551,21 +548,48 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -574,33 +598,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -919,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +983,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>0</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -996,10 +993,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -1014,8 +1011,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1033,7 +1030,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>0</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1045,13 +1042,13 @@
     </row>
     <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="15"/>
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  37        DEL    11     Al   17  SEPTIEMBRE    2023</v>
+        <v>SEMANA  38        DEL    18     Al   24  SEPTIEMBRE    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1064,30 +1061,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="75"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="81"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1105,7 +1102,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45184</v>
+        <v>45191</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1114,7 +1111,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45184</v>
+        <v>45191</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1203,10 +1200,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="78" t="s">
+      <c r="H23" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="79"/>
+      <c r="I23" s="67"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1215,13 +1212,15 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="30"/>
-      <c r="E24" s="29"/>
+      <c r="E24" s="29">
+        <v>0</v>
+      </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1232,7 +1231,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1247,8 +1246,9 @@
     <row r="26" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
-      <c r="E26" s="14" t="s">
-        <v>18</v>
+      <c r="E26" s="14">
+        <f>SUM(E22:E25)</f>
+        <v>3733</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
@@ -1268,13 +1268,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  37        DEL    11     Al   17  SEPTIEMBRE    2023</v>
+        <v>SEMANA  38        DEL    18     Al   24  SEPTIEMBRE    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  37        DEL    11     Al   17  SEPTIEMBRE    2023</v>
+        <v>SEMANA  38        DEL    18     Al   24  SEPTIEMBRE    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1287,21 +1287,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="73"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="75"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45184</v>
+        <v>45191</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45184</v>
+        <v>45191</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1399,10 +1399,10 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="79"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1411,26 +1411,26 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="78" t="s">
+      <c r="H41" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="79"/>
-      <c r="J41" s="8">
-        <v>6</v>
+      <c r="I41" s="67"/>
+      <c r="J41" s="36">
+        <v>5</v>
       </c>
       <c r="K41" s="14">
-        <v>2300</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
       <c r="J42" s="30"/>
       <c r="K42" s="29"/>
     </row>
@@ -1467,7 +1467,7 @@
       <c r="I44" s="25"/>
       <c r="K44" s="14">
         <f>SUM(K41:K43)</f>
-        <v>2300</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
@@ -1481,14 +1481,14 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  37        DEL    11     Al   17  SEPTIEMBRE    2023</v>
+        <v>SEMANA  38        DEL    18     Al   24  SEPTIEMBRE    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
       <c r="G46" s="35"/>
       <c r="H46" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  37        DEL    11     Al   17  SEPTIEMBRE    2023</v>
+        <v>SEMANA  38        DEL    18     Al   24  SEPTIEMBRE    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1502,23 +1502,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="73"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="67"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="73"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="69"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="75"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="69"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="75"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45184</v>
+        <v>45191</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="I51" s="27">
         <f ca="1">I33</f>
-        <v>45184</v>
+        <v>45191</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1612,20 +1612,20 @@
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
       <c r="D58" s="49"/>
       <c r="E58" s="45"/>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="79"/>
       <c r="D59" s="51"/>
       <c r="E59" s="52"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1634,8 +1634,8 @@
       <c r="C60" s="53"/>
       <c r="D60" s="54"/>
       <c r="E60" s="52"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1654,16 +1654,16 @@
     </row>
     <row r="64" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="71"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1676,11 +1676,13 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1689,13 +1691,11 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -81,7 +81,7 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  38        DEL    18     Al   24  SEPTIEMBRE    2023</t>
+    <t>SEMANA  39        DEL    25     Al   01 OCTUBRE    2023</t>
   </si>
 </sst>
 </file>
@@ -548,6 +548,42 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -557,47 +593,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,17 +973,17 @@
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="21">
-        <v>2600</v>
+        <v>2166</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>1680</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -993,10 +993,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="69"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -1011,8 +1011,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="71"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1023,14 +1023,14 @@
       <c r="C7" s="25"/>
       <c r="E7" s="14">
         <f>SUM(E4:E6)</f>
-        <v>2600</v>
+        <v>2166</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>1680</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  38        DEL    18     Al   24  SEPTIEMBRE    2023</v>
+        <v>SEMANA  39        DEL    25     Al   01 OCTUBRE    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1061,30 +1061,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="73"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="75"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="77"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45191</v>
+        <v>45198</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45191</v>
+        <v>45198</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1200,10 +1200,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="66" t="s">
+      <c r="H23" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="67"/>
+      <c r="I23" s="79"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1212,15 +1212,15 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29">
         <v>0</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1231,7 +1231,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>933</v>
+        <v>0</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1248,7 +1248,7 @@
       <c r="C26" s="25"/>
       <c r="E26" s="14">
         <f>SUM(E22:E25)</f>
-        <v>3733</v>
+        <v>2800</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
@@ -1268,13 +1268,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  38        DEL    18     Al   24  SEPTIEMBRE    2023</v>
+        <v>SEMANA  39        DEL    25     Al   01 OCTUBRE    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  38        DEL    18     Al   24  SEPTIEMBRE    2023</v>
+        <v>SEMANA  39        DEL    25     Al   01 OCTUBRE    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1287,21 +1287,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="73"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="75"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="69"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45191</v>
+        <v>45198</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45191</v>
+        <v>45198</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1399,10 +1399,10 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="67"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1411,26 +1411,26 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="66" t="s">
+      <c r="H41" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="67"/>
+      <c r="I41" s="79"/>
       <c r="J41" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K41" s="14">
-        <v>1916</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
       <c r="J42" s="30"/>
       <c r="K42" s="29"/>
     </row>
@@ -1467,7 +1467,7 @@
       <c r="I44" s="25"/>
       <c r="K44" s="14">
         <f>SUM(K41:K43)</f>
-        <v>1916</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
@@ -1481,14 +1481,14 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  38        DEL    18     Al   24  SEPTIEMBRE    2023</v>
+        <v>SEMANA  39        DEL    25     Al   01 OCTUBRE    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
       <c r="G46" s="35"/>
       <c r="H46" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  38        DEL    18     Al   24  SEPTIEMBRE    2023</v>
+        <v>SEMANA  39        DEL    25     Al   01 OCTUBRE    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1502,23 +1502,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="73"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="73"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="67"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="75"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="69"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="75"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="69"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45191</v>
+        <v>45198</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="I51" s="27">
         <f ca="1">I33</f>
-        <v>45191</v>
+        <v>45198</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1612,20 +1612,20 @@
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
       <c r="D58" s="49"/>
       <c r="E58" s="45"/>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
       <c r="D59" s="51"/>
       <c r="E59" s="52"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1634,8 +1634,8 @@
       <c r="C60" s="53"/>
       <c r="D60" s="54"/>
       <c r="E60" s="52"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1654,16 +1654,16 @@
     </row>
     <row r="64" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="71"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1676,13 +1676,11 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1691,11 +1689,13 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -81,7 +81,7 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  39        DEL    25     Al   01 OCTUBRE    2023</t>
+    <t>SEMANA  40        DEL    02     Al    08    OCTUBRE    2023</t>
   </si>
 </sst>
 </file>
@@ -548,21 +548,48 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -571,33 +598,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,17 +973,17 @@
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="21">
-        <v>2166</v>
+        <v>2600</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>1120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -993,10 +993,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -1011,8 +1011,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1023,14 +1023,14 @@
       <c r="C7" s="25"/>
       <c r="E7" s="14">
         <f>SUM(E4:E6)</f>
-        <v>2166</v>
+        <v>2600</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>1120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  39        DEL    25     Al   01 OCTUBRE    2023</v>
+        <v>SEMANA  40        DEL    02     Al    08    OCTUBRE    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1061,30 +1061,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="75"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="81"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45198</v>
+        <v>45205</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45198</v>
+        <v>45205</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1200,10 +1200,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="78" t="s">
+      <c r="H23" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="79"/>
+      <c r="I23" s="67"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1212,15 +1212,15 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29">
         <v>0</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1231,7 +1231,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1248,7 +1248,7 @@
       <c r="C26" s="25"/>
       <c r="E26" s="14">
         <f>SUM(E22:E25)</f>
-        <v>2800</v>
+        <v>3733</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
@@ -1268,13 +1268,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  39        DEL    25     Al   01 OCTUBRE    2023</v>
+        <v>SEMANA  40        DEL    02     Al    08    OCTUBRE    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  39        DEL    25     Al   01 OCTUBRE    2023</v>
+        <v>SEMANA  40        DEL    02     Al    08    OCTUBRE    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1287,21 +1287,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="73"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="75"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45198</v>
+        <v>45205</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45198</v>
+        <v>45205</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1399,10 +1399,10 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="79"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1411,26 +1411,26 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="78" t="s">
+      <c r="H41" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="79"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="36">
         <v>4</v>
       </c>
       <c r="K41" s="14">
-        <v>1533</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
       <c r="J42" s="30"/>
       <c r="K42" s="29"/>
     </row>
@@ -1467,7 +1467,7 @@
       <c r="I44" s="25"/>
       <c r="K44" s="14">
         <f>SUM(K41:K43)</f>
-        <v>1533</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
@@ -1481,14 +1481,14 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  39        DEL    25     Al   01 OCTUBRE    2023</v>
+        <v>SEMANA  40        DEL    02     Al    08    OCTUBRE    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
       <c r="G46" s="35"/>
       <c r="H46" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  39        DEL    25     Al   01 OCTUBRE    2023</v>
+        <v>SEMANA  40        DEL    02     Al    08    OCTUBRE    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1502,23 +1502,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="73"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="67"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="73"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="69"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="75"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="69"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="75"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45198</v>
+        <v>45205</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="I51" s="27">
         <f ca="1">I33</f>
-        <v>45198</v>
+        <v>45205</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1612,20 +1612,20 @@
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
       <c r="D58" s="49"/>
       <c r="E58" s="45"/>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="79"/>
       <c r="D59" s="51"/>
       <c r="E59" s="52"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1634,8 +1634,8 @@
       <c r="C60" s="53"/>
       <c r="D60" s="54"/>
       <c r="E60" s="52"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1654,16 +1654,16 @@
     </row>
     <row r="64" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="71"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1676,11 +1676,13 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1689,13 +1691,11 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -81,7 +81,7 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  40        DEL    02     Al    08    OCTUBRE    2023</t>
+    <t>SEMANA  41        DEL    09     Al    15    OCTUBRE    2023</t>
   </si>
 </sst>
 </file>
@@ -193,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -426,21 +426,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -540,13 +531,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -557,47 +576,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -916,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E56" sqref="E55:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +969,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -993,10 +979,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="69"/>
+      <c r="I5" s="70"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -1011,8 +997,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1030,7 +1016,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1048,7 +1034,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  40        DEL    02     Al    08    OCTUBRE    2023</v>
+        <v>SEMANA  41        DEL    09     Al    15    OCTUBRE    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1061,23 +1047,23 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="73"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="75"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
@@ -1102,7 +1088,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45205</v>
+        <v>45212</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1111,7 +1097,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45205</v>
+        <v>45212</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1200,10 +1186,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="66" t="s">
+      <c r="H23" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="67"/>
+      <c r="I23" s="75"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1212,15 +1198,15 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29">
         <v>0</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1231,7 +1217,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>933</v>
+        <v>0</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1248,7 +1234,7 @@
       <c r="C26" s="25"/>
       <c r="E26" s="14">
         <f>SUM(E22:E25)</f>
-        <v>3733</v>
+        <v>2800</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
@@ -1268,13 +1254,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  40        DEL    02     Al    08    OCTUBRE    2023</v>
+        <v>SEMANA  41        DEL    09     Al    15    OCTUBRE    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  40        DEL    02     Al    08    OCTUBRE    2023</v>
+        <v>SEMANA  41        DEL    09     Al    15    OCTUBRE    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1287,21 +1273,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="73"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="63"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="75"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="65"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1328,7 +1314,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45205</v>
+        <v>45212</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1337,7 +1323,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45205</v>
+        <v>45212</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1399,10 +1385,10 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="67"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1411,10 +1397,10 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="66" t="s">
+      <c r="H41" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="67"/>
+      <c r="I41" s="75"/>
       <c r="J41" s="36">
         <v>4</v>
       </c>
@@ -1423,14 +1409,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
       <c r="J42" s="30"/>
       <c r="K42" s="29"/>
     </row>
@@ -1481,14 +1467,14 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  40        DEL    02     Al    08    OCTUBRE    2023</v>
+        <v>SEMANA  41        DEL    09     Al    15    OCTUBRE    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
       <c r="G46" s="35"/>
       <c r="H46" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  40        DEL    02     Al    08    OCTUBRE    2023</v>
+        <v>SEMANA  41        DEL    09     Al    15    OCTUBRE    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1502,23 +1488,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="73"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="63"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="73"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="63"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="75"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="65"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="75"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="65"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1546,7 +1532,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45205</v>
+        <v>45212</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1556,7 +1542,7 @@
       </c>
       <c r="I51" s="27">
         <f ca="1">I33</f>
-        <v>45205</v>
+        <v>45212</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1573,16 +1559,16 @@
       <c r="K52" s="20"/>
     </row>
     <row r="53" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="61"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="63"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
     </row>
     <row r="54" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="34"/>
@@ -1612,20 +1598,20 @@
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="61"/>
       <c r="D58" s="49"/>
       <c r="E58" s="45"/>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="66"/>
       <c r="D59" s="51"/>
       <c r="E59" s="52"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1634,8 +1620,8 @@
       <c r="C60" s="53"/>
       <c r="D60" s="54"/>
       <c r="E60" s="52"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1654,16 +1640,16 @@
     </row>
     <row r="64" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="J65" s="67"/>
+      <c r="K65" s="67"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="67"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1676,13 +1662,11 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1691,11 +1675,13 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -81,7 +81,7 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  41        DEL    09     Al    15    OCTUBRE    2023</t>
+    <t>SEMANA  42        DEL    16     Al    22    OCTUBRE    2023</t>
   </si>
 </sst>
 </file>
@@ -531,21 +531,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -554,36 +584,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E56" sqref="E55:E56"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +969,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>560</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -979,10 +979,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="70"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -997,8 +997,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="72"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="68"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1016,7 +1016,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>560</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1034,7 +1034,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  41        DEL    09     Al    15    OCTUBRE    2023</v>
+        <v>SEMANA  42        DEL    16     Al    22    OCTUBRE    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1047,30 +1047,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="72"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="77"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45212</v>
+        <v>45219</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45212</v>
+        <v>45219</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1186,10 +1186,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="74" t="s">
+      <c r="H23" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="75"/>
+      <c r="I23" s="64"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1198,15 +1198,15 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29">
         <v>0</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1217,7 +1217,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1234,7 +1234,7 @@
       <c r="C26" s="25"/>
       <c r="E26" s="14">
         <f>SUM(E22:E25)</f>
-        <v>2800</v>
+        <v>3733</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
@@ -1254,13 +1254,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  41        DEL    09     Al    15    OCTUBRE    2023</v>
+        <v>SEMANA  42        DEL    16     Al    22    OCTUBRE    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  41        DEL    09     Al    15    OCTUBRE    2023</v>
+        <v>SEMANA  42        DEL    16     Al    22    OCTUBRE    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1273,21 +1273,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="63"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="70"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="72"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="65"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="72"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45212</v>
+        <v>45219</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45212</v>
+        <v>45219</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1385,10 +1385,10 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="75"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1397,10 +1397,10 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="74" t="s">
+      <c r="H41" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="75"/>
+      <c r="I41" s="64"/>
       <c r="J41" s="36">
         <v>4</v>
       </c>
@@ -1409,14 +1409,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
       <c r="J42" s="30"/>
       <c r="K42" s="29"/>
     </row>
@@ -1467,14 +1467,14 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  41        DEL    09     Al    15    OCTUBRE    2023</v>
+        <v>SEMANA  42        DEL    16     Al    22    OCTUBRE    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
       <c r="G46" s="35"/>
       <c r="H46" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  41        DEL    09     Al    15    OCTUBRE    2023</v>
+        <v>SEMANA  42        DEL    16     Al    22    OCTUBRE    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1488,23 +1488,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="63"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="70"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="63"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="70"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="65"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="72"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="65"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="72"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45212</v>
+        <v>45219</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I51" s="27">
         <f ca="1">I33</f>
-        <v>45212</v>
+        <v>45219</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1566,7 +1566,7 @@
       <c r="F53" s="34"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
-      <c r="I53" s="78"/>
+      <c r="I53" s="61"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
     </row>
@@ -1598,20 +1598,20 @@
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="61"/>
-      <c r="C58" s="61"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="49"/>
       <c r="E58" s="45"/>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="66"/>
-      <c r="C59" s="66"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="51"/>
       <c r="E59" s="52"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1620,8 +1620,8 @@
       <c r="C60" s="53"/>
       <c r="D60" s="54"/>
       <c r="E60" s="52"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1640,16 +1640,16 @@
     </row>
     <row r="64" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="67"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="J65" s="77"/>
+      <c r="K65" s="77"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="J66" s="77"/>
+      <c r="K66" s="77"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1662,11 +1662,13 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1675,13 +1677,11 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -81,7 +81,7 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  42        DEL    16     Al    22    OCTUBRE    2023</t>
+    <t>SEMANA  43        DEL    23     Al    29    OCTUBRE    2023</t>
   </si>
 </sst>
 </file>
@@ -534,6 +534,42 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -543,47 +579,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -903,7 +903,7 @@
   <dimension ref="B1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +969,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>840</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -979,10 +979,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="66"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -997,8 +997,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1016,7 +1016,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>840</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1034,7 +1034,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  42        DEL    16     Al    22    OCTUBRE    2023</v>
+        <v>SEMANA  43        DEL    23     Al    29    OCTUBRE    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1047,30 +1047,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="70"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="72"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="74"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1186,10 +1186,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="63" t="s">
+      <c r="H23" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="64"/>
+      <c r="I23" s="76"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1198,15 +1198,15 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29">
         <v>0</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1217,7 +1217,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>933</v>
+        <v>0</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1234,7 +1234,7 @@
       <c r="C26" s="25"/>
       <c r="E26" s="14">
         <f>SUM(E22:E25)</f>
-        <v>3733</v>
+        <v>2800</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
@@ -1254,13 +1254,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  42        DEL    16     Al    22    OCTUBRE    2023</v>
+        <v>SEMANA  43        DEL    23     Al    29    OCTUBRE    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  42        DEL    16     Al    22    OCTUBRE    2023</v>
+        <v>SEMANA  43        DEL    23     Al    29    OCTUBRE    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1273,21 +1273,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="70"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="64"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="72"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="66"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1385,10 +1385,10 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="64"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1397,10 +1397,10 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="63" t="s">
+      <c r="H41" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="64"/>
+      <c r="I41" s="76"/>
       <c r="J41" s="36">
         <v>4</v>
       </c>
@@ -1409,14 +1409,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
       <c r="J42" s="30"/>
       <c r="K42" s="29"/>
     </row>
@@ -1467,14 +1467,14 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  42        DEL    16     Al    22    OCTUBRE    2023</v>
+        <v>SEMANA  43        DEL    23     Al    29    OCTUBRE    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
       <c r="G46" s="35"/>
       <c r="H46" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  42        DEL    16     Al    22    OCTUBRE    2023</v>
+        <v>SEMANA  43        DEL    23     Al    29    OCTUBRE    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1488,23 +1488,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="70"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="64"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="70"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="64"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="72"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="66"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="72"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="66"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I51" s="27">
         <f ca="1">I33</f>
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1598,20 +1598,20 @@
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="75"/>
-      <c r="C58" s="75"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="49"/>
       <c r="E58" s="45"/>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="76"/>
-      <c r="C59" s="76"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
       <c r="D59" s="51"/>
       <c r="E59" s="52"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1620,8 +1620,8 @@
       <c r="C60" s="53"/>
       <c r="D60" s="54"/>
       <c r="E60" s="52"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1640,16 +1640,16 @@
     </row>
     <row r="64" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="J65" s="77"/>
-      <c r="K65" s="77"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="77"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1662,13 +1662,11 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1677,11 +1675,13 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -81,7 +81,7 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  43        DEL    23     Al    29    OCTUBRE    2023</t>
+    <t>SEMANA  44        DEL    30     Al    05   NOVIEMBRE    2023</t>
   </si>
 </sst>
 </file>
@@ -903,7 +903,7 @@
   <dimension ref="B1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +969,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>560</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>560</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1034,7 +1034,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  43        DEL    23     Al    29    OCTUBRE    2023</v>
+        <v>SEMANA  44        DEL    30     Al    05   NOVIEMBRE    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45226</v>
+        <v>45233</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45226</v>
+        <v>45233</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1254,13 +1254,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  43        DEL    23     Al    29    OCTUBRE    2023</v>
+        <v>SEMANA  44        DEL    30     Al    05   NOVIEMBRE    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  43        DEL    23     Al    29    OCTUBRE    2023</v>
+        <v>SEMANA  44        DEL    30     Al    05   NOVIEMBRE    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45226</v>
+        <v>45233</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45226</v>
+        <v>45233</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1467,14 +1467,14 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  43        DEL    23     Al    29    OCTUBRE    2023</v>
+        <v>SEMANA  44        DEL    30     Al    05   NOVIEMBRE    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
       <c r="G46" s="35"/>
       <c r="H46" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  43        DEL    23     Al    29    OCTUBRE    2023</v>
+        <v>SEMANA  44        DEL    30     Al    05   NOVIEMBRE    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45226</v>
+        <v>45233</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I51" s="27">
         <f ca="1">I33</f>
-        <v>45226</v>
+        <v>45233</v>
       </c>
       <c r="K51" s="15"/>
     </row>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -81,7 +81,7 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  44        DEL    30     Al    05   NOVIEMBRE    2023</t>
+    <t>SEMANA  45        DEL    06     Al    12   NOVIEMBRE    2023</t>
   </si>
 </sst>
 </file>
@@ -534,21 +534,48 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -557,33 +584,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -902,7 +902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -969,7 +969,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>1120</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -979,10 +979,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="71"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -997,8 +997,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="68"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1016,7 +1016,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>1120</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1034,7 +1034,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  44        DEL    30     Al    05   NOVIEMBRE    2023</v>
+        <v>SEMANA  45        DEL    06     Al    12   NOVIEMBRE    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1047,30 +1047,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="66"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="72"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="78"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45233</v>
+        <v>45240</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45233</v>
+        <v>45240</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1186,10 +1186,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="75" t="s">
+      <c r="H23" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="76"/>
+      <c r="I23" s="64"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1198,15 +1198,15 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29">
         <v>0</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1217,7 +1217,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1234,7 +1234,7 @@
       <c r="C26" s="25"/>
       <c r="E26" s="14">
         <f>SUM(E22:E25)</f>
-        <v>2800</v>
+        <v>3733</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
@@ -1254,13 +1254,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  44        DEL    30     Al    05   NOVIEMBRE    2023</v>
+        <v>SEMANA  45        DEL    06     Al    12   NOVIEMBRE    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  44        DEL    30     Al    05   NOVIEMBRE    2023</v>
+        <v>SEMANA  45        DEL    06     Al    12   NOVIEMBRE    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1273,21 +1273,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="64"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="70"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="72"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="66"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="72"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45233</v>
+        <v>45240</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45233</v>
+        <v>45240</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1385,10 +1385,10 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="76"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1397,10 +1397,10 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="75" t="s">
+      <c r="H41" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="76"/>
+      <c r="I41" s="64"/>
       <c r="J41" s="36">
         <v>4</v>
       </c>
@@ -1409,14 +1409,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
       <c r="J42" s="30"/>
       <c r="K42" s="29"/>
     </row>
@@ -1467,14 +1467,14 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  44        DEL    30     Al    05   NOVIEMBRE    2023</v>
+        <v>SEMANA  45        DEL    06     Al    12   NOVIEMBRE    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
       <c r="G46" s="35"/>
       <c r="H46" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  44        DEL    30     Al    05   NOVIEMBRE    2023</v>
+        <v>SEMANA  45        DEL    06     Al    12   NOVIEMBRE    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1488,23 +1488,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="64"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="70"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="64"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="70"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="66"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="72"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="66"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="72"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45233</v>
+        <v>45240</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I51" s="27">
         <f ca="1">I33</f>
-        <v>45233</v>
+        <v>45240</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1598,20 +1598,20 @@
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="62"/>
-      <c r="C58" s="62"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="49"/>
       <c r="E58" s="45"/>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="51"/>
       <c r="E59" s="52"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1620,8 +1620,8 @@
       <c r="C60" s="53"/>
       <c r="D60" s="54"/>
       <c r="E60" s="52"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1640,16 +1640,16 @@
     </row>
     <row r="64" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="J65" s="77"/>
+      <c r="K65" s="77"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="J66" s="77"/>
+      <c r="K66" s="77"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1662,11 +1662,13 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1675,13 +1677,11 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>RECIBO DE NOMINA</t>
   </si>
@@ -81,7 +81,10 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  45        DEL    06     Al    12   NOVIEMBRE    2023</t>
+    <t>SEMANA  46        DEL    13     Al    19   NOVIEMBRE    2023</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -534,6 +537,42 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -543,47 +582,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -902,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,10 +982,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="66"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -997,8 +1000,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1034,12 +1037,14 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  45        DEL    06     Al    12   NOVIEMBRE    2023</v>
+        <v>SEMANA  46        DEL    13     Al    19   NOVIEMBRE    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E10" s="15"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
@@ -1047,30 +1052,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="70"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="72"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="74"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1088,7 +1093,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1097,7 +1102,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1186,10 +1191,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="63" t="s">
+      <c r="H23" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="64"/>
+      <c r="I23" s="76"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1198,15 +1203,15 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29">
         <v>0</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1217,7 +1222,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>933</v>
+        <v>0</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1234,7 +1239,7 @@
       <c r="C26" s="25"/>
       <c r="E26" s="14">
         <f>SUM(E22:E25)</f>
-        <v>3733</v>
+        <v>2800</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
@@ -1254,13 +1259,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  45        DEL    06     Al    12   NOVIEMBRE    2023</v>
+        <v>SEMANA  46        DEL    13     Al    19   NOVIEMBRE    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  45        DEL    06     Al    12   NOVIEMBRE    2023</v>
+        <v>SEMANA  46        DEL    13     Al    19   NOVIEMBRE    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1273,21 +1278,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="70"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="64"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="72"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="66"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1314,7 +1319,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1323,7 +1328,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1385,10 +1390,10 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="64"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1397,10 +1402,10 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="63" t="s">
+      <c r="H41" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="64"/>
+      <c r="I41" s="76"/>
       <c r="J41" s="36">
         <v>4</v>
       </c>
@@ -1409,14 +1414,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
       <c r="J42" s="30"/>
       <c r="K42" s="29"/>
     </row>
@@ -1467,14 +1472,14 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  45        DEL    06     Al    12   NOVIEMBRE    2023</v>
+        <v>SEMANA  46        DEL    13     Al    19   NOVIEMBRE    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
       <c r="G46" s="35"/>
       <c r="H46" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  45        DEL    06     Al    12   NOVIEMBRE    2023</v>
+        <v>SEMANA  46        DEL    13     Al    19   NOVIEMBRE    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1488,23 +1493,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="70"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="64"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="70"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="64"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="72"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="66"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="72"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="66"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1532,7 +1537,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1542,7 +1547,7 @@
       </c>
       <c r="I51" s="27">
         <f ca="1">I33</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1598,20 +1603,20 @@
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="75"/>
-      <c r="C58" s="75"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="49"/>
       <c r="E58" s="45"/>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="76"/>
-      <c r="C59" s="76"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
       <c r="D59" s="51"/>
       <c r="E59" s="52"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1620,8 +1625,8 @@
       <c r="C60" s="53"/>
       <c r="D60" s="54"/>
       <c r="E60" s="52"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1640,16 +1645,16 @@
     </row>
     <row r="64" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="J65" s="77"/>
-      <c r="K65" s="77"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="77"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1662,13 +1667,11 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1677,11 +1680,13 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -81,10 +81,10 @@
     <t>GUADALUPE LILLO TECOX</t>
   </si>
   <si>
-    <t>SEMANA  46        DEL    13     Al    19   NOVIEMBRE    2023</t>
-  </si>
-  <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>SEMANA  47        DEL    20     Al    26   NOVIEMBRE    2023</t>
   </si>
 </sst>
 </file>
@@ -537,21 +537,48 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -560,33 +587,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -906,7 +906,7 @@
   <dimension ref="B1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,10 +982,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="71"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -1000,8 +1000,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="68"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1031,19 +1031,19 @@
     </row>
     <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="15"/>
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  46        DEL    13     Al    19   NOVIEMBRE    2023</v>
+        <v>SEMANA  47        DEL    20     Al    26   NOVIEMBRE    2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="15"/>
       <c r="G10" s="6"/>
@@ -1052,30 +1052,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="66"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="72"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="78"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45247</v>
+        <v>45255</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45247</v>
+        <v>45255</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1191,10 +1191,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="75" t="s">
+      <c r="H23" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="76"/>
+      <c r="I23" s="64"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1203,15 +1203,15 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29">
         <v>0</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1222,7 +1222,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1239,7 +1239,7 @@
       <c r="C26" s="25"/>
       <c r="E26" s="14">
         <f>SUM(E22:E25)</f>
-        <v>2800</v>
+        <v>3733</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
@@ -1259,13 +1259,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  46        DEL    13     Al    19   NOVIEMBRE    2023</v>
+        <v>SEMANA  47        DEL    20     Al    26   NOVIEMBRE    2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  46        DEL    13     Al    19   NOVIEMBRE    2023</v>
+        <v>SEMANA  47        DEL    20     Al    26   NOVIEMBRE    2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1278,21 +1278,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="64"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="70"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="72"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="66"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="72"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45247</v>
+        <v>45255</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45247</v>
+        <v>45255</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1390,22 +1390,22 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="76"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E41" s="14">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="75" t="s">
+      <c r="H41" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="76"/>
+      <c r="I41" s="64"/>
       <c r="J41" s="36">
         <v>4</v>
       </c>
@@ -1414,14 +1414,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
       <c r="J42" s="30"/>
       <c r="K42" s="29"/>
     </row>
@@ -1450,7 +1450,7 @@
       <c r="C44" s="25"/>
       <c r="E44" s="14">
         <f>SUM(E41:E43)</f>
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="F44" s="59"/>
       <c r="G44" s="35"/>
@@ -1472,14 +1472,14 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  46        DEL    13     Al    19   NOVIEMBRE    2023</v>
+        <v>SEMANA  47        DEL    20     Al    26   NOVIEMBRE    2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
       <c r="G46" s="35"/>
       <c r="H46" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  46        DEL    13     Al    19   NOVIEMBRE    2023</v>
+        <v>SEMANA  47        DEL    20     Al    26   NOVIEMBRE    2023</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -1493,23 +1493,23 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="64"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="70"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="64"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="70"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="66"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="72"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="66"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="72"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45247</v>
+        <v>45255</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I51" s="27">
         <f ca="1">I33</f>
-        <v>45247</v>
+        <v>45255</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -1603,20 +1603,20 @@
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="62"/>
-      <c r="C58" s="62"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="49"/>
       <c r="E58" s="45"/>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="51"/>
       <c r="E59" s="52"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1625,8 +1625,8 @@
       <c r="C60" s="53"/>
       <c r="D60" s="54"/>
       <c r="E60" s="52"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1645,16 +1645,16 @@
     </row>
     <row r="64" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="J65" s="77"/>
+      <c r="K65" s="77"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="J66" s="77"/>
+      <c r="K66" s="77"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1667,11 +1667,13 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1680,13 +1682,11 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -84,7 +84,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA  47        DEL    20     Al    26   NOVIEMBRE    2023</t>
+    <t>SEMANA  48       DEL    27     Al    03   DICIEMBRE     2023</t>
   </si>
 </sst>
 </file>
@@ -196,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -429,12 +429,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -537,6 +550,42 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -546,47 +595,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -905,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65:K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +995,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>840</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -982,10 +1005,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="66"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -1000,8 +1023,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1019,7 +1042,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>840</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1037,7 +1060,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  47        DEL    20     Al    26   NOVIEMBRE    2023</v>
+        <v>SEMANA  48       DEL    27     Al    03   DICIEMBRE     2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1052,30 +1075,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="70"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="72"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="74"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1093,7 +1116,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45255</v>
+        <v>45261</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1102,7 +1125,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45255</v>
+        <v>45261</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1191,10 +1214,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="63" t="s">
+      <c r="H23" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="64"/>
+      <c r="I23" s="76"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1203,15 +1226,15 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29">
         <v>0</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1222,7 +1245,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>933</v>
+        <v>0</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1239,7 +1262,7 @@
       <c r="C26" s="25"/>
       <c r="E26" s="14">
         <f>SUM(E22:E25)</f>
-        <v>3733</v>
+        <v>2800</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
@@ -1259,13 +1282,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  47        DEL    20     Al    26   NOVIEMBRE    2023</v>
+        <v>SEMANA  48       DEL    27     Al    03   DICIEMBRE     2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  47        DEL    20     Al    26   NOVIEMBRE    2023</v>
+        <v>SEMANA  48       DEL    27     Al    03   DICIEMBRE     2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1278,21 +1301,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="70"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="64"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="72"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="66"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1319,7 +1342,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45255</v>
+        <v>45261</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1328,7 +1351,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45255</v>
+        <v>45261</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1370,60 +1393,51 @@
       <c r="E39" s="4"/>
       <c r="F39" s="55"/>
       <c r="G39" s="35"/>
-      <c r="H39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H39" s="40"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="42"/>
+    </row>
+    <row r="40" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="D40" s="13"/>
       <c r="E40" s="21"/>
       <c r="F40" s="56"/>
       <c r="G40" s="35"/>
-      <c r="H40" s="7"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="21"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="43"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="64"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E41" s="14">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="64"/>
-      <c r="J41" s="36">
-        <v>4</v>
-      </c>
-      <c r="K41" s="14">
-        <v>2300</v>
-      </c>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="45"/>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="29"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="52"/>
     </row>
     <row r="43" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="24"/>
@@ -1436,80 +1450,79 @@
       </c>
       <c r="F43" s="58"/>
       <c r="G43" s="35"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="26">
-        <v>0</v>
-      </c>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="52"/>
     </row>
     <row r="44" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B44" s="24"/>
       <c r="C44" s="25"/>
       <c r="E44" s="14">
         <f>SUM(E41:E43)</f>
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="F44" s="59"/>
       <c r="G44" s="35"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="25"/>
-      <c r="K44" s="14">
-        <f>SUM(K41:K43)</f>
-        <v>2300</v>
-      </c>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="45"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="E45" s="15"/>
       <c r="F45" s="59"/>
       <c r="G45" s="35"/>
-      <c r="H45" s="7"/>
-      <c r="K45" s="15"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  47        DEL    20     Al    26   NOVIEMBRE    2023</v>
+        <v>SEMANA  48       DEL    27     Al    03   DICIEMBRE     2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
       <c r="G46" s="35"/>
-      <c r="H46" s="37" t="str">
-        <f>B46</f>
-        <v>SEMANA  47        DEL    20     Al    26   NOVIEMBRE    2023</v>
-      </c>
-      <c r="K46" s="15"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="E47" s="23"/>
       <c r="F47" s="59"/>
       <c r="G47" s="35"/>
-      <c r="H47" s="7"/>
-      <c r="K47" s="23"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="70"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="64"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
-      <c r="H48" s="7"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="70"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="72"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="66"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
-      <c r="H49" s="7"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="72"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1522,14 +1535,10 @@
       <c r="E50" s="15"/>
       <c r="F50" s="59"/>
       <c r="G50" s="35"/>
-      <c r="H50" s="7"/>
-      <c r="I50" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50" t="s">
-        <v>3</v>
-      </c>
-      <c r="K50" s="15"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
     </row>
     <row r="51" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="17" t="s">
@@ -1537,19 +1546,15 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45255</v>
+        <v>45261</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
       <c r="G51" s="35"/>
-      <c r="H51" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="27">
-        <f ca="1">I33</f>
-        <v>45255</v>
-      </c>
-      <c r="K51" s="15"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="18"/>
@@ -1558,10 +1563,10 @@
       <c r="E52" s="20"/>
       <c r="F52" s="59"/>
       <c r="G52" s="35"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="20"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
     </row>
     <row r="53" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="34"/>
@@ -1575,91 +1580,152 @@
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
     </row>
-    <row r="54" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="34"/>
       <c r="C54" s="38"/>
       <c r="D54" s="34"/>
       <c r="E54" s="34"/>
       <c r="F54" s="34"/>
       <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-    </row>
-    <row r="55" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+    </row>
+    <row r="55" spans="2:11" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
     <row r="56" spans="2:11" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B56" s="40"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="42"/>
+      <c r="B56" s="7"/>
+      <c r="C56"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="21"/>
       <c r="H56" s="40"/>
       <c r="J56" s="41"/>
       <c r="K56" s="42"/>
     </row>
-    <row r="57" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D57" s="41"/>
-      <c r="E57" s="43"/>
+    <row r="57" spans="2:11" s="35" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="76"/>
+      <c r="D57" s="80">
+        <v>5</v>
+      </c>
+      <c r="E57" s="14">
+        <v>1917</v>
+      </c>
       <c r="J57" s="41"/>
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="75"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="45"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="81"/>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
     </row>
-    <row r="59" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="76"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="52"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
+    <row r="59" spans="2:11" s="35" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="26">
+        <v>0</v>
+      </c>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
-    <row r="60" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="52"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
+    <row r="60" spans="2:11" s="35" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="14">
+        <f>SUM(E57:E59)</f>
+        <v>1917</v>
+      </c>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
-    <row r="61" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="E61" s="45"/>
+    <row r="61" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B61" s="7"/>
+      <c r="C61"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="15"/>
       <c r="K61" s="47"/>
     </row>
     <row r="62" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="37" t="str">
+        <f>B46</f>
+        <v>SEMANA  48       DEL    27     Al    03   DICIEMBRE     2023</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="15"/>
       <c r="K62" s="45"/>
     </row>
     <row r="63" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="48"/>
+      <c r="B63" s="7"/>
+      <c r="C63"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="23"/>
       <c r="H63" s="48"/>
     </row>
-    <row r="64" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="J65" s="77"/>
-      <c r="K65" s="77"/>
-    </row>
-    <row r="66" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="77"/>
-    </row>
-    <row r="67" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="49"/>
-      <c r="C68" s="50"/>
+    <row r="64" spans="2:11" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="7"/>
+      <c r="C64"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="78"/>
+    </row>
+    <row r="65" spans="2:11" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="7"/>
+      <c r="C65"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="82"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
+    </row>
+    <row r="66" spans="2:11" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="7"/>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
+    </row>
+    <row r="67" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="27">
+        <f ca="1">C51</f>
+        <v>45261</v>
+      </c>
+      <c r="D67" s="34"/>
+      <c r="E67" s="15"/>
+    </row>
+    <row r="68" spans="2:11" s="35" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="20"/>
       <c r="H68" s="49"/>
       <c r="I68" s="50"/>
     </row>
@@ -1667,13 +1733,11 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1682,11 +1746,13 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D64:E65"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -84,7 +84,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA  48       DEL    27     Al    03   DICIEMBRE     2023</t>
+    <t>SEMANA  49       DEL    04     Al    10   DICIEMBRE     2023</t>
   </si>
 </sst>
 </file>
@@ -550,9 +550,40 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,8 +596,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -574,40 +608,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65:K66"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +995,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>1540</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>1540</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  48       DEL    27     Al    03   DICIEMBRE     2023</v>
+        <v>SEMANA  49       DEL    04     Al    10   DICIEMBRE     2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1075,30 +1075,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="75"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="66"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="77"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="78"/>
+      <c r="E13" s="79"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45261</v>
+        <v>45268</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45261</v>
+        <v>45268</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1214,10 +1214,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="75" t="s">
+      <c r="H23" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="76"/>
+      <c r="I23" s="69"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1226,15 +1226,15 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29">
         <v>0</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1245,7 +1245,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1262,7 +1262,7 @@
       <c r="C26" s="25"/>
       <c r="E26" s="14">
         <f>SUM(E22:E25)</f>
-        <v>2800</v>
+        <v>3733</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
@@ -1282,13 +1282,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  48       DEL    27     Al    03   DICIEMBRE     2023</v>
+        <v>SEMANA  49       DEL    04     Al    10   DICIEMBRE     2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  48       DEL    27     Al    03   DICIEMBRE     2023</v>
+        <v>SEMANA  49       DEL    04     Al    10   DICIEMBRE     2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1301,21 +1301,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="64"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="77"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="66"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="77"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45261</v>
+        <v>45268</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45261</v>
+        <v>45268</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1410,10 +1410,10 @@
       <c r="K40" s="43"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="76"/>
+      <c r="C41" s="69"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1422,20 +1422,20 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="44"/>
       <c r="K41" s="45"/>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
       <c r="J42" s="51"/>
       <c r="K42" s="52"/>
     </row>
@@ -1482,7 +1482,7 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  48       DEL    27     Al    03   DICIEMBRE     2023</v>
+        <v>SEMANA  49       DEL    04     Al    10   DICIEMBRE     2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
@@ -1504,25 +1504,25 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="64"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="75"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="66"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="77"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45261</v>
+        <v>45268</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1605,31 +1605,31 @@
     <row r="56" spans="2:11" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B56" s="7"/>
       <c r="C56"/>
-      <c r="D56" s="79"/>
+      <c r="D56" s="62"/>
       <c r="E56" s="21"/>
       <c r="H56" s="40"/>
       <c r="J56" s="41"/>
       <c r="K56" s="42"/>
     </row>
     <row r="57" spans="2:11" s="35" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="75" t="s">
+      <c r="B57" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="76"/>
-      <c r="D57" s="80">
+      <c r="C57" s="69"/>
+      <c r="D57" s="63">
         <v>5</v>
       </c>
       <c r="E57" s="14">
-        <v>1917</v>
+        <v>2300</v>
       </c>
       <c r="J57" s="41"/>
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="74"/>
-      <c r="C58" s="74"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
       <c r="D58" s="30"/>
-      <c r="E58" s="81"/>
+      <c r="E58" s="64"/>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
     </row>
@@ -1642,8 +1642,8 @@
       <c r="E59" s="26">
         <v>0</v>
       </c>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1653,10 +1653,10 @@
       <c r="D60" s="34"/>
       <c r="E60" s="14">
         <f>SUM(E57:E59)</f>
-        <v>1917</v>
-      </c>
-      <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
+        <v>2300</v>
+      </c>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1670,7 +1670,7 @@
     <row r="62" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  48       DEL    27     Al    03   DICIEMBRE     2023</v>
+        <v>SEMANA  49       DEL    04     Al    10   DICIEMBRE     2023</v>
       </c>
       <c r="C62"/>
       <c r="D62" s="34"/>
@@ -1687,16 +1687,16 @@
     <row r="64" spans="2:11" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="78"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="79"/>
     </row>
     <row r="65" spans="2:11" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65"/>
-      <c r="D65" s="65"/>
+      <c r="D65" s="76"/>
       <c r="E65" s="82"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
@@ -1707,8 +1707,8 @@
         <v>3</v>
       </c>
       <c r="E66" s="15"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="17" t="s">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C67" s="27">
         <f ca="1">C51</f>
-        <v>45261</v>
+        <v>45268</v>
       </c>
       <c r="D67" s="34"/>
       <c r="E67" s="15"/>
@@ -1733,11 +1733,13 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D64:E65"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1746,13 +1748,11 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D64:E65"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -84,7 +84,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA  49       DEL    04     Al    10   DICIEMBRE     2023</t>
+    <t>SEMANA  50       DEL    11     Al    17   DICIEMBRE     2023</t>
   </si>
 </sst>
 </file>
@@ -560,56 +560,56 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +995,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>2100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1005,10 +1005,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="71"/>
+      <c r="I5" s="77"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -1023,8 +1023,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1042,7 +1042,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>2100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  49       DEL    04     Al    10   DICIEMBRE     2023</v>
+        <v>SEMANA  50       DEL    11     Al    17   DICIEMBRE     2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1075,30 +1075,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="75"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="77"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="79"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45268</v>
+        <v>45275</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45268</v>
+        <v>45275</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1214,15 +1214,15 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="68" t="s">
+      <c r="H23" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="69"/>
+      <c r="I23" s="73"/>
       <c r="J23" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K23" s="14">
-        <v>2600</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1245,7 +1245,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>933</v>
+        <v>0</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1254,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="K25" s="26">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1262,14 +1262,14 @@
       <c r="C26" s="25"/>
       <c r="E26" s="14">
         <f>SUM(E22:E25)</f>
-        <v>3733</v>
+        <v>2800</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
       <c r="K26" s="14">
         <f>SUM(K23:K25)</f>
-        <v>2600</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1282,13 +1282,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  49       DEL    04     Al    10   DICIEMBRE     2023</v>
+        <v>SEMANA  50       DEL    11     Al    17   DICIEMBRE     2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  49       DEL    04     Al    10   DICIEMBRE     2023</v>
+        <v>SEMANA  50       DEL    11     Al    17   DICIEMBRE     2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1301,21 +1301,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="75"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="77"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="77"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="69"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45268</v>
+        <v>45275</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45268</v>
+        <v>45275</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1410,10 +1410,10 @@
       <c r="K40" s="43"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="69"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1422,8 +1422,8 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
       <c r="J41" s="44"/>
       <c r="K41" s="45"/>
     </row>
@@ -1434,8 +1434,8 @@
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
       <c r="J42" s="51"/>
       <c r="K42" s="52"/>
     </row>
@@ -1482,7 +1482,7 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  49       DEL    04     Al    10   DICIEMBRE     2023</v>
+        <v>SEMANA  50       DEL    11     Al    17   DICIEMBRE     2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
@@ -1504,25 +1504,25 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="75"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="77"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="69"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45268</v>
+        <v>45275</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1612,10 +1612,10 @@
       <c r="K56" s="42"/>
     </row>
     <row r="57" spans="2:11" s="35" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="69"/>
+      <c r="C57" s="73"/>
       <c r="D57" s="63">
         <v>5</v>
       </c>
@@ -1642,8 +1642,8 @@
       <c r="E59" s="26">
         <v>0</v>
       </c>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1655,8 +1655,8 @@
         <f>SUM(E57:E59)</f>
         <v>2300</v>
       </c>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1670,7 +1670,7 @@
     <row r="62" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  49       DEL    04     Al    10   DICIEMBRE     2023</v>
+        <v>SEMANA  50       DEL    11     Al    17   DICIEMBRE     2023</v>
       </c>
       <c r="C62"/>
       <c r="D62" s="34"/>
@@ -1687,16 +1687,16 @@
     <row r="64" spans="2:11" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="79"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="74"/>
     </row>
     <row r="65" spans="2:11" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="82"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="75"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
@@ -1707,8 +1707,8 @@
         <v>3</v>
       </c>
       <c r="E66" s="15"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
+      <c r="J66" s="70"/>
+      <c r="K66" s="70"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="17" t="s">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C67" s="27">
         <f ca="1">C51</f>
-        <v>45268</v>
+        <v>45275</v>
       </c>
       <c r="D67" s="34"/>
       <c r="E67" s="15"/>
@@ -1733,13 +1733,11 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D64:E65"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1748,11 +1746,13 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D64:E65"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -84,7 +84,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA  50       DEL    11     Al    17   DICIEMBRE     2023</t>
+    <t>SEMANA  51       DEL    18     Al    24   DICIEMBRE     2023</t>
   </si>
 </sst>
 </file>
@@ -560,6 +560,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,6 +594,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,38 +608,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +995,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>0</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1005,10 +1005,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="77"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>0</v>
@@ -1023,8 +1023,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1042,7 +1042,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>0</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  50       DEL    11     Al    17   DICIEMBRE     2023</v>
+        <v>SEMANA  51       DEL    18     Al    24   DICIEMBRE     2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1075,30 +1075,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="75"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="77"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="74"/>
+      <c r="E13" s="79"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45275</v>
+        <v>45282</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45275</v>
+        <v>45282</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1214,10 +1214,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="72" t="s">
+      <c r="H23" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="73"/>
+      <c r="I23" s="69"/>
       <c r="J23" s="8">
         <v>5</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1254,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="K25" s="26">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1262,14 +1262,14 @@
       <c r="C26" s="25"/>
       <c r="E26" s="14">
         <f>SUM(E22:E25)</f>
-        <v>2800</v>
+        <v>3733</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
       <c r="K26" s="14">
         <f>SUM(K23:K25)</f>
-        <v>2667</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1282,13 +1282,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  50       DEL    11     Al    17   DICIEMBRE     2023</v>
+        <v>SEMANA  51       DEL    18     Al    24   DICIEMBRE     2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  50       DEL    11     Al    17   DICIEMBRE     2023</v>
+        <v>SEMANA  51       DEL    18     Al    24   DICIEMBRE     2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1301,21 +1301,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="77"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="77"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45275</v>
+        <v>45282</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45275</v>
+        <v>45282</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1410,10 +1410,10 @@
       <c r="K40" s="43"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="73"/>
+      <c r="C41" s="69"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1422,8 +1422,8 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="44"/>
       <c r="K41" s="45"/>
     </row>
@@ -1434,8 +1434,8 @@
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
       <c r="J42" s="51"/>
       <c r="K42" s="52"/>
     </row>
@@ -1482,7 +1482,7 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  50       DEL    11     Al    17   DICIEMBRE     2023</v>
+        <v>SEMANA  51       DEL    18     Al    24   DICIEMBRE     2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
@@ -1504,25 +1504,25 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="75"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="69"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="77"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45275</v>
+        <v>45282</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1612,10 +1612,10 @@
       <c r="K56" s="42"/>
     </row>
     <row r="57" spans="2:11" s="35" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="73"/>
+      <c r="C57" s="69"/>
       <c r="D57" s="63">
         <v>5</v>
       </c>
@@ -1642,8 +1642,8 @@
       <c r="E59" s="26">
         <v>0</v>
       </c>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1655,8 +1655,8 @@
         <f>SUM(E57:E59)</f>
         <v>2300</v>
       </c>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1670,7 +1670,7 @@
     <row r="62" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  50       DEL    11     Al    17   DICIEMBRE     2023</v>
+        <v>SEMANA  51       DEL    18     Al    24   DICIEMBRE     2023</v>
       </c>
       <c r="C62"/>
       <c r="D62" s="34"/>
@@ -1687,16 +1687,16 @@
     <row r="64" spans="2:11" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="79"/>
     </row>
     <row r="65" spans="2:11" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="75"/>
-      <c r="J65" s="70"/>
-      <c r="K65" s="70"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="82"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
@@ -1707,8 +1707,8 @@
         <v>3</v>
       </c>
       <c r="E66" s="15"/>
-      <c r="J66" s="70"/>
-      <c r="K66" s="70"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="17" t="s">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C67" s="27">
         <f ca="1">C51</f>
-        <v>45275</v>
+        <v>45282</v>
       </c>
       <c r="D67" s="34"/>
       <c r="E67" s="15"/>
@@ -1733,11 +1733,13 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D64:E65"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1746,13 +1748,11 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D64:E65"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -84,7 +84,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA  51       DEL    18     Al    24   DICIEMBRE     2023</t>
+    <t>SEMANA  52       DEL    25     Al    31   DICIEMBRE     2023</t>
   </si>
 </sst>
 </file>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1060,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  51       DEL    18     Al    24   DICIEMBRE     2023</v>
+        <v>SEMANA  52       DEL    25     Al    31   DICIEMBRE     2023</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45282</v>
+        <v>45289</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45282</v>
+        <v>45289</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1219,10 +1219,10 @@
       </c>
       <c r="I23" s="69"/>
       <c r="J23" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K23" s="14">
-        <v>2167</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1245,7 +1245,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>933</v>
+        <v>0</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1254,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="K25" s="26">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1262,14 +1262,14 @@
       <c r="C26" s="25"/>
       <c r="E26" s="14">
         <f>SUM(E22:E25)</f>
-        <v>3733</v>
+        <v>2800</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
       <c r="K26" s="14">
         <f>SUM(K23:K25)</f>
-        <v>2567</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1282,13 +1282,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  51       DEL    18     Al    24   DICIEMBRE     2023</v>
+        <v>SEMANA  52       DEL    25     Al    31   DICIEMBRE     2023</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  51       DEL    18     Al    24   DICIEMBRE     2023</v>
+        <v>SEMANA  52       DEL    25     Al    31   DICIEMBRE     2023</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45282</v>
+        <v>45289</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45282</v>
+        <v>45289</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1482,7 +1482,7 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  51       DEL    18     Al    24   DICIEMBRE     2023</v>
+        <v>SEMANA  52       DEL    25     Al    31   DICIEMBRE     2023</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45282</v>
+        <v>45289</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1670,7 +1670,7 @@
     <row r="62" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  51       DEL    18     Al    24   DICIEMBRE     2023</v>
+        <v>SEMANA  52       DEL    25     Al    31   DICIEMBRE     2023</v>
       </c>
       <c r="C62"/>
       <c r="D62" s="34"/>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C67" s="27">
         <f ca="1">C51</f>
-        <v>45282</v>
+        <v>45289</v>
       </c>
       <c r="D67" s="34"/>
       <c r="E67" s="15"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>RECIBO DE NOMINA</t>
   </si>
@@ -84,7 +84,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA  52       DEL    25     Al    31   DICIEMBRE     2023</t>
+    <t>SEMANA  01       DEL    01     Al    07   ENERO     2024</t>
   </si>
 </sst>
 </file>
@@ -560,56 +560,56 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +995,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>1120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1005,13 +1005,13 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="71"/>
+      <c r="I5" s="77"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="14">
-        <v>0</v>
+      <c r="K5" s="14" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1023,8 +1023,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1042,7 +1042,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>1120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  52       DEL    25     Al    31   DICIEMBRE     2023</v>
+        <v>SEMANA  01       DEL    01     Al    07   ENERO     2024</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1075,30 +1075,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="75"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="77"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="79"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45289</v>
+        <v>45300</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45289</v>
+        <v>45300</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1214,10 +1214,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="68" t="s">
+      <c r="H23" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="69"/>
+      <c r="I23" s="73"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1282,13 +1282,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  52       DEL    25     Al    31   DICIEMBRE     2023</v>
+        <v>SEMANA  01       DEL    01     Al    07   ENERO     2024</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  52       DEL    25     Al    31   DICIEMBRE     2023</v>
+        <v>SEMANA  01       DEL    01     Al    07   ENERO     2024</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1301,21 +1301,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="75"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="77"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="77"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="69"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45289</v>
+        <v>45300</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45289</v>
+        <v>45300</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1410,10 +1410,10 @@
       <c r="K40" s="43"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="69"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1422,8 +1422,8 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
       <c r="J41" s="44"/>
       <c r="K41" s="45"/>
     </row>
@@ -1434,8 +1434,8 @@
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
       <c r="J42" s="51"/>
       <c r="K42" s="52"/>
     </row>
@@ -1482,7 +1482,7 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  52       DEL    25     Al    31   DICIEMBRE     2023</v>
+        <v>SEMANA  01       DEL    01     Al    07   ENERO     2024</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
@@ -1504,25 +1504,25 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="75"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="77"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="69"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45289</v>
+        <v>45300</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1612,10 +1612,10 @@
       <c r="K56" s="42"/>
     </row>
     <row r="57" spans="2:11" s="35" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="69"/>
+      <c r="C57" s="73"/>
       <c r="D57" s="63">
         <v>5</v>
       </c>
@@ -1642,8 +1642,8 @@
       <c r="E59" s="26">
         <v>0</v>
       </c>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1655,8 +1655,8 @@
         <f>SUM(E57:E59)</f>
         <v>2300</v>
       </c>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1670,7 +1670,7 @@
     <row r="62" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  52       DEL    25     Al    31   DICIEMBRE     2023</v>
+        <v>SEMANA  01       DEL    01     Al    07   ENERO     2024</v>
       </c>
       <c r="C62"/>
       <c r="D62" s="34"/>
@@ -1687,16 +1687,16 @@
     <row r="64" spans="2:11" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="79"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="74"/>
     </row>
     <row r="65" spans="2:11" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="82"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="75"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
@@ -1707,8 +1707,8 @@
         <v>3</v>
       </c>
       <c r="E66" s="15"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
+      <c r="J66" s="70"/>
+      <c r="K66" s="70"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="17" t="s">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C67" s="27">
         <f ca="1">C51</f>
-        <v>45289</v>
+        <v>45300</v>
       </c>
       <c r="D67" s="34"/>
       <c r="E67" s="15"/>
@@ -1733,13 +1733,11 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D64:E65"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1748,11 +1746,13 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D64:E65"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -560,6 +560,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,6 +594,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,38 +608,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1005,10 +1005,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="77"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14" t="s">
         <v>5</v>
@@ -1023,8 +1023,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1075,30 +1075,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="75"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="77"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="74"/>
+      <c r="E13" s="79"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45300</v>
+        <v>45303</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45300</v>
+        <v>45303</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1214,10 +1214,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="72" t="s">
+      <c r="H23" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="73"/>
+      <c r="I23" s="69"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1301,21 +1301,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="77"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="77"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45300</v>
+        <v>45303</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45300</v>
+        <v>45303</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1410,10 +1410,10 @@
       <c r="K40" s="43"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="73"/>
+      <c r="C41" s="69"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1422,8 +1422,8 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="44"/>
       <c r="K41" s="45"/>
     </row>
@@ -1434,8 +1434,8 @@
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
       <c r="J42" s="51"/>
       <c r="K42" s="52"/>
     </row>
@@ -1504,25 +1504,25 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="75"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="69"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="77"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45300</v>
+        <v>45303</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1612,10 +1612,10 @@
       <c r="K56" s="42"/>
     </row>
     <row r="57" spans="2:11" s="35" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="73"/>
+      <c r="C57" s="69"/>
       <c r="D57" s="63">
         <v>5</v>
       </c>
@@ -1642,8 +1642,8 @@
       <c r="E59" s="26">
         <v>0</v>
       </c>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1655,8 +1655,8 @@
         <f>SUM(E57:E59)</f>
         <v>2300</v>
       </c>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1687,16 +1687,16 @@
     <row r="64" spans="2:11" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="79"/>
     </row>
     <row r="65" spans="2:11" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="75"/>
-      <c r="J65" s="70"/>
-      <c r="K65" s="70"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="82"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
@@ -1707,8 +1707,8 @@
         <v>3</v>
       </c>
       <c r="E66" s="15"/>
-      <c r="J66" s="70"/>
-      <c r="K66" s="70"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="17" t="s">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C67" s="27">
         <f ca="1">C51</f>
-        <v>45300</v>
+        <v>45303</v>
       </c>
       <c r="D67" s="34"/>
       <c r="E67" s="15"/>
@@ -1733,11 +1733,13 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D64:E65"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1746,13 +1748,11 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D64:E65"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -560,56 +560,56 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H41" sqref="H40:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +995,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1005,10 +1005,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="71"/>
+      <c r="I5" s="77"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14" t="s">
         <v>5</v>
@@ -1023,8 +1023,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1042,7 +1042,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1075,30 +1075,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="75"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="77"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="79"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45303</v>
+        <v>45304</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45303</v>
+        <v>45304</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1214,10 +1214,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="68" t="s">
+      <c r="H23" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="69"/>
+      <c r="I23" s="73"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1301,21 +1301,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="75"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="77"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="77"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="69"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45303</v>
+        <v>45304</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45303</v>
+        <v>45304</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1410,10 +1410,10 @@
       <c r="K40" s="43"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="69"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1422,8 +1422,8 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
       <c r="J41" s="44"/>
       <c r="K41" s="45"/>
     </row>
@@ -1434,8 +1434,8 @@
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
       <c r="J42" s="51"/>
       <c r="K42" s="52"/>
     </row>
@@ -1504,25 +1504,25 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="75"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="77"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="69"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45303</v>
+        <v>45304</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1612,10 +1612,10 @@
       <c r="K56" s="42"/>
     </row>
     <row r="57" spans="2:11" s="35" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="69"/>
+      <c r="C57" s="73"/>
       <c r="D57" s="63">
         <v>5</v>
       </c>
@@ -1642,8 +1642,8 @@
       <c r="E59" s="26">
         <v>0</v>
       </c>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1655,8 +1655,8 @@
         <f>SUM(E57:E59)</f>
         <v>2300</v>
       </c>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1687,16 +1687,16 @@
     <row r="64" spans="2:11" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="79"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="74"/>
     </row>
     <row r="65" spans="2:11" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="82"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="75"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
@@ -1707,8 +1707,8 @@
         <v>3</v>
       </c>
       <c r="E66" s="15"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
+      <c r="J66" s="70"/>
+      <c r="K66" s="70"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="17" t="s">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C67" s="27">
         <f ca="1">C51</f>
-        <v>45303</v>
+        <v>45304</v>
       </c>
       <c r="D67" s="34"/>
       <c r="E67" s="15"/>
@@ -1733,13 +1733,11 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D64:E65"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1748,11 +1746,13 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D64:E65"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -84,7 +84,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>SEMANA  01       DEL    01     Al    07   ENERO     2024</t>
+    <t>SEMANA  03       DEL    15     Al    21   ENERO     2024</t>
   </si>
 </sst>
 </file>
@@ -560,6 +560,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,6 +594,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,38 +608,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H41" sqref="H40:I41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +995,7 @@
       <c r="H4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="14">
-        <v>560</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1005,10 +1005,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="77"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14" t="s">
         <v>5</v>
@@ -1023,8 +1023,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1042,7 +1042,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="39">
         <f>SUM(K4:K6)</f>
-        <v>560</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  01       DEL    01     Al    07   ENERO     2024</v>
+        <v>SEMANA  03       DEL    15     Al    21   ENERO     2024</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1075,30 +1075,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="75"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="77"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="74"/>
+      <c r="E13" s="79"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45304</v>
+        <v>45310</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45304</v>
+        <v>45310</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1214,10 +1214,10 @@
         <v>2800</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="72" t="s">
+      <c r="H23" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="73"/>
+      <c r="I23" s="69"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1262,7 +1262,7 @@
       <c r="C26" s="25"/>
       <c r="E26" s="14">
         <f>SUM(E22:E25)</f>
-        <v>2800</v>
+        <v>3733</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
@@ -1282,13 +1282,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="str">
         <f>B9</f>
-        <v>SEMANA  01       DEL    01     Al    07   ENERO     2024</v>
+        <v>SEMANA  03       DEL    15     Al    21   ENERO     2024</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="37" t="str">
         <f>B28</f>
-        <v>SEMANA  01       DEL    01     Al    07   ENERO     2024</v>
+        <v>SEMANA  03       DEL    15     Al    21   ENERO     2024</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1301,21 +1301,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="77"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="77"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45304</v>
+        <v>45310</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45304</v>
+        <v>45310</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1410,10 +1410,10 @@
       <c r="K40" s="43"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="73"/>
+      <c r="C41" s="69"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
@@ -1422,8 +1422,8 @@
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="44"/>
       <c r="K41" s="45"/>
     </row>
@@ -1434,8 +1434,8 @@
       <c r="E42" s="29"/>
       <c r="F42" s="58"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
       <c r="J42" s="51"/>
       <c r="K42" s="52"/>
     </row>
@@ -1482,7 +1482,7 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="str">
         <f>H28</f>
-        <v>SEMANA  01       DEL    01     Al    07   ENERO     2024</v>
+        <v>SEMANA  03       DEL    15     Al    21   ENERO     2024</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="59"/>
@@ -1504,25 +1504,25 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="75"/>
       <c r="F48" s="60"/>
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="69"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="77"/>
       <c r="F49" s="60"/>
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45304</v>
+        <v>45310</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="59"/>
@@ -1612,10 +1612,10 @@
       <c r="K56" s="42"/>
     </row>
     <row r="57" spans="2:11" s="35" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="73"/>
+      <c r="C57" s="69"/>
       <c r="D57" s="63">
         <v>5</v>
       </c>
@@ -1642,8 +1642,8 @@
       <c r="E59" s="26">
         <v>0</v>
       </c>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
       <c r="J59" s="41"/>
       <c r="K59" s="45"/>
     </row>
@@ -1655,8 +1655,8 @@
         <f>SUM(E57:E59)</f>
         <v>2300</v>
       </c>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
       <c r="J60" s="41"/>
       <c r="K60" s="46"/>
     </row>
@@ -1670,7 +1670,7 @@
     <row r="62" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="37" t="str">
         <f>B46</f>
-        <v>SEMANA  01       DEL    01     Al    07   ENERO     2024</v>
+        <v>SEMANA  03       DEL    15     Al    21   ENERO     2024</v>
       </c>
       <c r="C62"/>
       <c r="D62" s="34"/>
@@ -1687,16 +1687,16 @@
     <row r="64" spans="2:11" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="79"/>
     </row>
     <row r="65" spans="2:11" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="75"/>
-      <c r="J65" s="70"/>
-      <c r="K65" s="70"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="82"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
     </row>
     <row r="66" spans="2:11" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
@@ -1707,8 +1707,8 @@
         <v>3</v>
       </c>
       <c r="E66" s="15"/>
-      <c r="J66" s="70"/>
-      <c r="K66" s="70"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80"/>
     </row>
     <row r="67" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="17" t="s">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C67" s="27">
         <f ca="1">C51</f>
-        <v>45304</v>
+        <v>45310</v>
       </c>
       <c r="D67" s="34"/>
       <c r="E67" s="15"/>
@@ -1733,11 +1733,13 @@
     <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D64:E65"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
@@ -1746,13 +1748,11 @@
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="H59:I60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D64:E65"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>RECIBO DE NOMINA</t>
   </si>
@@ -63,9 +63,6 @@
     <t>EXTRAS</t>
   </si>
   <si>
-    <t xml:space="preserve">TEODORA ARELLANO PEREZ </t>
-  </si>
-  <si>
     <t># 2</t>
   </si>
   <si>
@@ -78,13 +75,13 @@
     <t>JORGE MUNGUIA SALAZAR</t>
   </si>
   <si>
-    <t>GUADALUPE LILLO TECOX</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>SEMANA  03       DEL    15     Al    21   ENERO     2024</t>
+    <t>MARISOL VALENCIA MARTINEZ</t>
+  </si>
+  <si>
+    <t>NORMA ALICIA GARCIA ANDRES</t>
+  </si>
+  <si>
+    <t>SEMANA  18       DEL    29     Al    05   MAYO     2024</t>
   </si>
 </sst>
 </file>
@@ -95,7 +92,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$$-80A]#,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +178,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -196,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -396,21 +402,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -447,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -499,9 +490,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -539,12 +527,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -556,60 +544,72 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +984,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="31"/>
-      <c r="D4" s="36">
+      <c r="D4" s="35">
         <v>6</v>
       </c>
       <c r="E4" s="21">
@@ -993,10 +993,8 @@
       <c r="F4" s="9"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="14">
-        <v>2100</v>
-      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="30"/>
@@ -1005,13 +1003,13 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="71"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="14" t="s">
-        <v>5</v>
+      <c r="K5" s="14">
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1023,8 +1021,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="68"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1040,9 +1038,9 @@
       <c r="F7" s="12"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
-      <c r="K7" s="39">
+      <c r="K7" s="38">
         <f>SUM(K4:K6)</f>
-        <v>2100</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1053,21 +1051,19 @@
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="37" t="s">
-        <v>19</v>
+      <c r="B9" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="E9" s="15"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="37" t="str">
+      <c r="H9" s="36" t="str">
         <f>B9</f>
-        <v>SEMANA  03       DEL    15     Al    21   ENERO     2024</v>
+        <v>SEMANA  18       DEL    29     Al    05   MAYO     2024</v>
       </c>
       <c r="K9" s="15"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="B10" s="7"/>
       <c r="E10" s="15"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
@@ -1075,30 +1071,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="75"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="72"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="77"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="74"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="79"/>
+      <c r="E13" s="76"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1116,16 +1112,16 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45310</v>
+        <v>45415</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
       <c r="H14" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45310</v>
+        <v>45415</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1156,16 +1152,16 @@
       <c r="K17" s="19"/>
     </row>
     <row r="18" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G19" s="6"/>
@@ -1203,21 +1199,22 @@
       <c r="J22" s="13"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="33" t="s">
-        <v>12</v>
-      </c>
+    <row r="23" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="78"/>
       <c r="D23" s="8">
         <v>6</v>
       </c>
       <c r="E23" s="14">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="69"/>
+      <c r="H23" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="70"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1226,15 +1223,15 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29">
         <v>0</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1245,7 +1242,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="26">
-        <v>933</v>
+        <v>0</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
@@ -1262,7 +1259,7 @@
       <c r="C26" s="25"/>
       <c r="E26" s="14">
         <f>SUM(E22:E25)</f>
-        <v>3733</v>
+        <v>2600</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
@@ -1280,15 +1277,15 @@
       <c r="K27" s="15"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="str">
+      <c r="B28" s="36" t="str">
         <f>B9</f>
-        <v>SEMANA  03       DEL    15     Al    21   ENERO     2024</v>
+        <v>SEMANA  18       DEL    29     Al    05   MAYO     2024</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="37" t="str">
+      <c r="H28" s="36" t="str">
         <f>B28</f>
-        <v>SEMANA  03       DEL    15     Al    21   ENERO     2024</v>
+        <v>SEMANA  18       DEL    29     Al    05   MAYO     2024</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1301,21 +1298,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="72"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="75"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="72"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="77"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="74"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="77"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="74"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1342,7 +1339,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45310</v>
+        <v>45415</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1351,7 +1348,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45310</v>
+        <v>45415</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1370,17 +1367,17 @@
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G36" s="34"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G37" s="34"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
     </row>
     <row r="39" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
@@ -1391,53 +1388,53 @@
         <v>2</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="42"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="41"/>
     </row>
     <row r="40" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="D40" s="13"/>
       <c r="E40" s="21"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="43"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="42"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="69"/>
+      <c r="B41" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="70"/>
       <c r="D41" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" s="14">
-        <v>1200</v>
-      </c>
-      <c r="F41" s="57"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="45"/>
+        <v>800</v>
+      </c>
+      <c r="F41" s="56"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="44"/>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="52"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="51"/>
     </row>
     <row r="43" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="24"/>
@@ -1448,81 +1445,81 @@
       <c r="E43" s="26">
         <v>0</v>
       </c>
-      <c r="F43" s="58"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="52"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="51"/>
     </row>
     <row r="44" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B44" s="24"/>
       <c r="C44" s="25"/>
       <c r="E44" s="14">
         <f>SUM(E41:E43)</f>
-        <v>1200</v>
-      </c>
-      <c r="F44" s="59"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="45"/>
+        <v>800</v>
+      </c>
+      <c r="F44" s="58"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="44"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="E45" s="15"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="37" t="str">
+      <c r="B46" s="36" t="str">
         <f>H28</f>
-        <v>SEMANA  03       DEL    15     Al    21   ENERO     2024</v>
+        <v>SEMANA  18       DEL    29     Al    05   MAYO     2024</v>
       </c>
       <c r="E46" s="15"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="E47" s="23"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="79"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="79"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1533,12 +1530,12 @@
         <v>3</v>
       </c>
       <c r="E50" s="15"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
     </row>
     <row r="51" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="17" t="s">
@@ -1546,53 +1543,53 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45310</v>
+        <v>45415</v>
       </c>
       <c r="E51" s="15"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="20"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
     </row>
     <row r="53" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="34"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
     </row>
     <row r="54" spans="2:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="34"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="61"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-    </row>
-    <row r="55" spans="2:11" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B54" s="33"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+    </row>
+    <row r="55" spans="2:11" s="34" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
@@ -1602,38 +1599,38 @@
       </c>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="2:11" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:11" s="34" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B56" s="7"/>
       <c r="C56"/>
-      <c r="D56" s="62"/>
+      <c r="D56" s="61"/>
       <c r="E56" s="21"/>
-      <c r="H56" s="40"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="42"/>
-    </row>
-    <row r="57" spans="2:11" s="35" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="68" t="s">
+      <c r="H56" s="39"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="41"/>
+    </row>
+    <row r="57" spans="2:11" s="34" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="69"/>
-      <c r="D57" s="63">
-        <v>5</v>
+      <c r="C57" s="82"/>
+      <c r="D57" s="62">
+        <v>6</v>
       </c>
       <c r="E57" s="14">
         <v>2300</v>
       </c>
-      <c r="J57" s="41"/>
-      <c r="K57" s="43"/>
-    </row>
-    <row r="58" spans="2:11" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="42"/>
+    </row>
+    <row r="58" spans="2:11" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
       <c r="D58" s="30"/>
-      <c r="E58" s="64"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="45"/>
-    </row>
-    <row r="59" spans="2:11" s="35" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E58" s="63"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="44"/>
+    </row>
+    <row r="59" spans="2:11" s="34" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="24"/>
       <c r="C59" s="25"/>
       <c r="D59" s="28" t="s">
@@ -1642,97 +1639,98 @@
       <c r="E59" s="26">
         <v>0</v>
       </c>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="45"/>
-    </row>
-    <row r="60" spans="2:11" s="35" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H59" s="80"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="44"/>
+    </row>
+    <row r="60" spans="2:11" s="34" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B60" s="24"/>
       <c r="C60" s="25"/>
-      <c r="D60" s="34"/>
+      <c r="D60" s="33"/>
       <c r="E60" s="14">
         <f>SUM(E57:E59)</f>
         <v>2300</v>
       </c>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="46"/>
-    </row>
-    <row r="61" spans="2:11" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H60" s="80"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="45"/>
+    </row>
+    <row r="61" spans="2:11" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61"/>
-      <c r="D61" s="34"/>
+      <c r="D61" s="33"/>
       <c r="E61" s="15"/>
-      <c r="K61" s="47"/>
-    </row>
-    <row r="62" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="37" t="str">
+      <c r="K61" s="46"/>
+    </row>
+    <row r="62" spans="2:11" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="36" t="str">
         <f>B46</f>
-        <v>SEMANA  03       DEL    15     Al    21   ENERO     2024</v>
+        <v>SEMANA  18       DEL    29     Al    05   MAYO     2024</v>
       </c>
       <c r="C62"/>
-      <c r="D62" s="34"/>
+      <c r="D62" s="33"/>
       <c r="E62" s="15"/>
-      <c r="K62" s="45"/>
-    </row>
-    <row r="63" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K62" s="44"/>
+    </row>
+    <row r="63" spans="2:11" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
       <c r="C63"/>
-      <c r="D63" s="34"/>
+      <c r="D63" s="33"/>
       <c r="E63" s="23"/>
-      <c r="H63" s="48"/>
-    </row>
-    <row r="64" spans="2:11" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H63" s="47"/>
+    </row>
+    <row r="64" spans="2:11" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="79"/>
-    </row>
-    <row r="65" spans="2:11" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="71"/>
+      <c r="E64" s="76"/>
+    </row>
+    <row r="65" spans="2:11" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="82"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
-    </row>
-    <row r="66" spans="2:11" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="73"/>
+      <c r="E65" s="83"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="79"/>
+    </row>
+    <row r="66" spans="2:11" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="C66" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="34" t="s">
+      <c r="D66" s="33" t="s">
         <v>3</v>
       </c>
       <c r="E66" s="15"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
-    </row>
-    <row r="67" spans="2:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J66" s="79"/>
+      <c r="K66" s="79"/>
+    </row>
+    <row r="67" spans="2:11" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67" s="27">
         <f ca="1">C51</f>
-        <v>45310</v>
-      </c>
-      <c r="D67" s="34"/>
+        <v>45415</v>
+      </c>
+      <c r="D67" s="33"/>
       <c r="E67" s="15"/>
     </row>
-    <row r="68" spans="2:11" s="35" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" s="34" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="18"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="20"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="50"/>
-    </row>
-    <row r="69" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="49"/>
+    </row>
+    <row r="69" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D48:E49"/>
     <mergeCell ref="J48:K49"/>
@@ -1740,19 +1738,18 @@
     <mergeCell ref="H59:I60"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D64:E65"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="H5:I6"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="J30:K31"/>
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H41:I41"/>
     <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
+++ b/01 DOCUEMENTOS/RECIBOS NOMINA 2020.xlsx
@@ -81,7 +81,7 @@
     <t>NORMA ALICIA GARCIA ANDRES</t>
   </si>
   <si>
-    <t>SEMANA  18       DEL    29     Al    05   MAYO     2024</t>
+    <t>SEMANA  19       DEL    06     Al    12   MAYO     2024</t>
   </si>
 </sst>
 </file>
@@ -548,6 +548,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -560,56 +608,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,10 +1003,10 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="66"/>
+      <c r="I5" s="82"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>560</v>
@@ -1021,8 +1021,8 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="13"/>
       <c r="K6" s="22">
         <v>0</v>
@@ -1058,7 +1058,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="36" t="str">
         <f>B9</f>
-        <v>SEMANA  18       DEL    29     Al    05   MAYO     2024</v>
+        <v>SEMANA  19       DEL    06     Al    12   MAYO     2024</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1071,30 +1071,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="16"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="72"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="16"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="74"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="76"/>
+      <c r="E13" s="75"/>
       <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="C14" s="27">
         <f ca="1">TODAY()</f>
-        <v>45415</v>
+        <v>45422</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="6"/>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="I14" s="27">
         <f ca="1">C14</f>
-        <v>45415</v>
+        <v>45422</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1200,10 +1200,10 @@
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="78"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="8">
         <v>6</v>
       </c>
@@ -1211,10 +1211,10 @@
         <v>2600</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="69" t="s">
+      <c r="H23" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="70"/>
+      <c r="I23" s="80"/>
       <c r="J23" s="8">
         <v>6</v>
       </c>
@@ -1230,8 +1230,8 @@
         <v>0</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
     </row>
@@ -1279,13 +1279,13 @@
     <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="36" t="str">
         <f>B9</f>
-        <v>SEMANA  18       DEL    29     Al    05   MAYO     2024</v>
+        <v>SEMANA  19       DEL    06     Al    12   MAYO     2024</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="36" t="str">
         <f>B28</f>
-        <v>SEMANA  18       DEL    29     Al    05   MAYO     2024</v>
+        <v>SEMANA  19       DEL    06     Al    12   MAYO     2024</v>
       </c>
       <c r="K28" s="15"/>
     </row>
@@ -1298,21 +1298,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="68"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="72"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="74"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="70"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="74"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="70"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C33" s="27">
         <f ca="1">I14</f>
-        <v>45415</v>
+        <v>45422</v>
       </c>
       <c r="E33" s="15"/>
       <c r="G33" s="6"/>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="I33" s="27">
         <f ca="1">C33</f>
-        <v>45415</v>
+        <v>45422</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1407,32 +1407,32 @@
       <c r="K40" s="42"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="70"/>
+      <c r="C41" s="80"/>
       <c r="D41" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="14">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F41" s="56"/>
       <c r="G41" s="34"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
       <c r="J41" s="43"/>
       <c r="K41" s="44"/>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="57"/>
       <c r="G42" s="34"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
       <c r="J42" s="50"/>
       <c r="K42" s="51"/>
     </row>
@@ -1457,7 +1457,7 @@
       <c r="C44" s="25"/>
       <c r="E44" s="14">
         <f>SUM(E41:E43)</f>
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F44" s="58"/>
       <c r="G44" s="34"/>
@@ -1479,7 +1479,7 @@
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="36" t="str">
         <f>H28</f>
-        <v>SEMANA  18       DEL    29     Al    05   MAYO     2024</v>
+        <v>SEMANA  19       DEL    06     Al    12   MAYO     2024</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="58"/>
@@ -1501,25 +1501,25 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="72"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="68"/>
       <c r="F48" s="59"/>
       <c r="G48" s="34"/>
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="79"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="74"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="70"/>
       <c r="F49" s="59"/>
       <c r="G49" s="34"/>
       <c r="H49" s="34"/>
       <c r="I49" s="34"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="C51" s="27">
         <f ca="1">C33</f>
-        <v>45415</v>
+        <v>45422</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="58"/>
@@ -1609,10 +1609,10 @@
       <c r="K56" s="41"/>
     </row>
     <row r="57" spans="2:11" s="34" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="81" t="s">
+      <c r="B57" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="82"/>
+      <c r="C57" s="74"/>
       <c r="D57" s="62">
         <v>6</v>
       </c>
@@ -1623,8 +1623,8 @@
       <c r="K57" s="42"/>
     </row>
     <row r="58" spans="2:11" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
       <c r="D58" s="30"/>
       <c r="E58" s="63"/>
       <c r="J58" s="43"/>
@@ -1639,8 +1639,8 @@
       <c r="E59" s="26">
         <v>0</v>
       </c>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
       <c r="J59" s="40"/>
       <c r="K59" s="44"/>
     </row>
@@ -1652,8 +1652,8 @@
         <f>SUM(E57:E59)</f>
         <v>2300</v>
       </c>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
       <c r="J60" s="40"/>
       <c r="K60" s="45"/>
     </row>
@@ -1667,7 +1667,7 @@
     <row r="62" spans="2:11" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="36" t="str">
         <f>B46</f>
-        <v>SEMANA  18       DEL    29     Al    05   MAYO     2024</v>
+        <v>SEMANA  19       DEL    06     Al    12   MAYO     2024</v>
       </c>
       <c r="C62"/>
       <c r="D62" s="33"/>
@@ -1684,16 +1684,16 @@
     <row r="64" spans="2:11" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="76"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="75"/>
     </row>
     <row r="65" spans="2:11" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="83"/>
-      <c r="J65" s="79"/>
-      <c r="K65" s="79"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="76"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
     </row>
     <row r="66" spans="2:11" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
@@ -1704,8 +1704,8 @@
         <v>3</v>
       </c>
       <c r="E66" s="15"/>
-      <c r="J66" s="79"/>
-      <c r="K66" s="79"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="71"/>
     </row>
     <row r="67" spans="2:11" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="17" t="s">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C67" s="27">
         <f ca="1">C51</f>
-        <v>45415</v>
+        <v>45422</v>
       </c>
       <c r="D67" s="33"/>
       <c r="E67" s="15"/>
@@ -1730,6 +1730,14 @@
     <row r="70" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D30:E31"/>
+    <mergeCell ref="H24:I24"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D48:E49"/>
@@ -1742,14 +1750,6 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="H24:I24"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>
